--- a/calc/files/letter2.xlsx
+++ b/calc/files/letter2.xlsx
@@ -2027,10 +2027,10 @@
     <numFmt co:extendedFormatCode="0" formatCode="0" numFmtId="1001"/>
     <numFmt co:extendedFormatCode="0.00" formatCode="0.00" numFmtId="1002"/>
     <numFmt co:extendedFormatCode="0.0%" formatCode="0.0%" numFmtId="1003"/>
-    <numFmt co:extendedFormatCode="0.00%" formatCode="0.00%" numFmtId="1004"/>
-    <numFmt co:extendedFormatCode="0.000" formatCode="0.000" numFmtId="1005"/>
+    <numFmt co:extendedFormatCode="0.000" formatCode="0.000" numFmtId="1004"/>
+    <numFmt co:extendedFormatCode="0.00%" formatCode="0.00%" numFmtId="1005"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <name val="Calibri"/>
       <color rgb="000000" tint="0"/>
@@ -2106,7 +2106,17 @@
     </font>
     <font>
       <name val="Microsoft Sans Serif"/>
+      <color rgb="E46C0A" tint="0"/>
+      <sz val="8.5"/>
+    </font>
+    <font>
+      <name val="Microsoft Sans Serif"/>
       <color rgb="000000" tint="0"/>
+      <sz val="8.5"/>
+    </font>
+    <font>
+      <name val="Microsoft Sans Serif"/>
+      <color rgb="E46C0A" tint="0"/>
       <sz val="8.5"/>
     </font>
     <font>
@@ -2209,21 +2219,9 @@
     <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" indent="2" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" indent="2" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" indent="2" vertical="top" wrapText="true"/>
-    </xf>
     <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="5" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" indent="2" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="5" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" indent="2" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="5" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" indent="2" vertical="top" wrapText="true"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="bottom" wrapText="true"/>
     </xf>
@@ -2275,6 +2273,9 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
+    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1002" quotePrefix="false">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="14" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
@@ -2284,15 +2285,24 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="15" numFmtId="1002" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="12" numFmtId="1003" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1003" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
+    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1004" quotePrefix="false">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1001" quotePrefix="false">
       <alignment horizontal="right" indent="1" shrinkToFit="true" vertical="top"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="16" numFmtId="1002" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="12" numFmtId="1001" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
     </xf>
@@ -2338,7 +2348,7 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="15" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="17" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" indent="1" vertical="top" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="8" numFmtId="1000" quotePrefix="false">
@@ -2377,7 +2387,7 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="8" numFmtId="1001" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1004" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1005" quotePrefix="false">
       <alignment horizontal="right" indent="5" shrinkToFit="true" vertical="top"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1001" quotePrefix="false">
@@ -2386,13 +2396,13 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1003" quotePrefix="false">
       <alignment horizontal="right" indent="6" shrinkToFit="true" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1004" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1005" quotePrefix="false">
       <alignment horizontal="right" indent="5" shrinkToFit="true" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="12" numFmtId="1003" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1005" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1004" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2613,7 +2623,7 @@
   <sheetPr>
     <outlinePr summaryBelow="true" summaryRight="true"/>
   </sheetPr>
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:K90"/>
   <sheetViews>
     <sheetView showZeros="true" workbookViewId="0"/>
   </sheetViews>
@@ -2673,291 +2683,333 @@
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s"/>
-      <c r="C4" s="6" t="s"/>
-      <c r="D4" s="7" t="s"/>
-      <c r="E4" s="8" t="s">
+      <c r="B4" s="5" t="s"/>
+      <c r="C4" s="5" t="s"/>
+      <c r="D4" s="5" t="s"/>
+      <c r="E4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="9" t="s"/>
-      <c r="G4" s="9" t="s"/>
-      <c r="H4" s="10" t="s"/>
+      <c r="F4" s="6" t="s"/>
+      <c r="G4" s="6" t="s"/>
+      <c r="H4" s="6" t="s"/>
     </row>
     <row customHeight="true" ht="17" outlineLevel="0" r="5">
-      <c r="A5" s="11" t="n"/>
-      <c r="B5" s="11" t="n"/>
-      <c r="C5" s="11" t="n"/>
-      <c r="D5" s="12" t="s">
+      <c r="A5" s="7" t="n"/>
+      <c r="B5" s="7" t="n"/>
+      <c r="C5" s="7" t="n"/>
+      <c r="D5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="11" t="n"/>
-      <c r="F5" s="11" t="n"/>
-      <c r="G5" s="11" t="n"/>
-      <c r="H5" s="13" t="s">
+      <c r="E5" s="7" t="n"/>
+      <c r="F5" s="7" t="n"/>
+      <c r="G5" s="7" t="n"/>
+      <c r="H5" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row customHeight="true" ht="27.25" outlineLevel="0" r="6">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="7">
-      <c r="A7" s="19" t="n"/>
-      <c r="B7" s="20" t="n">
+      <c r="A7" s="15" t="n"/>
+      <c r="B7" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="19" t="n"/>
-      <c r="E7" s="19" t="n"/>
-      <c r="F7" s="22" t="n">
+      <c r="D7" s="15" t="n"/>
+      <c r="E7" s="15" t="n"/>
+      <c r="F7" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="19" t="n"/>
+      <c r="H7" s="15" t="n"/>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="8">
-      <c r="A8" s="24" t="n">
+      <c r="A8" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="B8" s="19" t="n"/>
-      <c r="C8" s="14" t="s">
+      <c r="B8" s="15" t="n"/>
+      <c r="C8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="25" t="n">
+      <c r="D8" s="21" t="n">
         <v>2.52</v>
       </c>
-      <c r="E8" s="26" t="n">
+      <c r="E8" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="F8" s="19" t="n"/>
-      <c r="G8" s="17" t="s">
+      <c r="F8" s="15" t="n"/>
+      <c r="G8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="27" t="n">
+      <c r="H8" s="23" t="n">
         <v>2.1</v>
       </c>
+      <c r="I8" s="24" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H8*1.2</f>
+        <v>2.52</v>
+      </c>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="9">
-      <c r="A9" s="19" t="n"/>
-      <c r="B9" s="20" t="n">
+      <c r="A9" s="15" t="n"/>
+      <c r="B9" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="19" t="n"/>
-      <c r="E9" s="19" t="n"/>
-      <c r="F9" s="22" t="n">
+      <c r="D9" s="15" t="n"/>
+      <c r="E9" s="15" t="n"/>
+      <c r="F9" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="19" t="n"/>
+      <c r="H9" s="15" t="n"/>
+      <c r="I9" s="24" t="n"/>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="10">
-      <c r="A10" s="24" t="n">
+      <c r="A10" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="B10" s="19" t="n"/>
-      <c r="C10" s="14" t="s">
+      <c r="B10" s="15" t="n"/>
+      <c r="C10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="25" t="n">
+      <c r="D10" s="21" t="n">
         <v>2.76</v>
       </c>
-      <c r="E10" s="26" t="n">
+      <c r="E10" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="F10" s="19" t="n"/>
-      <c r="G10" s="17" t="s">
+      <c r="F10" s="15" t="n"/>
+      <c r="G10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="28" t="n">
+      <c r="H10" s="23" t="n">
         <v>2.3</v>
       </c>
+      <c r="I10" s="24" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H10*1.2</f>
+        <v>2.76</v>
+      </c>
+      <c r="J10" s="24" t="n"/>
+      <c r="K10" s="24" t="n"/>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="11">
-      <c r="A11" s="24" t="n">
+      <c r="A11" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="B11" s="19" t="n"/>
-      <c r="C11" s="14" t="s">
+      <c r="B11" s="15" t="n"/>
+      <c r="C11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="25" t="n">
+      <c r="D11" s="21" t="n">
         <v>3.24</v>
       </c>
-      <c r="E11" s="26" t="n">
+      <c r="E11" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="F11" s="19" t="n"/>
-      <c r="G11" s="17" t="s">
+      <c r="F11" s="15" t="n"/>
+      <c r="G11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="28" t="n">
+      <c r="H11" s="25" t="n">
         <v>2.7</v>
       </c>
+      <c r="I11" s="24" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H11*1.2</f>
+        <v>3.24</v>
+      </c>
+      <c r="J11" s="24" t="n"/>
+      <c r="K11" s="24" t="n"/>
     </row>
     <row customHeight="true" ht="27.25" outlineLevel="0" r="12">
-      <c r="A12" s="24" t="n">
+      <c r="A12" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="B12" s="29" t="n"/>
-      <c r="C12" s="14" t="s">
+      <c r="B12" s="26" t="n"/>
+      <c r="C12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="25" t="n">
+      <c r="D12" s="21" t="n">
         <v>0.06</v>
       </c>
-      <c r="E12" s="26" t="n">
+      <c r="E12" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="F12" s="29" t="n"/>
-      <c r="G12" s="30" t="s">
+      <c r="F12" s="26" t="n"/>
+      <c r="G12" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="27" t="n">
+      <c r="H12" s="28" t="n">
         <v>0.05</v>
       </c>
+      <c r="I12" s="24" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H12*1.2</f>
+        <v>0.06</v>
+      </c>
+      <c r="J12" s="24" t="n"/>
+      <c r="K12" s="24" t="n"/>
     </row>
     <row customHeight="true" ht="12.75" outlineLevel="0" r="13">
-      <c r="A13" s="24" t="n">
+      <c r="A13" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="B13" s="19" t="n"/>
-      <c r="C13" s="14" t="s">
+      <c r="B13" s="15" t="n"/>
+      <c r="C13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="31" t="n">
+      <c r="D13" s="29" t="n">
         <v>0.036</v>
       </c>
-      <c r="E13" s="26" t="n">
+      <c r="E13" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="F13" s="19" t="n"/>
-      <c r="G13" s="17" t="s">
+      <c r="F13" s="15" t="n"/>
+      <c r="G13" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="32" t="n">
+      <c r="H13" s="30" t="n">
         <v>0.03</v>
       </c>
+      <c r="I13" s="31" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H13*1.2</f>
+        <v>0.036</v>
+      </c>
+      <c r="J13" s="24" t="n"/>
+      <c r="K13" s="24" t="n"/>
     </row>
     <row customHeight="true" ht="12.75" outlineLevel="0" r="14">
-      <c r="A14" s="19" t="n"/>
-      <c r="B14" s="20" t="n">
+      <c r="A14" s="15" t="n"/>
+      <c r="B14" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="19" t="n"/>
-      <c r="E14" s="19" t="n"/>
-      <c r="F14" s="22" t="n">
+      <c r="D14" s="15" t="n"/>
+      <c r="E14" s="15" t="n"/>
+      <c r="F14" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="19" t="n"/>
+      <c r="H14" s="15" t="n"/>
+      <c r="I14" s="24" t="n"/>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="15">
-      <c r="A15" s="24" t="n">
+      <c r="A15" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="B15" s="19" t="n"/>
-      <c r="C15" s="14" t="s">
+      <c r="B15" s="15" t="n"/>
+      <c r="C15" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="25" t="n">
+      <c r="D15" s="21" t="n">
         <v>0.78</v>
       </c>
-      <c r="E15" s="26" t="n">
+      <c r="E15" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="F15" s="19" t="n"/>
-      <c r="G15" s="17" t="s">
+      <c r="F15" s="15" t="n"/>
+      <c r="G15" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="27" t="n">
+      <c r="H15" s="23" t="n">
         <v>0.65</v>
       </c>
+      <c r="I15" s="24" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H15*1.2</f>
+        <v>0.78</v>
+      </c>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="16">
-      <c r="A16" s="24" t="n">
+      <c r="A16" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="B16" s="19" t="n"/>
-      <c r="C16" s="14" t="s">
+      <c r="B16" s="15" t="n"/>
+      <c r="C16" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="25" t="n">
+      <c r="D16" s="21" t="n">
         <v>2.76</v>
       </c>
-      <c r="E16" s="26" t="n">
+      <c r="E16" s="22" t="n">
         <v>7</v>
       </c>
-      <c r="F16" s="19" t="n"/>
-      <c r="G16" s="17" t="s">
+      <c r="F16" s="15" t="n"/>
+      <c r="G16" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="27" t="n">
+      <c r="H16" s="23" t="n">
         <v>2.3</v>
       </c>
+      <c r="I16" s="24" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H16*1.2</f>
+        <v>2.76</v>
+      </c>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="17">
-      <c r="A17" s="24" t="n">
+      <c r="A17" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="B17" s="19" t="n"/>
-      <c r="C17" s="14" t="s">
+      <c r="B17" s="15" t="n"/>
+      <c r="C17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="25" t="n">
+      <c r="D17" s="21" t="n">
         <v>3.24</v>
       </c>
-      <c r="E17" s="33" t="n">
+      <c r="E17" s="32" t="n">
         <v>8</v>
       </c>
-      <c r="F17" s="19" t="n"/>
-      <c r="G17" s="17" t="s">
+      <c r="F17" s="15" t="n"/>
+      <c r="G17" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="27" t="n">
+      <c r="H17" s="33" t="n">
         <v>3</v>
+      </c>
+      <c r="I17" s="24" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H17*1.2</f>
+        <v>3.5999999999999996</v>
       </c>
     </row>
     <row customHeight="true" ht="35.25" outlineLevel="0" r="18">
       <c r="A18" s="34" t="n">
         <v>9</v>
       </c>
-      <c r="B18" s="29" t="n"/>
+      <c r="B18" s="26" t="n"/>
       <c r="C18" s="35" t="s">
         <v>40</v>
       </c>
@@ -2968,40 +3020,48 @@
         <v>9</v>
       </c>
       <c r="F18" s="38" t="n"/>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="13" t="s">
         <v>41</v>
       </c>
       <c r="H18" s="39" t="n">
         <v>0.05</v>
       </c>
+      <c r="I18" s="24" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H18*1.2</f>
+        <v>0.06</v>
+      </c>
     </row>
     <row customHeight="true" ht="22.75" outlineLevel="0" r="19">
-      <c r="A19" s="24" t="n">
+      <c r="A19" s="20" t="n">
         <v>10</v>
       </c>
-      <c r="B19" s="29" t="n"/>
-      <c r="C19" s="14" t="s">
+      <c r="B19" s="26" t="n"/>
+      <c r="C19" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="31" t="n">
+      <c r="D19" s="29" t="n">
         <v>0.036</v>
       </c>
-      <c r="E19" s="26" t="n">
+      <c r="E19" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="F19" s="19" t="n"/>
-      <c r="G19" s="17" t="s">
+      <c r="F19" s="15" t="n"/>
+      <c r="G19" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="32" t="n">
+      <c r="H19" s="30" t="n">
         <v>0.03</v>
+      </c>
+      <c r="I19" s="31" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H19*1.2</f>
+        <v>0.036</v>
       </c>
     </row>
     <row customHeight="true" ht="34.75" outlineLevel="0" r="20">
       <c r="A20" s="34" t="n">
         <v>11</v>
       </c>
-      <c r="B20" s="29" t="n"/>
+      <c r="B20" s="26" t="n"/>
       <c r="C20" s="35" t="s">
         <v>42</v>
       </c>
@@ -3010,105 +3070,116 @@
         <v>11</v>
       </c>
       <c r="F20" s="38" t="n"/>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="13" t="s">
         <v>43</v>
       </c>
       <c r="H20" s="41" t="s"/>
+      <c r="I20" s="24" t="n"/>
     </row>
     <row customHeight="true" ht="34.75" outlineLevel="0" r="21">
       <c r="A21" s="34" t="n">
         <v>12</v>
       </c>
-      <c r="B21" s="29" t="n"/>
-      <c r="C21" s="14" t="s">
+      <c r="B21" s="26" t="n"/>
+      <c r="C21" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="42" t="s"/>
       <c r="E21" s="37" t="n">
         <v>12</v>
       </c>
-      <c r="F21" s="29" t="n"/>
-      <c r="G21" s="17" t="s">
+      <c r="F21" s="26" t="n"/>
+      <c r="G21" s="13" t="s">
         <v>45</v>
       </c>
       <c r="H21" s="41" t="s"/>
+      <c r="I21" s="24" t="n"/>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="22">
-      <c r="A22" s="19" t="n"/>
-      <c r="B22" s="20" t="n">
+      <c r="A22" s="15" t="n"/>
+      <c r="B22" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="17" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="43" t="s"/>
-      <c r="E22" s="19" t="n"/>
-      <c r="F22" s="22" t="n">
+      <c r="E22" s="15" t="n"/>
+      <c r="F22" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="19" t="s">
         <v>47</v>
       </c>
       <c r="H22" s="44" t="s"/>
+      <c r="I22" s="24" t="n"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="23">
-      <c r="A23" s="24" t="n">
+      <c r="A23" s="20" t="n">
         <v>13</v>
       </c>
-      <c r="B23" s="19" t="n"/>
-      <c r="C23" s="14" t="s">
+      <c r="B23" s="15" t="n"/>
+      <c r="C23" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="25" t="n">
+      <c r="D23" s="21" t="n">
         <v>1.68</v>
       </c>
-      <c r="E23" s="26" t="n">
+      <c r="E23" s="22" t="n">
         <v>13</v>
       </c>
-      <c r="F23" s="19" t="n"/>
-      <c r="G23" s="17" t="s">
+      <c r="F23" s="15" t="n"/>
+      <c r="G23" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H23" s="27" t="n">
+      <c r="H23" s="23" t="n">
         <v>1.4</v>
       </c>
+      <c r="I23" s="24" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H23*1.2</f>
+        <v>1.68</v>
+      </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="24">
-      <c r="A24" s="24" t="n">
+      <c r="A24" s="20" t="n">
         <v>14</v>
       </c>
-      <c r="B24" s="19" t="n"/>
-      <c r="C24" s="14" t="s">
+      <c r="B24" s="15" t="n"/>
+      <c r="C24" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="25" t="n">
+      <c r="D24" s="21" t="n">
         <v>0.36</v>
       </c>
-      <c r="E24" s="26" t="n">
+      <c r="E24" s="22" t="n">
         <v>14</v>
       </c>
-      <c r="F24" s="19" t="n"/>
-      <c r="G24" s="17" t="s">
+      <c r="F24" s="15" t="n"/>
+      <c r="G24" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H24" s="27" t="n">
+      <c r="H24" s="23" t="n">
         <v>0.3</v>
+      </c>
+      <c r="I24" s="24" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H24*1.2</f>
+        <v>0.36</v>
       </c>
     </row>
     <row customHeight="true" ht="36.75" outlineLevel="0" r="25">
       <c r="A25" s="34" t="n">
         <v>15</v>
       </c>
-      <c r="B25" s="29" t="n"/>
-      <c r="C25" s="14" t="s">
+      <c r="B25" s="26" t="n"/>
+      <c r="C25" s="10" t="s">
         <v>52</v>
       </c>
       <c r="D25" s="42" t="s"/>
       <c r="E25" s="37" t="n">
         <v>15</v>
       </c>
-      <c r="F25" s="29" t="n"/>
-      <c r="G25" s="17" t="s">
+      <c r="F25" s="26" t="n"/>
+      <c r="G25" s="13" t="s">
         <v>53</v>
       </c>
       <c r="H25" s="41" t="s"/>
@@ -3117,8 +3188,8 @@
       <c r="A26" s="34" t="n">
         <v>16</v>
       </c>
-      <c r="B26" s="29" t="n"/>
-      <c r="C26" s="14" t="s">
+      <c r="B26" s="26" t="n"/>
+      <c r="C26" s="10" t="s">
         <v>54</v>
       </c>
       <c r="D26" s="42" t="s"/>
@@ -3126,41 +3197,41 @@
         <v>16</v>
       </c>
       <c r="F26" s="38" t="n"/>
-      <c r="G26" s="17" t="s">
+      <c r="G26" s="13" t="s">
         <v>55</v>
       </c>
       <c r="H26" s="41" t="s"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="27">
-      <c r="A27" s="19" t="n"/>
-      <c r="B27" s="20" t="n">
+      <c r="A27" s="15" t="n"/>
+      <c r="B27" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="17" t="s">
         <v>56</v>
       </c>
       <c r="D27" s="43" t="s"/>
-      <c r="E27" s="19" t="n"/>
-      <c r="F27" s="22" t="n">
+      <c r="E27" s="15" t="n"/>
+      <c r="F27" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="G27" s="23" t="s">
+      <c r="G27" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="19" t="n"/>
+      <c r="H27" s="15" t="n"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="28">
-      <c r="A28" s="24" t="n">
+      <c r="A28" s="20" t="n">
         <v>17</v>
       </c>
-      <c r="B28" s="19" t="n"/>
-      <c r="C28" s="14" t="s">
+      <c r="B28" s="15" t="n"/>
+      <c r="C28" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D28" s="42" t="s"/>
-      <c r="E28" s="19" t="n"/>
-      <c r="F28" s="19" t="n"/>
-      <c r="G28" s="17" t="s">
+      <c r="E28" s="15" t="n"/>
+      <c r="F28" s="15" t="n"/>
+      <c r="G28" s="13" t="s">
         <v>59</v>
       </c>
       <c r="H28" s="41" t="s"/>
@@ -3169,41 +3240,41 @@
       <c r="A29" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="19" t="n"/>
-      <c r="C29" s="14" t="s">
+      <c r="B29" s="15" t="n"/>
+      <c r="C29" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="25" t="n">
+      <c r="D29" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="E29" s="26" t="n">
+      <c r="E29" s="22" t="n">
         <v>17</v>
       </c>
-      <c r="F29" s="19" t="n"/>
-      <c r="G29" s="17" t="s">
+      <c r="F29" s="15" t="n"/>
+      <c r="G29" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H29" s="27" t="n">
+      <c r="H29" s="23" t="n">
         <v>4.5</v>
       </c>
     </row>
     <row customHeight="true" ht="28.75" outlineLevel="0" r="30">
-      <c r="A30" s="24" t="n">
+      <c r="A30" s="20" t="n">
         <v>18</v>
       </c>
-      <c r="B30" s="29" t="n"/>
-      <c r="C30" s="14" t="s">
+      <c r="B30" s="26" t="n"/>
+      <c r="C30" s="10" t="s">
         <v>63</v>
       </c>
       <c r="D30" s="42" t="s"/>
-      <c r="E30" s="26" t="n">
+      <c r="E30" s="22" t="n">
         <v>18</v>
       </c>
-      <c r="F30" s="19" t="n"/>
-      <c r="G30" s="17" t="s">
+      <c r="F30" s="15" t="n"/>
+      <c r="G30" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H30" s="27" t="n">
+      <c r="H30" s="23" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -3211,18 +3282,18 @@
       <c r="A31" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="19" t="n"/>
-      <c r="C31" s="14" t="s">
+      <c r="B31" s="15" t="n"/>
+      <c r="C31" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="25" t="n">
+      <c r="D31" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="E31" s="26" t="n">
+      <c r="E31" s="22" t="n">
         <v>19</v>
       </c>
-      <c r="F31" s="29" t="n"/>
-      <c r="G31" s="30" t="s">
+      <c r="F31" s="26" t="n"/>
+      <c r="G31" s="27" t="s">
         <v>67</v>
       </c>
       <c r="H31" s="46" t="s"/>
@@ -3231,18 +3302,18 @@
       <c r="A32" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="19" t="n"/>
-      <c r="C32" s="14" t="s">
+      <c r="B32" s="15" t="n"/>
+      <c r="C32" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="25" t="n">
+      <c r="D32" s="21" t="n">
         <v>0.75</v>
       </c>
       <c r="E32" s="37" t="n">
         <v>20</v>
       </c>
-      <c r="F32" s="29" t="n"/>
-      <c r="G32" s="17" t="s">
+      <c r="F32" s="26" t="n"/>
+      <c r="G32" s="13" t="s">
         <v>70</v>
       </c>
       <c r="H32" s="41" t="s"/>
@@ -3252,18 +3323,18 @@
         <v>19</v>
       </c>
       <c r="B33" s="38" t="n"/>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="10" t="s">
         <v>71</v>
       </c>
       <c r="D33" s="42" t="s"/>
-      <c r="E33" s="26" t="n">
+      <c r="E33" s="22" t="n">
         <v>21</v>
       </c>
-      <c r="F33" s="29" t="n"/>
-      <c r="G33" s="30" t="s">
+      <c r="F33" s="26" t="n"/>
+      <c r="G33" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="H33" s="27" t="n">
+      <c r="H33" s="23" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -3271,7 +3342,7 @@
       <c r="A34" s="34" t="n">
         <v>20</v>
       </c>
-      <c r="B34" s="29" t="n"/>
+      <c r="B34" s="26" t="n"/>
       <c r="C34" s="35" t="s">
         <v>73</v>
       </c>
@@ -3279,8 +3350,8 @@
       <c r="E34" s="37" t="n">
         <v>22</v>
       </c>
-      <c r="F34" s="29" t="n"/>
-      <c r="G34" s="17" t="s">
+      <c r="F34" s="26" t="n"/>
+      <c r="G34" s="13" t="s">
         <v>74</v>
       </c>
       <c r="H34" s="47" t="n">
@@ -3288,23 +3359,23 @@
       </c>
     </row>
     <row customHeight="true" ht="36.4999389648438" outlineLevel="0" r="35">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="26" t="n">
+      <c r="E35" s="22" t="n">
         <v>23</v>
       </c>
-      <c r="F35" s="29" t="n"/>
-      <c r="G35" s="30" t="s">
+      <c r="F35" s="26" t="n"/>
+      <c r="G35" s="27" t="s">
         <v>75</v>
       </c>
       <c r="H35" s="46" t="s"/>
@@ -3313,7 +3384,7 @@
       <c r="A36" s="34" t="n">
         <v>21</v>
       </c>
-      <c r="B36" s="29" t="n"/>
+      <c r="B36" s="26" t="n"/>
       <c r="C36" s="35" t="s">
         <v>76</v>
       </c>
@@ -3321,7 +3392,7 @@
       <c r="E36" s="37" t="n">
         <v>24</v>
       </c>
-      <c r="F36" s="29" t="n"/>
+      <c r="F36" s="26" t="n"/>
       <c r="G36" s="48" t="s">
         <v>77</v>
       </c>
@@ -3330,99 +3401,99 @@
       </c>
     </row>
     <row outlineLevel="0" r="37">
-      <c r="A37" s="24" t="n">
+      <c r="A37" s="20" t="n">
         <v>22</v>
       </c>
-      <c r="B37" s="29" t="n"/>
-      <c r="C37" s="14" t="s">
+      <c r="B37" s="26" t="n"/>
+      <c r="C37" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="31" t="n">
+      <c r="D37" s="29" t="n">
         <v>0.03</v>
       </c>
       <c r="E37" s="37" t="n">
         <v>25</v>
       </c>
-      <c r="F37" s="29" t="n"/>
-      <c r="G37" s="30" t="s">
+      <c r="F37" s="26" t="n"/>
+      <c r="G37" s="27" t="s">
         <v>79</v>
       </c>
       <c r="H37" s="46" t="s"/>
     </row>
     <row outlineLevel="0" r="38">
-      <c r="A38" s="24" t="n">
+      <c r="A38" s="20" t="n">
         <v>23</v>
       </c>
-      <c r="B38" s="29" t="n"/>
+      <c r="B38" s="26" t="n"/>
       <c r="C38" s="35" t="s">
         <v>80</v>
       </c>
       <c r="D38" s="40" t="s"/>
-      <c r="E38" s="26" t="n">
+      <c r="E38" s="22" t="n">
         <v>26</v>
       </c>
-      <c r="F38" s="19" t="n"/>
-      <c r="G38" s="17" t="s">
+      <c r="F38" s="15" t="n"/>
+      <c r="G38" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H38" s="32" t="n">
+      <c r="H38" s="30" t="n">
         <v>0.03</v>
       </c>
     </row>
     <row outlineLevel="0" r="39">
-      <c r="A39" s="24" t="n">
+      <c r="A39" s="20" t="n">
         <v>24</v>
       </c>
-      <c r="B39" s="29" t="n"/>
+      <c r="B39" s="26" t="n"/>
       <c r="C39" s="35" t="s">
         <v>81</v>
       </c>
       <c r="D39" s="40" t="s"/>
-      <c r="E39" s="26" t="n">
+      <c r="E39" s="22" t="n">
         <v>27</v>
       </c>
-      <c r="F39" s="29" t="n"/>
-      <c r="G39" s="30" t="s">
+      <c r="F39" s="26" t="n"/>
+      <c r="G39" s="27" t="s">
         <v>82</v>
       </c>
       <c r="H39" s="46" t="s"/>
     </row>
     <row outlineLevel="0" r="40">
-      <c r="A40" s="29" t="n"/>
-      <c r="B40" s="20" t="n">
+      <c r="A40" s="26" t="n"/>
+      <c r="B40" s="16" t="n">
         <v>6</v>
       </c>
       <c r="C40" s="50" t="s">
         <v>83</v>
       </c>
       <c r="D40" s="51" t="s"/>
-      <c r="E40" s="17" t="s">
+      <c r="E40" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="17" t="s">
+      <c r="F40" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="18" t="s">
+      <c r="G40" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="17" t="s">
+      <c r="H40" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row outlineLevel="0" r="41">
-      <c r="A41" s="24" t="n">
+      <c r="A41" s="20" t="n">
         <v>25</v>
       </c>
-      <c r="B41" s="29" t="n"/>
-      <c r="C41" s="14" t="s">
+      <c r="B41" s="26" t="n"/>
+      <c r="C41" s="10" t="s">
         <v>84</v>
       </c>
       <c r="D41" s="42" t="s"/>
-      <c r="E41" s="19" t="n"/>
-      <c r="F41" s="22" t="n">
+      <c r="E41" s="15" t="n"/>
+      <c r="F41" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="G41" s="23" t="s">
+      <c r="G41" s="19" t="s">
         <v>85</v>
       </c>
       <c r="H41" s="44" t="s"/>
@@ -3431,16 +3502,16 @@
       <c r="A42" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="29" t="n"/>
-      <c r="C42" s="14" t="s">
+      <c r="B42" s="26" t="n"/>
+      <c r="C42" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="25" t="n">
+      <c r="D42" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="E42" s="19" t="n"/>
-      <c r="F42" s="19" t="n"/>
-      <c r="G42" s="23" t="s">
+      <c r="E42" s="15" t="n"/>
+      <c r="F42" s="15" t="n"/>
+      <c r="G42" s="19" t="s">
         <v>87</v>
       </c>
       <c r="H42" s="44" t="s"/>
@@ -3449,18 +3520,18 @@
       <c r="A43" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="29" t="n"/>
-      <c r="C43" s="14" t="s">
+      <c r="B43" s="26" t="n"/>
+      <c r="C43" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D43" s="25" t="n">
+      <c r="D43" s="21" t="n">
         <v>4</v>
       </c>
       <c r="E43" s="52" t="n">
         <v>28</v>
       </c>
-      <c r="F43" s="19" t="n"/>
-      <c r="G43" s="17" t="s">
+      <c r="F43" s="15" t="n"/>
+      <c r="G43" s="13" t="s">
         <v>90</v>
       </c>
       <c r="H43" s="53" t="n">
@@ -3471,18 +3542,18 @@
       <c r="A44" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="29" t="n"/>
-      <c r="C44" s="14" t="s">
+      <c r="B44" s="26" t="n"/>
+      <c r="C44" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D44" s="25" t="n">
+      <c r="D44" s="21" t="n">
         <v>5</v>
       </c>
       <c r="E44" s="52" t="n">
         <v>29</v>
       </c>
-      <c r="F44" s="19" t="n"/>
-      <c r="G44" s="17" t="s">
+      <c r="F44" s="15" t="n"/>
+      <c r="G44" s="13" t="s">
         <v>93</v>
       </c>
       <c r="H44" s="53" t="n">
@@ -3490,10 +3561,10 @@
       </c>
     </row>
     <row outlineLevel="0" r="45">
-      <c r="A45" s="24" t="n">
+      <c r="A45" s="20" t="n">
         <v>26</v>
       </c>
-      <c r="B45" s="29" t="n"/>
+      <c r="B45" s="26" t="n"/>
       <c r="C45" s="35" t="s">
         <v>94</v>
       </c>
@@ -3501,8 +3572,8 @@
       <c r="E45" s="52" t="n">
         <v>30</v>
       </c>
-      <c r="F45" s="19" t="n"/>
-      <c r="G45" s="17" t="s">
+      <c r="F45" s="15" t="n"/>
+      <c r="G45" s="13" t="s">
         <v>95</v>
       </c>
       <c r="H45" s="53" t="n">
@@ -3513,16 +3584,16 @@
       <c r="A46" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="B46" s="29" t="n"/>
-      <c r="C46" s="14" t="s">
+      <c r="B46" s="26" t="n"/>
+      <c r="C46" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D46" s="25" t="n">
+      <c r="D46" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="E46" s="19" t="n"/>
-      <c r="F46" s="19" t="n"/>
-      <c r="G46" s="23" t="s">
+      <c r="E46" s="15" t="n"/>
+      <c r="F46" s="15" t="n"/>
+      <c r="G46" s="19" t="s">
         <v>97</v>
       </c>
       <c r="H46" s="44" t="s"/>
@@ -3531,18 +3602,18 @@
       <c r="A47" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="B47" s="29" t="n"/>
-      <c r="C47" s="14" t="s">
+      <c r="B47" s="26" t="n"/>
+      <c r="C47" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="25" t="n">
+      <c r="D47" s="21" t="n">
         <v>0.75</v>
       </c>
       <c r="E47" s="52" t="n">
         <v>31</v>
       </c>
-      <c r="F47" s="19" t="n"/>
-      <c r="G47" s="17" t="s">
+      <c r="F47" s="15" t="n"/>
+      <c r="G47" s="13" t="s">
         <v>99</v>
       </c>
       <c r="H47" s="53" t="n">
@@ -3554,15 +3625,15 @@
         <v>27</v>
       </c>
       <c r="B48" s="38" t="n"/>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="10" t="s">
         <v>100</v>
       </c>
       <c r="D48" s="42" t="s"/>
       <c r="E48" s="52" t="n">
         <v>32</v>
       </c>
-      <c r="F48" s="19" t="n"/>
-      <c r="G48" s="17" t="s">
+      <c r="F48" s="15" t="n"/>
+      <c r="G48" s="13" t="s">
         <v>101</v>
       </c>
       <c r="H48" s="53" t="n">
@@ -3574,15 +3645,15 @@
         <v>28</v>
       </c>
       <c r="B49" s="38" t="n"/>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="10" t="s">
         <v>102</v>
       </c>
       <c r="D49" s="42" t="s"/>
       <c r="E49" s="52" t="n">
         <v>33</v>
       </c>
-      <c r="F49" s="19" t="n"/>
-      <c r="G49" s="17" t="s">
+      <c r="F49" s="15" t="n"/>
+      <c r="G49" s="13" t="s">
         <v>103</v>
       </c>
       <c r="H49" s="53" t="n">
@@ -3594,42 +3665,42 @@
         <v>29</v>
       </c>
       <c r="B50" s="38" t="n"/>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="10" t="s">
         <v>104</v>
       </c>
       <c r="D50" s="42" t="s"/>
-      <c r="E50" s="29" t="n"/>
-      <c r="F50" s="29" t="n"/>
-      <c r="G50" s="30" t="s">
+      <c r="E50" s="26" t="n"/>
+      <c r="F50" s="26" t="n"/>
+      <c r="G50" s="27" t="s">
         <v>105</v>
       </c>
       <c r="H50" s="46" t="s"/>
     </row>
     <row outlineLevel="0" r="51">
-      <c r="A51" s="24" t="n">
+      <c r="A51" s="20" t="n">
         <v>30</v>
       </c>
-      <c r="B51" s="29" t="n"/>
+      <c r="B51" s="26" t="n"/>
       <c r="C51" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="D51" s="31" t="n">
+      <c r="D51" s="29" t="n">
         <v>0.01</v>
       </c>
       <c r="E51" s="52" t="n">
         <v>34</v>
       </c>
-      <c r="F51" s="29" t="n"/>
-      <c r="G51" s="17" t="s">
+      <c r="F51" s="26" t="n"/>
+      <c r="G51" s="13" t="s">
         <v>107</v>
       </c>
       <c r="H51" s="41" t="s"/>
     </row>
     <row outlineLevel="0" r="52">
-      <c r="A52" s="24" t="n">
+      <c r="A52" s="20" t="n">
         <v>31</v>
       </c>
-      <c r="B52" s="29" t="n"/>
+      <c r="B52" s="26" t="n"/>
       <c r="C52" s="35" t="s">
         <v>108</v>
       </c>
@@ -3637,62 +3708,62 @@
       <c r="E52" s="52" t="n">
         <v>35</v>
       </c>
-      <c r="F52" s="29" t="n"/>
-      <c r="G52" s="30" t="s">
+      <c r="F52" s="26" t="n"/>
+      <c r="G52" s="27" t="s">
         <v>109</v>
       </c>
       <c r="H52" s="46" t="s"/>
     </row>
     <row outlineLevel="0" r="53">
-      <c r="A53" s="29" t="n"/>
-      <c r="B53" s="20" t="n">
+      <c r="A53" s="26" t="n"/>
+      <c r="B53" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="17" t="s">
         <v>110</v>
       </c>
       <c r="D53" s="43" t="s"/>
       <c r="E53" s="52" t="n">
         <v>36</v>
       </c>
-      <c r="F53" s="29" t="n"/>
-      <c r="G53" s="30" t="s">
+      <c r="F53" s="26" t="n"/>
+      <c r="G53" s="27" t="s">
         <v>111</v>
       </c>
       <c r="H53" s="46" t="s"/>
     </row>
     <row outlineLevel="0" r="54">
-      <c r="A54" s="19" t="n"/>
-      <c r="B54" s="19" t="n"/>
-      <c r="C54" s="21" t="s">
+      <c r="A54" s="15" t="n"/>
+      <c r="B54" s="15" t="n"/>
+      <c r="C54" s="17" t="s">
         <v>112</v>
       </c>
       <c r="D54" s="43" t="s"/>
-      <c r="E54" s="29" t="n"/>
-      <c r="F54" s="22" t="n">
+      <c r="E54" s="26" t="n"/>
+      <c r="F54" s="18" t="n">
         <v>7</v>
       </c>
-      <c r="G54" s="23" t="s">
+      <c r="G54" s="19" t="s">
         <v>113</v>
       </c>
       <c r="H54" s="44" t="s"/>
     </row>
     <row outlineLevel="0" r="55">
-      <c r="A55" s="24" t="n">
+      <c r="A55" s="20" t="n">
         <v>32</v>
       </c>
-      <c r="B55" s="19" t="n"/>
-      <c r="C55" s="14" t="s">
+      <c r="B55" s="15" t="n"/>
+      <c r="C55" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D55" s="25" t="n">
+      <c r="D55" s="21" t="n">
         <v>2.64</v>
       </c>
       <c r="E55" s="52" t="n">
         <v>37</v>
       </c>
-      <c r="F55" s="19" t="n"/>
-      <c r="G55" s="17" t="s">
+      <c r="F55" s="15" t="n"/>
+      <c r="G55" s="13" t="s">
         <v>115</v>
       </c>
       <c r="H55" s="53" t="n">
@@ -3700,21 +3771,21 @@
       </c>
     </row>
     <row outlineLevel="0" r="56">
-      <c r="A56" s="24" t="n">
+      <c r="A56" s="20" t="n">
         <v>33</v>
       </c>
-      <c r="B56" s="19" t="n"/>
-      <c r="C56" s="14" t="s">
+      <c r="B56" s="15" t="n"/>
+      <c r="C56" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D56" s="25" t="n">
+      <c r="D56" s="21" t="n">
         <v>3.48</v>
       </c>
       <c r="E56" s="52" t="n">
         <v>38</v>
       </c>
-      <c r="F56" s="19" t="n"/>
-      <c r="G56" s="17" t="s">
+      <c r="F56" s="15" t="n"/>
+      <c r="G56" s="13" t="s">
         <v>117</v>
       </c>
       <c r="H56" s="53" t="n">
@@ -3722,21 +3793,21 @@
       </c>
     </row>
     <row outlineLevel="0" r="57">
-      <c r="A57" s="24" t="n">
+      <c r="A57" s="20" t="n">
         <v>34</v>
       </c>
-      <c r="B57" s="19" t="n"/>
-      <c r="C57" s="14" t="s">
+      <c r="B57" s="15" t="n"/>
+      <c r="C57" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D57" s="25" t="n">
+      <c r="D57" s="21" t="n">
         <v>4.38</v>
       </c>
       <c r="E57" s="52" t="n">
         <v>39</v>
       </c>
-      <c r="F57" s="19" t="n"/>
-      <c r="G57" s="17" t="s">
+      <c r="F57" s="15" t="n"/>
+      <c r="G57" s="13" t="s">
         <v>119</v>
       </c>
       <c r="H57" s="53" t="n">
@@ -3744,17 +3815,17 @@
       </c>
     </row>
     <row outlineLevel="0" r="58">
-      <c r="A58" s="19" t="n"/>
-      <c r="B58" s="19" t="n"/>
-      <c r="C58" s="21" t="s">
+      <c r="A58" s="15" t="n"/>
+      <c r="B58" s="15" t="n"/>
+      <c r="C58" s="17" t="s">
         <v>120</v>
       </c>
       <c r="D58" s="43" t="s"/>
       <c r="E58" s="52" t="n">
         <v>40</v>
       </c>
-      <c r="F58" s="29" t="n"/>
-      <c r="G58" s="17" t="s">
+      <c r="F58" s="26" t="n"/>
+      <c r="G58" s="13" t="s">
         <v>31</v>
       </c>
       <c r="H58" s="54" t="n">
@@ -3762,61 +3833,61 @@
       </c>
     </row>
     <row outlineLevel="0" r="59">
-      <c r="A59" s="24" t="n">
+      <c r="A59" s="20" t="n">
         <v>35</v>
       </c>
-      <c r="B59" s="19" t="n"/>
-      <c r="C59" s="14" t="s">
+      <c r="B59" s="15" t="n"/>
+      <c r="C59" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="D59" s="25" t="n">
+      <c r="D59" s="21" t="n">
         <v>5.4</v>
       </c>
       <c r="E59" s="52" t="n">
         <v>41</v>
       </c>
-      <c r="F59" s="29" t="n"/>
-      <c r="G59" s="30" t="s">
+      <c r="F59" s="26" t="n"/>
+      <c r="G59" s="27" t="s">
         <v>122</v>
       </c>
       <c r="H59" s="46" t="s"/>
     </row>
     <row outlineLevel="0" r="60">
-      <c r="A60" s="24" t="n">
+      <c r="A60" s="20" t="n">
         <v>36</v>
       </c>
-      <c r="B60" s="19" t="n"/>
-      <c r="C60" s="14" t="s">
+      <c r="B60" s="15" t="n"/>
+      <c r="C60" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D60" s="25" t="n">
+      <c r="D60" s="21" t="n">
         <v>6.78</v>
       </c>
-      <c r="E60" s="29" t="n"/>
-      <c r="F60" s="22" t="n">
+      <c r="E60" s="26" t="n"/>
+      <c r="F60" s="18" t="n">
         <v>8</v>
       </c>
-      <c r="G60" s="23" t="s">
+      <c r="G60" s="19" t="s">
         <v>124</v>
       </c>
       <c r="H60" s="44" t="s"/>
     </row>
     <row outlineLevel="0" r="61">
-      <c r="A61" s="24" t="n">
+      <c r="A61" s="20" t="n">
         <v>37</v>
       </c>
-      <c r="B61" s="19" t="n"/>
-      <c r="C61" s="14" t="s">
+      <c r="B61" s="15" t="n"/>
+      <c r="C61" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="D61" s="25" t="n">
+      <c r="D61" s="21" t="n">
         <v>9.72</v>
       </c>
       <c r="E61" s="52" t="n">
         <v>42</v>
       </c>
-      <c r="F61" s="19" t="n"/>
-      <c r="G61" s="17" t="s">
+      <c r="F61" s="15" t="n"/>
+      <c r="G61" s="13" t="s">
         <v>115</v>
       </c>
       <c r="H61" s="53" t="n">
@@ -3824,17 +3895,17 @@
       </c>
     </row>
     <row outlineLevel="0" r="62">
-      <c r="A62" s="29" t="n"/>
-      <c r="B62" s="29" t="n"/>
-      <c r="C62" s="14" t="s">
+      <c r="A62" s="26" t="n"/>
+      <c r="B62" s="26" t="n"/>
+      <c r="C62" s="10" t="s">
         <v>126</v>
       </c>
       <c r="D62" s="42" t="s"/>
       <c r="E62" s="52" t="n">
         <v>43</v>
       </c>
-      <c r="F62" s="19" t="n"/>
-      <c r="G62" s="17" t="s">
+      <c r="F62" s="15" t="n"/>
+      <c r="G62" s="13" t="s">
         <v>117</v>
       </c>
       <c r="H62" s="53" t="n">
@@ -3845,7 +3916,7 @@
       <c r="A63" s="34" t="n">
         <v>38</v>
       </c>
-      <c r="B63" s="29" t="n"/>
+      <c r="B63" s="26" t="n"/>
       <c r="C63" s="55" t="s">
         <v>127</v>
       </c>
@@ -3853,8 +3924,8 @@
       <c r="E63" s="52" t="n">
         <v>44</v>
       </c>
-      <c r="F63" s="19" t="n"/>
-      <c r="G63" s="17" t="s">
+      <c r="F63" s="15" t="n"/>
+      <c r="G63" s="13" t="s">
         <v>119</v>
       </c>
       <c r="H63" s="53" t="n">
@@ -3862,22 +3933,22 @@
       </c>
     </row>
     <row outlineLevel="0" r="64">
-      <c r="A64" s="24" t="n">
+      <c r="A64" s="20" t="n">
         <v>39</v>
       </c>
-      <c r="B64" s="29" t="n"/>
-      <c r="C64" s="14" t="s">
+      <c r="B64" s="26" t="n"/>
+      <c r="C64" s="10" t="s">
         <v>128</v>
       </c>
       <c r="D64" s="42" t="s"/>
-      <c r="E64" s="19" t="n"/>
-      <c r="F64" s="22" t="n">
+      <c r="E64" s="15" t="n"/>
+      <c r="F64" s="18" t="n">
         <v>9</v>
       </c>
-      <c r="G64" s="23" t="s">
+      <c r="G64" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="H64" s="19" t="n"/>
+      <c r="H64" s="15" t="n"/>
     </row>
     <row outlineLevel="0" r="65">
       <c r="A65" s="57" t="n">
@@ -3891,8 +3962,8 @@
       <c r="E65" s="52" t="n">
         <v>45</v>
       </c>
-      <c r="F65" s="29" t="n"/>
-      <c r="G65" s="30" t="s">
+      <c r="F65" s="26" t="n"/>
+      <c r="G65" s="27" t="s">
         <v>131</v>
       </c>
       <c r="H65" s="54" t="n">
@@ -3900,37 +3971,37 @@
       </c>
     </row>
     <row outlineLevel="0" r="66">
-      <c r="A66" s="19" t="n"/>
+      <c r="A66" s="15" t="n"/>
       <c r="B66" s="61" t="n">
         <v>7</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="17" t="s">
         <v>132</v>
       </c>
       <c r="D66" s="43" t="s"/>
-      <c r="E66" s="29" t="n"/>
-      <c r="F66" s="29" t="n"/>
-      <c r="G66" s="17" t="s">
+      <c r="E66" s="26" t="n"/>
+      <c r="F66" s="26" t="n"/>
+      <c r="G66" s="13" t="s">
         <v>133</v>
       </c>
       <c r="H66" s="41" t="s"/>
     </row>
     <row outlineLevel="0" r="67">
-      <c r="A67" s="24" t="n">
+      <c r="A67" s="20" t="n">
         <v>41</v>
       </c>
-      <c r="B67" s="19" t="n"/>
-      <c r="C67" s="14" t="s">
+      <c r="B67" s="15" t="n"/>
+      <c r="C67" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="D67" s="25" t="n">
+      <c r="D67" s="21" t="n">
         <v>5.4</v>
       </c>
       <c r="E67" s="52" t="n">
         <v>46</v>
       </c>
       <c r="F67" s="38" t="n"/>
-      <c r="G67" s="30" t="s">
+      <c r="G67" s="27" t="s">
         <v>135</v>
       </c>
       <c r="H67" s="62" t="n">
@@ -3938,21 +4009,21 @@
       </c>
     </row>
     <row outlineLevel="0" r="68">
-      <c r="A68" s="24" t="n">
+      <c r="A68" s="20" t="n">
         <v>42</v>
       </c>
-      <c r="B68" s="19" t="n"/>
-      <c r="C68" s="14" t="s">
+      <c r="B68" s="15" t="n"/>
+      <c r="C68" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="D68" s="25" t="n">
+      <c r="D68" s="21" t="n">
         <v>6.78</v>
       </c>
       <c r="E68" s="52" t="n">
         <v>47</v>
       </c>
       <c r="F68" s="38" t="n"/>
-      <c r="G68" s="30" t="s">
+      <c r="G68" s="27" t="s">
         <v>137</v>
       </c>
       <c r="H68" s="62" t="n">
@@ -3960,21 +4031,21 @@
       </c>
     </row>
     <row outlineLevel="0" r="69">
-      <c r="A69" s="24" t="n">
+      <c r="A69" s="20" t="n">
         <v>43</v>
       </c>
-      <c r="B69" s="19" t="n"/>
-      <c r="C69" s="14" t="s">
+      <c r="B69" s="15" t="n"/>
+      <c r="C69" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="D69" s="25" t="n">
+      <c r="D69" s="21" t="n">
         <v>9.72</v>
       </c>
       <c r="E69" s="63" t="n">
         <v>48</v>
       </c>
       <c r="F69" s="38" t="n"/>
-      <c r="G69" s="17" t="s">
+      <c r="G69" s="13" t="s">
         <v>139</v>
       </c>
       <c r="H69" s="64" t="n">
@@ -3982,19 +4053,19 @@
       </c>
     </row>
     <row outlineLevel="0" r="70">
-      <c r="A70" s="24" t="n">
+      <c r="A70" s="20" t="n">
         <v>44</v>
       </c>
-      <c r="B70" s="19" t="n"/>
-      <c r="C70" s="14" t="s">
+      <c r="B70" s="15" t="n"/>
+      <c r="C70" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D70" s="31" t="n">
+      <c r="D70" s="29" t="n">
         <v>0.03</v>
       </c>
       <c r="E70" s="38" t="n"/>
       <c r="F70" s="38" t="n"/>
-      <c r="G70" s="17" t="s">
+      <c r="G70" s="13" t="s">
         <v>140</v>
       </c>
       <c r="H70" s="41" t="s"/>
@@ -4003,8 +4074,8 @@
       <c r="A71" s="34" t="n">
         <v>45</v>
       </c>
-      <c r="B71" s="29" t="n"/>
-      <c r="C71" s="14" t="s">
+      <c r="B71" s="26" t="n"/>
+      <c r="C71" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D71" s="42" t="s"/>
@@ -4012,7 +4083,7 @@
         <v>49</v>
       </c>
       <c r="F71" s="38" t="n"/>
-      <c r="G71" s="17" t="s">
+      <c r="G71" s="13" t="s">
         <v>142</v>
       </c>
       <c r="H71" s="65" t="n">
@@ -4020,19 +4091,19 @@
       </c>
     </row>
     <row outlineLevel="0" r="72">
-      <c r="A72" s="19" t="n"/>
+      <c r="A72" s="15" t="n"/>
       <c r="B72" s="61" t="n">
         <v>8</v>
       </c>
-      <c r="C72" s="21" t="s">
+      <c r="C72" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="D72" s="19" t="n"/>
+      <c r="D72" s="15" t="n"/>
       <c r="E72" s="63" t="n">
         <v>50</v>
       </c>
-      <c r="F72" s="29" t="n"/>
-      <c r="G72" s="30" t="s">
+      <c r="F72" s="26" t="n"/>
+      <c r="G72" s="27" t="s">
         <v>144</v>
       </c>
       <c r="H72" s="47" t="n">
@@ -4043,8 +4114,8 @@
       <c r="A73" s="34" t="n">
         <v>46</v>
       </c>
-      <c r="B73" s="29" t="n"/>
-      <c r="C73" s="14" t="s">
+      <c r="B73" s="26" t="n"/>
+      <c r="C73" s="10" t="s">
         <v>145</v>
       </c>
       <c r="D73" s="66" t="n">
@@ -4054,7 +4125,7 @@
         <v>51</v>
       </c>
       <c r="F73" s="38" t="n"/>
-      <c r="G73" s="17" t="s">
+      <c r="G73" s="13" t="s">
         <v>146</v>
       </c>
       <c r="H73" s="47" t="n">
@@ -4066,15 +4137,15 @@
         <v>47</v>
       </c>
       <c r="B74" s="38" t="n"/>
-      <c r="C74" s="14" t="s">
+      <c r="C74" s="10" t="s">
         <v>147</v>
       </c>
       <c r="D74" s="42" t="s"/>
       <c r="E74" s="52" t="n">
         <v>52</v>
       </c>
-      <c r="F74" s="29" t="n"/>
-      <c r="G74" s="30" t="s">
+      <c r="F74" s="26" t="n"/>
+      <c r="G74" s="27" t="s">
         <v>148</v>
       </c>
       <c r="H74" s="67" t="n">
@@ -4086,27 +4157,27 @@
         <v>48</v>
       </c>
       <c r="B75" s="38" t="n"/>
-      <c r="C75" s="14" t="s">
+      <c r="C75" s="10" t="s">
         <v>149</v>
       </c>
       <c r="D75" s="66" t="n">
         <v>0.015</v>
       </c>
-      <c r="E75" s="19" t="n"/>
-      <c r="F75" s="22" t="n">
+      <c r="E75" s="15" t="n"/>
+      <c r="F75" s="18" t="n">
         <v>8</v>
       </c>
-      <c r="G75" s="23" t="s">
+      <c r="G75" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="H75" s="19" t="n"/>
+      <c r="H75" s="15" t="n"/>
     </row>
     <row outlineLevel="0" r="76">
       <c r="A76" s="34" t="n">
         <v>49</v>
       </c>
       <c r="B76" s="38" t="n"/>
-      <c r="C76" s="14" t="s">
+      <c r="C76" s="10" t="s">
         <v>151</v>
       </c>
       <c r="D76" s="36" t="n">
@@ -4116,61 +4187,61 @@
         <v>53</v>
       </c>
       <c r="F76" s="38" t="n"/>
-      <c r="G76" s="30" t="s">
+      <c r="G76" s="27" t="s">
         <v>152</v>
       </c>
       <c r="H76" s="46" t="s"/>
     </row>
     <row outlineLevel="0" r="77">
-      <c r="A77" s="19" t="n"/>
+      <c r="A77" s="15" t="n"/>
       <c r="B77" s="61" t="n">
         <v>9</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="C77" s="17" t="s">
         <v>153</v>
       </c>
       <c r="D77" s="43" t="s"/>
-      <c r="E77" s="19" t="n"/>
-      <c r="F77" s="22" t="n">
+      <c r="E77" s="15" t="n"/>
+      <c r="F77" s="18" t="n">
         <v>9</v>
       </c>
-      <c r="G77" s="23" t="s">
+      <c r="G77" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="H77" s="19" t="n"/>
+      <c r="H77" s="15" t="n"/>
     </row>
     <row outlineLevel="0" r="78">
       <c r="A78" s="34" t="n">
         <v>50</v>
       </c>
       <c r="B78" s="38" t="n"/>
-      <c r="C78" s="14" t="s">
+      <c r="C78" s="10" t="s">
         <v>155</v>
       </c>
       <c r="D78" s="42" t="s"/>
       <c r="E78" s="63" t="n">
         <v>54</v>
       </c>
-      <c r="F78" s="29" t="n"/>
-      <c r="G78" s="30" t="s">
+      <c r="F78" s="26" t="n"/>
+      <c r="G78" s="27" t="s">
         <v>156</v>
       </c>
       <c r="H78" s="46" t="s"/>
     </row>
     <row outlineLevel="0" r="79">
-      <c r="A79" s="19" t="n"/>
+      <c r="A79" s="15" t="n"/>
       <c r="B79" s="61" t="n">
         <v>10</v>
       </c>
-      <c r="C79" s="21" t="s">
+      <c r="C79" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D79" s="43" t="s"/>
       <c r="E79" s="63" t="n">
         <v>55</v>
       </c>
-      <c r="F79" s="29" t="n"/>
-      <c r="G79" s="30" t="s">
+      <c r="F79" s="26" t="n"/>
+      <c r="G79" s="27" t="s">
         <v>158</v>
       </c>
       <c r="H79" s="47" t="n">
@@ -4178,113 +4249,113 @@
       </c>
     </row>
     <row outlineLevel="0" r="80">
-      <c r="A80" s="24" t="n">
+      <c r="A80" s="20" t="n">
         <v>51</v>
       </c>
-      <c r="B80" s="19" t="n"/>
-      <c r="C80" s="14" t="s">
+      <c r="B80" s="15" t="n"/>
+      <c r="C80" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D80" s="25" t="n">
+      <c r="D80" s="21" t="n">
         <v>0.72</v>
       </c>
       <c r="E80" s="52" t="n">
         <v>56</v>
       </c>
-      <c r="F80" s="29" t="n"/>
-      <c r="G80" s="30" t="s">
+      <c r="F80" s="26" t="n"/>
+      <c r="G80" s="27" t="s">
         <v>160</v>
       </c>
       <c r="H80" s="46" t="s"/>
     </row>
     <row outlineLevel="0" r="81">
-      <c r="A81" s="24" t="n">
+      <c r="A81" s="20" t="n">
         <v>52</v>
       </c>
-      <c r="B81" s="19" t="n"/>
-      <c r="C81" s="14" t="s">
+      <c r="B81" s="15" t="n"/>
+      <c r="C81" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="D81" s="25" t="n">
+      <c r="D81" s="21" t="n">
         <v>2.34</v>
       </c>
-      <c r="E81" s="19" t="n"/>
-      <c r="F81" s="22" t="n">
+      <c r="E81" s="15" t="n"/>
+      <c r="F81" s="18" t="n">
         <v>10</v>
       </c>
-      <c r="G81" s="23" t="s">
+      <c r="G81" s="19" t="s">
         <v>162</v>
       </c>
       <c r="H81" s="44" t="s"/>
     </row>
     <row outlineLevel="0" r="82">
-      <c r="A82" s="24" t="n">
+      <c r="A82" s="20" t="n">
         <v>53</v>
       </c>
-      <c r="B82" s="19" t="n"/>
-      <c r="C82" s="14" t="s">
+      <c r="B82" s="15" t="n"/>
+      <c r="C82" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="D82" s="25" t="n">
+      <c r="D82" s="21" t="n">
         <v>0.54</v>
       </c>
       <c r="E82" s="52" t="n">
         <v>57</v>
       </c>
-      <c r="F82" s="19" t="n"/>
-      <c r="G82" s="17" t="s">
+      <c r="F82" s="15" t="n"/>
+      <c r="G82" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="H82" s="27" t="n">
+      <c r="H82" s="23" t="n">
         <v>0.6</v>
       </c>
     </row>
     <row outlineLevel="0" r="83">
-      <c r="A83" s="19" t="n"/>
+      <c r="A83" s="15" t="n"/>
       <c r="B83" s="61" t="n">
         <v>11</v>
       </c>
-      <c r="C83" s="21" t="s">
+      <c r="C83" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="D83" s="19" t="n"/>
+      <c r="D83" s="15" t="n"/>
       <c r="E83" s="52" t="n">
         <v>58</v>
       </c>
-      <c r="F83" s="19" t="n"/>
-      <c r="G83" s="17" t="s">
+      <c r="F83" s="15" t="n"/>
+      <c r="G83" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="H83" s="27" t="n">
+      <c r="H83" s="23" t="n">
         <v>1.95</v>
       </c>
     </row>
     <row outlineLevel="0" r="84">
-      <c r="A84" s="24" t="n">
+      <c r="A84" s="20" t="n">
         <v>54</v>
       </c>
       <c r="B84" s="38" t="n"/>
-      <c r="C84" s="14" t="s">
+      <c r="C84" s="10" t="s">
         <v>167</v>
       </c>
       <c r="D84" s="42" t="s"/>
       <c r="E84" s="52" t="n">
         <v>59</v>
       </c>
-      <c r="F84" s="19" t="n"/>
-      <c r="G84" s="17" t="s">
+      <c r="F84" s="15" t="n"/>
+      <c r="G84" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="H84" s="27" t="n">
+      <c r="H84" s="23" t="n">
         <v>0.45</v>
       </c>
     </row>
     <row outlineLevel="0" r="85">
-      <c r="E85" s="19" t="n"/>
-      <c r="F85" s="22" t="n">
+      <c r="E85" s="15" t="n"/>
+      <c r="F85" s="18" t="n">
         <v>11</v>
       </c>
-      <c r="G85" s="23" t="s">
+      <c r="G85" s="19" t="s">
         <v>169</v>
       </c>
       <c r="H85" s="44" t="s"/>
@@ -4293,8 +4364,8 @@
       <c r="E86" s="52" t="n">
         <v>60</v>
       </c>
-      <c r="F86" s="29" t="n"/>
-      <c r="G86" s="30" t="s">
+      <c r="F86" s="26" t="n"/>
+      <c r="G86" s="27" t="s">
         <v>170</v>
       </c>
       <c r="H86" s="46" t="s"/>
@@ -4303,8 +4374,8 @@
       <c r="E87" s="52" t="n">
         <v>61</v>
       </c>
-      <c r="F87" s="19" t="n"/>
-      <c r="G87" s="17" t="s">
+      <c r="F87" s="15" t="n"/>
+      <c r="G87" s="13" t="s">
         <v>171</v>
       </c>
       <c r="H87" s="41" t="s"/>
@@ -4313,18 +4384,18 @@
       <c r="E88" s="52" t="n">
         <v>62</v>
       </c>
-      <c r="F88" s="29" t="n"/>
-      <c r="G88" s="17" t="s">
+      <c r="F88" s="26" t="n"/>
+      <c r="G88" s="13" t="s">
         <v>172</v>
       </c>
       <c r="H88" s="41" t="s"/>
     </row>
     <row outlineLevel="0" r="89">
-      <c r="E89" s="19" t="n"/>
-      <c r="F89" s="22" t="n">
+      <c r="E89" s="15" t="n"/>
+      <c r="F89" s="18" t="n">
         <v>12</v>
       </c>
-      <c r="G89" s="23" t="s">
+      <c r="G89" s="19" t="s">
         <v>150</v>
       </c>
       <c r="H89" s="44" t="s"/>
@@ -4333,43 +4404,36 @@
       <c r="E90" s="63" t="n">
         <v>63</v>
       </c>
-      <c r="F90" s="29" t="n"/>
-      <c r="G90" s="30" t="s">
+      <c r="F90" s="26" t="n"/>
+      <c r="G90" s="27" t="s">
         <v>173</v>
       </c>
       <c r="H90" s="46" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="E4:H4"/>
     <mergeCell ref="A4:D4"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
     <mergeCell ref="C71:D71"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="C77:D77"/>
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="C84:D84"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G28:H28"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C49:D49"/>
@@ -4389,20 +4453,14 @@
     <mergeCell ref="G76:H76"/>
     <mergeCell ref="G70:H70"/>
     <mergeCell ref="G66:H66"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G52:H52"/>
     <mergeCell ref="G53:H53"/>
     <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
     <mergeCell ref="G51:H51"/>
     <mergeCell ref="G50:H50"/>
     <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G28:H28"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="G35:H35"/>
@@ -4410,6 +4468,19 @@
     <mergeCell ref="G39:H39"/>
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="G42:H42"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.300000011920929" header="0.300000011920929" left="0.700000047683716" right="0.700000047683716" top="0.75"/>
 </worksheet>

--- a/calc/files/letter2.xlsx
+++ b/calc/files/letter2.xlsx
@@ -2024,13 +2024,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
   <numFmts>
     <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1000"/>
-    <numFmt co:extendedFormatCode="0" formatCode="0" numFmtId="1001"/>
-    <numFmt co:extendedFormatCode="0.00" formatCode="0.00" numFmtId="1002"/>
-    <numFmt co:extendedFormatCode="0.0%" formatCode="0.0%" numFmtId="1003"/>
-    <numFmt co:extendedFormatCode="0.000" formatCode="0.000" numFmtId="1004"/>
-    <numFmt co:extendedFormatCode="0.00%" formatCode="0.00%" numFmtId="1005"/>
+    <numFmt co:extendedFormatCode="0.00;-0.00" formatCode="0.00;-0.00" numFmtId="1001"/>
+    <numFmt co:extendedFormatCode="0" formatCode="0" numFmtId="1002"/>
+    <numFmt co:extendedFormatCode="0.00" formatCode="0.00" numFmtId="1003"/>
+    <numFmt co:extendedFormatCode="0.0%" formatCode="0.0%" numFmtId="1004"/>
+    <numFmt co:extendedFormatCode="0.000" formatCode="0.000" numFmtId="1005"/>
+    <numFmt co:extendedFormatCode="0.00%" formatCode="0.00%" numFmtId="1006"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="16">
     <font>
       <name val="Calibri"/>
       <color rgb="000000" tint="0"/>
@@ -2106,17 +2107,7 @@
     </font>
     <font>
       <name val="Microsoft Sans Serif"/>
-      <color rgb="E46C0A" tint="0"/>
-      <sz val="8.5"/>
-    </font>
-    <font>
-      <name val="Microsoft Sans Serif"/>
       <color rgb="000000" tint="0"/>
-      <sz val="8.5"/>
-    </font>
-    <font>
-      <name val="Microsoft Sans Serif"/>
-      <color rgb="E46C0A" tint="0"/>
       <sz val="8.5"/>
     </font>
     <font>
@@ -2200,7 +2191,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2228,6 +2219,9 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="6" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" indent="2" vertical="top" wrapText="true"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="1" numFmtId="1001" quotePrefix="false">
+      <alignment horizontal="left" vertical="bottom" wrapText="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="7" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
@@ -2249,160 +2243,154 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="8" numFmtId="1001" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="8" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="right" shrinkToFit="true" vertical="top"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="9" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="10" numFmtId="1001" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="10" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="11" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="12" numFmtId="1001" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="12" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1001" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="12" numFmtId="1003" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="right" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1003" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1003" quotePrefix="false">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="14" numFmtId="1003" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="12" numFmtId="1004" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1004" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1005" quotePrefix="false">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1002" quotePrefix="false">
+      <alignment horizontal="right" indent="1" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="12" numFmtId="1002" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="12" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="12" numFmtId="1003" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1002" quotePrefix="false">
+      <alignment horizontal="right" shrinkToFit="true" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1003" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="12" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="9" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="11" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="13" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1004" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="15" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" indent="1" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="8" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="8" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1002" quotePrefix="false">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="14" numFmtId="1002" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1003" quotePrefix="false">
+      <alignment horizontal="right" indent="6" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1004" quotePrefix="false">
+      <alignment horizontal="right" indent="6" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="12" numFmtId="1002" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="8" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="15" numFmtId="1002" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="12" numFmtId="1003" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1003" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1004" quotePrefix="false">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1001" quotePrefix="false">
-      <alignment horizontal="right" indent="1" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="16" numFmtId="1002" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="12" numFmtId="1001" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="12" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="12" numFmtId="1002" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1001" quotePrefix="false">
-      <alignment horizontal="right" shrinkToFit="true" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1006" quotePrefix="false">
+      <alignment horizontal="right" indent="5" shrinkToFit="true" vertical="top"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="12" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="9" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="11" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="13" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1003" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1004" quotePrefix="false">
+      <alignment horizontal="right" indent="6" shrinkToFit="true" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1006" quotePrefix="false">
+      <alignment horizontal="right" indent="5" shrinkToFit="true" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="12" numFmtId="1004" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="17" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" indent="1" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="8" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="8" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1001" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1002" quotePrefix="false">
-      <alignment horizontal="right" indent="6" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1003" quotePrefix="false">
-      <alignment horizontal="right" indent="6" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="12" numFmtId="1001" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="8" numFmtId="1001" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1005" quotePrefix="false">
-      <alignment horizontal="right" indent="5" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1001" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1003" quotePrefix="false">
-      <alignment horizontal="right" indent="6" shrinkToFit="true" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1005" quotePrefix="false">
-      <alignment horizontal="right" indent="5" shrinkToFit="true" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="12" numFmtId="1003" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1004" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2700,202 +2688,211 @@
       <c r="D5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="7" t="n"/>
+      <c r="E5" s="9" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">3.24*0.2</f>
+        <v>0.6480000000000001</v>
+      </c>
       <c r="F5" s="7" t="n"/>
       <c r="G5" s="7" t="n"/>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row customHeight="true" ht="27.25" outlineLevel="0" r="6">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="7">
-      <c r="A7" s="15" t="n"/>
-      <c r="B7" s="16" t="n">
+      <c r="A7" s="16" t="n"/>
+      <c r="B7" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="15" t="n"/>
-      <c r="E7" s="15" t="n"/>
-      <c r="F7" s="18" t="n">
+      <c r="D7" s="16" t="n"/>
+      <c r="E7" s="16" t="n"/>
+      <c r="F7" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="15" t="n"/>
+      <c r="H7" s="16" t="n"/>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="8">
-      <c r="A8" s="20" t="n">
+      <c r="A8" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="B8" s="15" t="n"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="16" t="n"/>
+      <c r="C8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="21" t="n">
+      <c r="D8" s="22" t="n">
         <v>2.52</v>
       </c>
-      <c r="E8" s="22" t="n">
+      <c r="E8" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="F8" s="15" t="n"/>
-      <c r="G8" s="13" t="s">
+      <c r="F8" s="16" t="n"/>
+      <c r="G8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="23" t="n">
+      <c r="H8" s="24" t="n">
         <v>2.1</v>
       </c>
-      <c r="I8" s="24" t="n">
+      <c r="I8" s="25" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H8*1.2</f>
         <v>2.52</v>
       </c>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="9">
-      <c r="A9" s="15" t="n"/>
-      <c r="B9" s="16" t="n">
+      <c r="A9" s="16" t="n"/>
+      <c r="B9" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="15" t="n"/>
-      <c r="E9" s="15" t="n"/>
-      <c r="F9" s="18" t="n">
+      <c r="D9" s="16" t="n"/>
+      <c r="E9" s="16" t="n"/>
+      <c r="F9" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="15" t="n"/>
-      <c r="I9" s="24" t="n"/>
+      <c r="H9" s="16" t="n"/>
+      <c r="I9" s="25" t="n"/>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="10">
-      <c r="A10" s="20" t="n">
+      <c r="A10" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="B10" s="15" t="n"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="16" t="n"/>
+      <c r="C10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="21" t="n">
+      <c r="D10" s="22" t="n">
         <v>2.76</v>
       </c>
-      <c r="E10" s="22" t="n">
+      <c r="E10" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="F10" s="15" t="n"/>
-      <c r="G10" s="13" t="s">
+      <c r="F10" s="16" t="n"/>
+      <c r="G10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="23" t="n">
+      <c r="H10" s="24" t="n">
         <v>2.3</v>
       </c>
-      <c r="I10" s="24" t="n">
+      <c r="I10" s="25" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H10*1.2</f>
         <v>2.76</v>
       </c>
-      <c r="J10" s="24" t="n"/>
-      <c r="K10" s="24" t="n"/>
+      <c r="J10" s="25" t="n"/>
+      <c r="K10" s="25" t="n"/>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="11">
-      <c r="A11" s="20" t="n">
+      <c r="A11" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="B11" s="15" t="n"/>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="16" t="n"/>
+      <c r="C11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="21" t="n">
+      <c r="D11" s="22" t="n">
         <v>3.24</v>
       </c>
-      <c r="E11" s="22" t="n">
+      <c r="E11" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="F11" s="15" t="n"/>
-      <c r="G11" s="13" t="s">
+      <c r="F11" s="16" t="n"/>
+      <c r="G11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="25" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="I11" s="24" t="n">
+      <c r="H11" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" s="25" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H11*1.2</f>
-        <v>3.24</v>
-      </c>
-      <c r="J11" s="24" t="n"/>
-      <c r="K11" s="24" t="n"/>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="J11" s="25" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I11+0.36</f>
+        <v>3.9599999999999995</v>
+      </c>
+      <c r="K11" s="25" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J11/1.2*0.2</f>
+        <v>0.66</v>
+      </c>
     </row>
     <row customHeight="true" ht="27.25" outlineLevel="0" r="12">
-      <c r="A12" s="20" t="n">
+      <c r="A12" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="B12" s="26" t="n"/>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="27" t="n"/>
+      <c r="C12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="21" t="n">
+      <c r="D12" s="22" t="n">
         <v>0.06</v>
       </c>
-      <c r="E12" s="22" t="n">
+      <c r="E12" s="23" t="n">
         <v>4</v>
       </c>
-      <c r="F12" s="26" t="n"/>
-      <c r="G12" s="27" t="s">
+      <c r="F12" s="27" t="n"/>
+      <c r="G12" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="28" t="n">
+      <c r="H12" s="24" t="n">
         <v>0.05</v>
       </c>
-      <c r="I12" s="24" t="n">
+      <c r="I12" s="25" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H12*1.2</f>
         <v>0.06</v>
       </c>
-      <c r="J12" s="24" t="n"/>
-      <c r="K12" s="24" t="n"/>
+      <c r="J12" s="25" t="n"/>
+      <c r="K12" s="25" t="n"/>
     </row>
     <row customHeight="true" ht="12.75" outlineLevel="0" r="13">
-      <c r="A13" s="20" t="n">
+      <c r="A13" s="21" t="n">
         <v>5</v>
       </c>
-      <c r="B13" s="15" t="n"/>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="16" t="n"/>
+      <c r="C13" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="29" t="n">
         <v>0.036</v>
       </c>
-      <c r="E13" s="22" t="n">
+      <c r="E13" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="F13" s="15" t="n"/>
-      <c r="G13" s="13" t="s">
+      <c r="F13" s="16" t="n"/>
+      <c r="G13" s="14" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="30" t="n">
@@ -2905,148 +2902,148 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H13*1.2</f>
         <v>0.036</v>
       </c>
-      <c r="J13" s="24" t="n"/>
-      <c r="K13" s="24" t="n"/>
+      <c r="J13" s="25" t="n"/>
+      <c r="K13" s="25" t="n"/>
     </row>
     <row customHeight="true" ht="12.75" outlineLevel="0" r="14">
-      <c r="A14" s="15" t="n"/>
-      <c r="B14" s="16" t="n">
+      <c r="A14" s="16" t="n"/>
+      <c r="B14" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="15" t="n"/>
-      <c r="E14" s="15" t="n"/>
-      <c r="F14" s="18" t="n">
+      <c r="D14" s="16" t="n"/>
+      <c r="E14" s="16" t="n"/>
+      <c r="F14" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="15" t="n"/>
-      <c r="I14" s="24" t="n"/>
+      <c r="H14" s="16" t="n"/>
+      <c r="I14" s="25" t="n"/>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="15">
-      <c r="A15" s="20" t="n">
+      <c r="A15" s="21" t="n">
         <v>6</v>
       </c>
-      <c r="B15" s="15" t="n"/>
-      <c r="C15" s="10" t="s">
+      <c r="B15" s="16" t="n"/>
+      <c r="C15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="21" t="n">
+      <c r="D15" s="22" t="n">
         <v>0.78</v>
       </c>
-      <c r="E15" s="22" t="n">
+      <c r="E15" s="23" t="n">
         <v>6</v>
       </c>
-      <c r="F15" s="15" t="n"/>
-      <c r="G15" s="13" t="s">
+      <c r="F15" s="16" t="n"/>
+      <c r="G15" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="23" t="n">
+      <c r="H15" s="24" t="n">
         <v>0.65</v>
       </c>
-      <c r="I15" s="24" t="n">
+      <c r="I15" s="25" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H15*1.2</f>
         <v>0.78</v>
       </c>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="16">
-      <c r="A16" s="20" t="n">
+      <c r="A16" s="21" t="n">
         <v>7</v>
       </c>
-      <c r="B16" s="15" t="n"/>
-      <c r="C16" s="10" t="s">
+      <c r="B16" s="16" t="n"/>
+      <c r="C16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="21" t="n">
+      <c r="D16" s="22" t="n">
         <v>2.76</v>
       </c>
-      <c r="E16" s="22" t="n">
+      <c r="E16" s="23" t="n">
         <v>7</v>
       </c>
-      <c r="F16" s="15" t="n"/>
-      <c r="G16" s="13" t="s">
+      <c r="F16" s="16" t="n"/>
+      <c r="G16" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="23" t="n">
+      <c r="H16" s="24" t="n">
         <v>2.3</v>
       </c>
-      <c r="I16" s="24" t="n">
+      <c r="I16" s="25" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H16*1.2</f>
         <v>2.76</v>
       </c>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="17">
-      <c r="A17" s="20" t="n">
+      <c r="A17" s="21" t="n">
         <v>8</v>
       </c>
-      <c r="B17" s="15" t="n"/>
-      <c r="C17" s="10" t="s">
+      <c r="B17" s="16" t="n"/>
+      <c r="C17" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="21" t="n">
+      <c r="D17" s="22" t="n">
         <v>3.24</v>
       </c>
       <c r="E17" s="32" t="n">
         <v>8</v>
       </c>
-      <c r="F17" s="15" t="n"/>
-      <c r="G17" s="13" t="s">
+      <c r="F17" s="16" t="n"/>
+      <c r="G17" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="33" t="n">
+      <c r="H17" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="I17" s="24" t="n">
+      <c r="I17" s="25" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H17*1.2</f>
         <v>3.5999999999999996</v>
       </c>
     </row>
     <row customHeight="true" ht="35.25" outlineLevel="0" r="18">
-      <c r="A18" s="34" t="n">
+      <c r="A18" s="33" t="n">
         <v>9</v>
       </c>
-      <c r="B18" s="26" t="n"/>
-      <c r="C18" s="35" t="s">
+      <c r="B18" s="27" t="n"/>
+      <c r="C18" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="36" t="n">
+      <c r="D18" s="35" t="n">
         <v>0.06</v>
       </c>
-      <c r="E18" s="37" t="n">
+      <c r="E18" s="36" t="n">
         <v>9</v>
       </c>
-      <c r="F18" s="38" t="n"/>
-      <c r="G18" s="13" t="s">
+      <c r="F18" s="37" t="n"/>
+      <c r="G18" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="39" t="n">
+      <c r="H18" s="38" t="n">
         <v>0.05</v>
       </c>
-      <c r="I18" s="24" t="n">
+      <c r="I18" s="25" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H18*1.2</f>
         <v>0.06</v>
       </c>
     </row>
     <row customHeight="true" ht="22.75" outlineLevel="0" r="19">
-      <c r="A19" s="20" t="n">
+      <c r="A19" s="21" t="n">
         <v>10</v>
       </c>
-      <c r="B19" s="26" t="n"/>
-      <c r="C19" s="10" t="s">
+      <c r="B19" s="27" t="n"/>
+      <c r="C19" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="29" t="n">
         <v>0.036</v>
       </c>
-      <c r="E19" s="22" t="n">
+      <c r="E19" s="23" t="n">
         <v>10</v>
       </c>
-      <c r="F19" s="15" t="n"/>
-      <c r="G19" s="13" t="s">
+      <c r="F19" s="16" t="n"/>
+      <c r="G19" s="14" t="s">
         <v>31</v>
       </c>
       <c r="H19" s="30" t="n">
@@ -3058,382 +3055,382 @@
       </c>
     </row>
     <row customHeight="true" ht="34.75" outlineLevel="0" r="20">
-      <c r="A20" s="34" t="n">
+      <c r="A20" s="33" t="n">
         <v>11</v>
       </c>
-      <c r="B20" s="26" t="n"/>
-      <c r="C20" s="35" t="s">
+      <c r="B20" s="27" t="n"/>
+      <c r="C20" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="40" t="s"/>
-      <c r="E20" s="37" t="n">
+      <c r="D20" s="39" t="s"/>
+      <c r="E20" s="36" t="n">
         <v>11</v>
       </c>
-      <c r="F20" s="38" t="n"/>
-      <c r="G20" s="13" t="s">
+      <c r="F20" s="37" t="n"/>
+      <c r="G20" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H20" s="41" t="s"/>
-      <c r="I20" s="24" t="n"/>
+      <c r="H20" s="40" t="s"/>
+      <c r="I20" s="25" t="n"/>
     </row>
     <row customHeight="true" ht="34.75" outlineLevel="0" r="21">
-      <c r="A21" s="34" t="n">
+      <c r="A21" s="33" t="n">
         <v>12</v>
       </c>
-      <c r="B21" s="26" t="n"/>
-      <c r="C21" s="10" t="s">
+      <c r="B21" s="27" t="n"/>
+      <c r="C21" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="42" t="s"/>
-      <c r="E21" s="37" t="n">
+      <c r="D21" s="41" t="s"/>
+      <c r="E21" s="36" t="n">
         <v>12</v>
       </c>
-      <c r="F21" s="26" t="n"/>
-      <c r="G21" s="13" t="s">
+      <c r="F21" s="27" t="n"/>
+      <c r="G21" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H21" s="41" t="s"/>
-      <c r="I21" s="24" t="n"/>
+      <c r="H21" s="40" t="s"/>
+      <c r="I21" s="25" t="n"/>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="22">
-      <c r="A22" s="15" t="n"/>
-      <c r="B22" s="16" t="n">
+      <c r="A22" s="16" t="n"/>
+      <c r="B22" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="43" t="s"/>
-      <c r="E22" s="15" t="n"/>
-      <c r="F22" s="18" t="n">
+      <c r="D22" s="42" t="s"/>
+      <c r="E22" s="16" t="n"/>
+      <c r="F22" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="G22" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="H22" s="44" t="s"/>
-      <c r="I22" s="24" t="n"/>
+      <c r="H22" s="43" t="s"/>
+      <c r="I22" s="25" t="n"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="23">
-      <c r="A23" s="20" t="n">
+      <c r="A23" s="21" t="n">
         <v>13</v>
       </c>
-      <c r="B23" s="15" t="n"/>
-      <c r="C23" s="10" t="s">
+      <c r="B23" s="16" t="n"/>
+      <c r="C23" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="21" t="n">
+      <c r="D23" s="22" t="n">
         <v>1.68</v>
       </c>
-      <c r="E23" s="22" t="n">
+      <c r="E23" s="23" t="n">
         <v>13</v>
       </c>
-      <c r="F23" s="15" t="n"/>
-      <c r="G23" s="13" t="s">
+      <c r="F23" s="16" t="n"/>
+      <c r="G23" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H23" s="23" t="n">
+      <c r="H23" s="24" t="n">
         <v>1.4</v>
       </c>
-      <c r="I23" s="24" t="n">
+      <c r="I23" s="25" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H23*1.2</f>
         <v>1.68</v>
       </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="24">
-      <c r="A24" s="20" t="n">
+      <c r="A24" s="21" t="n">
         <v>14</v>
       </c>
-      <c r="B24" s="15" t="n"/>
-      <c r="C24" s="10" t="s">
+      <c r="B24" s="16" t="n"/>
+      <c r="C24" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="21" t="n">
+      <c r="D24" s="22" t="n">
         <v>0.36</v>
       </c>
-      <c r="E24" s="22" t="n">
+      <c r="E24" s="23" t="n">
         <v>14</v>
       </c>
-      <c r="F24" s="15" t="n"/>
-      <c r="G24" s="13" t="s">
+      <c r="F24" s="16" t="n"/>
+      <c r="G24" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="H24" s="23" t="n">
+      <c r="H24" s="24" t="n">
         <v>0.3</v>
       </c>
-      <c r="I24" s="24" t="n">
+      <c r="I24" s="25" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H24*1.2</f>
         <v>0.36</v>
       </c>
     </row>
     <row customHeight="true" ht="36.75" outlineLevel="0" r="25">
-      <c r="A25" s="34" t="n">
+      <c r="A25" s="33" t="n">
         <v>15</v>
       </c>
-      <c r="B25" s="26" t="n"/>
-      <c r="C25" s="10" t="s">
+      <c r="B25" s="27" t="n"/>
+      <c r="C25" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="42" t="s"/>
-      <c r="E25" s="37" t="n">
+      <c r="D25" s="41" t="s"/>
+      <c r="E25" s="36" t="n">
         <v>15</v>
       </c>
-      <c r="F25" s="26" t="n"/>
-      <c r="G25" s="13" t="s">
+      <c r="F25" s="27" t="n"/>
+      <c r="G25" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="H25" s="41" t="s"/>
+      <c r="H25" s="40" t="s"/>
     </row>
     <row customHeight="true" ht="38" outlineLevel="0" r="26">
-      <c r="A26" s="34" t="n">
+      <c r="A26" s="33" t="n">
         <v>16</v>
       </c>
-      <c r="B26" s="26" t="n"/>
-      <c r="C26" s="10" t="s">
+      <c r="B26" s="27" t="n"/>
+      <c r="C26" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="42" t="s"/>
-      <c r="E26" s="37" t="n">
+      <c r="D26" s="41" t="s"/>
+      <c r="E26" s="36" t="n">
         <v>16</v>
       </c>
-      <c r="F26" s="38" t="n"/>
-      <c r="G26" s="13" t="s">
+      <c r="F26" s="37" t="n"/>
+      <c r="G26" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H26" s="41" t="s"/>
+      <c r="H26" s="40" t="s"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="27">
-      <c r="A27" s="15" t="n"/>
-      <c r="B27" s="16" t="n">
+      <c r="A27" s="16" t="n"/>
+      <c r="B27" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="43" t="s"/>
-      <c r="E27" s="15" t="n"/>
-      <c r="F27" s="18" t="n">
+      <c r="D27" s="42" t="s"/>
+      <c r="E27" s="16" t="n"/>
+      <c r="F27" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="G27" s="19" t="s">
+      <c r="G27" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="15" t="n"/>
+      <c r="H27" s="16" t="n"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="28">
-      <c r="A28" s="20" t="n">
+      <c r="A28" s="21" t="n">
         <v>17</v>
       </c>
-      <c r="B28" s="15" t="n"/>
-      <c r="C28" s="10" t="s">
+      <c r="B28" s="16" t="n"/>
+      <c r="C28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="42" t="s"/>
-      <c r="E28" s="15" t="n"/>
-      <c r="F28" s="15" t="n"/>
-      <c r="G28" s="13" t="s">
+      <c r="D28" s="41" t="s"/>
+      <c r="E28" s="16" t="n"/>
+      <c r="F28" s="16" t="n"/>
+      <c r="G28" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H28" s="41" t="s"/>
+      <c r="H28" s="40" t="s"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="29">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="15" t="n"/>
-      <c r="C29" s="10" t="s">
+      <c r="B29" s="16" t="n"/>
+      <c r="C29" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="21" t="n">
+      <c r="D29" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="E29" s="22" t="n">
+      <c r="E29" s="23" t="n">
         <v>17</v>
       </c>
-      <c r="F29" s="15" t="n"/>
-      <c r="G29" s="13" t="s">
+      <c r="F29" s="16" t="n"/>
+      <c r="G29" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H29" s="23" t="n">
+      <c r="H29" s="24" t="n">
         <v>4.5</v>
       </c>
     </row>
     <row customHeight="true" ht="28.75" outlineLevel="0" r="30">
-      <c r="A30" s="20" t="n">
+      <c r="A30" s="21" t="n">
         <v>18</v>
       </c>
-      <c r="B30" s="26" t="n"/>
-      <c r="C30" s="10" t="s">
+      <c r="B30" s="27" t="n"/>
+      <c r="C30" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="42" t="s"/>
-      <c r="E30" s="22" t="n">
+      <c r="D30" s="41" t="s"/>
+      <c r="E30" s="23" t="n">
         <v>18</v>
       </c>
-      <c r="F30" s="15" t="n"/>
-      <c r="G30" s="13" t="s">
+      <c r="F30" s="16" t="n"/>
+      <c r="G30" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="H30" s="23" t="n">
+      <c r="H30" s="24" t="n">
         <v>0.75</v>
       </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="31">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="15" t="n"/>
-      <c r="C31" s="10" t="s">
+      <c r="B31" s="16" t="n"/>
+      <c r="C31" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="21" t="n">
+      <c r="D31" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="E31" s="22" t="n">
+      <c r="E31" s="23" t="n">
         <v>19</v>
       </c>
-      <c r="F31" s="26" t="n"/>
-      <c r="G31" s="27" t="s">
+      <c r="F31" s="27" t="n"/>
+      <c r="G31" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="H31" s="46" t="s"/>
+      <c r="H31" s="45" t="s"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="32">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="15" t="n"/>
-      <c r="C32" s="10" t="s">
+      <c r="B32" s="16" t="n"/>
+      <c r="C32" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="21" t="n">
+      <c r="D32" s="22" t="n">
         <v>0.75</v>
       </c>
-      <c r="E32" s="37" t="n">
+      <c r="E32" s="36" t="n">
         <v>20</v>
       </c>
-      <c r="F32" s="26" t="n"/>
-      <c r="G32" s="13" t="s">
+      <c r="F32" s="27" t="n"/>
+      <c r="G32" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="H32" s="41" t="s"/>
+      <c r="H32" s="40" t="s"/>
     </row>
     <row customHeight="true" ht="38.75" outlineLevel="0" r="33">
-      <c r="A33" s="34" t="n">
+      <c r="A33" s="33" t="n">
         <v>19</v>
       </c>
-      <c r="B33" s="38" t="n"/>
-      <c r="C33" s="10" t="s">
+      <c r="B33" s="37" t="n"/>
+      <c r="C33" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D33" s="42" t="s"/>
-      <c r="E33" s="22" t="n">
+      <c r="D33" s="41" t="s"/>
+      <c r="E33" s="23" t="n">
         <v>21</v>
       </c>
-      <c r="F33" s="26" t="n"/>
-      <c r="G33" s="27" t="s">
+      <c r="F33" s="27" t="n"/>
+      <c r="G33" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="H33" s="23" t="n">
+      <c r="H33" s="24" t="n">
         <v>0.75</v>
       </c>
     </row>
     <row customHeight="true" ht="36.4999389648438" outlineLevel="0" r="34">
-      <c r="A34" s="34" t="n">
+      <c r="A34" s="33" t="n">
         <v>20</v>
       </c>
-      <c r="B34" s="26" t="n"/>
-      <c r="C34" s="35" t="s">
+      <c r="B34" s="27" t="n"/>
+      <c r="C34" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="40" t="s"/>
-      <c r="E34" s="37" t="n">
+      <c r="D34" s="39" t="s"/>
+      <c r="E34" s="36" t="n">
         <v>22</v>
       </c>
-      <c r="F34" s="26" t="n"/>
-      <c r="G34" s="13" t="s">
+      <c r="F34" s="27" t="n"/>
+      <c r="G34" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="H34" s="47" t="n">
+      <c r="H34" s="46" t="n">
         <v>0.05</v>
       </c>
     </row>
     <row customHeight="true" ht="36.4999389648438" outlineLevel="0" r="35">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="22" t="n">
+      <c r="E35" s="23" t="n">
         <v>23</v>
       </c>
-      <c r="F35" s="26" t="n"/>
-      <c r="G35" s="27" t="s">
+      <c r="F35" s="27" t="n"/>
+      <c r="G35" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="H35" s="46" t="s"/>
+      <c r="H35" s="45" t="s"/>
     </row>
     <row outlineLevel="0" r="36">
-      <c r="A36" s="34" t="n">
+      <c r="A36" s="33" t="n">
         <v>21</v>
       </c>
-      <c r="B36" s="26" t="n"/>
-      <c r="C36" s="35" t="s">
+      <c r="B36" s="27" t="n"/>
+      <c r="C36" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="40" t="s"/>
-      <c r="E36" s="37" t="n">
+      <c r="D36" s="39" t="s"/>
+      <c r="E36" s="36" t="n">
         <v>24</v>
       </c>
-      <c r="F36" s="26" t="n"/>
-      <c r="G36" s="48" t="s">
+      <c r="F36" s="27" t="n"/>
+      <c r="G36" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="H36" s="49" t="s">
+      <c r="H36" s="48" t="s">
         <v>78</v>
       </c>
     </row>
     <row outlineLevel="0" r="37">
-      <c r="A37" s="20" t="n">
+      <c r="A37" s="21" t="n">
         <v>22</v>
       </c>
-      <c r="B37" s="26" t="n"/>
-      <c r="C37" s="10" t="s">
+      <c r="B37" s="27" t="n"/>
+      <c r="C37" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D37" s="29" t="n">
         <v>0.03</v>
       </c>
-      <c r="E37" s="37" t="n">
+      <c r="E37" s="36" t="n">
         <v>25</v>
       </c>
-      <c r="F37" s="26" t="n"/>
-      <c r="G37" s="27" t="s">
+      <c r="F37" s="27" t="n"/>
+      <c r="G37" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="H37" s="46" t="s"/>
+      <c r="H37" s="45" t="s"/>
     </row>
     <row outlineLevel="0" r="38">
-      <c r="A38" s="20" t="n">
+      <c r="A38" s="21" t="n">
         <v>23</v>
       </c>
-      <c r="B38" s="26" t="n"/>
-      <c r="C38" s="35" t="s">
+      <c r="B38" s="27" t="n"/>
+      <c r="C38" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D38" s="40" t="s"/>
-      <c r="E38" s="22" t="n">
+      <c r="D38" s="39" t="s"/>
+      <c r="E38" s="23" t="n">
         <v>26</v>
       </c>
-      <c r="F38" s="15" t="n"/>
-      <c r="G38" s="13" t="s">
+      <c r="F38" s="16" t="n"/>
+      <c r="G38" s="14" t="s">
         <v>31</v>
       </c>
       <c r="H38" s="30" t="n">
@@ -3441,999 +3438,1012 @@
       </c>
     </row>
     <row outlineLevel="0" r="39">
-      <c r="A39" s="20" t="n">
+      <c r="A39" s="21" t="n">
         <v>24</v>
       </c>
-      <c r="B39" s="26" t="n"/>
-      <c r="C39" s="35" t="s">
+      <c r="B39" s="27" t="n"/>
+      <c r="C39" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="40" t="s"/>
-      <c r="E39" s="22" t="n">
+      <c r="D39" s="39" t="s"/>
+      <c r="E39" s="23" t="n">
         <v>27</v>
       </c>
-      <c r="F39" s="26" t="n"/>
-      <c r="G39" s="27" t="s">
+      <c r="F39" s="27" t="n"/>
+      <c r="G39" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="H39" s="46" t="s"/>
+      <c r="H39" s="45" t="s"/>
     </row>
     <row outlineLevel="0" r="40">
-      <c r="A40" s="26" t="n"/>
-      <c r="B40" s="16" t="n">
+      <c r="A40" s="27" t="n"/>
+      <c r="B40" s="17" t="n">
         <v>6</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="C40" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="51" t="s"/>
-      <c r="E40" s="13" t="s">
+      <c r="D40" s="50" t="s"/>
+      <c r="E40" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="14" t="s">
+      <c r="G40" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="13" t="s">
+      <c r="H40" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row outlineLevel="0" r="41">
-      <c r="A41" s="20" t="n">
+      <c r="A41" s="21" t="n">
         <v>25</v>
       </c>
-      <c r="B41" s="26" t="n"/>
-      <c r="C41" s="10" t="s">
+      <c r="B41" s="27" t="n"/>
+      <c r="C41" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D41" s="42" t="s"/>
-      <c r="E41" s="15" t="n"/>
-      <c r="F41" s="18" t="n">
+      <c r="D41" s="41" t="s"/>
+      <c r="E41" s="16" t="n"/>
+      <c r="F41" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="G41" s="19" t="s">
+      <c r="G41" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="H41" s="44" t="s"/>
+      <c r="H41" s="43" t="s"/>
     </row>
     <row outlineLevel="0" r="42">
-      <c r="A42" s="45" t="s">
+      <c r="A42" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="26" t="n"/>
-      <c r="C42" s="10" t="s">
+      <c r="B42" s="27" t="n"/>
+      <c r="C42" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="21" t="n">
+      <c r="D42" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="E42" s="15" t="n"/>
-      <c r="F42" s="15" t="n"/>
-      <c r="G42" s="19" t="s">
+      <c r="E42" s="16" t="n"/>
+      <c r="F42" s="16" t="n"/>
+      <c r="G42" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="H42" s="44" t="s"/>
+      <c r="H42" s="43" t="s"/>
     </row>
     <row outlineLevel="0" r="43">
-      <c r="A43" s="45" t="s">
+      <c r="A43" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="26" t="n"/>
-      <c r="C43" s="10" t="s">
+      <c r="B43" s="27" t="n"/>
+      <c r="C43" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D43" s="21" t="n">
+      <c r="D43" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="E43" s="52" t="n">
+      <c r="E43" s="51" t="n">
         <v>28</v>
       </c>
-      <c r="F43" s="15" t="n"/>
-      <c r="G43" s="13" t="s">
+      <c r="F43" s="16" t="n"/>
+      <c r="G43" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="H43" s="53" t="n">
+      <c r="H43" s="52" t="n">
         <v>2.2</v>
       </c>
     </row>
     <row outlineLevel="0" r="44">
-      <c r="A44" s="45" t="s">
+      <c r="A44" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="26" t="n"/>
-      <c r="C44" s="10" t="s">
+      <c r="B44" s="27" t="n"/>
+      <c r="C44" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D44" s="21" t="n">
+      <c r="D44" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="E44" s="52" t="n">
+      <c r="E44" s="51" t="n">
         <v>29</v>
       </c>
-      <c r="F44" s="15" t="n"/>
-      <c r="G44" s="13" t="s">
+      <c r="F44" s="16" t="n"/>
+      <c r="G44" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="H44" s="53" t="n">
+      <c r="H44" s="52" t="n">
         <v>2.9</v>
       </c>
     </row>
     <row outlineLevel="0" r="45">
-      <c r="A45" s="20" t="n">
+      <c r="A45" s="21" t="n">
         <v>26</v>
       </c>
-      <c r="B45" s="26" t="n"/>
-      <c r="C45" s="35" t="s">
+      <c r="B45" s="27" t="n"/>
+      <c r="C45" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D45" s="40" t="s"/>
-      <c r="E45" s="52" t="n">
+      <c r="D45" s="39" t="s"/>
+      <c r="E45" s="51" t="n">
         <v>30</v>
       </c>
-      <c r="F45" s="15" t="n"/>
-      <c r="G45" s="13" t="s">
+      <c r="F45" s="16" t="n"/>
+      <c r="G45" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="H45" s="53" t="n">
+      <c r="H45" s="52" t="n">
         <v>3.65</v>
       </c>
     </row>
     <row outlineLevel="0" r="46">
-      <c r="A46" s="45" t="s">
+      <c r="A46" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="B46" s="26" t="n"/>
-      <c r="C46" s="10" t="s">
+      <c r="B46" s="27" t="n"/>
+      <c r="C46" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D46" s="21" t="n">
+      <c r="D46" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="E46" s="15" t="n"/>
-      <c r="F46" s="15" t="n"/>
-      <c r="G46" s="19" t="s">
+      <c r="E46" s="16" t="n"/>
+      <c r="F46" s="16" t="n"/>
+      <c r="G46" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="H46" s="44" t="s"/>
+      <c r="H46" s="43" t="s"/>
     </row>
     <row outlineLevel="0" r="47">
-      <c r="A47" s="45" t="s">
+      <c r="A47" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="B47" s="26" t="n"/>
-      <c r="C47" s="10" t="s">
+      <c r="B47" s="27" t="n"/>
+      <c r="C47" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="21" t="n">
+      <c r="D47" s="22" t="n">
         <v>0.75</v>
       </c>
-      <c r="E47" s="52" t="n">
+      <c r="E47" s="51" t="n">
         <v>31</v>
       </c>
-      <c r="F47" s="15" t="n"/>
-      <c r="G47" s="13" t="s">
+      <c r="F47" s="16" t="n"/>
+      <c r="G47" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="H47" s="53" t="n">
+      <c r="H47" s="52" t="n">
         <v>4.5</v>
       </c>
     </row>
     <row outlineLevel="0" r="48">
-      <c r="A48" s="34" t="n">
+      <c r="A48" s="33" t="n">
         <v>27</v>
       </c>
-      <c r="B48" s="38" t="n"/>
-      <c r="C48" s="10" t="s">
+      <c r="B48" s="37" t="n"/>
+      <c r="C48" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D48" s="42" t="s"/>
-      <c r="E48" s="52" t="n">
+      <c r="D48" s="41" t="s"/>
+      <c r="E48" s="51" t="n">
         <v>32</v>
       </c>
-      <c r="F48" s="15" t="n"/>
-      <c r="G48" s="13" t="s">
+      <c r="F48" s="16" t="n"/>
+      <c r="G48" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="H48" s="53" t="n">
+      <c r="H48" s="52" t="n">
         <v>5.65</v>
       </c>
     </row>
     <row outlineLevel="0" r="49">
-      <c r="A49" s="34" t="n">
+      <c r="A49" s="33" t="n">
         <v>28</v>
       </c>
-      <c r="B49" s="38" t="n"/>
-      <c r="C49" s="10" t="s">
+      <c r="B49" s="37" t="n"/>
+      <c r="C49" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D49" s="42" t="s"/>
-      <c r="E49" s="52" t="n">
+      <c r="D49" s="41" t="s"/>
+      <c r="E49" s="51" t="n">
         <v>33</v>
       </c>
-      <c r="F49" s="15" t="n"/>
-      <c r="G49" s="13" t="s">
+      <c r="F49" s="16" t="n"/>
+      <c r="G49" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="H49" s="53" t="n">
+      <c r="H49" s="52" t="n">
         <v>8.1</v>
       </c>
     </row>
     <row outlineLevel="0" r="50">
-      <c r="A50" s="34" t="n">
+      <c r="A50" s="33" t="n">
         <v>29</v>
       </c>
-      <c r="B50" s="38" t="n"/>
-      <c r="C50" s="10" t="s">
+      <c r="B50" s="37" t="n"/>
+      <c r="C50" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D50" s="42" t="s"/>
-      <c r="E50" s="26" t="n"/>
-      <c r="F50" s="26" t="n"/>
-      <c r="G50" s="27" t="s">
+      <c r="D50" s="41" t="s"/>
+      <c r="E50" s="27" t="n"/>
+      <c r="F50" s="27" t="n"/>
+      <c r="G50" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="H50" s="46" t="s"/>
+      <c r="H50" s="45" t="s"/>
     </row>
     <row outlineLevel="0" r="51">
-      <c r="A51" s="20" t="n">
+      <c r="A51" s="21" t="n">
         <v>30</v>
       </c>
-      <c r="B51" s="26" t="n"/>
-      <c r="C51" s="35" t="s">
+      <c r="B51" s="27" t="n"/>
+      <c r="C51" s="34" t="s">
         <v>106</v>
       </c>
       <c r="D51" s="29" t="n">
         <v>0.01</v>
       </c>
-      <c r="E51" s="52" t="n">
+      <c r="E51" s="51" t="n">
         <v>34</v>
       </c>
-      <c r="F51" s="26" t="n"/>
-      <c r="G51" s="13" t="s">
+      <c r="F51" s="27" t="n"/>
+      <c r="G51" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="H51" s="41" t="s"/>
+      <c r="H51" s="40" t="s"/>
     </row>
     <row outlineLevel="0" r="52">
-      <c r="A52" s="20" t="n">
+      <c r="A52" s="21" t="n">
         <v>31</v>
       </c>
-      <c r="B52" s="26" t="n"/>
-      <c r="C52" s="35" t="s">
+      <c r="B52" s="27" t="n"/>
+      <c r="C52" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="D52" s="40" t="s"/>
-      <c r="E52" s="52" t="n">
+      <c r="D52" s="39" t="s"/>
+      <c r="E52" s="51" t="n">
         <v>35</v>
       </c>
-      <c r="F52" s="26" t="n"/>
-      <c r="G52" s="27" t="s">
+      <c r="F52" s="27" t="n"/>
+      <c r="G52" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="H52" s="46" t="s"/>
+      <c r="H52" s="45" t="s"/>
     </row>
     <row outlineLevel="0" r="53">
-      <c r="A53" s="26" t="n"/>
-      <c r="B53" s="16" t="n">
+      <c r="A53" s="27" t="n"/>
+      <c r="B53" s="17" t="n">
         <v>7</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="D53" s="43" t="s"/>
-      <c r="E53" s="52" t="n">
+      <c r="D53" s="42" t="s"/>
+      <c r="E53" s="51" t="n">
         <v>36</v>
       </c>
-      <c r="F53" s="26" t="n"/>
-      <c r="G53" s="27" t="s">
+      <c r="F53" s="27" t="n"/>
+      <c r="G53" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="H53" s="46" t="s"/>
+      <c r="H53" s="45" t="s"/>
     </row>
     <row outlineLevel="0" r="54">
-      <c r="A54" s="15" t="n"/>
-      <c r="B54" s="15" t="n"/>
-      <c r="C54" s="17" t="s">
+      <c r="A54" s="16" t="n"/>
+      <c r="B54" s="16" t="n"/>
+      <c r="C54" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="D54" s="43" t="s"/>
-      <c r="E54" s="26" t="n"/>
-      <c r="F54" s="18" t="n">
+      <c r="D54" s="42" t="s"/>
+      <c r="E54" s="27" t="n"/>
+      <c r="F54" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="G54" s="19" t="s">
+      <c r="G54" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="H54" s="44" t="s"/>
+      <c r="H54" s="43" t="s"/>
     </row>
     <row outlineLevel="0" r="55">
-      <c r="A55" s="20" t="n">
+      <c r="A55" s="21" t="n">
         <v>32</v>
       </c>
-      <c r="B55" s="15" t="n"/>
-      <c r="C55" s="10" t="s">
+      <c r="B55" s="16" t="n"/>
+      <c r="C55" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D55" s="21" t="n">
+      <c r="D55" s="22" t="n">
         <v>2.64</v>
       </c>
-      <c r="E55" s="52" t="n">
+      <c r="E55" s="51" t="n">
         <v>37</v>
       </c>
-      <c r="F55" s="15" t="n"/>
-      <c r="G55" s="13" t="s">
+      <c r="F55" s="16" t="n"/>
+      <c r="G55" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="H55" s="53" t="n">
+      <c r="H55" s="52" t="n">
         <v>4.5</v>
       </c>
     </row>
     <row outlineLevel="0" r="56">
-      <c r="A56" s="20" t="n">
+      <c r="A56" s="21" t="n">
         <v>33</v>
       </c>
-      <c r="B56" s="15" t="n"/>
-      <c r="C56" s="10" t="s">
+      <c r="B56" s="16" t="n"/>
+      <c r="C56" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D56" s="21" t="n">
+      <c r="D56" s="22" t="n">
         <v>3.48</v>
       </c>
-      <c r="E56" s="52" t="n">
+      <c r="E56" s="51" t="n">
         <v>38</v>
       </c>
-      <c r="F56" s="15" t="n"/>
-      <c r="G56" s="13" t="s">
+      <c r="F56" s="16" t="n"/>
+      <c r="G56" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="H56" s="53" t="n">
+      <c r="H56" s="52" t="n">
         <v>5.65</v>
       </c>
     </row>
     <row outlineLevel="0" r="57">
-      <c r="A57" s="20" t="n">
+      <c r="A57" s="21" t="n">
         <v>34</v>
       </c>
-      <c r="B57" s="15" t="n"/>
-      <c r="C57" s="10" t="s">
+      <c r="B57" s="16" t="n"/>
+      <c r="C57" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D57" s="21" t="n">
+      <c r="D57" s="22" t="n">
         <v>4.38</v>
       </c>
-      <c r="E57" s="52" t="n">
+      <c r="E57" s="51" t="n">
         <v>39</v>
       </c>
-      <c r="F57" s="15" t="n"/>
-      <c r="G57" s="13" t="s">
+      <c r="F57" s="16" t="n"/>
+      <c r="G57" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="H57" s="53" t="n">
+      <c r="H57" s="52" t="n">
         <v>8.1</v>
       </c>
     </row>
     <row outlineLevel="0" r="58">
-      <c r="A58" s="15" t="n"/>
-      <c r="B58" s="15" t="n"/>
-      <c r="C58" s="17" t="s">
+      <c r="A58" s="16" t="n"/>
+      <c r="B58" s="16" t="n"/>
+      <c r="C58" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="D58" s="43" t="s"/>
-      <c r="E58" s="52" t="n">
+      <c r="D58" s="42" t="s"/>
+      <c r="E58" s="51" t="n">
         <v>40</v>
       </c>
-      <c r="F58" s="26" t="n"/>
-      <c r="G58" s="13" t="s">
+      <c r="F58" s="27" t="n"/>
+      <c r="G58" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H58" s="54" t="n">
+      <c r="H58" s="53" t="n">
         <v>0.03</v>
       </c>
     </row>
     <row outlineLevel="0" r="59">
-      <c r="A59" s="20" t="n">
+      <c r="A59" s="21" t="n">
         <v>35</v>
       </c>
-      <c r="B59" s="15" t="n"/>
-      <c r="C59" s="10" t="s">
+      <c r="B59" s="16" t="n"/>
+      <c r="C59" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D59" s="21" t="n">
+      <c r="D59" s="22" t="n">
         <v>5.4</v>
       </c>
-      <c r="E59" s="52" t="n">
+      <c r="E59" s="51" t="n">
         <v>41</v>
       </c>
-      <c r="F59" s="26" t="n"/>
-      <c r="G59" s="27" t="s">
+      <c r="F59" s="27" t="n"/>
+      <c r="G59" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="H59" s="46" t="s"/>
+      <c r="H59" s="45" t="s"/>
     </row>
     <row outlineLevel="0" r="60">
-      <c r="A60" s="20" t="n">
+      <c r="A60" s="21" t="n">
         <v>36</v>
       </c>
-      <c r="B60" s="15" t="n"/>
-      <c r="C60" s="10" t="s">
+      <c r="B60" s="16" t="n"/>
+      <c r="C60" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D60" s="21" t="n">
+      <c r="D60" s="22" t="n">
         <v>6.78</v>
       </c>
-      <c r="E60" s="26" t="n"/>
-      <c r="F60" s="18" t="n">
+      <c r="E60" s="27" t="n"/>
+      <c r="F60" s="19" t="n">
         <v>8</v>
       </c>
-      <c r="G60" s="19" t="s">
+      <c r="G60" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="H60" s="44" t="s"/>
+      <c r="H60" s="43" t="s"/>
     </row>
     <row outlineLevel="0" r="61">
-      <c r="A61" s="20" t="n">
+      <c r="A61" s="21" t="n">
         <v>37</v>
       </c>
-      <c r="B61" s="15" t="n"/>
-      <c r="C61" s="10" t="s">
+      <c r="B61" s="16" t="n"/>
+      <c r="C61" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D61" s="21" t="n">
+      <c r="D61" s="22" t="n">
         <v>9.72</v>
       </c>
-      <c r="E61" s="52" t="n">
+      <c r="E61" s="51" t="n">
         <v>42</v>
       </c>
-      <c r="F61" s="15" t="n"/>
-      <c r="G61" s="13" t="s">
+      <c r="F61" s="16" t="n"/>
+      <c r="G61" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="H61" s="53" t="n">
+      <c r="H61" s="52" t="n">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="62">
-      <c r="A62" s="26" t="n"/>
-      <c r="B62" s="26" t="n"/>
-      <c r="C62" s="10" t="s">
+      <c r="A62" s="27" t="n"/>
+      <c r="B62" s="27" t="n"/>
+      <c r="C62" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D62" s="42" t="s"/>
-      <c r="E62" s="52" t="n">
+      <c r="D62" s="41" t="s"/>
+      <c r="E62" s="51" t="n">
         <v>43</v>
       </c>
-      <c r="F62" s="15" t="n"/>
-      <c r="G62" s="13" t="s">
+      <c r="F62" s="16" t="n"/>
+      <c r="G62" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="H62" s="53" t="n">
+      <c r="H62" s="52" t="n">
         <v>30</v>
       </c>
     </row>
     <row outlineLevel="0" r="63">
-      <c r="A63" s="34" t="n">
+      <c r="A63" s="33" t="n">
         <v>38</v>
       </c>
-      <c r="B63" s="26" t="n"/>
-      <c r="C63" s="55" t="s">
+      <c r="B63" s="27" t="n"/>
+      <c r="C63" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="D63" s="56" t="s"/>
-      <c r="E63" s="52" t="n">
+      <c r="D63" s="55" t="s"/>
+      <c r="E63" s="51" t="n">
         <v>44</v>
       </c>
-      <c r="F63" s="15" t="n"/>
-      <c r="G63" s="13" t="s">
+      <c r="F63" s="16" t="n"/>
+      <c r="G63" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="H63" s="53" t="n">
+      <c r="H63" s="52" t="n">
         <v>42.5</v>
       </c>
     </row>
     <row outlineLevel="0" r="64">
-      <c r="A64" s="20" t="n">
+      <c r="A64" s="21" t="n">
         <v>39</v>
       </c>
-      <c r="B64" s="26" t="n"/>
-      <c r="C64" s="10" t="s">
+      <c r="B64" s="27" t="n"/>
+      <c r="C64" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="D64" s="42" t="s"/>
-      <c r="E64" s="15" t="n"/>
-      <c r="F64" s="18" t="n">
+      <c r="D64" s="41" t="s"/>
+      <c r="E64" s="16" t="n"/>
+      <c r="F64" s="19" t="n">
         <v>9</v>
       </c>
-      <c r="G64" s="19" t="s">
+      <c r="G64" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="H64" s="15" t="n"/>
+      <c r="H64" s="16" t="n"/>
     </row>
     <row outlineLevel="0" r="65">
-      <c r="A65" s="57" t="n">
+      <c r="A65" s="56" t="n">
         <v>40</v>
       </c>
-      <c r="B65" s="58" t="n"/>
-      <c r="C65" s="59" t="s">
+      <c r="B65" s="57" t="n"/>
+      <c r="C65" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="D65" s="60" t="s"/>
-      <c r="E65" s="52" t="n">
+      <c r="D65" s="59" t="s"/>
+      <c r="E65" s="51" t="n">
         <v>45</v>
       </c>
-      <c r="F65" s="26" t="n"/>
-      <c r="G65" s="27" t="s">
+      <c r="F65" s="27" t="n"/>
+      <c r="G65" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="H65" s="54" t="n">
+      <c r="H65" s="53" t="n">
         <v>0.03</v>
       </c>
     </row>
     <row outlineLevel="0" r="66">
-      <c r="A66" s="15" t="n"/>
-      <c r="B66" s="61" t="n">
+      <c r="A66" s="16" t="n"/>
+      <c r="B66" s="60" t="n">
         <v>7</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="C66" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="D66" s="43" t="s"/>
-      <c r="E66" s="26" t="n"/>
-      <c r="F66" s="26" t="n"/>
-      <c r="G66" s="13" t="s">
+      <c r="D66" s="42" t="s"/>
+      <c r="E66" s="27" t="n"/>
+      <c r="F66" s="27" t="n"/>
+      <c r="G66" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="H66" s="41" t="s"/>
+      <c r="H66" s="40" t="s"/>
     </row>
     <row outlineLevel="0" r="67">
-      <c r="A67" s="20" t="n">
+      <c r="A67" s="21" t="n">
         <v>41</v>
       </c>
-      <c r="B67" s="15" t="n"/>
-      <c r="C67" s="10" t="s">
+      <c r="B67" s="16" t="n"/>
+      <c r="C67" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="D67" s="21" t="n">
+      <c r="D67" s="22" t="n">
         <v>5.4</v>
       </c>
-      <c r="E67" s="52" t="n">
+      <c r="E67" s="51" t="n">
         <v>46</v>
       </c>
-      <c r="F67" s="38" t="n"/>
-      <c r="G67" s="27" t="s">
+      <c r="F67" s="37" t="n"/>
+      <c r="G67" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="H67" s="62" t="n">
+      <c r="H67" s="61" t="n">
         <v>0.0233</v>
       </c>
     </row>
     <row outlineLevel="0" r="68">
-      <c r="A68" s="20" t="n">
+      <c r="A68" s="21" t="n">
         <v>42</v>
       </c>
-      <c r="B68" s="15" t="n"/>
-      <c r="C68" s="10" t="s">
+      <c r="B68" s="16" t="n"/>
+      <c r="C68" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="D68" s="21" t="n">
+      <c r="D68" s="22" t="n">
         <v>6.78</v>
       </c>
-      <c r="E68" s="52" t="n">
+      <c r="E68" s="51" t="n">
         <v>47</v>
       </c>
-      <c r="F68" s="38" t="n"/>
-      <c r="G68" s="27" t="s">
+      <c r="F68" s="37" t="n"/>
+      <c r="G68" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="H68" s="62" t="n">
+      <c r="H68" s="61" t="n">
         <v>0.0233</v>
       </c>
     </row>
     <row outlineLevel="0" r="69">
-      <c r="A69" s="20" t="n">
+      <c r="A69" s="21" t="n">
         <v>43</v>
       </c>
-      <c r="B69" s="15" t="n"/>
-      <c r="C69" s="10" t="s">
+      <c r="B69" s="16" t="n"/>
+      <c r="C69" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D69" s="21" t="n">
+      <c r="D69" s="22" t="n">
         <v>9.72</v>
       </c>
-      <c r="E69" s="63" t="n">
+      <c r="E69" s="62" t="n">
         <v>48</v>
       </c>
-      <c r="F69" s="38" t="n"/>
-      <c r="G69" s="13" t="s">
+      <c r="F69" s="37" t="n"/>
+      <c r="G69" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="H69" s="64" t="n">
+      <c r="H69" s="63" t="n">
         <v>0.015</v>
       </c>
     </row>
     <row outlineLevel="0" r="70">
-      <c r="A70" s="20" t="n">
+      <c r="A70" s="21" t="n">
         <v>44</v>
       </c>
-      <c r="B70" s="15" t="n"/>
-      <c r="C70" s="10" t="s">
+      <c r="B70" s="16" t="n"/>
+      <c r="C70" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D70" s="29" t="n">
         <v>0.03</v>
       </c>
-      <c r="E70" s="38" t="n"/>
-      <c r="F70" s="38" t="n"/>
-      <c r="G70" s="13" t="s">
+      <c r="E70" s="37" t="n"/>
+      <c r="F70" s="37" t="n"/>
+      <c r="G70" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="H70" s="41" t="s"/>
+      <c r="H70" s="40" t="s"/>
     </row>
     <row outlineLevel="0" r="71">
-      <c r="A71" s="34" t="n">
+      <c r="A71" s="33" t="n">
         <v>45</v>
       </c>
-      <c r="B71" s="26" t="n"/>
-      <c r="C71" s="10" t="s">
+      <c r="B71" s="27" t="n"/>
+      <c r="C71" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D71" s="42" t="s"/>
-      <c r="E71" s="63" t="n">
+      <c r="D71" s="41" t="s"/>
+      <c r="E71" s="62" t="n">
         <v>49</v>
       </c>
-      <c r="F71" s="38" t="n"/>
-      <c r="G71" s="13" t="s">
+      <c r="F71" s="37" t="n"/>
+      <c r="G71" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="H71" s="65" t="n">
+      <c r="H71" s="64" t="n">
         <v>0.0233</v>
       </c>
     </row>
     <row outlineLevel="0" r="72">
-      <c r="A72" s="15" t="n"/>
-      <c r="B72" s="61" t="n">
+      <c r="A72" s="16" t="n"/>
+      <c r="B72" s="60" t="n">
         <v>8</v>
       </c>
-      <c r="C72" s="17" t="s">
+      <c r="C72" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="D72" s="15" t="n"/>
-      <c r="E72" s="63" t="n">
+      <c r="D72" s="16" t="n"/>
+      <c r="E72" s="62" t="n">
         <v>50</v>
       </c>
-      <c r="F72" s="26" t="n"/>
-      <c r="G72" s="27" t="s">
+      <c r="F72" s="27" t="n"/>
+      <c r="G72" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="H72" s="47" t="n">
+      <c r="H72" s="46" t="n">
         <v>0.015</v>
       </c>
     </row>
     <row outlineLevel="0" r="73">
-      <c r="A73" s="34" t="n">
+      <c r="A73" s="33" t="n">
         <v>46</v>
       </c>
-      <c r="B73" s="26" t="n"/>
-      <c r="C73" s="10" t="s">
+      <c r="B73" s="27" t="n"/>
+      <c r="C73" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="D73" s="66" t="n">
+      <c r="D73" s="65" t="n">
         <v>0.03</v>
       </c>
-      <c r="E73" s="63" t="n">
+      <c r="E73" s="62" t="n">
         <v>51</v>
       </c>
-      <c r="F73" s="38" t="n"/>
-      <c r="G73" s="13" t="s">
+      <c r="F73" s="37" t="n"/>
+      <c r="G73" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="H73" s="47" t="n">
+      <c r="H73" s="46" t="n">
         <v>0.005</v>
       </c>
     </row>
     <row outlineLevel="0" r="74">
-      <c r="A74" s="34" t="n">
+      <c r="A74" s="33" t="n">
         <v>47</v>
       </c>
-      <c r="B74" s="38" t="n"/>
-      <c r="C74" s="10" t="s">
+      <c r="B74" s="37" t="n"/>
+      <c r="C74" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="D74" s="42" t="s"/>
-      <c r="E74" s="52" t="n">
+      <c r="D74" s="41" t="s"/>
+      <c r="E74" s="51" t="n">
         <v>52</v>
       </c>
-      <c r="F74" s="26" t="n"/>
-      <c r="G74" s="27" t="s">
+      <c r="F74" s="27" t="n"/>
+      <c r="G74" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="H74" s="67" t="n">
+      <c r="H74" s="66" t="n">
         <v>0.009</v>
       </c>
     </row>
     <row outlineLevel="0" r="75">
-      <c r="A75" s="34" t="n">
+      <c r="A75" s="33" t="n">
         <v>48</v>
       </c>
-      <c r="B75" s="38" t="n"/>
-      <c r="C75" s="10" t="s">
+      <c r="B75" s="37" t="n"/>
+      <c r="C75" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="D75" s="66" t="n">
+      <c r="D75" s="65" t="n">
         <v>0.015</v>
       </c>
-      <c r="E75" s="15" t="n"/>
-      <c r="F75" s="18" t="n">
+      <c r="E75" s="16" t="n"/>
+      <c r="F75" s="19" t="n">
         <v>8</v>
       </c>
-      <c r="G75" s="19" t="s">
+      <c r="G75" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="H75" s="15" t="n"/>
+      <c r="H75" s="16" t="n"/>
     </row>
     <row outlineLevel="0" r="76">
-      <c r="A76" s="34" t="n">
+      <c r="A76" s="33" t="n">
         <v>49</v>
       </c>
-      <c r="B76" s="38" t="n"/>
-      <c r="C76" s="10" t="s">
+      <c r="B76" s="37" t="n"/>
+      <c r="C76" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="D76" s="36" t="n">
+      <c r="D76" s="35" t="n">
         <v>0.01</v>
       </c>
-      <c r="E76" s="52" t="n">
+      <c r="E76" s="51" t="n">
         <v>53</v>
       </c>
-      <c r="F76" s="38" t="n"/>
-      <c r="G76" s="27" t="s">
+      <c r="F76" s="37" t="n"/>
+      <c r="G76" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="H76" s="46" t="s"/>
+      <c r="H76" s="45" t="s"/>
     </row>
     <row outlineLevel="0" r="77">
-      <c r="A77" s="15" t="n"/>
-      <c r="B77" s="61" t="n">
+      <c r="A77" s="16" t="n"/>
+      <c r="B77" s="60" t="n">
         <v>9</v>
       </c>
-      <c r="C77" s="17" t="s">
+      <c r="C77" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="D77" s="43" t="s"/>
-      <c r="E77" s="15" t="n"/>
-      <c r="F77" s="18" t="n">
+      <c r="D77" s="42" t="s"/>
+      <c r="E77" s="16" t="n"/>
+      <c r="F77" s="19" t="n">
         <v>9</v>
       </c>
-      <c r="G77" s="19" t="s">
+      <c r="G77" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="H77" s="15" t="n"/>
+      <c r="H77" s="16" t="n"/>
     </row>
     <row outlineLevel="0" r="78">
-      <c r="A78" s="34" t="n">
+      <c r="A78" s="33" t="n">
         <v>50</v>
       </c>
-      <c r="B78" s="38" t="n"/>
-      <c r="C78" s="10" t="s">
+      <c r="B78" s="37" t="n"/>
+      <c r="C78" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="D78" s="42" t="s"/>
-      <c r="E78" s="63" t="n">
+      <c r="D78" s="41" t="s"/>
+      <c r="E78" s="62" t="n">
         <v>54</v>
       </c>
-      <c r="F78" s="26" t="n"/>
-      <c r="G78" s="27" t="s">
+      <c r="F78" s="27" t="n"/>
+      <c r="G78" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="H78" s="46" t="s"/>
+      <c r="H78" s="45" t="s"/>
     </row>
     <row outlineLevel="0" r="79">
-      <c r="A79" s="15" t="n"/>
-      <c r="B79" s="61" t="n">
+      <c r="A79" s="16" t="n"/>
+      <c r="B79" s="60" t="n">
         <v>10</v>
       </c>
-      <c r="C79" s="17" t="s">
+      <c r="C79" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="D79" s="43" t="s"/>
-      <c r="E79" s="63" t="n">
+      <c r="D79" s="42" t="s"/>
+      <c r="E79" s="62" t="n">
         <v>55</v>
       </c>
-      <c r="F79" s="26" t="n"/>
-      <c r="G79" s="27" t="s">
+      <c r="F79" s="27" t="n"/>
+      <c r="G79" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="H79" s="47" t="n">
+      <c r="H79" s="46" t="n">
         <v>0.03</v>
       </c>
     </row>
     <row outlineLevel="0" r="80">
-      <c r="A80" s="20" t="n">
+      <c r="A80" s="21" t="n">
         <v>51</v>
       </c>
-      <c r="B80" s="15" t="n"/>
-      <c r="C80" s="10" t="s">
+      <c r="B80" s="16" t="n"/>
+      <c r="C80" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="D80" s="21" t="n">
+      <c r="D80" s="22" t="n">
         <v>0.72</v>
       </c>
-      <c r="E80" s="52" t="n">
+      <c r="E80" s="51" t="n">
         <v>56</v>
       </c>
-      <c r="F80" s="26" t="n"/>
-      <c r="G80" s="27" t="s">
+      <c r="F80" s="27" t="n"/>
+      <c r="G80" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="H80" s="46" t="s"/>
+      <c r="H80" s="45" t="s"/>
     </row>
     <row outlineLevel="0" r="81">
-      <c r="A81" s="20" t="n">
+      <c r="A81" s="21" t="n">
         <v>52</v>
       </c>
-      <c r="B81" s="15" t="n"/>
-      <c r="C81" s="10" t="s">
+      <c r="B81" s="16" t="n"/>
+      <c r="C81" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="D81" s="21" t="n">
+      <c r="D81" s="22" t="n">
         <v>2.34</v>
       </c>
-      <c r="E81" s="15" t="n"/>
-      <c r="F81" s="18" t="n">
+      <c r="E81" s="16" t="n"/>
+      <c r="F81" s="19" t="n">
         <v>10</v>
       </c>
-      <c r="G81" s="19" t="s">
+      <c r="G81" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="H81" s="44" t="s"/>
+      <c r="H81" s="43" t="s"/>
     </row>
     <row outlineLevel="0" r="82">
-      <c r="A82" s="20" t="n">
+      <c r="A82" s="21" t="n">
         <v>53</v>
       </c>
-      <c r="B82" s="15" t="n"/>
-      <c r="C82" s="10" t="s">
+      <c r="B82" s="16" t="n"/>
+      <c r="C82" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="D82" s="21" t="n">
+      <c r="D82" s="22" t="n">
         <v>0.54</v>
       </c>
-      <c r="E82" s="52" t="n">
+      <c r="E82" s="51" t="n">
         <v>57</v>
       </c>
-      <c r="F82" s="15" t="n"/>
-      <c r="G82" s="13" t="s">
+      <c r="F82" s="16" t="n"/>
+      <c r="G82" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="H82" s="23" t="n">
+      <c r="H82" s="24" t="n">
         <v>0.6</v>
       </c>
     </row>
     <row outlineLevel="0" r="83">
-      <c r="A83" s="15" t="n"/>
-      <c r="B83" s="61" t="n">
+      <c r="A83" s="16" t="n"/>
+      <c r="B83" s="60" t="n">
         <v>11</v>
       </c>
-      <c r="C83" s="17" t="s">
+      <c r="C83" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="D83" s="15" t="n"/>
-      <c r="E83" s="52" t="n">
+      <c r="D83" s="16" t="n"/>
+      <c r="E83" s="51" t="n">
         <v>58</v>
       </c>
-      <c r="F83" s="15" t="n"/>
-      <c r="G83" s="13" t="s">
+      <c r="F83" s="16" t="n"/>
+      <c r="G83" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="H83" s="23" t="n">
+      <c r="H83" s="24" t="n">
         <v>1.95</v>
       </c>
     </row>
     <row outlineLevel="0" r="84">
-      <c r="A84" s="20" t="n">
+      <c r="A84" s="21" t="n">
         <v>54</v>
       </c>
-      <c r="B84" s="38" t="n"/>
-      <c r="C84" s="10" t="s">
+      <c r="B84" s="37" t="n"/>
+      <c r="C84" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="D84" s="42" t="s"/>
-      <c r="E84" s="52" t="n">
+      <c r="D84" s="41" t="s"/>
+      <c r="E84" s="51" t="n">
         <v>59</v>
       </c>
-      <c r="F84" s="15" t="n"/>
-      <c r="G84" s="13" t="s">
+      <c r="F84" s="16" t="n"/>
+      <c r="G84" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="H84" s="23" t="n">
+      <c r="H84" s="24" t="n">
         <v>0.45</v>
       </c>
     </row>
     <row outlineLevel="0" r="85">
-      <c r="E85" s="15" t="n"/>
-      <c r="F85" s="18" t="n">
+      <c r="E85" s="16" t="n"/>
+      <c r="F85" s="19" t="n">
         <v>11</v>
       </c>
-      <c r="G85" s="19" t="s">
+      <c r="G85" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="H85" s="44" t="s"/>
+      <c r="H85" s="43" t="s"/>
     </row>
     <row outlineLevel="0" r="86">
-      <c r="E86" s="52" t="n">
+      <c r="E86" s="51" t="n">
         <v>60</v>
       </c>
-      <c r="F86" s="26" t="n"/>
-      <c r="G86" s="27" t="s">
+      <c r="F86" s="27" t="n"/>
+      <c r="G86" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="H86" s="46" t="s"/>
+      <c r="H86" s="45" t="s"/>
     </row>
     <row outlineLevel="0" r="87">
-      <c r="E87" s="52" t="n">
+      <c r="E87" s="51" t="n">
         <v>61</v>
       </c>
-      <c r="F87" s="15" t="n"/>
-      <c r="G87" s="13" t="s">
+      <c r="F87" s="16" t="n"/>
+      <c r="G87" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="H87" s="41" t="s"/>
+      <c r="H87" s="40" t="s"/>
     </row>
     <row outlineLevel="0" r="88">
-      <c r="E88" s="52" t="n">
+      <c r="E88" s="51" t="n">
         <v>62</v>
       </c>
-      <c r="F88" s="26" t="n"/>
-      <c r="G88" s="13" t="s">
+      <c r="F88" s="27" t="n"/>
+      <c r="G88" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="H88" s="41" t="s"/>
+      <c r="H88" s="40" t="s"/>
     </row>
     <row outlineLevel="0" r="89">
-      <c r="E89" s="15" t="n"/>
-      <c r="F89" s="18" t="n">
+      <c r="E89" s="16" t="n"/>
+      <c r="F89" s="19" t="n">
         <v>12</v>
       </c>
-      <c r="G89" s="19" t="s">
+      <c r="G89" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="H89" s="44" t="s"/>
+      <c r="H89" s="43" t="s"/>
     </row>
     <row outlineLevel="0" r="90">
-      <c r="E90" s="63" t="n">
+      <c r="E90" s="62" t="n">
         <v>63</v>
       </c>
-      <c r="F90" s="26" t="n"/>
-      <c r="G90" s="27" t="s">
+      <c r="F90" s="27" t="n"/>
+      <c r="G90" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="H90" s="46" t="s"/>
+      <c r="H90" s="45" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:H4"/>
-    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C30:D30"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C84:D84"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C25:D25"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C58:D58"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C49:D49"/>
@@ -4441,6 +4451,13 @@
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C33:D33"/>
     <mergeCell ref="G90:H90"/>
     <mergeCell ref="G89:H89"/>
     <mergeCell ref="G88:H88"/>
@@ -4453,34 +4470,14 @@
     <mergeCell ref="G76:H76"/>
     <mergeCell ref="G70:H70"/>
     <mergeCell ref="G66:H66"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
     <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G46:H46"/>
     <mergeCell ref="G53:H53"/>
     <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.300000011920929" header="0.300000011920929" left="0.700000047683716" right="0.700000047683716" top="0.75"/>
 </worksheet>

--- a/calc/files/letter2.xlsx
+++ b/calc/files/letter2.xlsx
@@ -459,6 +459,7 @@
       <t>За хрупкие мелкие пакеты с объявленной ценностью  с отметкой "Осторожно" взимается надбавка к плате за  пересылку  мелкого  пакета   в  размере  50%.  На  плату  за  объявленную  ценность  мелкого  пакета надбавка не распространяется</t>
     </r>
   </si>
+  <si/>
   <si>
     <r>
       <rPr>
@@ -2029,9 +2030,10 @@
     <numFmt co:extendedFormatCode="0.00" formatCode="0.00" numFmtId="1003"/>
     <numFmt co:extendedFormatCode="0.0%" formatCode="0.0%" numFmtId="1004"/>
     <numFmt co:extendedFormatCode="0.000" formatCode="0.000" numFmtId="1005"/>
-    <numFmt co:extendedFormatCode="0.00%" formatCode="0.00%" numFmtId="1006"/>
+    <numFmt co:extendedFormatCode="0.0000" formatCode="0.0000" numFmtId="1006"/>
+    <numFmt co:extendedFormatCode="0.00%" formatCode="0.00%" numFmtId="1007"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <name val="Calibri"/>
       <color rgb="000000" tint="0"/>
@@ -2107,11 +2109,6 @@
     </font>
     <font>
       <name val="Microsoft Sans Serif"/>
-      <color rgb="000000" tint="0"/>
-      <sz val="8.5"/>
-    </font>
-    <font>
-      <name val="Microsoft Sans Serif"/>
       <sz val="7.5"/>
     </font>
   </fonts>
@@ -2270,9 +2267,6 @@
     <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1003" quotePrefix="false">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="14" numFmtId="1003" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
@@ -2327,6 +2321,9 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="top" wrapText="true"/>
     </xf>
+    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1006" quotePrefix="false">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="13" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
@@ -2336,7 +2333,7 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="15" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="14" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" indent="1" vertical="top" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="8" numFmtId="1000" quotePrefix="false">
@@ -2375,7 +2372,7 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="8" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1006" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1007" quotePrefix="false">
       <alignment horizontal="right" indent="5" shrinkToFit="true" vertical="top"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1002" quotePrefix="false">
@@ -2384,7 +2381,7 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1004" quotePrefix="false">
       <alignment horizontal="right" indent="6" shrinkToFit="true" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1006" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1007" quotePrefix="false">
       <alignment horizontal="right" indent="5" shrinkToFit="true" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="12" numFmtId="1004" quotePrefix="false">
@@ -2833,7 +2830,7 @@
       <c r="G11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="26" t="n">
+      <c r="H11" s="24" t="n">
         <v>3</v>
       </c>
       <c r="I11" s="25" t="n">
@@ -2853,7 +2850,7 @@
       <c r="A12" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="B12" s="27" t="n"/>
+      <c r="B12" s="26" t="n"/>
       <c r="C12" s="11" t="s">
         <v>28</v>
       </c>
@@ -2863,8 +2860,8 @@
       <c r="E12" s="23" t="n">
         <v>4</v>
       </c>
-      <c r="F12" s="27" t="n"/>
-      <c r="G12" s="28" t="s">
+      <c r="F12" s="26" t="n"/>
+      <c r="G12" s="27" t="s">
         <v>29</v>
       </c>
       <c r="H12" s="24" t="n">
@@ -2885,7 +2882,7 @@
       <c r="C13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="29" t="n">
+      <c r="D13" s="28" t="n">
         <v>0.036</v>
       </c>
       <c r="E13" s="23" t="n">
@@ -2895,10 +2892,10 @@
       <c r="G13" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="30" t="n">
+      <c r="H13" s="29" t="n">
         <v>0.03</v>
       </c>
-      <c r="I13" s="31" t="n">
+      <c r="I13" s="30" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H13*1.2</f>
         <v>0.036</v>
       </c>
@@ -2987,14 +2984,14 @@
       <c r="D17" s="22" t="n">
         <v>3.24</v>
       </c>
-      <c r="E17" s="32" t="n">
+      <c r="E17" s="31" t="n">
         <v>8</v>
       </c>
       <c r="F17" s="16" t="n"/>
       <c r="G17" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="26" t="n">
+      <c r="H17" s="24" t="n">
         <v>3</v>
       </c>
       <c r="I17" s="25" t="n">
@@ -3003,24 +3000,24 @@
       </c>
     </row>
     <row customHeight="true" ht="35.25" outlineLevel="0" r="18">
-      <c r="A18" s="33" t="n">
+      <c r="A18" s="32" t="n">
         <v>9</v>
       </c>
-      <c r="B18" s="27" t="n"/>
-      <c r="C18" s="34" t="s">
+      <c r="B18" s="26" t="n"/>
+      <c r="C18" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="35" t="n">
+      <c r="D18" s="34" t="n">
         <v>0.06</v>
       </c>
-      <c r="E18" s="36" t="n">
+      <c r="E18" s="35" t="n">
         <v>9</v>
       </c>
-      <c r="F18" s="37" t="n"/>
+      <c r="F18" s="36" t="n"/>
       <c r="G18" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="38" t="n">
+      <c r="H18" s="37" t="n">
         <v>0.05</v>
       </c>
       <c r="I18" s="25" t="n">
@@ -3032,11 +3029,11 @@
       <c r="A19" s="21" t="n">
         <v>10</v>
       </c>
-      <c r="B19" s="27" t="n"/>
+      <c r="B19" s="26" t="n"/>
       <c r="C19" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="29" t="n">
+      <c r="D19" s="28" t="n">
         <v>0.036</v>
       </c>
       <c r="E19" s="23" t="n">
@@ -3046,50 +3043,53 @@
       <c r="G19" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="30" t="n">
+      <c r="H19" s="29" t="n">
         <v>0.03</v>
       </c>
-      <c r="I19" s="31" t="n">
+      <c r="I19" s="30" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H19*1.2</f>
         <v>0.036</v>
       </c>
     </row>
     <row customHeight="true" ht="34.75" outlineLevel="0" r="20">
-      <c r="A20" s="33" t="n">
+      <c r="A20" s="32" t="n">
         <v>11</v>
       </c>
-      <c r="B20" s="27" t="n"/>
-      <c r="C20" s="34" t="s">
+      <c r="B20" s="26" t="n"/>
+      <c r="C20" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="39" t="s"/>
-      <c r="E20" s="36" t="n">
+      <c r="D20" s="38" t="s"/>
+      <c r="E20" s="35" t="n">
         <v>11</v>
       </c>
-      <c r="F20" s="37" t="n"/>
+      <c r="F20" s="36" t="n"/>
       <c r="G20" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H20" s="40" t="s"/>
+      <c r="H20" s="39" t="s"/>
       <c r="I20" s="25" t="n"/>
+      <c r="J20" s="0" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row customHeight="true" ht="34.75" outlineLevel="0" r="21">
-      <c r="A21" s="33" t="n">
+      <c r="A21" s="32" t="n">
         <v>12</v>
       </c>
-      <c r="B21" s="27" t="n"/>
+      <c r="B21" s="26" t="n"/>
       <c r="C21" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="41" t="s"/>
-      <c r="E21" s="36" t="n">
+        <v>45</v>
+      </c>
+      <c r="D21" s="40" t="s"/>
+      <c r="E21" s="35" t="n">
         <v>12</v>
       </c>
-      <c r="F21" s="27" t="n"/>
+      <c r="F21" s="26" t="n"/>
       <c r="G21" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" s="40" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="H21" s="39" t="s"/>
       <c r="I21" s="25" t="n"/>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="22">
@@ -3098,17 +3098,17 @@
         <v>4</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="42" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="D22" s="41" t="s"/>
       <c r="E22" s="16" t="n"/>
       <c r="F22" s="19" t="n">
         <v>4</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22" s="43" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="H22" s="42" t="s"/>
       <c r="I22" s="25" t="n"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="23">
@@ -3117,7 +3117,7 @@
       </c>
       <c r="B23" s="16" t="n"/>
       <c r="C23" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D23" s="22" t="n">
         <v>1.68</v>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="F23" s="16" t="n"/>
       <c r="G23" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="24" t="n">
         <v>1.4</v>
@@ -3143,7 +3143,7 @@
       </c>
       <c r="B24" s="16" t="n"/>
       <c r="C24" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D24" s="22" t="n">
         <v>0.36</v>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="F24" s="16" t="n"/>
       <c r="G24" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H24" s="24" t="n">
         <v>0.3</v>
@@ -3164,40 +3164,40 @@
       </c>
     </row>
     <row customHeight="true" ht="36.75" outlineLevel="0" r="25">
-      <c r="A25" s="33" t="n">
+      <c r="A25" s="32" t="n">
         <v>15</v>
       </c>
-      <c r="B25" s="27" t="n"/>
+      <c r="B25" s="26" t="n"/>
       <c r="C25" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="41" t="s"/>
-      <c r="E25" s="36" t="n">
+        <v>53</v>
+      </c>
+      <c r="D25" s="40" t="s"/>
+      <c r="E25" s="35" t="n">
         <v>15</v>
       </c>
-      <c r="F25" s="27" t="n"/>
+      <c r="F25" s="26" t="n"/>
       <c r="G25" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H25" s="40" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="H25" s="39" t="s"/>
     </row>
     <row customHeight="true" ht="38" outlineLevel="0" r="26">
-      <c r="A26" s="33" t="n">
+      <c r="A26" s="32" t="n">
         <v>16</v>
       </c>
-      <c r="B26" s="27" t="n"/>
+      <c r="B26" s="26" t="n"/>
       <c r="C26" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="41" t="s"/>
-      <c r="E26" s="36" t="n">
+        <v>55</v>
+      </c>
+      <c r="D26" s="40" t="s"/>
+      <c r="E26" s="35" t="n">
         <v>16</v>
       </c>
-      <c r="F26" s="37" t="n"/>
+      <c r="F26" s="36" t="n"/>
       <c r="G26" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H26" s="40" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="H26" s="39" t="s"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="27">
       <c r="A27" s="16" t="n"/>
@@ -3205,17 +3205,21 @@
         <v>5</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="42" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="D27" s="41" t="s"/>
       <c r="E27" s="16" t="n"/>
       <c r="F27" s="19" t="n">
         <v>5</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H27" s="16" t="n"/>
+      <c r="K27" s="25" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">K29+K30</f>
+        <v>6.265</v>
+      </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="28">
       <c r="A28" s="21" t="n">
@@ -3223,23 +3227,23 @@
       </c>
       <c r="B28" s="16" t="n"/>
       <c r="C28" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="41" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="D28" s="40" t="s"/>
       <c r="E28" s="16" t="n"/>
       <c r="F28" s="16" t="n"/>
       <c r="G28" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="H28" s="40" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="H28" s="39" t="s"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="29">
-      <c r="A29" s="44" t="s">
-        <v>60</v>
+      <c r="A29" s="43" t="s">
+        <v>61</v>
       </c>
       <c r="B29" s="16" t="n"/>
       <c r="C29" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D29" s="22" t="n">
         <v>3</v>
@@ -3249,39 +3253,56 @@
       </c>
       <c r="F29" s="16" t="n"/>
       <c r="G29" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H29" s="24" t="n">
         <v>4.5</v>
+      </c>
+      <c r="I29" s="44" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">ROUND(H29+H30*0.9, 2)</f>
+        <v>5.18</v>
+      </c>
+      <c r="J29" s="44" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">ROUND(I29*0.2, 2)</f>
+        <v>1.04</v>
+      </c>
+      <c r="K29" s="44" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I29+J29</f>
+        <v>6.22</v>
       </c>
     </row>
     <row customHeight="true" ht="28.75" outlineLevel="0" r="30">
       <c r="A30" s="21" t="n">
         <v>18</v>
       </c>
-      <c r="B30" s="27" t="n"/>
+      <c r="B30" s="26" t="n"/>
       <c r="C30" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="41" t="s"/>
+        <v>64</v>
+      </c>
+      <c r="D30" s="40" t="s"/>
       <c r="E30" s="23" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="16" t="n"/>
       <c r="G30" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H30" s="24" t="n">
         <v>0.75</v>
       </c>
-    </row>
-    <row customHeight="true" ht="14" outlineLevel="0" r="31">
-      <c r="A31" s="44" t="s">
-        <v>65</v>
+      <c r="J30" s="0" t="n"/>
+      <c r="K30" s="0" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.25*3.6/100</f>
+        <v>0.045</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="45.4999389648438" outlineLevel="0" r="31">
+      <c r="A31" s="43" t="s">
+        <v>66</v>
       </c>
       <c r="B31" s="16" t="n"/>
       <c r="C31" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D31" s="22" t="n">
         <v>4</v>
@@ -3289,67 +3310,78 @@
       <c r="E31" s="23" t="n">
         <v>19</v>
       </c>
-      <c r="F31" s="27" t="n"/>
-      <c r="G31" s="28" t="s">
-        <v>67</v>
+      <c r="F31" s="26" t="n"/>
+      <c r="G31" s="27" t="s">
+        <v>68</v>
       </c>
       <c r="H31" s="45" t="s"/>
-    </row>
-    <row customHeight="true" ht="14" outlineLevel="0" r="32">
-      <c r="A32" s="44" t="s">
-        <v>68</v>
+      <c r="I31" s="25" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D31+1.16*D32</f>
+        <v>4.87</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="K31" s="25" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J31+I31</f>
+        <v>5.23</v>
+      </c>
+    </row>
+    <row customHeight="true" hidden="false" ht="45" outlineLevel="0" r="32">
+      <c r="A32" s="43" t="s">
+        <v>69</v>
       </c>
       <c r="B32" s="16" t="n"/>
       <c r="C32" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D32" s="22" t="n">
         <v>0.75</v>
       </c>
-      <c r="E32" s="36" t="n">
+      <c r="E32" s="35" t="n">
         <v>20</v>
       </c>
-      <c r="F32" s="27" t="n"/>
+      <c r="F32" s="26" t="n"/>
       <c r="G32" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="H32" s="40" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="H32" s="39" t="s"/>
     </row>
     <row customHeight="true" ht="38.75" outlineLevel="0" r="33">
-      <c r="A33" s="33" t="n">
+      <c r="A33" s="32" t="n">
         <v>19</v>
       </c>
-      <c r="B33" s="37" t="n"/>
+      <c r="B33" s="36" t="n"/>
       <c r="C33" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="41" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="D33" s="40" t="s"/>
       <c r="E33" s="23" t="n">
         <v>21</v>
       </c>
-      <c r="F33" s="27" t="n"/>
-      <c r="G33" s="28" t="s">
-        <v>72</v>
+      <c r="F33" s="26" t="n"/>
+      <c r="G33" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="H33" s="24" t="n">
         <v>0.75</v>
       </c>
     </row>
     <row customHeight="true" ht="36.4999389648438" outlineLevel="0" r="34">
-      <c r="A34" s="33" t="n">
+      <c r="A34" s="32" t="n">
         <v>20</v>
       </c>
-      <c r="B34" s="27" t="n"/>
-      <c r="C34" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="39" t="s"/>
-      <c r="E34" s="36" t="n">
+      <c r="B34" s="26" t="n"/>
+      <c r="C34" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="38" t="s"/>
+      <c r="E34" s="35" t="n">
         <v>22</v>
       </c>
-      <c r="F34" s="27" t="n"/>
+      <c r="F34" s="26" t="n"/>
       <c r="G34" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H34" s="46" t="n">
         <v>0.05</v>
@@ -3371,49 +3403,49 @@
       <c r="E35" s="23" t="n">
         <v>23</v>
       </c>
-      <c r="F35" s="27" t="n"/>
-      <c r="G35" s="28" t="s">
-        <v>75</v>
+      <c r="F35" s="26" t="n"/>
+      <c r="G35" s="27" t="s">
+        <v>76</v>
       </c>
       <c r="H35" s="45" t="s"/>
     </row>
     <row outlineLevel="0" r="36">
-      <c r="A36" s="33" t="n">
+      <c r="A36" s="32" t="n">
         <v>21</v>
       </c>
-      <c r="B36" s="27" t="n"/>
-      <c r="C36" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D36" s="39" t="s"/>
-      <c r="E36" s="36" t="n">
+      <c r="B36" s="26" t="n"/>
+      <c r="C36" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="38" t="s"/>
+      <c r="E36" s="35" t="n">
         <v>24</v>
       </c>
-      <c r="F36" s="27" t="n"/>
+      <c r="F36" s="26" t="n"/>
       <c r="G36" s="47" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H36" s="48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="21" t="n">
         <v>22</v>
       </c>
-      <c r="B37" s="27" t="n"/>
+      <c r="B37" s="26" t="n"/>
       <c r="C37" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="29" t="n">
+      <c r="D37" s="28" t="n">
         <v>0.03</v>
       </c>
-      <c r="E37" s="36" t="n">
+      <c r="E37" s="35" t="n">
         <v>25</v>
       </c>
-      <c r="F37" s="27" t="n"/>
-      <c r="G37" s="28" t="s">
-        <v>79</v>
+      <c r="F37" s="26" t="n"/>
+      <c r="G37" s="27" t="s">
+        <v>80</v>
       </c>
       <c r="H37" s="45" t="s"/>
     </row>
@@ -3421,11 +3453,11 @@
       <c r="A38" s="21" t="n">
         <v>23</v>
       </c>
-      <c r="B38" s="27" t="n"/>
-      <c r="C38" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="D38" s="39" t="s"/>
+      <c r="B38" s="26" t="n"/>
+      <c r="C38" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="38" t="s"/>
       <c r="E38" s="23" t="n">
         <v>26</v>
       </c>
@@ -3433,7 +3465,7 @@
       <c r="G38" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H38" s="30" t="n">
+      <c r="H38" s="29" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -3441,27 +3473,27 @@
       <c r="A39" s="21" t="n">
         <v>24</v>
       </c>
-      <c r="B39" s="27" t="n"/>
-      <c r="C39" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="39" t="s"/>
+      <c r="B39" s="26" t="n"/>
+      <c r="C39" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="38" t="s"/>
       <c r="E39" s="23" t="n">
         <v>27</v>
       </c>
-      <c r="F39" s="27" t="n"/>
-      <c r="G39" s="28" t="s">
-        <v>82</v>
+      <c r="F39" s="26" t="n"/>
+      <c r="G39" s="27" t="s">
+        <v>83</v>
       </c>
       <c r="H39" s="45" t="s"/>
     </row>
     <row outlineLevel="0" r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="26" t="n"/>
       <c r="B40" s="17" t="n">
         <v>6</v>
       </c>
       <c r="C40" s="49" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D40" s="50" t="s"/>
       <c r="E40" s="14" t="s">
@@ -3481,27 +3513,27 @@
       <c r="A41" s="21" t="n">
         <v>25</v>
       </c>
-      <c r="B41" s="27" t="n"/>
+      <c r="B41" s="26" t="n"/>
       <c r="C41" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" s="41" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="D41" s="40" t="s"/>
       <c r="E41" s="16" t="n"/>
       <c r="F41" s="19" t="n">
         <v>6</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="H41" s="43" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="H41" s="42" t="s"/>
     </row>
     <row outlineLevel="0" r="42">
-      <c r="A42" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="B42" s="27" t="n"/>
+      <c r="A42" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="26" t="n"/>
       <c r="C42" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D42" s="22" t="n">
         <v>3</v>
@@ -3509,17 +3541,17 @@
       <c r="E42" s="16" t="n"/>
       <c r="F42" s="16" t="n"/>
       <c r="G42" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="H42" s="43" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="H42" s="42" t="s"/>
     </row>
     <row outlineLevel="0" r="43">
-      <c r="A43" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="B43" s="27" t="n"/>
+      <c r="A43" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="26" t="n"/>
       <c r="C43" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D43" s="22" t="n">
         <v>4</v>
@@ -3529,19 +3561,19 @@
       </c>
       <c r="F43" s="16" t="n"/>
       <c r="G43" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H43" s="52" t="n">
         <v>2.2</v>
       </c>
     </row>
     <row outlineLevel="0" r="44">
-      <c r="A44" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="B44" s="27" t="n"/>
+      <c r="A44" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="26" t="n"/>
       <c r="C44" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D44" s="22" t="n">
         <v>5</v>
@@ -3551,7 +3583,7 @@
       </c>
       <c r="F44" s="16" t="n"/>
       <c r="G44" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H44" s="52" t="n">
         <v>2.9</v>
@@ -3561,29 +3593,29 @@
       <c r="A45" s="21" t="n">
         <v>26</v>
       </c>
-      <c r="B45" s="27" t="n"/>
-      <c r="C45" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="D45" s="39" t="s"/>
+      <c r="B45" s="26" t="n"/>
+      <c r="C45" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="38" t="s"/>
       <c r="E45" s="51" t="n">
         <v>30</v>
       </c>
       <c r="F45" s="16" t="n"/>
       <c r="G45" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H45" s="52" t="n">
         <v>3.65</v>
       </c>
     </row>
     <row outlineLevel="0" r="46">
-      <c r="A46" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="B46" s="27" t="n"/>
+      <c r="A46" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="26" t="n"/>
       <c r="C46" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D46" s="22" t="n">
         <v>4</v>
@@ -3591,17 +3623,17 @@
       <c r="E46" s="16" t="n"/>
       <c r="F46" s="16" t="n"/>
       <c r="G46" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="H46" s="43" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="H46" s="42" t="s"/>
     </row>
     <row outlineLevel="0" r="47">
-      <c r="A47" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="B47" s="27" t="n"/>
+      <c r="A47" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="26" t="n"/>
       <c r="C47" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D47" s="22" t="n">
         <v>0.75</v>
@@ -3611,65 +3643,65 @@
       </c>
       <c r="F47" s="16" t="n"/>
       <c r="G47" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H47" s="52" t="n">
         <v>4.5</v>
       </c>
     </row>
     <row outlineLevel="0" r="48">
-      <c r="A48" s="33" t="n">
+      <c r="A48" s="32" t="n">
         <v>27</v>
       </c>
-      <c r="B48" s="37" t="n"/>
+      <c r="B48" s="36" t="n"/>
       <c r="C48" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D48" s="41" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="D48" s="40" t="s"/>
       <c r="E48" s="51" t="n">
         <v>32</v>
       </c>
       <c r="F48" s="16" t="n"/>
       <c r="G48" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H48" s="52" t="n">
         <v>5.65</v>
       </c>
     </row>
     <row outlineLevel="0" r="49">
-      <c r="A49" s="33" t="n">
+      <c r="A49" s="32" t="n">
         <v>28</v>
       </c>
-      <c r="B49" s="37" t="n"/>
+      <c r="B49" s="36" t="n"/>
       <c r="C49" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D49" s="41" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="D49" s="40" t="s"/>
       <c r="E49" s="51" t="n">
         <v>33</v>
       </c>
       <c r="F49" s="16" t="n"/>
       <c r="G49" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H49" s="52" t="n">
         <v>8.1</v>
       </c>
     </row>
     <row outlineLevel="0" r="50">
-      <c r="A50" s="33" t="n">
+      <c r="A50" s="32" t="n">
         <v>29</v>
       </c>
-      <c r="B50" s="37" t="n"/>
+      <c r="B50" s="36" t="n"/>
       <c r="C50" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D50" s="41" t="s"/>
-      <c r="E50" s="27" t="n"/>
-      <c r="F50" s="27" t="n"/>
-      <c r="G50" s="28" t="s">
         <v>105</v>
+      </c>
+      <c r="D50" s="40" t="s"/>
+      <c r="E50" s="26" t="n"/>
+      <c r="F50" s="26" t="n"/>
+      <c r="G50" s="27" t="s">
+        <v>106</v>
       </c>
       <c r="H50" s="45" t="s"/>
     </row>
@@ -3677,55 +3709,55 @@
       <c r="A51" s="21" t="n">
         <v>30</v>
       </c>
-      <c r="B51" s="27" t="n"/>
-      <c r="C51" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="D51" s="29" t="n">
+      <c r="B51" s="26" t="n"/>
+      <c r="C51" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" s="28" t="n">
         <v>0.01</v>
       </c>
       <c r="E51" s="51" t="n">
         <v>34</v>
       </c>
-      <c r="F51" s="27" t="n"/>
+      <c r="F51" s="26" t="n"/>
       <c r="G51" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H51" s="40" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="H51" s="39" t="s"/>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="21" t="n">
         <v>31</v>
       </c>
-      <c r="B52" s="27" t="n"/>
-      <c r="C52" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="D52" s="39" t="s"/>
+      <c r="B52" s="26" t="n"/>
+      <c r="C52" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" s="38" t="s"/>
       <c r="E52" s="51" t="n">
         <v>35</v>
       </c>
-      <c r="F52" s="27" t="n"/>
-      <c r="G52" s="28" t="s">
-        <v>109</v>
+      <c r="F52" s="26" t="n"/>
+      <c r="G52" s="27" t="s">
+        <v>110</v>
       </c>
       <c r="H52" s="45" t="s"/>
     </row>
     <row outlineLevel="0" r="53">
-      <c r="A53" s="27" t="n"/>
+      <c r="A53" s="26" t="n"/>
       <c r="B53" s="17" t="n">
         <v>7</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="D53" s="42" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="D53" s="41" t="s"/>
       <c r="E53" s="51" t="n">
         <v>36</v>
       </c>
-      <c r="F53" s="27" t="n"/>
-      <c r="G53" s="28" t="s">
-        <v>111</v>
+      <c r="F53" s="26" t="n"/>
+      <c r="G53" s="27" t="s">
+        <v>112</v>
       </c>
       <c r="H53" s="45" t="s"/>
     </row>
@@ -3733,17 +3765,17 @@
       <c r="A54" s="16" t="n"/>
       <c r="B54" s="16" t="n"/>
       <c r="C54" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="D54" s="42" t="s"/>
-      <c r="E54" s="27" t="n"/>
+        <v>113</v>
+      </c>
+      <c r="D54" s="41" t="s"/>
+      <c r="E54" s="26" t="n"/>
       <c r="F54" s="19" t="n">
         <v>7</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="H54" s="43" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="H54" s="42" t="s"/>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="21" t="n">
@@ -3751,7 +3783,7 @@
       </c>
       <c r="B55" s="16" t="n"/>
       <c r="C55" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D55" s="22" t="n">
         <v>2.64</v>
@@ -3761,7 +3793,7 @@
       </c>
       <c r="F55" s="16" t="n"/>
       <c r="G55" s="14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H55" s="52" t="n">
         <v>4.5</v>
@@ -3773,7 +3805,7 @@
       </c>
       <c r="B56" s="16" t="n"/>
       <c r="C56" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D56" s="22" t="n">
         <v>3.48</v>
@@ -3783,7 +3815,7 @@
       </c>
       <c r="F56" s="16" t="n"/>
       <c r="G56" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H56" s="52" t="n">
         <v>5.65</v>
@@ -3795,7 +3827,7 @@
       </c>
       <c r="B57" s="16" t="n"/>
       <c r="C57" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D57" s="22" t="n">
         <v>4.38</v>
@@ -3805,7 +3837,7 @@
       </c>
       <c r="F57" s="16" t="n"/>
       <c r="G57" s="14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H57" s="52" t="n">
         <v>8.1</v>
@@ -3815,13 +3847,13 @@
       <c r="A58" s="16" t="n"/>
       <c r="B58" s="16" t="n"/>
       <c r="C58" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D58" s="42" t="s"/>
+        <v>121</v>
+      </c>
+      <c r="D58" s="41" t="s"/>
       <c r="E58" s="51" t="n">
         <v>40</v>
       </c>
-      <c r="F58" s="27" t="n"/>
+      <c r="F58" s="26" t="n"/>
       <c r="G58" s="14" t="s">
         <v>31</v>
       </c>
@@ -3835,7 +3867,7 @@
       </c>
       <c r="B59" s="16" t="n"/>
       <c r="C59" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D59" s="22" t="n">
         <v>5.4</v>
@@ -3843,9 +3875,9 @@
       <c r="E59" s="51" t="n">
         <v>41</v>
       </c>
-      <c r="F59" s="27" t="n"/>
-      <c r="G59" s="28" t="s">
-        <v>122</v>
+      <c r="F59" s="26" t="n"/>
+      <c r="G59" s="27" t="s">
+        <v>123</v>
       </c>
       <c r="H59" s="45" t="s"/>
     </row>
@@ -3855,19 +3887,19 @@
       </c>
       <c r="B60" s="16" t="n"/>
       <c r="C60" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D60" s="22" t="n">
         <v>6.78</v>
       </c>
-      <c r="E60" s="27" t="n"/>
+      <c r="E60" s="26" t="n"/>
       <c r="F60" s="19" t="n">
         <v>8</v>
       </c>
       <c r="G60" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="H60" s="43" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="H60" s="42" t="s"/>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="21" t="n">
@@ -3875,7 +3907,7 @@
       </c>
       <c r="B61" s="16" t="n"/>
       <c r="C61" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D61" s="22" t="n">
         <v>9.72</v>
@@ -3885,37 +3917,37 @@
       </c>
       <c r="F61" s="16" t="n"/>
       <c r="G61" s="14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H61" s="52" t="n">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="62">
-      <c r="A62" s="27" t="n"/>
-      <c r="B62" s="27" t="n"/>
+      <c r="A62" s="26" t="n"/>
+      <c r="B62" s="26" t="n"/>
       <c r="C62" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="D62" s="41" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="D62" s="40" t="s"/>
       <c r="E62" s="51" t="n">
         <v>43</v>
       </c>
       <c r="F62" s="16" t="n"/>
       <c r="G62" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H62" s="52" t="n">
         <v>30</v>
       </c>
     </row>
     <row outlineLevel="0" r="63">
-      <c r="A63" s="33" t="n">
+      <c r="A63" s="32" t="n">
         <v>38</v>
       </c>
-      <c r="B63" s="27" t="n"/>
+      <c r="B63" s="26" t="n"/>
       <c r="C63" s="54" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D63" s="55" t="s"/>
       <c r="E63" s="51" t="n">
@@ -3923,7 +3955,7 @@
       </c>
       <c r="F63" s="16" t="n"/>
       <c r="G63" s="14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H63" s="52" t="n">
         <v>42.5</v>
@@ -3933,17 +3965,17 @@
       <c r="A64" s="21" t="n">
         <v>39</v>
       </c>
-      <c r="B64" s="27" t="n"/>
+      <c r="B64" s="26" t="n"/>
       <c r="C64" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D64" s="41" t="s"/>
+        <v>129</v>
+      </c>
+      <c r="D64" s="40" t="s"/>
       <c r="E64" s="16" t="n"/>
       <c r="F64" s="19" t="n">
         <v>9</v>
       </c>
       <c r="G64" s="20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H64" s="16" t="n"/>
     </row>
@@ -3953,15 +3985,15 @@
       </c>
       <c r="B65" s="57" t="n"/>
       <c r="C65" s="58" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D65" s="59" t="s"/>
       <c r="E65" s="51" t="n">
         <v>45</v>
       </c>
-      <c r="F65" s="27" t="n"/>
-      <c r="G65" s="28" t="s">
-        <v>131</v>
+      <c r="F65" s="26" t="n"/>
+      <c r="G65" s="27" t="s">
+        <v>132</v>
       </c>
       <c r="H65" s="53" t="n">
         <v>0.03</v>
@@ -3973,15 +4005,15 @@
         <v>7</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="D66" s="42" t="s"/>
-      <c r="E66" s="27" t="n"/>
-      <c r="F66" s="27" t="n"/>
+        <v>133</v>
+      </c>
+      <c r="D66" s="41" t="s"/>
+      <c r="E66" s="26" t="n"/>
+      <c r="F66" s="26" t="n"/>
       <c r="G66" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="H66" s="40" t="s"/>
+        <v>134</v>
+      </c>
+      <c r="H66" s="39" t="s"/>
     </row>
     <row outlineLevel="0" r="67">
       <c r="A67" s="21" t="n">
@@ -3989,7 +4021,7 @@
       </c>
       <c r="B67" s="16" t="n"/>
       <c r="C67" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D67" s="22" t="n">
         <v>5.4</v>
@@ -3997,9 +4029,9 @@
       <c r="E67" s="51" t="n">
         <v>46</v>
       </c>
-      <c r="F67" s="37" t="n"/>
-      <c r="G67" s="28" t="s">
-        <v>135</v>
+      <c r="F67" s="36" t="n"/>
+      <c r="G67" s="27" t="s">
+        <v>136</v>
       </c>
       <c r="H67" s="61" t="n">
         <v>0.0233</v>
@@ -4011,7 +4043,7 @@
       </c>
       <c r="B68" s="16" t="n"/>
       <c r="C68" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D68" s="22" t="n">
         <v>6.78</v>
@@ -4019,9 +4051,9 @@
       <c r="E68" s="51" t="n">
         <v>47</v>
       </c>
-      <c r="F68" s="37" t="n"/>
-      <c r="G68" s="28" t="s">
-        <v>137</v>
+      <c r="F68" s="36" t="n"/>
+      <c r="G68" s="27" t="s">
+        <v>138</v>
       </c>
       <c r="H68" s="61" t="n">
         <v>0.0233</v>
@@ -4033,7 +4065,7 @@
       </c>
       <c r="B69" s="16" t="n"/>
       <c r="C69" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D69" s="22" t="n">
         <v>9.72</v>
@@ -4041,9 +4073,9 @@
       <c r="E69" s="62" t="n">
         <v>48</v>
       </c>
-      <c r="F69" s="37" t="n"/>
+      <c r="F69" s="36" t="n"/>
       <c r="G69" s="14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H69" s="63" t="n">
         <v>0.015</v>
@@ -4057,31 +4089,31 @@
       <c r="C70" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D70" s="29" t="n">
+      <c r="D70" s="28" t="n">
         <v>0.03</v>
       </c>
-      <c r="E70" s="37" t="n"/>
-      <c r="F70" s="37" t="n"/>
+      <c r="E70" s="36" t="n"/>
+      <c r="F70" s="36" t="n"/>
       <c r="G70" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="H70" s="40" t="s"/>
+        <v>141</v>
+      </c>
+      <c r="H70" s="39" t="s"/>
     </row>
     <row outlineLevel="0" r="71">
-      <c r="A71" s="33" t="n">
+      <c r="A71" s="32" t="n">
         <v>45</v>
       </c>
-      <c r="B71" s="27" t="n"/>
+      <c r="B71" s="26" t="n"/>
       <c r="C71" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D71" s="41" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="D71" s="40" t="s"/>
       <c r="E71" s="62" t="n">
         <v>49</v>
       </c>
-      <c r="F71" s="37" t="n"/>
+      <c r="F71" s="36" t="n"/>
       <c r="G71" s="14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H71" s="64" t="n">
         <v>0.0233</v>
@@ -4093,27 +4125,27 @@
         <v>8</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D72" s="16" t="n"/>
       <c r="E72" s="62" t="n">
         <v>50</v>
       </c>
-      <c r="F72" s="27" t="n"/>
-      <c r="G72" s="28" t="s">
-        <v>144</v>
+      <c r="F72" s="26" t="n"/>
+      <c r="G72" s="27" t="s">
+        <v>145</v>
       </c>
       <c r="H72" s="46" t="n">
         <v>0.015</v>
       </c>
     </row>
     <row outlineLevel="0" r="73">
-      <c r="A73" s="33" t="n">
+      <c r="A73" s="32" t="n">
         <v>46</v>
       </c>
-      <c r="B73" s="27" t="n"/>
+      <c r="B73" s="26" t="n"/>
       <c r="C73" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D73" s="65" t="n">
         <v>0.03</v>
@@ -4121,41 +4153,41 @@
       <c r="E73" s="62" t="n">
         <v>51</v>
       </c>
-      <c r="F73" s="37" t="n"/>
+      <c r="F73" s="36" t="n"/>
       <c r="G73" s="14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H73" s="46" t="n">
         <v>0.005</v>
       </c>
     </row>
     <row outlineLevel="0" r="74">
-      <c r="A74" s="33" t="n">
+      <c r="A74" s="32" t="n">
         <v>47</v>
       </c>
-      <c r="B74" s="37" t="n"/>
+      <c r="B74" s="36" t="n"/>
       <c r="C74" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D74" s="41" t="s"/>
+        <v>148</v>
+      </c>
+      <c r="D74" s="40" t="s"/>
       <c r="E74" s="51" t="n">
         <v>52</v>
       </c>
-      <c r="F74" s="27" t="n"/>
-      <c r="G74" s="28" t="s">
-        <v>148</v>
+      <c r="F74" s="26" t="n"/>
+      <c r="G74" s="27" t="s">
+        <v>149</v>
       </c>
       <c r="H74" s="66" t="n">
         <v>0.009</v>
       </c>
     </row>
     <row outlineLevel="0" r="75">
-      <c r="A75" s="33" t="n">
+      <c r="A75" s="32" t="n">
         <v>48</v>
       </c>
-      <c r="B75" s="37" t="n"/>
+      <c r="B75" s="36" t="n"/>
       <c r="C75" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D75" s="65" t="n">
         <v>0.015</v>
@@ -4165,27 +4197,27 @@
         <v>8</v>
       </c>
       <c r="G75" s="20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H75" s="16" t="n"/>
     </row>
     <row outlineLevel="0" r="76">
-      <c r="A76" s="33" t="n">
+      <c r="A76" s="32" t="n">
         <v>49</v>
       </c>
-      <c r="B76" s="37" t="n"/>
+      <c r="B76" s="36" t="n"/>
       <c r="C76" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="D76" s="35" t="n">
+        <v>152</v>
+      </c>
+      <c r="D76" s="34" t="n">
         <v>0.01</v>
       </c>
       <c r="E76" s="51" t="n">
         <v>53</v>
       </c>
-      <c r="F76" s="37" t="n"/>
-      <c r="G76" s="28" t="s">
-        <v>152</v>
+      <c r="F76" s="36" t="n"/>
+      <c r="G76" s="27" t="s">
+        <v>153</v>
       </c>
       <c r="H76" s="45" t="s"/>
     </row>
@@ -4195,33 +4227,33 @@
         <v>9</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="D77" s="42" t="s"/>
+        <v>154</v>
+      </c>
+      <c r="D77" s="41" t="s"/>
       <c r="E77" s="16" t="n"/>
       <c r="F77" s="19" t="n">
         <v>9</v>
       </c>
       <c r="G77" s="20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H77" s="16" t="n"/>
     </row>
     <row outlineLevel="0" r="78">
-      <c r="A78" s="33" t="n">
+      <c r="A78" s="32" t="n">
         <v>50</v>
       </c>
-      <c r="B78" s="37" t="n"/>
+      <c r="B78" s="36" t="n"/>
       <c r="C78" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D78" s="41" t="s"/>
+        <v>156</v>
+      </c>
+      <c r="D78" s="40" t="s"/>
       <c r="E78" s="62" t="n">
         <v>54</v>
       </c>
-      <c r="F78" s="27" t="n"/>
-      <c r="G78" s="28" t="s">
-        <v>156</v>
+      <c r="F78" s="26" t="n"/>
+      <c r="G78" s="27" t="s">
+        <v>157</v>
       </c>
       <c r="H78" s="45" t="s"/>
     </row>
@@ -4231,15 +4263,15 @@
         <v>10</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="D79" s="42" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="D79" s="41" t="s"/>
       <c r="E79" s="62" t="n">
         <v>55</v>
       </c>
-      <c r="F79" s="27" t="n"/>
-      <c r="G79" s="28" t="s">
-        <v>158</v>
+      <c r="F79" s="26" t="n"/>
+      <c r="G79" s="27" t="s">
+        <v>159</v>
       </c>
       <c r="H79" s="46" t="n">
         <v>0.03</v>
@@ -4251,7 +4283,7 @@
       </c>
       <c r="B80" s="16" t="n"/>
       <c r="C80" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D80" s="22" t="n">
         <v>0.72</v>
@@ -4259,9 +4291,9 @@
       <c r="E80" s="51" t="n">
         <v>56</v>
       </c>
-      <c r="F80" s="27" t="n"/>
-      <c r="G80" s="28" t="s">
-        <v>160</v>
+      <c r="F80" s="26" t="n"/>
+      <c r="G80" s="27" t="s">
+        <v>161</v>
       </c>
       <c r="H80" s="45" t="s"/>
     </row>
@@ -4271,7 +4303,7 @@
       </c>
       <c r="B81" s="16" t="n"/>
       <c r="C81" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D81" s="22" t="n">
         <v>2.34</v>
@@ -4281,9 +4313,9 @@
         <v>10</v>
       </c>
       <c r="G81" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="H81" s="43" t="s"/>
+        <v>163</v>
+      </c>
+      <c r="H81" s="42" t="s"/>
     </row>
     <row outlineLevel="0" r="82">
       <c r="A82" s="21" t="n">
@@ -4291,7 +4323,7 @@
       </c>
       <c r="B82" s="16" t="n"/>
       <c r="C82" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D82" s="22" t="n">
         <v>0.54</v>
@@ -4301,7 +4333,7 @@
       </c>
       <c r="F82" s="16" t="n"/>
       <c r="G82" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H82" s="24" t="n">
         <v>0.6</v>
@@ -4313,7 +4345,7 @@
         <v>11</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D83" s="16" t="n"/>
       <c r="E83" s="51" t="n">
@@ -4321,7 +4353,7 @@
       </c>
       <c r="F83" s="16" t="n"/>
       <c r="G83" s="14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H83" s="24" t="n">
         <v>1.95</v>
@@ -4331,17 +4363,17 @@
       <c r="A84" s="21" t="n">
         <v>54</v>
       </c>
-      <c r="B84" s="37" t="n"/>
+      <c r="B84" s="36" t="n"/>
       <c r="C84" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="D84" s="41" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="D84" s="40" t="s"/>
       <c r="E84" s="51" t="n">
         <v>59</v>
       </c>
       <c r="F84" s="16" t="n"/>
       <c r="G84" s="14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H84" s="24" t="n">
         <v>0.45</v>
@@ -4353,17 +4385,17 @@
         <v>11</v>
       </c>
       <c r="G85" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="H85" s="43" t="s"/>
+        <v>170</v>
+      </c>
+      <c r="H85" s="42" t="s"/>
     </row>
     <row outlineLevel="0" r="86">
       <c r="E86" s="51" t="n">
         <v>60</v>
       </c>
-      <c r="F86" s="27" t="n"/>
-      <c r="G86" s="28" t="s">
-        <v>170</v>
+      <c r="F86" s="26" t="n"/>
+      <c r="G86" s="27" t="s">
+        <v>171</v>
       </c>
       <c r="H86" s="45" t="s"/>
     </row>
@@ -4373,19 +4405,19 @@
       </c>
       <c r="F87" s="16" t="n"/>
       <c r="G87" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="H87" s="40" t="s"/>
+        <v>172</v>
+      </c>
+      <c r="H87" s="39" t="s"/>
     </row>
     <row outlineLevel="0" r="88">
       <c r="E88" s="51" t="n">
         <v>62</v>
       </c>
-      <c r="F88" s="27" t="n"/>
+      <c r="F88" s="26" t="n"/>
       <c r="G88" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="H88" s="40" t="s"/>
+        <v>173</v>
+      </c>
+      <c r="H88" s="39" t="s"/>
     </row>
     <row outlineLevel="0" r="89">
       <c r="E89" s="16" t="n"/>
@@ -4393,17 +4425,17 @@
         <v>12</v>
       </c>
       <c r="G89" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="H89" s="43" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="H89" s="42" t="s"/>
     </row>
     <row outlineLevel="0" r="90">
       <c r="E90" s="62" t="n">
         <v>63</v>
       </c>
-      <c r="F90" s="27" t="n"/>
-      <c r="G90" s="28" t="s">
-        <v>173</v>
+      <c r="F90" s="26" t="n"/>
+      <c r="G90" s="27" t="s">
+        <v>174</v>
       </c>
       <c r="H90" s="45" t="s"/>
     </row>

--- a/calc/files/letter2.xlsx
+++ b/calc/files/letter2.xlsx
@@ -459,7 +459,6 @@
       <t>За хрупкие мелкие пакеты с объявленной ценностью  с отметкой "Осторожно" взимается надбавка к плате за  пересылку  мелкого  пакета   в  размере  50%.  На  плату  за  объявленную  ценность  мелкого  пакета надбавка не распространяется</t>
     </r>
   </si>
-  <si/>
   <si>
     <r>
       <rPr>
@@ -3069,9 +3068,7 @@
       </c>
       <c r="H20" s="39" t="s"/>
       <c r="I20" s="25" t="n"/>
-      <c r="J20" s="0" t="s">
-        <v>44</v>
-      </c>
+      <c r="J20" s="0" t="n"/>
     </row>
     <row customHeight="true" ht="34.75" outlineLevel="0" r="21">
       <c r="A21" s="32" t="n">
@@ -3079,7 +3076,7 @@
       </c>
       <c r="B21" s="26" t="n"/>
       <c r="C21" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" s="40" t="s"/>
       <c r="E21" s="35" t="n">
@@ -3087,7 +3084,7 @@
       </c>
       <c r="F21" s="26" t="n"/>
       <c r="G21" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" s="39" t="s"/>
       <c r="I21" s="25" t="n"/>
@@ -3098,7 +3095,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D22" s="41" t="s"/>
       <c r="E22" s="16" t="n"/>
@@ -3106,7 +3103,7 @@
         <v>4</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H22" s="42" t="s"/>
       <c r="I22" s="25" t="n"/>
@@ -3117,7 +3114,7 @@
       </c>
       <c r="B23" s="16" t="n"/>
       <c r="C23" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D23" s="22" t="n">
         <v>1.68</v>
@@ -3127,7 +3124,7 @@
       </c>
       <c r="F23" s="16" t="n"/>
       <c r="G23" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="24" t="n">
         <v>1.4</v>
@@ -3143,7 +3140,7 @@
       </c>
       <c r="B24" s="16" t="n"/>
       <c r="C24" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" s="22" t="n">
         <v>0.36</v>
@@ -3153,7 +3150,7 @@
       </c>
       <c r="F24" s="16" t="n"/>
       <c r="G24" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H24" s="24" t="n">
         <v>0.3</v>
@@ -3169,7 +3166,7 @@
       </c>
       <c r="B25" s="26" t="n"/>
       <c r="C25" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25" s="40" t="s"/>
       <c r="E25" s="35" t="n">
@@ -3177,7 +3174,7 @@
       </c>
       <c r="F25" s="26" t="n"/>
       <c r="G25" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H25" s="39" t="s"/>
     </row>
@@ -3187,7 +3184,7 @@
       </c>
       <c r="B26" s="26" t="n"/>
       <c r="C26" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D26" s="40" t="s"/>
       <c r="E26" s="35" t="n">
@@ -3195,7 +3192,7 @@
       </c>
       <c r="F26" s="36" t="n"/>
       <c r="G26" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H26" s="39" t="s"/>
     </row>
@@ -3205,7 +3202,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27" s="41" t="s"/>
       <c r="E27" s="16" t="n"/>
@@ -3213,7 +3210,7 @@
         <v>5</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H27" s="16" t="n"/>
       <c r="K27" s="25" t="n">
@@ -3227,23 +3224,23 @@
       </c>
       <c r="B28" s="16" t="n"/>
       <c r="C28" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28" s="40" t="s"/>
       <c r="E28" s="16" t="n"/>
       <c r="F28" s="16" t="n"/>
       <c r="G28" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H28" s="39" t="s"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="29">
       <c r="A29" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B29" s="16" t="n"/>
       <c r="C29" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D29" s="22" t="n">
         <v>3</v>
@@ -3253,7 +3250,7 @@
       </c>
       <c r="F29" s="16" t="n"/>
       <c r="G29" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H29" s="24" t="n">
         <v>4.5</v>
@@ -3277,7 +3274,7 @@
       </c>
       <c r="B30" s="26" t="n"/>
       <c r="C30" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D30" s="40" t="s"/>
       <c r="E30" s="23" t="n">
@@ -3285,7 +3282,7 @@
       </c>
       <c r="F30" s="16" t="n"/>
       <c r="G30" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H30" s="24" t="n">
         <v>0.75</v>
@@ -3298,11 +3295,11 @@
     </row>
     <row customHeight="true" ht="45.4999389648438" outlineLevel="0" r="31">
       <c r="A31" s="43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" s="16" t="n"/>
       <c r="C31" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D31" s="22" t="n">
         <v>4</v>
@@ -3312,7 +3309,7 @@
       </c>
       <c r="F31" s="26" t="n"/>
       <c r="G31" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H31" s="45" t="s"/>
       <c r="I31" s="25" t="n">
@@ -3329,11 +3326,11 @@
     </row>
     <row customHeight="true" hidden="false" ht="45" outlineLevel="0" r="32">
       <c r="A32" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B32" s="16" t="n"/>
       <c r="C32" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D32" s="22" t="n">
         <v>0.75</v>
@@ -3343,7 +3340,7 @@
       </c>
       <c r="F32" s="26" t="n"/>
       <c r="G32" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H32" s="39" t="s"/>
     </row>
@@ -3353,7 +3350,7 @@
       </c>
       <c r="B33" s="36" t="n"/>
       <c r="C33" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D33" s="40" t="s"/>
       <c r="E33" s="23" t="n">
@@ -3361,7 +3358,7 @@
       </c>
       <c r="F33" s="26" t="n"/>
       <c r="G33" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H33" s="24" t="n">
         <v>0.75</v>
@@ -3373,7 +3370,7 @@
       </c>
       <c r="B34" s="26" t="n"/>
       <c r="C34" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D34" s="38" t="s"/>
       <c r="E34" s="35" t="n">
@@ -3381,7 +3378,7 @@
       </c>
       <c r="F34" s="26" t="n"/>
       <c r="G34" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H34" s="46" t="n">
         <v>0.05</v>
@@ -3405,7 +3402,7 @@
       </c>
       <c r="F35" s="26" t="n"/>
       <c r="G35" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H35" s="45" t="s"/>
     </row>
@@ -3415,7 +3412,7 @@
       </c>
       <c r="B36" s="26" t="n"/>
       <c r="C36" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D36" s="38" t="s"/>
       <c r="E36" s="35" t="n">
@@ -3423,10 +3420,10 @@
       </c>
       <c r="F36" s="26" t="n"/>
       <c r="G36" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="H36" s="48" t="s">
         <v>78</v>
-      </c>
-      <c r="H36" s="48" t="s">
-        <v>79</v>
       </c>
     </row>
     <row outlineLevel="0" r="37">
@@ -3445,7 +3442,7 @@
       </c>
       <c r="F37" s="26" t="n"/>
       <c r="G37" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H37" s="45" t="s"/>
     </row>
@@ -3455,7 +3452,7 @@
       </c>
       <c r="B38" s="26" t="n"/>
       <c r="C38" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D38" s="38" t="s"/>
       <c r="E38" s="23" t="n">
@@ -3475,7 +3472,7 @@
       </c>
       <c r="B39" s="26" t="n"/>
       <c r="C39" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D39" s="38" t="s"/>
       <c r="E39" s="23" t="n">
@@ -3483,7 +3480,7 @@
       </c>
       <c r="F39" s="26" t="n"/>
       <c r="G39" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H39" s="45" t="s"/>
     </row>
@@ -3493,7 +3490,7 @@
         <v>6</v>
       </c>
       <c r="C40" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D40" s="50" t="s"/>
       <c r="E40" s="14" t="s">
@@ -3515,7 +3512,7 @@
       </c>
       <c r="B41" s="26" t="n"/>
       <c r="C41" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D41" s="40" t="s"/>
       <c r="E41" s="16" t="n"/>
@@ -3523,17 +3520,17 @@
         <v>6</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H41" s="42" t="s"/>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B42" s="26" t="n"/>
       <c r="C42" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D42" s="22" t="n">
         <v>3</v>
@@ -3541,17 +3538,17 @@
       <c r="E42" s="16" t="n"/>
       <c r="F42" s="16" t="n"/>
       <c r="G42" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H42" s="42" t="s"/>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B43" s="26" t="n"/>
       <c r="C43" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D43" s="22" t="n">
         <v>4</v>
@@ -3561,7 +3558,7 @@
       </c>
       <c r="F43" s="16" t="n"/>
       <c r="G43" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H43" s="52" t="n">
         <v>2.2</v>
@@ -3569,11 +3566,11 @@
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B44" s="26" t="n"/>
       <c r="C44" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D44" s="22" t="n">
         <v>5</v>
@@ -3583,7 +3580,7 @@
       </c>
       <c r="F44" s="16" t="n"/>
       <c r="G44" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H44" s="52" t="n">
         <v>2.9</v>
@@ -3595,7 +3592,7 @@
       </c>
       <c r="B45" s="26" t="n"/>
       <c r="C45" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D45" s="38" t="s"/>
       <c r="E45" s="51" t="n">
@@ -3603,7 +3600,7 @@
       </c>
       <c r="F45" s="16" t="n"/>
       <c r="G45" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H45" s="52" t="n">
         <v>3.65</v>
@@ -3611,11 +3608,11 @@
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B46" s="26" t="n"/>
       <c r="C46" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D46" s="22" t="n">
         <v>4</v>
@@ -3623,17 +3620,17 @@
       <c r="E46" s="16" t="n"/>
       <c r="F46" s="16" t="n"/>
       <c r="G46" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H46" s="42" t="s"/>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B47" s="26" t="n"/>
       <c r="C47" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D47" s="22" t="n">
         <v>0.75</v>
@@ -3643,7 +3640,7 @@
       </c>
       <c r="F47" s="16" t="n"/>
       <c r="G47" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H47" s="52" t="n">
         <v>4.5</v>
@@ -3655,7 +3652,7 @@
       </c>
       <c r="B48" s="36" t="n"/>
       <c r="C48" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D48" s="40" t="s"/>
       <c r="E48" s="51" t="n">
@@ -3663,7 +3660,7 @@
       </c>
       <c r="F48" s="16" t="n"/>
       <c r="G48" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H48" s="52" t="n">
         <v>5.65</v>
@@ -3675,7 +3672,7 @@
       </c>
       <c r="B49" s="36" t="n"/>
       <c r="C49" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D49" s="40" t="s"/>
       <c r="E49" s="51" t="n">
@@ -3683,7 +3680,7 @@
       </c>
       <c r="F49" s="16" t="n"/>
       <c r="G49" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H49" s="52" t="n">
         <v>8.1</v>
@@ -3695,13 +3692,13 @@
       </c>
       <c r="B50" s="36" t="n"/>
       <c r="C50" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D50" s="40" t="s"/>
       <c r="E50" s="26" t="n"/>
       <c r="F50" s="26" t="n"/>
       <c r="G50" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H50" s="45" t="s"/>
     </row>
@@ -3711,7 +3708,7 @@
       </c>
       <c r="B51" s="26" t="n"/>
       <c r="C51" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D51" s="28" t="n">
         <v>0.01</v>
@@ -3721,7 +3718,7 @@
       </c>
       <c r="F51" s="26" t="n"/>
       <c r="G51" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H51" s="39" t="s"/>
     </row>
@@ -3731,7 +3728,7 @@
       </c>
       <c r="B52" s="26" t="n"/>
       <c r="C52" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D52" s="38" t="s"/>
       <c r="E52" s="51" t="n">
@@ -3739,7 +3736,7 @@
       </c>
       <c r="F52" s="26" t="n"/>
       <c r="G52" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H52" s="45" t="s"/>
     </row>
@@ -3749,7 +3746,7 @@
         <v>7</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D53" s="41" t="s"/>
       <c r="E53" s="51" t="n">
@@ -3757,7 +3754,7 @@
       </c>
       <c r="F53" s="26" t="n"/>
       <c r="G53" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H53" s="45" t="s"/>
     </row>
@@ -3765,7 +3762,7 @@
       <c r="A54" s="16" t="n"/>
       <c r="B54" s="16" t="n"/>
       <c r="C54" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D54" s="41" t="s"/>
       <c r="E54" s="26" t="n"/>
@@ -3773,7 +3770,7 @@
         <v>7</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H54" s="42" t="s"/>
     </row>
@@ -3783,7 +3780,7 @@
       </c>
       <c r="B55" s="16" t="n"/>
       <c r="C55" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D55" s="22" t="n">
         <v>2.64</v>
@@ -3793,7 +3790,7 @@
       </c>
       <c r="F55" s="16" t="n"/>
       <c r="G55" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H55" s="52" t="n">
         <v>4.5</v>
@@ -3805,7 +3802,7 @@
       </c>
       <c r="B56" s="16" t="n"/>
       <c r="C56" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D56" s="22" t="n">
         <v>3.48</v>
@@ -3815,7 +3812,7 @@
       </c>
       <c r="F56" s="16" t="n"/>
       <c r="G56" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H56" s="52" t="n">
         <v>5.65</v>
@@ -3827,7 +3824,7 @@
       </c>
       <c r="B57" s="16" t="n"/>
       <c r="C57" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D57" s="22" t="n">
         <v>4.38</v>
@@ -3837,7 +3834,7 @@
       </c>
       <c r="F57" s="16" t="n"/>
       <c r="G57" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H57" s="52" t="n">
         <v>8.1</v>
@@ -3847,7 +3844,7 @@
       <c r="A58" s="16" t="n"/>
       <c r="B58" s="16" t="n"/>
       <c r="C58" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D58" s="41" t="s"/>
       <c r="E58" s="51" t="n">
@@ -3867,7 +3864,7 @@
       </c>
       <c r="B59" s="16" t="n"/>
       <c r="C59" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D59" s="22" t="n">
         <v>5.4</v>
@@ -3877,7 +3874,7 @@
       </c>
       <c r="F59" s="26" t="n"/>
       <c r="G59" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H59" s="45" t="s"/>
     </row>
@@ -3887,7 +3884,7 @@
       </c>
       <c r="B60" s="16" t="n"/>
       <c r="C60" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D60" s="22" t="n">
         <v>6.78</v>
@@ -3897,7 +3894,7 @@
         <v>8</v>
       </c>
       <c r="G60" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H60" s="42" t="s"/>
     </row>
@@ -3907,7 +3904,7 @@
       </c>
       <c r="B61" s="16" t="n"/>
       <c r="C61" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D61" s="22" t="n">
         <v>9.72</v>
@@ -3917,7 +3914,7 @@
       </c>
       <c r="F61" s="16" t="n"/>
       <c r="G61" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H61" s="52" t="n">
         <v>15</v>
@@ -3927,7 +3924,7 @@
       <c r="A62" s="26" t="n"/>
       <c r="B62" s="26" t="n"/>
       <c r="C62" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D62" s="40" t="s"/>
       <c r="E62" s="51" t="n">
@@ -3935,7 +3932,7 @@
       </c>
       <c r="F62" s="16" t="n"/>
       <c r="G62" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H62" s="52" t="n">
         <v>30</v>
@@ -3947,7 +3944,7 @@
       </c>
       <c r="B63" s="26" t="n"/>
       <c r="C63" s="54" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D63" s="55" t="s"/>
       <c r="E63" s="51" t="n">
@@ -3955,7 +3952,7 @@
       </c>
       <c r="F63" s="16" t="n"/>
       <c r="G63" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H63" s="52" t="n">
         <v>42.5</v>
@@ -3967,7 +3964,7 @@
       </c>
       <c r="B64" s="26" t="n"/>
       <c r="C64" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D64" s="40" t="s"/>
       <c r="E64" s="16" t="n"/>
@@ -3975,7 +3972,7 @@
         <v>9</v>
       </c>
       <c r="G64" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H64" s="16" t="n"/>
     </row>
@@ -3985,7 +3982,7 @@
       </c>
       <c r="B65" s="57" t="n"/>
       <c r="C65" s="58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D65" s="59" t="s"/>
       <c r="E65" s="51" t="n">
@@ -3993,7 +3990,7 @@
       </c>
       <c r="F65" s="26" t="n"/>
       <c r="G65" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H65" s="53" t="n">
         <v>0.03</v>
@@ -4005,13 +4002,13 @@
         <v>7</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D66" s="41" t="s"/>
       <c r="E66" s="26" t="n"/>
       <c r="F66" s="26" t="n"/>
       <c r="G66" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H66" s="39" t="s"/>
     </row>
@@ -4021,7 +4018,7 @@
       </c>
       <c r="B67" s="16" t="n"/>
       <c r="C67" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D67" s="22" t="n">
         <v>5.4</v>
@@ -4031,7 +4028,7 @@
       </c>
       <c r="F67" s="36" t="n"/>
       <c r="G67" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H67" s="61" t="n">
         <v>0.0233</v>
@@ -4043,7 +4040,7 @@
       </c>
       <c r="B68" s="16" t="n"/>
       <c r="C68" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D68" s="22" t="n">
         <v>6.78</v>
@@ -4053,7 +4050,7 @@
       </c>
       <c r="F68" s="36" t="n"/>
       <c r="G68" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H68" s="61" t="n">
         <v>0.0233</v>
@@ -4065,7 +4062,7 @@
       </c>
       <c r="B69" s="16" t="n"/>
       <c r="C69" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D69" s="22" t="n">
         <v>9.72</v>
@@ -4075,7 +4072,7 @@
       </c>
       <c r="F69" s="36" t="n"/>
       <c r="G69" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H69" s="63" t="n">
         <v>0.015</v>
@@ -4095,7 +4092,7 @@
       <c r="E70" s="36" t="n"/>
       <c r="F70" s="36" t="n"/>
       <c r="G70" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H70" s="39" t="s"/>
     </row>
@@ -4105,7 +4102,7 @@
       </c>
       <c r="B71" s="26" t="n"/>
       <c r="C71" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D71" s="40" t="s"/>
       <c r="E71" s="62" t="n">
@@ -4113,7 +4110,7 @@
       </c>
       <c r="F71" s="36" t="n"/>
       <c r="G71" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H71" s="64" t="n">
         <v>0.0233</v>
@@ -4125,7 +4122,7 @@
         <v>8</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D72" s="16" t="n"/>
       <c r="E72" s="62" t="n">
@@ -4133,7 +4130,7 @@
       </c>
       <c r="F72" s="26" t="n"/>
       <c r="G72" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H72" s="46" t="n">
         <v>0.015</v>
@@ -4145,7 +4142,7 @@
       </c>
       <c r="B73" s="26" t="n"/>
       <c r="C73" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D73" s="65" t="n">
         <v>0.03</v>
@@ -4155,7 +4152,7 @@
       </c>
       <c r="F73" s="36" t="n"/>
       <c r="G73" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H73" s="46" t="n">
         <v>0.005</v>
@@ -4167,7 +4164,7 @@
       </c>
       <c r="B74" s="36" t="n"/>
       <c r="C74" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D74" s="40" t="s"/>
       <c r="E74" s="51" t="n">
@@ -4175,7 +4172,7 @@
       </c>
       <c r="F74" s="26" t="n"/>
       <c r="G74" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H74" s="66" t="n">
         <v>0.009</v>
@@ -4187,7 +4184,7 @@
       </c>
       <c r="B75" s="36" t="n"/>
       <c r="C75" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D75" s="65" t="n">
         <v>0.015</v>
@@ -4197,7 +4194,7 @@
         <v>8</v>
       </c>
       <c r="G75" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H75" s="16" t="n"/>
     </row>
@@ -4207,7 +4204,7 @@
       </c>
       <c r="B76" s="36" t="n"/>
       <c r="C76" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D76" s="34" t="n">
         <v>0.01</v>
@@ -4217,7 +4214,7 @@
       </c>
       <c r="F76" s="36" t="n"/>
       <c r="G76" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H76" s="45" t="s"/>
     </row>
@@ -4227,7 +4224,7 @@
         <v>9</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D77" s="41" t="s"/>
       <c r="E77" s="16" t="n"/>
@@ -4235,7 +4232,7 @@
         <v>9</v>
       </c>
       <c r="G77" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H77" s="16" t="n"/>
     </row>
@@ -4245,7 +4242,7 @@
       </c>
       <c r="B78" s="36" t="n"/>
       <c r="C78" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D78" s="40" t="s"/>
       <c r="E78" s="62" t="n">
@@ -4253,7 +4250,7 @@
       </c>
       <c r="F78" s="26" t="n"/>
       <c r="G78" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H78" s="45" t="s"/>
     </row>
@@ -4263,7 +4260,7 @@
         <v>10</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D79" s="41" t="s"/>
       <c r="E79" s="62" t="n">
@@ -4271,7 +4268,7 @@
       </c>
       <c r="F79" s="26" t="n"/>
       <c r="G79" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H79" s="46" t="n">
         <v>0.03</v>
@@ -4283,7 +4280,7 @@
       </c>
       <c r="B80" s="16" t="n"/>
       <c r="C80" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D80" s="22" t="n">
         <v>0.72</v>
@@ -4293,7 +4290,7 @@
       </c>
       <c r="F80" s="26" t="n"/>
       <c r="G80" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H80" s="45" t="s"/>
     </row>
@@ -4303,7 +4300,7 @@
       </c>
       <c r="B81" s="16" t="n"/>
       <c r="C81" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D81" s="22" t="n">
         <v>2.34</v>
@@ -4313,7 +4310,7 @@
         <v>10</v>
       </c>
       <c r="G81" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H81" s="42" t="s"/>
     </row>
@@ -4323,7 +4320,7 @@
       </c>
       <c r="B82" s="16" t="n"/>
       <c r="C82" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D82" s="22" t="n">
         <v>0.54</v>
@@ -4333,7 +4330,7 @@
       </c>
       <c r="F82" s="16" t="n"/>
       <c r="G82" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H82" s="24" t="n">
         <v>0.6</v>
@@ -4345,7 +4342,7 @@
         <v>11</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D83" s="16" t="n"/>
       <c r="E83" s="51" t="n">
@@ -4353,7 +4350,7 @@
       </c>
       <c r="F83" s="16" t="n"/>
       <c r="G83" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H83" s="24" t="n">
         <v>1.95</v>
@@ -4365,7 +4362,7 @@
       </c>
       <c r="B84" s="36" t="n"/>
       <c r="C84" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D84" s="40" t="s"/>
       <c r="E84" s="51" t="n">
@@ -4373,7 +4370,7 @@
       </c>
       <c r="F84" s="16" t="n"/>
       <c r="G84" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H84" s="24" t="n">
         <v>0.45</v>
@@ -4385,7 +4382,7 @@
         <v>11</v>
       </c>
       <c r="G85" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H85" s="42" t="s"/>
     </row>
@@ -4395,7 +4392,7 @@
       </c>
       <c r="F86" s="26" t="n"/>
       <c r="G86" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H86" s="45" t="s"/>
     </row>
@@ -4405,7 +4402,7 @@
       </c>
       <c r="F87" s="16" t="n"/>
       <c r="G87" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H87" s="39" t="s"/>
     </row>
@@ -4415,7 +4412,7 @@
       </c>
       <c r="F88" s="26" t="n"/>
       <c r="G88" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H88" s="39" t="s"/>
     </row>
@@ -4425,7 +4422,7 @@
         <v>12</v>
       </c>
       <c r="G89" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H89" s="42" t="s"/>
     </row>
@@ -4435,7 +4432,7 @@
       </c>
       <c r="F90" s="26" t="n"/>
       <c r="G90" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H90" s="45" t="s"/>
     </row>

--- a/calc/files/letter2.xlsx
+++ b/calc/files/letter2.xlsx
@@ -2030,7 +2030,8 @@
     <numFmt co:extendedFormatCode="0.0%" formatCode="0.0%" numFmtId="1004"/>
     <numFmt co:extendedFormatCode="0.000" formatCode="0.000" numFmtId="1005"/>
     <numFmt co:extendedFormatCode="0.0000" formatCode="0.0000" numFmtId="1006"/>
-    <numFmt co:extendedFormatCode="0.00%" formatCode="0.00%" numFmtId="1007"/>
+    <numFmt co:extendedFormatCode="0.0000;-0.0000" formatCode="0.0000;-0.0000" numFmtId="1007"/>
+    <numFmt co:extendedFormatCode="0.00%" formatCode="0.00%" numFmtId="1008"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -2187,7 +2188,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2326,6 +2327,9 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="13" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
+    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1007" quotePrefix="false">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1004" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
     </xf>
@@ -2371,7 +2375,7 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="8" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1007" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1008" quotePrefix="false">
       <alignment horizontal="right" indent="5" shrinkToFit="true" vertical="top"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1002" quotePrefix="false">
@@ -2380,7 +2384,7 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1004" quotePrefix="false">
       <alignment horizontal="right" indent="6" shrinkToFit="true" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1007" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1008" quotePrefix="false">
       <alignment horizontal="right" indent="5" shrinkToFit="true" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="12" numFmtId="1004" quotePrefix="false">
@@ -3215,7 +3219,7 @@
       <c r="H27" s="16" t="n"/>
       <c r="K27" s="25" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">K29+K30</f>
-        <v>6.265</v>
+        <v>6.804320000000001</v>
       </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="28">
@@ -3256,16 +3260,16 @@
         <v>4.5</v>
       </c>
       <c r="I29" s="44" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">ROUND(H29+H30*0.9, 2)</f>
-        <v>5.18</v>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">ROUND(H29+H30*1.16, 2)</f>
+        <v>5.37</v>
       </c>
       <c r="J29" s="44" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">ROUND(I29*0.2, 2)</f>
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="K29" s="44" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I29+J29</f>
-        <v>6.22</v>
+        <v>6.44</v>
       </c>
     </row>
     <row customHeight="true" ht="28.75" outlineLevel="0" r="30">
@@ -3289,8 +3293,8 @@
       </c>
       <c r="J30" s="0" t="n"/>
       <c r="K30" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">1.25*3.6/100</f>
-        <v>0.045</v>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">10.12*3.6/100</f>
+        <v>0.36432</v>
       </c>
     </row>
     <row customHeight="true" ht="45.4999389648438" outlineLevel="0" r="31">
@@ -3343,6 +3347,10 @@
         <v>70</v>
       </c>
       <c r="H32" s="39" t="s"/>
+      <c r="I32" s="46" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">0.75*0.51</f>
+        <v>0.3825</v>
+      </c>
     </row>
     <row customHeight="true" ht="38.75" outlineLevel="0" r="33">
       <c r="A33" s="32" t="n">
@@ -3380,7 +3388,7 @@
       <c r="G34" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="H34" s="46" t="n">
+      <c r="H34" s="47" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -3419,10 +3427,10 @@
         <v>24</v>
       </c>
       <c r="F36" s="26" t="n"/>
-      <c r="G36" s="47" t="s">
+      <c r="G36" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="H36" s="48" t="s">
+      <c r="H36" s="49" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3489,10 +3497,10 @@
       <c r="B40" s="17" t="n">
         <v>6</v>
       </c>
-      <c r="C40" s="49" t="s">
+      <c r="C40" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="50" t="s"/>
+      <c r="D40" s="51" t="s"/>
       <c r="E40" s="14" t="s">
         <v>14</v>
       </c>
@@ -3553,14 +3561,14 @@
       <c r="D43" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="E43" s="51" t="n">
+      <c r="E43" s="52" t="n">
         <v>28</v>
       </c>
       <c r="F43" s="16" t="n"/>
       <c r="G43" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="H43" s="52" t="n">
+      <c r="H43" s="53" t="n">
         <v>2.2</v>
       </c>
     </row>
@@ -3575,14 +3583,14 @@
       <c r="D44" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="E44" s="51" t="n">
+      <c r="E44" s="52" t="n">
         <v>29</v>
       </c>
       <c r="F44" s="16" t="n"/>
       <c r="G44" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="H44" s="52" t="n">
+      <c r="H44" s="53" t="n">
         <v>2.9</v>
       </c>
     </row>
@@ -3595,14 +3603,14 @@
         <v>94</v>
       </c>
       <c r="D45" s="38" t="s"/>
-      <c r="E45" s="51" t="n">
+      <c r="E45" s="52" t="n">
         <v>30</v>
       </c>
       <c r="F45" s="16" t="n"/>
       <c r="G45" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="H45" s="52" t="n">
+      <c r="H45" s="53" t="n">
         <v>3.65</v>
       </c>
     </row>
@@ -3635,14 +3643,14 @@
       <c r="D47" s="22" t="n">
         <v>0.75</v>
       </c>
-      <c r="E47" s="51" t="n">
+      <c r="E47" s="52" t="n">
         <v>31</v>
       </c>
       <c r="F47" s="16" t="n"/>
       <c r="G47" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="H47" s="52" t="n">
+      <c r="H47" s="53" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -3655,14 +3663,14 @@
         <v>100</v>
       </c>
       <c r="D48" s="40" t="s"/>
-      <c r="E48" s="51" t="n">
+      <c r="E48" s="52" t="n">
         <v>32</v>
       </c>
       <c r="F48" s="16" t="n"/>
       <c r="G48" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="H48" s="52" t="n">
+      <c r="H48" s="53" t="n">
         <v>5.65</v>
       </c>
     </row>
@@ -3675,14 +3683,14 @@
         <v>102</v>
       </c>
       <c r="D49" s="40" t="s"/>
-      <c r="E49" s="51" t="n">
+      <c r="E49" s="52" t="n">
         <v>33</v>
       </c>
       <c r="F49" s="16" t="n"/>
       <c r="G49" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="H49" s="52" t="n">
+      <c r="H49" s="53" t="n">
         <v>8.1</v>
       </c>
     </row>
@@ -3713,7 +3721,7 @@
       <c r="D51" s="28" t="n">
         <v>0.01</v>
       </c>
-      <c r="E51" s="51" t="n">
+      <c r="E51" s="52" t="n">
         <v>34</v>
       </c>
       <c r="F51" s="26" t="n"/>
@@ -3731,7 +3739,7 @@
         <v>108</v>
       </c>
       <c r="D52" s="38" t="s"/>
-      <c r="E52" s="51" t="n">
+      <c r="E52" s="52" t="n">
         <v>35</v>
       </c>
       <c r="F52" s="26" t="n"/>
@@ -3749,7 +3757,7 @@
         <v>110</v>
       </c>
       <c r="D53" s="41" t="s"/>
-      <c r="E53" s="51" t="n">
+      <c r="E53" s="52" t="n">
         <v>36</v>
       </c>
       <c r="F53" s="26" t="n"/>
@@ -3785,14 +3793,14 @@
       <c r="D55" s="22" t="n">
         <v>2.64</v>
       </c>
-      <c r="E55" s="51" t="n">
+      <c r="E55" s="52" t="n">
         <v>37</v>
       </c>
       <c r="F55" s="16" t="n"/>
       <c r="G55" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="H55" s="52" t="n">
+      <c r="H55" s="53" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -3807,14 +3815,14 @@
       <c r="D56" s="22" t="n">
         <v>3.48</v>
       </c>
-      <c r="E56" s="51" t="n">
+      <c r="E56" s="52" t="n">
         <v>38</v>
       </c>
       <c r="F56" s="16" t="n"/>
       <c r="G56" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="H56" s="52" t="n">
+      <c r="H56" s="53" t="n">
         <v>5.65</v>
       </c>
     </row>
@@ -3829,14 +3837,14 @@
       <c r="D57" s="22" t="n">
         <v>4.38</v>
       </c>
-      <c r="E57" s="51" t="n">
+      <c r="E57" s="52" t="n">
         <v>39</v>
       </c>
       <c r="F57" s="16" t="n"/>
       <c r="G57" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="H57" s="52" t="n">
+      <c r="H57" s="53" t="n">
         <v>8.1</v>
       </c>
     </row>
@@ -3847,14 +3855,14 @@
         <v>120</v>
       </c>
       <c r="D58" s="41" t="s"/>
-      <c r="E58" s="51" t="n">
+      <c r="E58" s="52" t="n">
         <v>40</v>
       </c>
       <c r="F58" s="26" t="n"/>
       <c r="G58" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H58" s="53" t="n">
+      <c r="H58" s="54" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -3869,7 +3877,7 @@
       <c r="D59" s="22" t="n">
         <v>5.4</v>
       </c>
-      <c r="E59" s="51" t="n">
+      <c r="E59" s="52" t="n">
         <v>41</v>
       </c>
       <c r="F59" s="26" t="n"/>
@@ -3909,14 +3917,14 @@
       <c r="D61" s="22" t="n">
         <v>9.72</v>
       </c>
-      <c r="E61" s="51" t="n">
+      <c r="E61" s="52" t="n">
         <v>42</v>
       </c>
       <c r="F61" s="16" t="n"/>
       <c r="G61" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="H61" s="52" t="n">
+      <c r="H61" s="53" t="n">
         <v>15</v>
       </c>
     </row>
@@ -3927,14 +3935,14 @@
         <v>126</v>
       </c>
       <c r="D62" s="40" t="s"/>
-      <c r="E62" s="51" t="n">
+      <c r="E62" s="52" t="n">
         <v>43</v>
       </c>
       <c r="F62" s="16" t="n"/>
       <c r="G62" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="H62" s="52" t="n">
+      <c r="H62" s="53" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3943,18 +3951,18 @@
         <v>38</v>
       </c>
       <c r="B63" s="26" t="n"/>
-      <c r="C63" s="54" t="s">
+      <c r="C63" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="D63" s="55" t="s"/>
-      <c r="E63" s="51" t="n">
+      <c r="D63" s="56" t="s"/>
+      <c r="E63" s="52" t="n">
         <v>44</v>
       </c>
       <c r="F63" s="16" t="n"/>
       <c r="G63" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="H63" s="52" t="n">
+      <c r="H63" s="53" t="n">
         <v>42.5</v>
       </c>
     </row>
@@ -3977,28 +3985,28 @@
       <c r="H64" s="16" t="n"/>
     </row>
     <row outlineLevel="0" r="65">
-      <c r="A65" s="56" t="n">
+      <c r="A65" s="57" t="n">
         <v>40</v>
       </c>
-      <c r="B65" s="57" t="n"/>
-      <c r="C65" s="58" t="s">
+      <c r="B65" s="58" t="n"/>
+      <c r="C65" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="D65" s="59" t="s"/>
-      <c r="E65" s="51" t="n">
+      <c r="D65" s="60" t="s"/>
+      <c r="E65" s="52" t="n">
         <v>45</v>
       </c>
       <c r="F65" s="26" t="n"/>
       <c r="G65" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="H65" s="53" t="n">
+      <c r="H65" s="54" t="n">
         <v>0.03</v>
       </c>
     </row>
     <row outlineLevel="0" r="66">
       <c r="A66" s="16" t="n"/>
-      <c r="B66" s="60" t="n">
+      <c r="B66" s="61" t="n">
         <v>7</v>
       </c>
       <c r="C66" s="18" t="s">
@@ -4023,14 +4031,14 @@
       <c r="D67" s="22" t="n">
         <v>5.4</v>
       </c>
-      <c r="E67" s="51" t="n">
+      <c r="E67" s="52" t="n">
         <v>46</v>
       </c>
       <c r="F67" s="36" t="n"/>
       <c r="G67" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="H67" s="61" t="n">
+      <c r="H67" s="62" t="n">
         <v>0.0233</v>
       </c>
     </row>
@@ -4045,14 +4053,14 @@
       <c r="D68" s="22" t="n">
         <v>6.78</v>
       </c>
-      <c r="E68" s="51" t="n">
+      <c r="E68" s="52" t="n">
         <v>47</v>
       </c>
       <c r="F68" s="36" t="n"/>
       <c r="G68" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="H68" s="61" t="n">
+      <c r="H68" s="62" t="n">
         <v>0.0233</v>
       </c>
     </row>
@@ -4067,14 +4075,14 @@
       <c r="D69" s="22" t="n">
         <v>9.72</v>
       </c>
-      <c r="E69" s="62" t="n">
+      <c r="E69" s="63" t="n">
         <v>48</v>
       </c>
       <c r="F69" s="36" t="n"/>
       <c r="G69" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="H69" s="63" t="n">
+      <c r="H69" s="64" t="n">
         <v>0.015</v>
       </c>
     </row>
@@ -4105,34 +4113,34 @@
         <v>141</v>
       </c>
       <c r="D71" s="40" t="s"/>
-      <c r="E71" s="62" t="n">
+      <c r="E71" s="63" t="n">
         <v>49</v>
       </c>
       <c r="F71" s="36" t="n"/>
       <c r="G71" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="H71" s="64" t="n">
+      <c r="H71" s="65" t="n">
         <v>0.0233</v>
       </c>
     </row>
     <row outlineLevel="0" r="72">
       <c r="A72" s="16" t="n"/>
-      <c r="B72" s="60" t="n">
+      <c r="B72" s="61" t="n">
         <v>8</v>
       </c>
       <c r="C72" s="18" t="s">
         <v>143</v>
       </c>
       <c r="D72" s="16" t="n"/>
-      <c r="E72" s="62" t="n">
+      <c r="E72" s="63" t="n">
         <v>50</v>
       </c>
       <c r="F72" s="26" t="n"/>
       <c r="G72" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="H72" s="46" t="n">
+      <c r="H72" s="47" t="n">
         <v>0.015</v>
       </c>
     </row>
@@ -4144,17 +4152,17 @@
       <c r="C73" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="D73" s="65" t="n">
+      <c r="D73" s="66" t="n">
         <v>0.03</v>
       </c>
-      <c r="E73" s="62" t="n">
+      <c r="E73" s="63" t="n">
         <v>51</v>
       </c>
       <c r="F73" s="36" t="n"/>
       <c r="G73" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="H73" s="46" t="n">
+      <c r="H73" s="47" t="n">
         <v>0.005</v>
       </c>
     </row>
@@ -4167,14 +4175,14 @@
         <v>147</v>
       </c>
       <c r="D74" s="40" t="s"/>
-      <c r="E74" s="51" t="n">
+      <c r="E74" s="52" t="n">
         <v>52</v>
       </c>
       <c r="F74" s="26" t="n"/>
       <c r="G74" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="H74" s="66" t="n">
+      <c r="H74" s="67" t="n">
         <v>0.009</v>
       </c>
     </row>
@@ -4186,7 +4194,7 @@
       <c r="C75" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="D75" s="65" t="n">
+      <c r="D75" s="66" t="n">
         <v>0.015</v>
       </c>
       <c r="E75" s="16" t="n"/>
@@ -4209,7 +4217,7 @@
       <c r="D76" s="34" t="n">
         <v>0.01</v>
       </c>
-      <c r="E76" s="51" t="n">
+      <c r="E76" s="52" t="n">
         <v>53</v>
       </c>
       <c r="F76" s="36" t="n"/>
@@ -4220,7 +4228,7 @@
     </row>
     <row outlineLevel="0" r="77">
       <c r="A77" s="16" t="n"/>
-      <c r="B77" s="60" t="n">
+      <c r="B77" s="61" t="n">
         <v>9</v>
       </c>
       <c r="C77" s="18" t="s">
@@ -4245,7 +4253,7 @@
         <v>155</v>
       </c>
       <c r="D78" s="40" t="s"/>
-      <c r="E78" s="62" t="n">
+      <c r="E78" s="63" t="n">
         <v>54</v>
       </c>
       <c r="F78" s="26" t="n"/>
@@ -4256,21 +4264,21 @@
     </row>
     <row outlineLevel="0" r="79">
       <c r="A79" s="16" t="n"/>
-      <c r="B79" s="60" t="n">
+      <c r="B79" s="61" t="n">
         <v>10</v>
       </c>
       <c r="C79" s="18" t="s">
         <v>157</v>
       </c>
       <c r="D79" s="41" t="s"/>
-      <c r="E79" s="62" t="n">
+      <c r="E79" s="63" t="n">
         <v>55</v>
       </c>
       <c r="F79" s="26" t="n"/>
       <c r="G79" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="H79" s="46" t="n">
+      <c r="H79" s="47" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -4285,7 +4293,7 @@
       <c r="D80" s="22" t="n">
         <v>0.72</v>
       </c>
-      <c r="E80" s="51" t="n">
+      <c r="E80" s="52" t="n">
         <v>56</v>
       </c>
       <c r="F80" s="26" t="n"/>
@@ -4325,7 +4333,7 @@
       <c r="D82" s="22" t="n">
         <v>0.54</v>
       </c>
-      <c r="E82" s="51" t="n">
+      <c r="E82" s="52" t="n">
         <v>57</v>
       </c>
       <c r="F82" s="16" t="n"/>
@@ -4338,14 +4346,14 @@
     </row>
     <row outlineLevel="0" r="83">
       <c r="A83" s="16" t="n"/>
-      <c r="B83" s="60" t="n">
+      <c r="B83" s="61" t="n">
         <v>11</v>
       </c>
       <c r="C83" s="18" t="s">
         <v>165</v>
       </c>
       <c r="D83" s="16" t="n"/>
-      <c r="E83" s="51" t="n">
+      <c r="E83" s="52" t="n">
         <v>58</v>
       </c>
       <c r="F83" s="16" t="n"/>
@@ -4365,7 +4373,7 @@
         <v>167</v>
       </c>
       <c r="D84" s="40" t="s"/>
-      <c r="E84" s="51" t="n">
+      <c r="E84" s="52" t="n">
         <v>59</v>
       </c>
       <c r="F84" s="16" t="n"/>
@@ -4387,7 +4395,7 @@
       <c r="H85" s="42" t="s"/>
     </row>
     <row outlineLevel="0" r="86">
-      <c r="E86" s="51" t="n">
+      <c r="E86" s="52" t="n">
         <v>60</v>
       </c>
       <c r="F86" s="26" t="n"/>
@@ -4397,7 +4405,7 @@
       <c r="H86" s="45" t="s"/>
     </row>
     <row outlineLevel="0" r="87">
-      <c r="E87" s="51" t="n">
+      <c r="E87" s="52" t="n">
         <v>61</v>
       </c>
       <c r="F87" s="16" t="n"/>
@@ -4407,7 +4415,7 @@
       <c r="H87" s="39" t="s"/>
     </row>
     <row outlineLevel="0" r="88">
-      <c r="E88" s="51" t="n">
+      <c r="E88" s="52" t="n">
         <v>62</v>
       </c>
       <c r="F88" s="26" t="n"/>
@@ -4427,7 +4435,7 @@
       <c r="H89" s="42" t="s"/>
     </row>
     <row outlineLevel="0" r="90">
-      <c r="E90" s="62" t="n">
+      <c r="E90" s="63" t="n">
         <v>63</v>
       </c>
       <c r="F90" s="26" t="n"/>

--- a/calc/files/letter2.xlsx
+++ b/calc/files/letter2.xlsx
@@ -2030,8 +2030,7 @@
     <numFmt co:extendedFormatCode="0.0%" formatCode="0.0%" numFmtId="1004"/>
     <numFmt co:extendedFormatCode="0.000" formatCode="0.000" numFmtId="1005"/>
     <numFmt co:extendedFormatCode="0.0000" formatCode="0.0000" numFmtId="1006"/>
-    <numFmt co:extendedFormatCode="0.0000;-0.0000" formatCode="0.0000;-0.0000" numFmtId="1007"/>
-    <numFmt co:extendedFormatCode="0.00%" formatCode="0.00%" numFmtId="1008"/>
+    <numFmt co:extendedFormatCode="0.00%" formatCode="0.00%" numFmtId="1007"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -2188,7 +2187,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2327,9 +2326,6 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="13" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1007" quotePrefix="false">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1004" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
     </xf>
@@ -2375,7 +2371,7 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="8" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1008" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1007" quotePrefix="false">
       <alignment horizontal="right" indent="5" shrinkToFit="true" vertical="top"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1002" quotePrefix="false">
@@ -2384,7 +2380,7 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1004" quotePrefix="false">
       <alignment horizontal="right" indent="6" shrinkToFit="true" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1008" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1007" quotePrefix="false">
       <alignment horizontal="right" indent="5" shrinkToFit="true" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="12" numFmtId="1004" quotePrefix="false">
@@ -3317,15 +3313,16 @@
       </c>
       <c r="H31" s="45" t="s"/>
       <c r="I31" s="25" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D31+1.16*D32</f>
-        <v>4.87</v>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D31+1.8*D32</f>
+        <v>5.35</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>0.36</v>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">ROUND(10.72*0.03, 2)</f>
+        <v>0.32</v>
       </c>
       <c r="K31" s="25" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J31+I31</f>
-        <v>5.23</v>
+        <v>5.67</v>
       </c>
     </row>
     <row customHeight="true" hidden="false" ht="45" outlineLevel="0" r="32">
@@ -3347,10 +3344,7 @@
         <v>70</v>
       </c>
       <c r="H32" s="39" t="s"/>
-      <c r="I32" s="46" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">0.75*0.51</f>
-        <v>0.3825</v>
-      </c>
+      <c r="I32" s="25" t="n"/>
     </row>
     <row customHeight="true" ht="38.75" outlineLevel="0" r="33">
       <c r="A33" s="32" t="n">
@@ -3388,7 +3382,7 @@
       <c r="G34" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="H34" s="47" t="n">
+      <c r="H34" s="46" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -3427,10 +3421,10 @@
         <v>24</v>
       </c>
       <c r="F36" s="26" t="n"/>
-      <c r="G36" s="48" t="s">
+      <c r="G36" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="H36" s="49" t="s">
+      <c r="H36" s="48" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3497,10 +3491,10 @@
       <c r="B40" s="17" t="n">
         <v>6</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="C40" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="51" t="s"/>
+      <c r="D40" s="50" t="s"/>
       <c r="E40" s="14" t="s">
         <v>14</v>
       </c>
@@ -3561,14 +3555,14 @@
       <c r="D43" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="E43" s="52" t="n">
+      <c r="E43" s="51" t="n">
         <v>28</v>
       </c>
       <c r="F43" s="16" t="n"/>
       <c r="G43" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="H43" s="53" t="n">
+      <c r="H43" s="52" t="n">
         <v>2.2</v>
       </c>
     </row>
@@ -3583,14 +3577,14 @@
       <c r="D44" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="E44" s="52" t="n">
+      <c r="E44" s="51" t="n">
         <v>29</v>
       </c>
       <c r="F44" s="16" t="n"/>
       <c r="G44" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="H44" s="53" t="n">
+      <c r="H44" s="52" t="n">
         <v>2.9</v>
       </c>
     </row>
@@ -3603,14 +3597,14 @@
         <v>94</v>
       </c>
       <c r="D45" s="38" t="s"/>
-      <c r="E45" s="52" t="n">
+      <c r="E45" s="51" t="n">
         <v>30</v>
       </c>
       <c r="F45" s="16" t="n"/>
       <c r="G45" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="H45" s="53" t="n">
+      <c r="H45" s="52" t="n">
         <v>3.65</v>
       </c>
     </row>
@@ -3643,14 +3637,14 @@
       <c r="D47" s="22" t="n">
         <v>0.75</v>
       </c>
-      <c r="E47" s="52" t="n">
+      <c r="E47" s="51" t="n">
         <v>31</v>
       </c>
       <c r="F47" s="16" t="n"/>
       <c r="G47" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="H47" s="53" t="n">
+      <c r="H47" s="52" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -3663,14 +3657,14 @@
         <v>100</v>
       </c>
       <c r="D48" s="40" t="s"/>
-      <c r="E48" s="52" t="n">
+      <c r="E48" s="51" t="n">
         <v>32</v>
       </c>
       <c r="F48" s="16" t="n"/>
       <c r="G48" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="H48" s="53" t="n">
+      <c r="H48" s="52" t="n">
         <v>5.65</v>
       </c>
     </row>
@@ -3683,14 +3677,14 @@
         <v>102</v>
       </c>
       <c r="D49" s="40" t="s"/>
-      <c r="E49" s="52" t="n">
+      <c r="E49" s="51" t="n">
         <v>33</v>
       </c>
       <c r="F49" s="16" t="n"/>
       <c r="G49" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="H49" s="53" t="n">
+      <c r="H49" s="52" t="n">
         <v>8.1</v>
       </c>
     </row>
@@ -3721,7 +3715,7 @@
       <c r="D51" s="28" t="n">
         <v>0.01</v>
       </c>
-      <c r="E51" s="52" t="n">
+      <c r="E51" s="51" t="n">
         <v>34</v>
       </c>
       <c r="F51" s="26" t="n"/>
@@ -3739,7 +3733,7 @@
         <v>108</v>
       </c>
       <c r="D52" s="38" t="s"/>
-      <c r="E52" s="52" t="n">
+      <c r="E52" s="51" t="n">
         <v>35</v>
       </c>
       <c r="F52" s="26" t="n"/>
@@ -3757,7 +3751,7 @@
         <v>110</v>
       </c>
       <c r="D53" s="41" t="s"/>
-      <c r="E53" s="52" t="n">
+      <c r="E53" s="51" t="n">
         <v>36</v>
       </c>
       <c r="F53" s="26" t="n"/>
@@ -3793,14 +3787,14 @@
       <c r="D55" s="22" t="n">
         <v>2.64</v>
       </c>
-      <c r="E55" s="52" t="n">
+      <c r="E55" s="51" t="n">
         <v>37</v>
       </c>
       <c r="F55" s="16" t="n"/>
       <c r="G55" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="H55" s="53" t="n">
+      <c r="H55" s="52" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -3815,14 +3809,14 @@
       <c r="D56" s="22" t="n">
         <v>3.48</v>
       </c>
-      <c r="E56" s="52" t="n">
+      <c r="E56" s="51" t="n">
         <v>38</v>
       </c>
       <c r="F56" s="16" t="n"/>
       <c r="G56" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="H56" s="53" t="n">
+      <c r="H56" s="52" t="n">
         <v>5.65</v>
       </c>
     </row>
@@ -3837,14 +3831,14 @@
       <c r="D57" s="22" t="n">
         <v>4.38</v>
       </c>
-      <c r="E57" s="52" t="n">
+      <c r="E57" s="51" t="n">
         <v>39</v>
       </c>
       <c r="F57" s="16" t="n"/>
       <c r="G57" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="H57" s="53" t="n">
+      <c r="H57" s="52" t="n">
         <v>8.1</v>
       </c>
     </row>
@@ -3855,14 +3849,14 @@
         <v>120</v>
       </c>
       <c r="D58" s="41" t="s"/>
-      <c r="E58" s="52" t="n">
+      <c r="E58" s="51" t="n">
         <v>40</v>
       </c>
       <c r="F58" s="26" t="n"/>
       <c r="G58" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H58" s="54" t="n">
+      <c r="H58" s="53" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -3877,7 +3871,7 @@
       <c r="D59" s="22" t="n">
         <v>5.4</v>
       </c>
-      <c r="E59" s="52" t="n">
+      <c r="E59" s="51" t="n">
         <v>41</v>
       </c>
       <c r="F59" s="26" t="n"/>
@@ -3917,14 +3911,14 @@
       <c r="D61" s="22" t="n">
         <v>9.72</v>
       </c>
-      <c r="E61" s="52" t="n">
+      <c r="E61" s="51" t="n">
         <v>42</v>
       </c>
       <c r="F61" s="16" t="n"/>
       <c r="G61" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="H61" s="53" t="n">
+      <c r="H61" s="52" t="n">
         <v>15</v>
       </c>
     </row>
@@ -3935,14 +3929,14 @@
         <v>126</v>
       </c>
       <c r="D62" s="40" t="s"/>
-      <c r="E62" s="52" t="n">
+      <c r="E62" s="51" t="n">
         <v>43</v>
       </c>
       <c r="F62" s="16" t="n"/>
       <c r="G62" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="H62" s="53" t="n">
+      <c r="H62" s="52" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3951,18 +3945,18 @@
         <v>38</v>
       </c>
       <c r="B63" s="26" t="n"/>
-      <c r="C63" s="55" t="s">
+      <c r="C63" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="D63" s="56" t="s"/>
-      <c r="E63" s="52" t="n">
+      <c r="D63" s="55" t="s"/>
+      <c r="E63" s="51" t="n">
         <v>44</v>
       </c>
       <c r="F63" s="16" t="n"/>
       <c r="G63" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="H63" s="53" t="n">
+      <c r="H63" s="52" t="n">
         <v>42.5</v>
       </c>
     </row>
@@ -3985,28 +3979,28 @@
       <c r="H64" s="16" t="n"/>
     </row>
     <row outlineLevel="0" r="65">
-      <c r="A65" s="57" t="n">
+      <c r="A65" s="56" t="n">
         <v>40</v>
       </c>
-      <c r="B65" s="58" t="n"/>
-      <c r="C65" s="59" t="s">
+      <c r="B65" s="57" t="n"/>
+      <c r="C65" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="D65" s="60" t="s"/>
-      <c r="E65" s="52" t="n">
+      <c r="D65" s="59" t="s"/>
+      <c r="E65" s="51" t="n">
         <v>45</v>
       </c>
       <c r="F65" s="26" t="n"/>
       <c r="G65" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="H65" s="54" t="n">
+      <c r="H65" s="53" t="n">
         <v>0.03</v>
       </c>
     </row>
     <row outlineLevel="0" r="66">
       <c r="A66" s="16" t="n"/>
-      <c r="B66" s="61" t="n">
+      <c r="B66" s="60" t="n">
         <v>7</v>
       </c>
       <c r="C66" s="18" t="s">
@@ -4031,14 +4025,14 @@
       <c r="D67" s="22" t="n">
         <v>5.4</v>
       </c>
-      <c r="E67" s="52" t="n">
+      <c r="E67" s="51" t="n">
         <v>46</v>
       </c>
       <c r="F67" s="36" t="n"/>
       <c r="G67" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="H67" s="62" t="n">
+      <c r="H67" s="61" t="n">
         <v>0.0233</v>
       </c>
     </row>
@@ -4053,14 +4047,14 @@
       <c r="D68" s="22" t="n">
         <v>6.78</v>
       </c>
-      <c r="E68" s="52" t="n">
+      <c r="E68" s="51" t="n">
         <v>47</v>
       </c>
       <c r="F68" s="36" t="n"/>
       <c r="G68" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="H68" s="62" t="n">
+      <c r="H68" s="61" t="n">
         <v>0.0233</v>
       </c>
     </row>
@@ -4075,14 +4069,14 @@
       <c r="D69" s="22" t="n">
         <v>9.72</v>
       </c>
-      <c r="E69" s="63" t="n">
+      <c r="E69" s="62" t="n">
         <v>48</v>
       </c>
       <c r="F69" s="36" t="n"/>
       <c r="G69" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="H69" s="64" t="n">
+      <c r="H69" s="63" t="n">
         <v>0.015</v>
       </c>
     </row>
@@ -4113,34 +4107,34 @@
         <v>141</v>
       </c>
       <c r="D71" s="40" t="s"/>
-      <c r="E71" s="63" t="n">
+      <c r="E71" s="62" t="n">
         <v>49</v>
       </c>
       <c r="F71" s="36" t="n"/>
       <c r="G71" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="H71" s="65" t="n">
+      <c r="H71" s="64" t="n">
         <v>0.0233</v>
       </c>
     </row>
     <row outlineLevel="0" r="72">
       <c r="A72" s="16" t="n"/>
-      <c r="B72" s="61" t="n">
+      <c r="B72" s="60" t="n">
         <v>8</v>
       </c>
       <c r="C72" s="18" t="s">
         <v>143</v>
       </c>
       <c r="D72" s="16" t="n"/>
-      <c r="E72" s="63" t="n">
+      <c r="E72" s="62" t="n">
         <v>50</v>
       </c>
       <c r="F72" s="26" t="n"/>
       <c r="G72" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="H72" s="47" t="n">
+      <c r="H72" s="46" t="n">
         <v>0.015</v>
       </c>
     </row>
@@ -4152,17 +4146,17 @@
       <c r="C73" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="D73" s="66" t="n">
+      <c r="D73" s="65" t="n">
         <v>0.03</v>
       </c>
-      <c r="E73" s="63" t="n">
+      <c r="E73" s="62" t="n">
         <v>51</v>
       </c>
       <c r="F73" s="36" t="n"/>
       <c r="G73" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="H73" s="47" t="n">
+      <c r="H73" s="46" t="n">
         <v>0.005</v>
       </c>
     </row>
@@ -4175,14 +4169,14 @@
         <v>147</v>
       </c>
       <c r="D74" s="40" t="s"/>
-      <c r="E74" s="52" t="n">
+      <c r="E74" s="51" t="n">
         <v>52</v>
       </c>
       <c r="F74" s="26" t="n"/>
       <c r="G74" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="H74" s="67" t="n">
+      <c r="H74" s="66" t="n">
         <v>0.009</v>
       </c>
     </row>
@@ -4194,7 +4188,7 @@
       <c r="C75" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="D75" s="66" t="n">
+      <c r="D75" s="65" t="n">
         <v>0.015</v>
       </c>
       <c r="E75" s="16" t="n"/>
@@ -4217,7 +4211,7 @@
       <c r="D76" s="34" t="n">
         <v>0.01</v>
       </c>
-      <c r="E76" s="52" t="n">
+      <c r="E76" s="51" t="n">
         <v>53</v>
       </c>
       <c r="F76" s="36" t="n"/>
@@ -4228,7 +4222,7 @@
     </row>
     <row outlineLevel="0" r="77">
       <c r="A77" s="16" t="n"/>
-      <c r="B77" s="61" t="n">
+      <c r="B77" s="60" t="n">
         <v>9</v>
       </c>
       <c r="C77" s="18" t="s">
@@ -4253,7 +4247,7 @@
         <v>155</v>
       </c>
       <c r="D78" s="40" t="s"/>
-      <c r="E78" s="63" t="n">
+      <c r="E78" s="62" t="n">
         <v>54</v>
       </c>
       <c r="F78" s="26" t="n"/>
@@ -4264,21 +4258,21 @@
     </row>
     <row outlineLevel="0" r="79">
       <c r="A79" s="16" t="n"/>
-      <c r="B79" s="61" t="n">
+      <c r="B79" s="60" t="n">
         <v>10</v>
       </c>
       <c r="C79" s="18" t="s">
         <v>157</v>
       </c>
       <c r="D79" s="41" t="s"/>
-      <c r="E79" s="63" t="n">
+      <c r="E79" s="62" t="n">
         <v>55</v>
       </c>
       <c r="F79" s="26" t="n"/>
       <c r="G79" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="H79" s="47" t="n">
+      <c r="H79" s="46" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -4293,7 +4287,7 @@
       <c r="D80" s="22" t="n">
         <v>0.72</v>
       </c>
-      <c r="E80" s="52" t="n">
+      <c r="E80" s="51" t="n">
         <v>56</v>
       </c>
       <c r="F80" s="26" t="n"/>
@@ -4333,7 +4327,7 @@
       <c r="D82" s="22" t="n">
         <v>0.54</v>
       </c>
-      <c r="E82" s="52" t="n">
+      <c r="E82" s="51" t="n">
         <v>57</v>
       </c>
       <c r="F82" s="16" t="n"/>
@@ -4346,14 +4340,14 @@
     </row>
     <row outlineLevel="0" r="83">
       <c r="A83" s="16" t="n"/>
-      <c r="B83" s="61" t="n">
+      <c r="B83" s="60" t="n">
         <v>11</v>
       </c>
       <c r="C83" s="18" t="s">
         <v>165</v>
       </c>
       <c r="D83" s="16" t="n"/>
-      <c r="E83" s="52" t="n">
+      <c r="E83" s="51" t="n">
         <v>58</v>
       </c>
       <c r="F83" s="16" t="n"/>
@@ -4373,7 +4367,7 @@
         <v>167</v>
       </c>
       <c r="D84" s="40" t="s"/>
-      <c r="E84" s="52" t="n">
+      <c r="E84" s="51" t="n">
         <v>59</v>
       </c>
       <c r="F84" s="16" t="n"/>
@@ -4395,7 +4389,7 @@
       <c r="H85" s="42" t="s"/>
     </row>
     <row outlineLevel="0" r="86">
-      <c r="E86" s="52" t="n">
+      <c r="E86" s="51" t="n">
         <v>60</v>
       </c>
       <c r="F86" s="26" t="n"/>
@@ -4405,7 +4399,7 @@
       <c r="H86" s="45" t="s"/>
     </row>
     <row outlineLevel="0" r="87">
-      <c r="E87" s="52" t="n">
+      <c r="E87" s="51" t="n">
         <v>61</v>
       </c>
       <c r="F87" s="16" t="n"/>
@@ -4415,7 +4409,7 @@
       <c r="H87" s="39" t="s"/>
     </row>
     <row outlineLevel="0" r="88">
-      <c r="E88" s="52" t="n">
+      <c r="E88" s="51" t="n">
         <v>62</v>
       </c>
       <c r="F88" s="26" t="n"/>
@@ -4435,7 +4429,7 @@
       <c r="H89" s="42" t="s"/>
     </row>
     <row outlineLevel="0" r="90">
-      <c r="E90" s="63" t="n">
+      <c r="E90" s="62" t="n">
         <v>63</v>
       </c>
       <c r="F90" s="26" t="n"/>

--- a/calc/files/letter2.xlsx
+++ b/calc/files/letter2.xlsx
@@ -53,16 +53,16 @@
         <rFont val="Microsoft Sans Serif"/>
         <sz val="9"/>
       </rPr>
-      <t>№987  от  28.09.2023</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Microsoft Sans Serif"/>
-        <sz val="8.5"/>
-      </rPr>
-      <t>от 06.04.2023 №350</t>
+      <t>04 марта 2024 № 222</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft Sans Serif"/>
+        <sz val="8.5"/>
+      </rPr>
+      <t>от 04/03.2024 №222</t>
     </r>
   </si>
   <si>
@@ -93,7 +93,7 @@
         <color rgb="FF0000" tint="0"/>
         <sz val="9"/>
       </rPr>
-      <t>в действии c 09.10.2023</t>
+      <t>в действии c 01.04.2024</t>
     </r>
   </si>
   <si>
@@ -105,7 +105,7 @@
         <color rgb="FF0000" tint="0"/>
         <sz val="8.5"/>
       </rPr>
-      <t>в действии c 11.04.2023</t>
+      <t>в действии c 01.04.2024</t>
     </r>
   </si>
   <si>
@@ -456,7 +456,7 @@
         <rFont val="Microsoft Sans Serif"/>
         <sz val="8.5"/>
       </rPr>
-      <t>За хрупкие мелкие пакеты с объявленной ценностью  с отметкой "Осторожно" взимается надбавка к плате за  пересылку  мелкого  пакета   в  размере  50%.  На  плату  за  объявленную  ценность  мелкого  пакета надбавка не распространяется</t>
+      <t>За хрупкие мелкие пакеты с объявленной ценностью  с отметкой "Хрупкое" взимается надбавка к плате за  пересылку  мелкого  пакета   в  размере  50%.  На  плату  за  объявленную  ценность  мелкого  пакета надбавка не распространяется</t>
     </r>
   </si>
   <si>
@@ -2747,7 +2747,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="22" t="n">
-        <v>2.52</v>
+        <v>2.7</v>
       </c>
       <c r="E8" s="23" t="n">
         <v>1</v>
@@ -2757,11 +2757,11 @@
         <v>21</v>
       </c>
       <c r="H8" s="24" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="I8" s="25" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H8*1.2</f>
-        <v>2.52</v>
+        <v>2.6999999999999997</v>
       </c>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="9">
@@ -2792,7 +2792,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="22" t="n">
-        <v>2.76</v>
+        <v>3</v>
       </c>
       <c r="E10" s="23" t="n">
         <v>2</v>
@@ -2802,11 +2802,11 @@
         <v>25</v>
       </c>
       <c r="H10" s="24" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="I10" s="25" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H10*1.2</f>
-        <v>2.76</v>
+        <v>3</v>
       </c>
       <c r="J10" s="25" t="n"/>
       <c r="K10" s="25" t="n"/>
@@ -2820,7 +2820,7 @@
         <v>26</v>
       </c>
       <c r="D11" s="22" t="n">
-        <v>3.24</v>
+        <v>3.48</v>
       </c>
       <c r="E11" s="23" t="n">
         <v>3</v>
@@ -2830,19 +2830,19 @@
         <v>27</v>
       </c>
       <c r="H11" s="24" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I11" s="25" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H11*1.2</f>
-        <v>3.5999999999999996</v>
+        <v>3.84</v>
       </c>
       <c r="J11" s="25" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I11+0.36</f>
-        <v>3.9599999999999995</v>
+        <v>4.2</v>
       </c>
       <c r="K11" s="25" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J11/1.2*0.2</f>
-        <v>0.66</v>
+        <v>0.7000000000000002</v>
       </c>
     </row>
     <row customHeight="true" ht="27.25" outlineLevel="0" r="12">
@@ -2929,7 +2929,7 @@
         <v>34</v>
       </c>
       <c r="D15" s="22" t="n">
-        <v>0.78</v>
+        <v>0.84</v>
       </c>
       <c r="E15" s="23" t="n">
         <v>6</v>
@@ -2939,11 +2939,11 @@
         <v>35</v>
       </c>
       <c r="H15" s="24" t="n">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="I15" s="25" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H15*1.2</f>
-        <v>0.78</v>
+        <v>0.84</v>
       </c>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="16">
@@ -2955,7 +2955,7 @@
         <v>36</v>
       </c>
       <c r="D16" s="22" t="n">
-        <v>2.76</v>
+        <v>3</v>
       </c>
       <c r="E16" s="23" t="n">
         <v>7</v>
@@ -2965,11 +2965,11 @@
         <v>37</v>
       </c>
       <c r="H16" s="24" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="I16" s="25" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H16*1.2</f>
-        <v>2.76</v>
+        <v>3</v>
       </c>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="17">
@@ -2981,7 +2981,7 @@
         <v>38</v>
       </c>
       <c r="D17" s="22" t="n">
-        <v>3.24</v>
+        <v>3.48</v>
       </c>
       <c r="E17" s="31" t="n">
         <v>8</v>
@@ -2991,11 +2991,11 @@
         <v>39</v>
       </c>
       <c r="H17" s="24" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I17" s="25" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H17*1.2</f>
-        <v>3.5999999999999996</v>
+        <v>3.84</v>
       </c>
     </row>
     <row customHeight="true" ht="35.25" outlineLevel="0" r="18">
@@ -3117,7 +3117,7 @@
         <v>48</v>
       </c>
       <c r="D23" s="22" t="n">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="E23" s="23" t="n">
         <v>13</v>
@@ -3127,11 +3127,11 @@
         <v>49</v>
       </c>
       <c r="H23" s="24" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="I23" s="25" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H23*1.2</f>
-        <v>1.68</v>
+        <v>1.8599999999999999</v>
       </c>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="24">
@@ -3243,7 +3243,7 @@
         <v>61</v>
       </c>
       <c r="D29" s="22" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="E29" s="23" t="n">
         <v>17</v>
@@ -3314,7 +3314,7 @@
       <c r="H31" s="45" t="s"/>
       <c r="I31" s="25" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D31+1.8*D32</f>
-        <v>5.35</v>
+        <v>5.44</v>
       </c>
       <c r="J31" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">ROUND(10.72*0.03, 2)</f>
@@ -3322,7 +3322,7 @@
       </c>
       <c r="K31" s="25" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J31+I31</f>
-        <v>5.67</v>
+        <v>5.760000000000001</v>
       </c>
     </row>
     <row customHeight="true" hidden="false" ht="45" outlineLevel="0" r="32">
@@ -3334,7 +3334,7 @@
         <v>69</v>
       </c>
       <c r="D32" s="22" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="E32" s="35" t="n">
         <v>20</v>
@@ -3563,7 +3563,7 @@
         <v>90</v>
       </c>
       <c r="H43" s="52" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
     </row>
     <row outlineLevel="0" r="44">
@@ -3585,7 +3585,7 @@
         <v>93</v>
       </c>
       <c r="H44" s="52" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
     </row>
     <row outlineLevel="0" r="45">
@@ -3605,7 +3605,7 @@
         <v>95</v>
       </c>
       <c r="H45" s="52" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
     </row>
     <row outlineLevel="0" r="46">
@@ -3635,7 +3635,7 @@
         <v>69</v>
       </c>
       <c r="D47" s="22" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="E47" s="51" t="n">
         <v>31</v>
@@ -3785,7 +3785,7 @@
         <v>114</v>
       </c>
       <c r="D55" s="22" t="n">
-        <v>2.64</v>
+        <v>2.82</v>
       </c>
       <c r="E55" s="51" t="n">
         <v>37</v>
@@ -3807,7 +3807,7 @@
         <v>116</v>
       </c>
       <c r="D56" s="22" t="n">
-        <v>3.48</v>
+        <v>3.72</v>
       </c>
       <c r="E56" s="51" t="n">
         <v>38</v>
@@ -3829,7 +3829,7 @@
         <v>118</v>
       </c>
       <c r="D57" s="22" t="n">
-        <v>4.38</v>
+        <v>9.72</v>
       </c>
       <c r="E57" s="51" t="n">
         <v>39</v>
@@ -4285,7 +4285,7 @@
         <v>159</v>
       </c>
       <c r="D80" s="22" t="n">
-        <v>0.72</v>
+        <v>0.78</v>
       </c>
       <c r="E80" s="51" t="n">
         <v>56</v>
@@ -4305,7 +4305,7 @@
         <v>161</v>
       </c>
       <c r="D81" s="22" t="n">
-        <v>2.34</v>
+        <v>2.52</v>
       </c>
       <c r="E81" s="16" t="n"/>
       <c r="F81" s="19" t="n">
@@ -4335,7 +4335,7 @@
         <v>164</v>
       </c>
       <c r="H82" s="24" t="n">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
     </row>
     <row outlineLevel="0" r="83">
@@ -4355,7 +4355,7 @@
         <v>166</v>
       </c>
       <c r="H83" s="24" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
     </row>
     <row outlineLevel="0" r="84">

--- a/calc/files/letter2.xlsx
+++ b/calc/files/letter2.xlsx
@@ -2607,7 +2607,7 @@
   <sheetPr>
     <outlinePr summaryBelow="true" summaryRight="true"/>
   </sheetPr>
-  <dimension ref="A1:K90"/>
+  <dimension ref="A1:O90"/>
   <sheetViews>
     <sheetView showZeros="true" workbookViewId="0"/>
   </sheetViews>
@@ -3213,10 +3213,7 @@
         <v>57</v>
       </c>
       <c r="H27" s="16" t="n"/>
-      <c r="K27" s="25" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">K29+K30</f>
-        <v>6.804320000000001</v>
-      </c>
+      <c r="K27" s="25" t="n"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="28">
       <c r="A28" s="21" t="n">
@@ -3255,18 +3252,9 @@
       <c r="H29" s="24" t="n">
         <v>4.5</v>
       </c>
-      <c r="I29" s="44" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">ROUND(H29+H30*1.16, 2)</f>
-        <v>5.37</v>
-      </c>
-      <c r="J29" s="44" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">ROUND(I29*0.2, 2)</f>
-        <v>1.07</v>
-      </c>
-      <c r="K29" s="44" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I29+J29</f>
-        <v>6.44</v>
-      </c>
+      <c r="I29" s="44" t="n"/>
+      <c r="J29" s="44" t="n"/>
+      <c r="K29" s="44" t="n"/>
     </row>
     <row customHeight="true" ht="28.75" outlineLevel="0" r="30">
       <c r="A30" s="21" t="n">
@@ -3285,12 +3273,28 @@
         <v>64</v>
       </c>
       <c r="H30" s="24" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="J30" s="0" t="n"/>
+        <v>0.8</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>0.8</v>
+      </c>
       <c r="K30" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">10.12*3.6/100</f>
-        <v>0.36432</v>
+        <v>3.46</v>
+      </c>
+      <c r="L30" s="0" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J30*K30+J31</f>
+        <v>6.768000000000001</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="N30" s="0" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">M30*3/100</f>
+        <v>0.26549999999999996</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">N30*1.2</f>
+        <v>0.31859999999999994</v>
       </c>
     </row>
     <row customHeight="true" ht="45.4999389648438" outlineLevel="0" r="31">
@@ -3312,17 +3316,14 @@
         <v>67</v>
       </c>
       <c r="H31" s="45" t="s"/>
-      <c r="I31" s="25" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D31+1.8*D32</f>
-        <v>5.44</v>
-      </c>
+      <c r="I31" s="25" t="n"/>
       <c r="J31" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">ROUND(10.72*0.03, 2)</f>
-        <v>0.32</v>
-      </c>
-      <c r="K31" s="25" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J31+I31</f>
-        <v>5.760000000000001</v>
+        <v>4</v>
+      </c>
+      <c r="K31" s="25" t="n"/>
+      <c r="N31" s="0" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">L30+N30</f>
+        <v>7.033500000000001</v>
       </c>
     </row>
     <row customHeight="true" hidden="false" ht="45" outlineLevel="0" r="32">

--- a/calc/files/letter2.xlsx
+++ b/calc/files/letter2.xlsx
@@ -3253,7 +3253,10 @@
         <v>4.5</v>
       </c>
       <c r="I29" s="44" t="n"/>
-      <c r="J29" s="44" t="n"/>
+      <c r="J29" s="44" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">6.82/120*20</f>
+        <v>1.1366666666666667</v>
+      </c>
       <c r="K29" s="44" t="n"/>
     </row>
     <row customHeight="true" ht="28.75" outlineLevel="0" r="30">
@@ -3276,26 +3279,14 @@
         <v>0.8</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K30" s="0" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="L30" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J30*K30+J31</f>
-        <v>6.768000000000001</v>
-      </c>
-      <c r="M30" s="0" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="N30" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">M30*3/100</f>
-        <v>0.26549999999999996</v>
-      </c>
-      <c r="O30" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">N30*1.2</f>
-        <v>0.31859999999999994</v>
-      </c>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">4.5/120*20</f>
+        <v>0.75</v>
+      </c>
+      <c r="K30" s="0" t="n"/>
+      <c r="L30" s="0" t="n"/>
+      <c r="M30" s="0" t="n"/>
+      <c r="N30" s="0" t="n"/>
+      <c r="O30" s="0" t="n"/>
     </row>
     <row customHeight="true" ht="45.4999389648438" outlineLevel="0" r="31">
       <c r="A31" s="43" t="s">
@@ -3317,14 +3308,9 @@
       </c>
       <c r="H31" s="45" t="s"/>
       <c r="I31" s="25" t="n"/>
-      <c r="J31" s="0" t="n">
-        <v>4</v>
-      </c>
+      <c r="J31" s="0" t="n"/>
       <c r="K31" s="25" t="n"/>
-      <c r="N31" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">L30+N30</f>
-        <v>7.033500000000001</v>
-      </c>
+      <c r="N31" s="0" t="n"/>
     </row>
     <row customHeight="true" hidden="false" ht="45" outlineLevel="0" r="32">
       <c r="A32" s="43" t="s">

--- a/calc/files/letter2.xlsx
+++ b/calc/files/letter2.xlsx
@@ -2187,7 +2187,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2340,6 +2340,9 @@
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="8" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="12" numFmtId="1001" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
@@ -3521,7 +3524,7 @@
       <c r="C42" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="22" t="n">
+      <c r="D42" s="51" t="n">
         <v>3</v>
       </c>
       <c r="E42" s="16" t="n"/>
@@ -3542,14 +3545,14 @@
       <c r="D43" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="E43" s="51" t="n">
+      <c r="E43" s="52" t="n">
         <v>28</v>
       </c>
       <c r="F43" s="16" t="n"/>
       <c r="G43" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="H43" s="52" t="n">
+      <c r="H43" s="53" t="n">
         <v>2.35</v>
       </c>
     </row>
@@ -3564,14 +3567,14 @@
       <c r="D44" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="E44" s="51" t="n">
+      <c r="E44" s="52" t="n">
         <v>29</v>
       </c>
       <c r="F44" s="16" t="n"/>
       <c r="G44" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="H44" s="52" t="n">
+      <c r="H44" s="53" t="n">
         <v>3.1</v>
       </c>
     </row>
@@ -3584,14 +3587,14 @@
         <v>94</v>
       </c>
       <c r="D45" s="38" t="s"/>
-      <c r="E45" s="51" t="n">
+      <c r="E45" s="52" t="n">
         <v>30</v>
       </c>
       <c r="F45" s="16" t="n"/>
       <c r="G45" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="H45" s="52" t="n">
+      <c r="H45" s="53" t="n">
         <v>3.9</v>
       </c>
     </row>
@@ -3624,14 +3627,14 @@
       <c r="D47" s="22" t="n">
         <v>0.8</v>
       </c>
-      <c r="E47" s="51" t="n">
+      <c r="E47" s="52" t="n">
         <v>31</v>
       </c>
       <c r="F47" s="16" t="n"/>
       <c r="G47" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="H47" s="52" t="n">
+      <c r="H47" s="53" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -3644,14 +3647,14 @@
         <v>100</v>
       </c>
       <c r="D48" s="40" t="s"/>
-      <c r="E48" s="51" t="n">
+      <c r="E48" s="52" t="n">
         <v>32</v>
       </c>
       <c r="F48" s="16" t="n"/>
       <c r="G48" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="H48" s="52" t="n">
+      <c r="H48" s="53" t="n">
         <v>5.65</v>
       </c>
     </row>
@@ -3664,14 +3667,14 @@
         <v>102</v>
       </c>
       <c r="D49" s="40" t="s"/>
-      <c r="E49" s="51" t="n">
+      <c r="E49" s="52" t="n">
         <v>33</v>
       </c>
       <c r="F49" s="16" t="n"/>
       <c r="G49" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="H49" s="52" t="n">
+      <c r="H49" s="53" t="n">
         <v>8.1</v>
       </c>
     </row>
@@ -3702,7 +3705,7 @@
       <c r="D51" s="28" t="n">
         <v>0.01</v>
       </c>
-      <c r="E51" s="51" t="n">
+      <c r="E51" s="52" t="n">
         <v>34</v>
       </c>
       <c r="F51" s="26" t="n"/>
@@ -3720,7 +3723,7 @@
         <v>108</v>
       </c>
       <c r="D52" s="38" t="s"/>
-      <c r="E52" s="51" t="n">
+      <c r="E52" s="52" t="n">
         <v>35</v>
       </c>
       <c r="F52" s="26" t="n"/>
@@ -3738,7 +3741,7 @@
         <v>110</v>
       </c>
       <c r="D53" s="41" t="s"/>
-      <c r="E53" s="51" t="n">
+      <c r="E53" s="52" t="n">
         <v>36</v>
       </c>
       <c r="F53" s="26" t="n"/>
@@ -3774,14 +3777,14 @@
       <c r="D55" s="22" t="n">
         <v>2.82</v>
       </c>
-      <c r="E55" s="51" t="n">
+      <c r="E55" s="52" t="n">
         <v>37</v>
       </c>
       <c r="F55" s="16" t="n"/>
       <c r="G55" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="H55" s="52" t="n">
+      <c r="H55" s="53" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -3796,14 +3799,14 @@
       <c r="D56" s="22" t="n">
         <v>3.72</v>
       </c>
-      <c r="E56" s="51" t="n">
+      <c r="E56" s="52" t="n">
         <v>38</v>
       </c>
       <c r="F56" s="16" t="n"/>
       <c r="G56" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="H56" s="52" t="n">
+      <c r="H56" s="53" t="n">
         <v>5.65</v>
       </c>
     </row>
@@ -3818,14 +3821,14 @@
       <c r="D57" s="22" t="n">
         <v>9.72</v>
       </c>
-      <c r="E57" s="51" t="n">
+      <c r="E57" s="52" t="n">
         <v>39</v>
       </c>
       <c r="F57" s="16" t="n"/>
       <c r="G57" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="H57" s="52" t="n">
+      <c r="H57" s="53" t="n">
         <v>8.1</v>
       </c>
     </row>
@@ -3836,14 +3839,14 @@
         <v>120</v>
       </c>
       <c r="D58" s="41" t="s"/>
-      <c r="E58" s="51" t="n">
+      <c r="E58" s="52" t="n">
         <v>40</v>
       </c>
       <c r="F58" s="26" t="n"/>
       <c r="G58" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H58" s="53" t="n">
+      <c r="H58" s="54" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -3858,7 +3861,7 @@
       <c r="D59" s="22" t="n">
         <v>5.4</v>
       </c>
-      <c r="E59" s="51" t="n">
+      <c r="E59" s="52" t="n">
         <v>41</v>
       </c>
       <c r="F59" s="26" t="n"/>
@@ -3898,14 +3901,14 @@
       <c r="D61" s="22" t="n">
         <v>9.72</v>
       </c>
-      <c r="E61" s="51" t="n">
+      <c r="E61" s="52" t="n">
         <v>42</v>
       </c>
       <c r="F61" s="16" t="n"/>
       <c r="G61" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="H61" s="52" t="n">
+      <c r="H61" s="53" t="n">
         <v>15</v>
       </c>
     </row>
@@ -3916,14 +3919,14 @@
         <v>126</v>
       </c>
       <c r="D62" s="40" t="s"/>
-      <c r="E62" s="51" t="n">
+      <c r="E62" s="52" t="n">
         <v>43</v>
       </c>
       <c r="F62" s="16" t="n"/>
       <c r="G62" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="H62" s="52" t="n">
+      <c r="H62" s="53" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3932,18 +3935,18 @@
         <v>38</v>
       </c>
       <c r="B63" s="26" t="n"/>
-      <c r="C63" s="54" t="s">
+      <c r="C63" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="D63" s="55" t="s"/>
-      <c r="E63" s="51" t="n">
+      <c r="D63" s="56" t="s"/>
+      <c r="E63" s="52" t="n">
         <v>44</v>
       </c>
       <c r="F63" s="16" t="n"/>
       <c r="G63" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="H63" s="52" t="n">
+      <c r="H63" s="53" t="n">
         <v>42.5</v>
       </c>
     </row>
@@ -3966,28 +3969,28 @@
       <c r="H64" s="16" t="n"/>
     </row>
     <row outlineLevel="0" r="65">
-      <c r="A65" s="56" t="n">
+      <c r="A65" s="57" t="n">
         <v>40</v>
       </c>
-      <c r="B65" s="57" t="n"/>
-      <c r="C65" s="58" t="s">
+      <c r="B65" s="58" t="n"/>
+      <c r="C65" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="D65" s="59" t="s"/>
-      <c r="E65" s="51" t="n">
+      <c r="D65" s="60" t="s"/>
+      <c r="E65" s="52" t="n">
         <v>45</v>
       </c>
       <c r="F65" s="26" t="n"/>
       <c r="G65" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="H65" s="53" t="n">
+      <c r="H65" s="54" t="n">
         <v>0.03</v>
       </c>
     </row>
     <row outlineLevel="0" r="66">
       <c r="A66" s="16" t="n"/>
-      <c r="B66" s="60" t="n">
+      <c r="B66" s="61" t="n">
         <v>7</v>
       </c>
       <c r="C66" s="18" t="s">
@@ -4012,14 +4015,14 @@
       <c r="D67" s="22" t="n">
         <v>5.4</v>
       </c>
-      <c r="E67" s="51" t="n">
+      <c r="E67" s="52" t="n">
         <v>46</v>
       </c>
       <c r="F67" s="36" t="n"/>
       <c r="G67" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="H67" s="61" t="n">
+      <c r="H67" s="62" t="n">
         <v>0.0233</v>
       </c>
     </row>
@@ -4034,14 +4037,14 @@
       <c r="D68" s="22" t="n">
         <v>6.78</v>
       </c>
-      <c r="E68" s="51" t="n">
+      <c r="E68" s="52" t="n">
         <v>47</v>
       </c>
       <c r="F68" s="36" t="n"/>
       <c r="G68" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="H68" s="61" t="n">
+      <c r="H68" s="62" t="n">
         <v>0.0233</v>
       </c>
     </row>
@@ -4056,14 +4059,14 @@
       <c r="D69" s="22" t="n">
         <v>9.72</v>
       </c>
-      <c r="E69" s="62" t="n">
+      <c r="E69" s="63" t="n">
         <v>48</v>
       </c>
       <c r="F69" s="36" t="n"/>
       <c r="G69" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="H69" s="63" t="n">
+      <c r="H69" s="64" t="n">
         <v>0.015</v>
       </c>
     </row>
@@ -4094,27 +4097,27 @@
         <v>141</v>
       </c>
       <c r="D71" s="40" t="s"/>
-      <c r="E71" s="62" t="n">
+      <c r="E71" s="63" t="n">
         <v>49</v>
       </c>
       <c r="F71" s="36" t="n"/>
       <c r="G71" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="H71" s="64" t="n">
+      <c r="H71" s="65" t="n">
         <v>0.0233</v>
       </c>
     </row>
     <row outlineLevel="0" r="72">
       <c r="A72" s="16" t="n"/>
-      <c r="B72" s="60" t="n">
+      <c r="B72" s="61" t="n">
         <v>8</v>
       </c>
       <c r="C72" s="18" t="s">
         <v>143</v>
       </c>
       <c r="D72" s="16" t="n"/>
-      <c r="E72" s="62" t="n">
+      <c r="E72" s="63" t="n">
         <v>50</v>
       </c>
       <c r="F72" s="26" t="n"/>
@@ -4133,10 +4136,10 @@
       <c r="C73" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="D73" s="65" t="n">
+      <c r="D73" s="66" t="n">
         <v>0.03</v>
       </c>
-      <c r="E73" s="62" t="n">
+      <c r="E73" s="63" t="n">
         <v>51</v>
       </c>
       <c r="F73" s="36" t="n"/>
@@ -4156,14 +4159,14 @@
         <v>147</v>
       </c>
       <c r="D74" s="40" t="s"/>
-      <c r="E74" s="51" t="n">
+      <c r="E74" s="52" t="n">
         <v>52</v>
       </c>
       <c r="F74" s="26" t="n"/>
       <c r="G74" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="H74" s="66" t="n">
+      <c r="H74" s="67" t="n">
         <v>0.009</v>
       </c>
     </row>
@@ -4175,7 +4178,7 @@
       <c r="C75" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="D75" s="65" t="n">
+      <c r="D75" s="66" t="n">
         <v>0.015</v>
       </c>
       <c r="E75" s="16" t="n"/>
@@ -4198,7 +4201,7 @@
       <c r="D76" s="34" t="n">
         <v>0.01</v>
       </c>
-      <c r="E76" s="51" t="n">
+      <c r="E76" s="52" t="n">
         <v>53</v>
       </c>
       <c r="F76" s="36" t="n"/>
@@ -4209,7 +4212,7 @@
     </row>
     <row outlineLevel="0" r="77">
       <c r="A77" s="16" t="n"/>
-      <c r="B77" s="60" t="n">
+      <c r="B77" s="61" t="n">
         <v>9</v>
       </c>
       <c r="C77" s="18" t="s">
@@ -4234,7 +4237,7 @@
         <v>155</v>
       </c>
       <c r="D78" s="40" t="s"/>
-      <c r="E78" s="62" t="n">
+      <c r="E78" s="63" t="n">
         <v>54</v>
       </c>
       <c r="F78" s="26" t="n"/>
@@ -4245,14 +4248,14 @@
     </row>
     <row outlineLevel="0" r="79">
       <c r="A79" s="16" t="n"/>
-      <c r="B79" s="60" t="n">
+      <c r="B79" s="61" t="n">
         <v>10</v>
       </c>
       <c r="C79" s="18" t="s">
         <v>157</v>
       </c>
       <c r="D79" s="41" t="s"/>
-      <c r="E79" s="62" t="n">
+      <c r="E79" s="63" t="n">
         <v>55</v>
       </c>
       <c r="F79" s="26" t="n"/>
@@ -4274,7 +4277,7 @@
       <c r="D80" s="22" t="n">
         <v>0.78</v>
       </c>
-      <c r="E80" s="51" t="n">
+      <c r="E80" s="52" t="n">
         <v>56</v>
       </c>
       <c r="F80" s="26" t="n"/>
@@ -4314,7 +4317,7 @@
       <c r="D82" s="22" t="n">
         <v>0.54</v>
       </c>
-      <c r="E82" s="51" t="n">
+      <c r="E82" s="52" t="n">
         <v>57</v>
       </c>
       <c r="F82" s="16" t="n"/>
@@ -4327,14 +4330,14 @@
     </row>
     <row outlineLevel="0" r="83">
       <c r="A83" s="16" t="n"/>
-      <c r="B83" s="60" t="n">
+      <c r="B83" s="61" t="n">
         <v>11</v>
       </c>
       <c r="C83" s="18" t="s">
         <v>165</v>
       </c>
       <c r="D83" s="16" t="n"/>
-      <c r="E83" s="51" t="n">
+      <c r="E83" s="52" t="n">
         <v>58</v>
       </c>
       <c r="F83" s="16" t="n"/>
@@ -4354,7 +4357,7 @@
         <v>167</v>
       </c>
       <c r="D84" s="40" t="s"/>
-      <c r="E84" s="51" t="n">
+      <c r="E84" s="52" t="n">
         <v>59</v>
       </c>
       <c r="F84" s="16" t="n"/>
@@ -4376,7 +4379,7 @@
       <c r="H85" s="42" t="s"/>
     </row>
     <row outlineLevel="0" r="86">
-      <c r="E86" s="51" t="n">
+      <c r="E86" s="52" t="n">
         <v>60</v>
       </c>
       <c r="F86" s="26" t="n"/>
@@ -4386,7 +4389,7 @@
       <c r="H86" s="45" t="s"/>
     </row>
     <row outlineLevel="0" r="87">
-      <c r="E87" s="51" t="n">
+      <c r="E87" s="52" t="n">
         <v>61</v>
       </c>
       <c r="F87" s="16" t="n"/>
@@ -4396,7 +4399,7 @@
       <c r="H87" s="39" t="s"/>
     </row>
     <row outlineLevel="0" r="88">
-      <c r="E88" s="51" t="n">
+      <c r="E88" s="52" t="n">
         <v>62</v>
       </c>
       <c r="F88" s="26" t="n"/>
@@ -4416,7 +4419,7 @@
       <c r="H89" s="42" t="s"/>
     </row>
     <row outlineLevel="0" r="90">
-      <c r="E90" s="62" t="n">
+      <c r="E90" s="63" t="n">
         <v>63</v>
       </c>
       <c r="F90" s="26" t="n"/>

--- a/calc/files/letter2.xlsx
+++ b/calc/files/letter2.xlsx
@@ -4327,6 +4327,10 @@
       <c r="H82" s="24" t="n">
         <v>0.65</v>
       </c>
+      <c r="I82" s="25" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H82*1.2</f>
+        <v>0.78</v>
+      </c>
     </row>
     <row outlineLevel="0" r="83">
       <c r="A83" s="16" t="n"/>
@@ -4347,6 +4351,10 @@
       <c r="H83" s="24" t="n">
         <v>2.1</v>
       </c>
+      <c r="I83" s="25" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H83*1.2</f>
+        <v>2.52</v>
+      </c>
     </row>
     <row outlineLevel="0" r="84">
       <c r="A84" s="21" t="n">
@@ -4366,6 +4374,10 @@
       </c>
       <c r="H84" s="24" t="n">
         <v>0.45</v>
+      </c>
+      <c r="I84" s="25" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H84*1.2</f>
+        <v>0.54</v>
       </c>
     </row>
     <row outlineLevel="0" r="85">

--- a/calc/files/letter2.xlsx
+++ b/calc/files/letter2.xlsx
@@ -82,7 +82,7 @@
         <b val="true"/>
         <sz val="10"/>
       </rPr>
-      <t>. Тарифы на услуги почтовой связи общего пользования, оказываемые юридическим лицам и индивидуальным предпринимателям</t>
+      <t>Тарифы на услуги почтовой связи общего пользования, оказываемые юридическим лицам и индивидуальным предпринимателям</t>
     </r>
   </si>
   <si>
@@ -2687,10 +2687,7 @@
       <c r="D5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="9" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">3.24*0.2</f>
-        <v>0.6480000000000001</v>
-      </c>
+      <c r="E5" s="9" t="n"/>
       <c r="F5" s="7" t="n"/>
       <c r="G5" s="7" t="n"/>
       <c r="H5" s="10" t="s">
@@ -2762,10 +2759,7 @@
       <c r="H8" s="24" t="n">
         <v>2.25</v>
       </c>
-      <c r="I8" s="25" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H8*1.2</f>
-        <v>2.6999999999999997</v>
-      </c>
+      <c r="I8" s="25" t="n"/>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="9">
       <c r="A9" s="16" t="n"/>
@@ -2807,10 +2801,7 @@
       <c r="H10" s="24" t="n">
         <v>2.5</v>
       </c>
-      <c r="I10" s="25" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H10*1.2</f>
-        <v>3</v>
-      </c>
+      <c r="I10" s="25" t="n"/>
       <c r="J10" s="25" t="n"/>
       <c r="K10" s="25" t="n"/>
     </row>
@@ -2835,18 +2826,9 @@
       <c r="H11" s="24" t="n">
         <v>3.2</v>
       </c>
-      <c r="I11" s="25" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H11*1.2</f>
-        <v>3.84</v>
-      </c>
-      <c r="J11" s="25" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I11+0.36</f>
-        <v>4.2</v>
-      </c>
-      <c r="K11" s="25" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">J11/1.2*0.2</f>
-        <v>0.7000000000000002</v>
-      </c>
+      <c r="I11" s="25" t="n"/>
+      <c r="J11" s="25" t="n"/>
+      <c r="K11" s="25" t="n"/>
     </row>
     <row customHeight="true" ht="27.25" outlineLevel="0" r="12">
       <c r="A12" s="21" t="n">
@@ -2869,10 +2851,7 @@
       <c r="H12" s="24" t="n">
         <v>0.05</v>
       </c>
-      <c r="I12" s="25" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H12*1.2</f>
-        <v>0.06</v>
-      </c>
+      <c r="I12" s="25" t="n"/>
       <c r="J12" s="25" t="n"/>
       <c r="K12" s="25" t="n"/>
     </row>
@@ -2897,10 +2876,7 @@
       <c r="H13" s="29" t="n">
         <v>0.03</v>
       </c>
-      <c r="I13" s="30" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H13*1.2</f>
-        <v>0.036</v>
-      </c>
+      <c r="I13" s="30" t="n"/>
       <c r="J13" s="25" t="n"/>
       <c r="K13" s="25" t="n"/>
     </row>
@@ -2944,10 +2920,7 @@
       <c r="H15" s="24" t="n">
         <v>0.7</v>
       </c>
-      <c r="I15" s="25" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H15*1.2</f>
-        <v>0.84</v>
-      </c>
+      <c r="I15" s="25" t="n"/>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="16">
       <c r="A16" s="21" t="n">
@@ -2970,10 +2943,7 @@
       <c r="H16" s="24" t="n">
         <v>2.5</v>
       </c>
-      <c r="I16" s="25" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H16*1.2</f>
-        <v>3</v>
-      </c>
+      <c r="I16" s="25" t="n"/>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="17">
       <c r="A17" s="21" t="n">
@@ -2996,10 +2966,7 @@
       <c r="H17" s="24" t="n">
         <v>3.2</v>
       </c>
-      <c r="I17" s="25" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H17*1.2</f>
-        <v>3.84</v>
-      </c>
+      <c r="I17" s="25" t="n"/>
     </row>
     <row customHeight="true" ht="35.25" outlineLevel="0" r="18">
       <c r="A18" s="32" t="n">
@@ -3022,10 +2989,7 @@
       <c r="H18" s="37" t="n">
         <v>0.05</v>
       </c>
-      <c r="I18" s="25" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H18*1.2</f>
-        <v>0.06</v>
-      </c>
+      <c r="I18" s="25" t="n"/>
     </row>
     <row customHeight="true" ht="22.75" outlineLevel="0" r="19">
       <c r="A19" s="21" t="n">
@@ -3048,10 +3012,7 @@
       <c r="H19" s="29" t="n">
         <v>0.03</v>
       </c>
-      <c r="I19" s="30" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H19*1.2</f>
-        <v>0.036</v>
-      </c>
+      <c r="I19" s="30" t="n"/>
     </row>
     <row customHeight="true" ht="34.75" outlineLevel="0" r="20">
       <c r="A20" s="32" t="n">
@@ -3132,10 +3093,7 @@
       <c r="H23" s="24" t="n">
         <v>1.55</v>
       </c>
-      <c r="I23" s="25" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H23*1.2</f>
-        <v>1.8599999999999999</v>
-      </c>
+      <c r="I23" s="25" t="n"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="24">
       <c r="A24" s="21" t="n">
@@ -3158,10 +3116,7 @@
       <c r="H24" s="24" t="n">
         <v>0.3</v>
       </c>
-      <c r="I24" s="25" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H24*1.2</f>
-        <v>0.36</v>
-      </c>
+      <c r="I24" s="25" t="n"/>
     </row>
     <row customHeight="true" ht="36.75" outlineLevel="0" r="25">
       <c r="A25" s="32" t="n">
@@ -3256,10 +3211,7 @@
         <v>4.5</v>
       </c>
       <c r="I29" s="44" t="n"/>
-      <c r="J29" s="44" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">6.82/120*20</f>
-        <v>1.1366666666666667</v>
-      </c>
+      <c r="J29" s="44" t="n"/>
       <c r="K29" s="44" t="n"/>
     </row>
     <row customHeight="true" ht="28.75" outlineLevel="0" r="30">
@@ -3281,10 +3233,7 @@
       <c r="H30" s="24" t="n">
         <v>0.8</v>
       </c>
-      <c r="J30" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">4.5/120*20</f>
-        <v>0.75</v>
-      </c>
+      <c r="J30" s="0" t="n"/>
       <c r="K30" s="0" t="n"/>
       <c r="L30" s="0" t="n"/>
       <c r="M30" s="0" t="n"/>

--- a/calc/files/letter2.xlsx
+++ b/calc/files/letter2.xlsx
@@ -4,6 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
   <sheets>
     <sheet name="Table 1" r:id="rId1" sheetId="1" state="visible"/>
+    <sheet name="Лист1" r:id="rId2" sheetId="2" state="visible"/>
   </sheets>
   <definedNames/>
 </workbook>
@@ -971,7 +972,7 @@
         <b val="true"/>
         <sz val="8.5"/>
       </rPr>
-      <t>Услуга "Оплаченная пересылка" (без учета стоимости упаковки)</t>
+      <t>Пересылка посылки QR</t>
     </r>
   </si>
   <si>
@@ -981,6 +982,106 @@
         <sz val="9"/>
       </rPr>
       <t>25.1.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft Sans Serif"/>
+        <color rgb="000000" tint="0"/>
+        <sz val="9"/>
+      </rPr>
+      <t>плата за отправление</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft Sans Serif"/>
+        <sz val="9"/>
+      </rPr>
+      <t>25.2.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft Sans Serif"/>
+        <sz val="9"/>
+      </rPr>
+      <t>плата за отправление (за посылку свыше 1 до 3 кг включительно)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft Sans Serif"/>
+        <color rgb="000000" tint="0"/>
+        <sz val="9"/>
+      </rPr>
+      <t>плата за объявленную ценность, % от суммы объявленной ценности, но не менее 0,50 руб</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft Sans Serif"/>
+        <sz val="9"/>
+      </rPr>
+      <t>25.3.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft Sans Serif"/>
+        <sz val="9"/>
+      </rPr>
+      <t>плата за отправление (за посылку свыше 3 до 5 кг включительно)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft Sans Serif"/>
+        <color rgb="000000" tint="0"/>
+        <sz val="9"/>
+      </rPr>
+      <t>За  досылку и  (или)  возвращение  посылок  без  объявленной  ценности  и  с  объявленной  ценностью</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Microsoft Sans Serif"/>
+        <color rgb="000000" tint="0"/>
+        <sz val="9"/>
+      </rPr>
+      <t>взимается плата за пересылку посылки  (поз.28)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft Sans Serif"/>
+        <color rgb="000000" tint="0"/>
+        <sz val="9"/>
+      </rPr>
+      <t>За пересылку посылки массой свыше 5 кг до 50 кг взимается плата за отправление и за массу</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Microsoft Sans Serif"/>
+        <color rgb="000000" tint="0"/>
+        <sz val="9"/>
+      </rPr>
+      <t>посылки</t>
     </r>
   </si>
   <si>
@@ -990,6 +1091,25 @@
         <b val="true"/>
         <sz val="8.5"/>
       </rPr>
+      <t>Услуга "Оплаченная пересылка" (без учета стоимости упаковки)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft Sans Serif"/>
+        <sz val="9"/>
+      </rPr>
+      <t>26.1.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <sz val="8.5"/>
+      </rPr>
       <t>пересылка заказного мелкого пакета ( в т.ч. принятого посредством почтомата)</t>
     </r>
   </si>
@@ -999,16 +1119,7 @@
         <rFont val="Microsoft Sans Serif"/>
         <sz val="9"/>
       </rPr>
-      <t>25.2.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Microsoft Sans Serif"/>
-        <sz val="9"/>
-      </rPr>
-      <t>плата за отправление (за посылку свыше 1 до 3 кг включительно)</t>
+      <t>26.2.</t>
     </r>
   </si>
   <si>
@@ -1026,16 +1137,7 @@
         <rFont val="Microsoft Sans Serif"/>
         <sz val="9"/>
       </rPr>
-      <t>25.3.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Microsoft Sans Serif"/>
-        <sz val="9"/>
-      </rPr>
-      <t>плата за отправление (за посылку свыше 3 до 5 кг включительно)</t>
+      <t>Тарификация  за  массу  посылки  массой  свыше  5  кг  без  объявленной  ценности  осуществляется  с точностью до сотен граммов. Любое количество граммов округляется до сотни граммов в большую сторону</t>
     </r>
   </si>
   <si>
@@ -1051,10 +1153,47 @@
     <r>
       <rPr>
         <rFont val="Microsoft Sans Serif"/>
-        <color rgb="000000" tint="0"/>
-        <sz val="9"/>
-      </rPr>
-      <t>За пересылку посылки массой свыше 5 кг до 50 кг взимается плата за отправление и за массу</t>
+        <sz val="9"/>
+      </rPr>
+      <t>Тарификация  за  массу  посылки  массой  свыше  5  кг  с  объявленной  ценностью  осуществляется  с точностью  до  десятков  граммов.  Любое  количество  граммов  округляется  до  десятков  граммов  в большую сторону</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft Sans Serif"/>
+        <sz val="8.5"/>
+      </rPr>
+      <t>Размер L (320х355)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft Sans Serif"/>
+        <sz val="9"/>
+      </rPr>
+      <t>За хрупкие посылки с отметкой "Осторожно" и громоздкие взимается надбавка к плате за пересылку посылки   в   размере   50%.   Если   посылка   является   одновременно   хрупкой   и   громоздкой,   то дополнительная плата взимается только один раз</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <sz val="8.5"/>
+      </rPr>
+      <t>пересылка посылки (в т.ч. принятой посредством почтомата)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft Sans Serif"/>
+        <color rgb="000000" tint="0"/>
+        <sz val="9"/>
+      </rPr>
+      <t>плата за объявленную ценность, % от суммы объявленной ценности,</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -1066,44 +1205,7 @@
         <color rgb="000000" tint="0"/>
         <sz val="9"/>
       </rPr>
-      <t>посылки</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Microsoft Sans Serif"/>
-        <sz val="8.5"/>
-      </rPr>
-      <t>Размер L (320х355)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Microsoft Sans Serif"/>
-        <sz val="9"/>
-      </rPr>
-      <t>26.1.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <sz val="8.5"/>
-      </rPr>
-      <t>пересылка посылки (в т.ч. принятой посредством почтомата)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Microsoft Sans Serif"/>
-        <sz val="9"/>
-      </rPr>
-      <t>26.2.</t>
+      <t>но не менее 0,50 руб.</t>
     </r>
   </si>
   <si>
@@ -1119,55 +1221,10 @@
     <r>
       <rPr>
         <rFont val="Microsoft Sans Serif"/>
-        <sz val="9"/>
-      </rPr>
-      <t>Тарификация  за  массу  посылки  массой  свыше  5  кг  без  объявленной  ценности  осуществляется  с точностью до сотен граммов. Любое количество граммов округляется до сотни граммов в большую сторону</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Microsoft Sans Serif"/>
-        <sz val="8.5"/>
-      </rPr>
-      <t>Размер M (320х220х110)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Microsoft Sans Serif"/>
-        <sz val="9"/>
-      </rPr>
-      <t>Тарификация  за  массу  посылки  массой  свыше  5  кг  с  объявленной  ценностью  осуществляется  с точностью  до  десятков  граммов.  Любое  количество  граммов  округляется  до  десятков  граммов  в большую сторону</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Microsoft Sans Serif"/>
-        <sz val="8.5"/>
-      </rPr>
-      <t>Размер L (400х250х200)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Microsoft Sans Serif"/>
-        <sz val="9"/>
-      </rPr>
-      <t>За хрупкие посылки с отметкой "Осторожно" и громоздкие взимается надбавка к плате за пересылку посылки   в   размере   50%.   Если   посылка   является   одновременно   хрупкой   и   громоздкой,   то дополнительная плата взимается только один раз</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Microsoft Sans Serif"/>
-        <color rgb="000000" tint="0"/>
-        <sz val="8.5"/>
-      </rPr>
-      <t>Тариф на услугу "Оплаченная пересылка" установлен без учета стоимости упаковки (пластиковый</t>
+        <color rgb="000000" tint="0"/>
+        <sz val="9"/>
+      </rPr>
+      <t>За  досылку и  (или)  возвращение  посылок  без  объявленной  ценности  и  с  объявленной  ценностью</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -1177,19 +1234,48 @@
       <rPr>
         <rFont val="Microsoft Sans Serif"/>
         <color rgb="000000" tint="0"/>
-        <sz val="8.5"/>
-      </rPr>
-      <t>конверт, коробка)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Microsoft Sans Serif"/>
-        <color rgb="000000" tint="0"/>
-        <sz val="9"/>
-      </rPr>
-      <t>плата за объявленную ценность, % от суммы объявленной ценности,</t>
+        <sz val="9"/>
+      </rPr>
+      <t>взимается плата за пересылку посылки  (поз.25-26)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft Sans Serif"/>
+        <sz val="8.5"/>
+      </rPr>
+      <t>Размер M (320х220х110)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft Sans Serif"/>
+        <b val="true"/>
+        <color rgb="000000" tint="0"/>
+        <sz val="9"/>
+      </rPr>
+      <t>Пересылка посылки QR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft Sans Serif"/>
+        <sz val="8.5"/>
+      </rPr>
+      <t>Размер L (400х250х200)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft Sans Serif"/>
+        <color rgb="000000" tint="0"/>
+        <sz val="8.5"/>
+      </rPr>
+      <t>Тариф на услугу "Оплаченная пересылка" установлен без учета стоимости упаковки (пластиковый</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -1199,9 +1285,9 @@
       <rPr>
         <rFont val="Microsoft Sans Serif"/>
         <color rgb="000000" tint="0"/>
-        <sz val="9"/>
-      </rPr>
-      <t>но не менее 0,50 руб.</t>
+        <sz val="8.5"/>
+      </rPr>
+      <t>конверт, коробка)</t>
     </r>
   </si>
   <si>
@@ -1232,7 +1318,7 @@
         <color rgb="000000" tint="0"/>
         <sz val="9"/>
       </rPr>
-      <t>взимается плата за пересылку посылки  (поз.25-26)</t>
+      <t>взимается плата за пересылку посылки  (поз.32)</t>
     </r>
   </si>
   <si>
@@ -2032,7 +2118,7 @@
     <numFmt co:extendedFormatCode="0.0000" formatCode="0.0000" numFmtId="1006"/>
     <numFmt co:extendedFormatCode="0.00%" formatCode="0.00%" numFmtId="1007"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <name val="Calibri"/>
       <color rgb="000000" tint="0"/>
@@ -2110,6 +2196,12 @@
       <name val="Microsoft Sans Serif"/>
       <sz val="7.5"/>
     </font>
+    <font>
+      <name val="Microsoft Sans Serif"/>
+      <b val="true"/>
+      <color rgb="000000" tint="0"/>
+      <sz val="9"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2119,7 +2211,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -2164,6 +2256,19 @@
       <left style="thin">
         <color rgb="000000" tint="0"/>
       </left>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="000000" tint="0"/>
+      </left>
       <right style="thin">
         <color rgb="000000" tint="0"/>
       </right>
@@ -2187,7 +2292,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="74">
     <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2344,12 +2449,30 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="12" numFmtId="1001" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="center" vertical="bottom" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="12" numFmtId="1001" quotePrefix="false">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="12" numFmtId="1007" quotePrefix="false">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1003" quotePrefix="false">
       <alignment horizontal="right" indent="6" shrinkToFit="true" vertical="top"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="15" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="12" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="12" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1004" quotePrefix="false">
       <alignment horizontal="right" indent="6" shrinkToFit="true" vertical="top"/>
     </xf>
@@ -2359,16 +2482,16 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="12" numFmtId="1002" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="12" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="8" numFmtId="1002" quotePrefix="false">
@@ -2610,7 +2733,7 @@
   <sheetPr>
     <outlinePr summaryBelow="true" summaryRight="true"/>
   </sheetPr>
-  <dimension ref="A1:O90"/>
+  <dimension ref="A1:O94"/>
   <sheetViews>
     <sheetView showZeros="true" workbookViewId="0"/>
   </sheetViews>
@@ -3476,12 +3599,16 @@
       <c r="D42" s="51" t="n">
         <v>3</v>
       </c>
-      <c r="E42" s="16" t="n"/>
+      <c r="E42" s="52" t="n">
+        <v>28</v>
+      </c>
       <c r="F42" s="16" t="n"/>
-      <c r="G42" s="20" t="s">
+      <c r="G42" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="H42" s="42" t="s"/>
+      <c r="H42" s="53" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="43" t="s">
@@ -3494,15 +3621,15 @@
       <c r="D43" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="E43" s="52" t="n">
-        <v>28</v>
+      <c r="E43" s="54" t="n">
+        <v>29</v>
       </c>
       <c r="F43" s="16" t="n"/>
-      <c r="G43" s="14" t="s">
+      <c r="G43" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="H43" s="53" t="n">
-        <v>2.35</v>
+      <c r="H43" s="55" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row outlineLevel="0" r="44">
@@ -3516,16 +3643,14 @@
       <c r="D44" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="E44" s="52" t="n">
-        <v>29</v>
+      <c r="E44" s="54" t="n">
+        <v>30</v>
       </c>
       <c r="F44" s="16" t="n"/>
-      <c r="G44" s="14" t="s">
+      <c r="G44" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="H44" s="53" t="n">
-        <v>3.1</v>
-      </c>
+      <c r="H44" s="0" t="n"/>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="21" t="n">
@@ -3536,16 +3661,14 @@
         <v>94</v>
       </c>
       <c r="D45" s="38" t="s"/>
-      <c r="E45" s="52" t="n">
-        <v>30</v>
-      </c>
-      <c r="F45" s="16" t="n"/>
-      <c r="G45" s="14" t="s">
+      <c r="E45" s="54" t="n"/>
+      <c r="F45" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G45" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="H45" s="53" t="n">
-        <v>3.9</v>
-      </c>
+      <c r="H45" s="0" t="n"/>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="43" t="s">
@@ -3563,7 +3686,7 @@
       <c r="G46" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="H46" s="42" t="s"/>
+      <c r="H46" s="0" t="n"/>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="43" t="s">
@@ -3576,15 +3699,15 @@
       <c r="D47" s="22" t="n">
         <v>0.8</v>
       </c>
-      <c r="E47" s="52" t="n">
+      <c r="E47" s="54" t="n">
         <v>31</v>
       </c>
       <c r="F47" s="16" t="n"/>
       <c r="G47" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="H47" s="53" t="n">
-        <v>4.5</v>
+      <c r="H47" s="56" t="n">
+        <v>2.35</v>
       </c>
     </row>
     <row outlineLevel="0" r="48">
@@ -3596,15 +3719,15 @@
         <v>100</v>
       </c>
       <c r="D48" s="40" t="s"/>
-      <c r="E48" s="52" t="n">
+      <c r="E48" s="54" t="n">
         <v>32</v>
       </c>
       <c r="F48" s="16" t="n"/>
       <c r="G48" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="H48" s="53" t="n">
-        <v>5.65</v>
+      <c r="H48" s="56" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row outlineLevel="0" r="49">
@@ -3616,15 +3739,15 @@
         <v>102</v>
       </c>
       <c r="D49" s="40" t="s"/>
-      <c r="E49" s="52" t="n">
+      <c r="E49" s="54" t="n">
         <v>33</v>
       </c>
       <c r="F49" s="16" t="n"/>
       <c r="G49" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="H49" s="53" t="n">
-        <v>8.1</v>
+      <c r="H49" s="56" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row outlineLevel="0" r="50">
@@ -3637,11 +3760,11 @@
       </c>
       <c r="D50" s="40" t="s"/>
       <c r="E50" s="26" t="n"/>
-      <c r="F50" s="26" t="n"/>
-      <c r="G50" s="27" t="s">
+      <c r="F50" s="16" t="n"/>
+      <c r="G50" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="H50" s="45" t="s"/>
+      <c r="H50" s="0" t="n"/>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="21" t="n">
@@ -3654,14 +3777,16 @@
       <c r="D51" s="28" t="n">
         <v>0.01</v>
       </c>
-      <c r="E51" s="52" t="n">
+      <c r="E51" s="54" t="n">
         <v>34</v>
       </c>
-      <c r="F51" s="26" t="n"/>
+      <c r="F51" s="16" t="n"/>
       <c r="G51" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="H51" s="39" t="s"/>
+      <c r="H51" s="56" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="21" t="n">
@@ -3672,132 +3797,120 @@
         <v>108</v>
       </c>
       <c r="D52" s="38" t="s"/>
-      <c r="E52" s="52" t="n">
+      <c r="E52" s="54" t="n">
         <v>35</v>
       </c>
-      <c r="F52" s="26" t="n"/>
-      <c r="G52" s="27" t="s">
+      <c r="F52" s="16" t="n"/>
+      <c r="G52" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="H52" s="45" t="s"/>
+      <c r="H52" s="56" t="n">
+        <v>5.65</v>
+      </c>
     </row>
     <row outlineLevel="0" r="53">
-      <c r="A53" s="26" t="n"/>
-      <c r="B53" s="17" t="n">
+      <c r="A53" s="21" t="n"/>
+      <c r="B53" s="26" t="n">
         <v>7</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="D53" s="41" t="s"/>
-      <c r="E53" s="52" t="n">
-        <v>36</v>
-      </c>
-      <c r="F53" s="26" t="n"/>
-      <c r="G53" s="27" t="s">
+      <c r="D53" s="53" t="n"/>
+      <c r="E53" s="54" t="n"/>
+      <c r="F53" s="16" t="n"/>
+      <c r="G53" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="H53" s="45" t="s"/>
+      <c r="H53" s="56" t="n">
+        <v>8.1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="54">
-      <c r="A54" s="16" t="n"/>
-      <c r="B54" s="16" t="n"/>
-      <c r="C54" s="18" t="s">
+      <c r="A54" s="21" t="n">
+        <v>32</v>
+      </c>
+      <c r="B54" s="26" t="n"/>
+      <c r="C54" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D54" s="53" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E54" s="54" t="n"/>
+      <c r="F54" s="26" t="n"/>
+      <c r="G54" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="D54" s="41" t="s"/>
-      <c r="E54" s="26" t="n"/>
-      <c r="F54" s="19" t="n">
-        <v>7</v>
-      </c>
-      <c r="G54" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="H54" s="42" t="s"/>
+      <c r="H54" s="45" t="s"/>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="21" t="n">
-        <v>32</v>
-      </c>
-      <c r="B55" s="16" t="n"/>
-      <c r="C55" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D55" s="22" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="E55" s="52" t="n">
-        <v>37</v>
-      </c>
-      <c r="F55" s="16" t="n"/>
+        <v>33</v>
+      </c>
+      <c r="B55" s="26" t="n"/>
+      <c r="C55" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" s="55" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E55" s="54" t="n"/>
+      <c r="F55" s="26" t="n"/>
       <c r="G55" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="H55" s="53" t="n">
-        <v>4.5</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="H55" s="0" t="n"/>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="21" t="n">
-        <v>33</v>
-      </c>
-      <c r="B56" s="16" t="n"/>
-      <c r="C56" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" s="26" t="n"/>
+      <c r="C56" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="D56" s="59" t="s"/>
+      <c r="E56" s="54" t="n"/>
+      <c r="F56" s="26" t="n"/>
+      <c r="G56" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="H56" s="0" t="n"/>
+    </row>
+    <row outlineLevel="0" r="57">
+      <c r="A57" s="26" t="n"/>
+      <c r="B57" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C57" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="D56" s="22" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="E56" s="52" t="n">
-        <v>38</v>
-      </c>
-      <c r="F56" s="16" t="n"/>
-      <c r="G56" s="14" t="s">
+      <c r="D57" s="41" t="s"/>
+      <c r="E57" s="54" t="n">
+        <v>36</v>
+      </c>
+      <c r="F57" s="26" t="n"/>
+      <c r="G57" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="H56" s="53" t="n">
-        <v>5.65</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="57">
-      <c r="A57" s="21" t="n">
-        <v>34</v>
-      </c>
-      <c r="B57" s="16" t="n"/>
-      <c r="C57" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D57" s="22" t="n">
-        <v>9.72</v>
-      </c>
-      <c r="E57" s="52" t="n">
-        <v>39</v>
-      </c>
-      <c r="F57" s="16" t="n"/>
-      <c r="G57" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="H57" s="53" t="n">
-        <v>8.1</v>
-      </c>
+      <c r="H57" s="0" t="n"/>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="16" t="n"/>
       <c r="B58" s="16" t="n"/>
       <c r="C58" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D58" s="41" t="s"/>
-      <c r="E58" s="52" t="n">
-        <v>40</v>
-      </c>
-      <c r="F58" s="26" t="n"/>
-      <c r="G58" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H58" s="54" t="n">
-        <v>0.03</v>
-      </c>
+      <c r="E58" s="26" t="n"/>
+      <c r="F58" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="G58" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="H58" s="0" t="n"/>
     </row>
     <row outlineLevel="0" r="59">
       <c r="A59" s="21" t="n">
@@ -3805,19 +3918,21 @@
       </c>
       <c r="B59" s="16" t="n"/>
       <c r="C59" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D59" s="22" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="E59" s="54" t="n">
+        <v>37</v>
+      </c>
+      <c r="F59" s="16" t="n"/>
+      <c r="G59" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D59" s="22" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="E59" s="52" t="n">
-        <v>41</v>
-      </c>
-      <c r="F59" s="26" t="n"/>
-      <c r="G59" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="H59" s="45" t="s"/>
+      <c r="H59" s="56" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="21" t="n">
@@ -3825,19 +3940,21 @@
       </c>
       <c r="B60" s="16" t="n"/>
       <c r="C60" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D60" s="22" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="E60" s="54" t="n">
+        <v>38</v>
+      </c>
+      <c r="F60" s="16" t="n"/>
+      <c r="G60" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D60" s="22" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="E60" s="26" t="n"/>
-      <c r="F60" s="19" t="n">
-        <v>8</v>
-      </c>
-      <c r="G60" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="H60" s="42" t="s"/>
+      <c r="H60" s="56" t="n">
+        <v>5.65</v>
+      </c>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="21" t="n">
@@ -3845,337 +3962,339 @@
       </c>
       <c r="B61" s="16" t="n"/>
       <c r="C61" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D61" s="22" t="n">
         <v>9.72</v>
       </c>
-      <c r="E61" s="52" t="n">
-        <v>42</v>
+      <c r="E61" s="54" t="n">
+        <v>39</v>
       </c>
       <c r="F61" s="16" t="n"/>
       <c r="G61" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="H61" s="53" t="n">
-        <v>15</v>
+        <v>125</v>
+      </c>
+      <c r="H61" s="56" t="n">
+        <v>8.1</v>
       </c>
     </row>
     <row outlineLevel="0" r="62">
-      <c r="A62" s="26" t="n"/>
-      <c r="B62" s="26" t="n"/>
-      <c r="C62" s="11" t="s">
+      <c r="A62" s="16" t="n"/>
+      <c r="B62" s="16" t="n"/>
+      <c r="C62" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="D62" s="40" t="s"/>
-      <c r="E62" s="52" t="n">
-        <v>43</v>
-      </c>
-      <c r="F62" s="16" t="n"/>
+      <c r="D62" s="41" t="s"/>
+      <c r="E62" s="54" t="n">
+        <v>40</v>
+      </c>
+      <c r="F62" s="26" t="n"/>
       <c r="G62" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="H62" s="53" t="n">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="H62" s="60" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row outlineLevel="0" r="63">
-      <c r="A63" s="32" t="n">
+      <c r="A63" s="21" t="n">
         <v>38</v>
       </c>
-      <c r="B63" s="26" t="n"/>
-      <c r="C63" s="55" t="s">
+      <c r="B63" s="16" t="n"/>
+      <c r="C63" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D63" s="56" t="s"/>
-      <c r="E63" s="52" t="n">
-        <v>44</v>
-      </c>
-      <c r="F63" s="16" t="n"/>
-      <c r="G63" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="H63" s="53" t="n">
-        <v>42.5</v>
-      </c>
+      <c r="D63" s="22" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E63" s="54" t="n">
+        <v>41</v>
+      </c>
+      <c r="F63" s="26" t="n"/>
+      <c r="G63" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="H63" s="0" t="n"/>
     </row>
     <row outlineLevel="0" r="64">
       <c r="A64" s="21" t="n">
         <v>39</v>
       </c>
-      <c r="B64" s="26" t="n"/>
+      <c r="B64" s="16" t="n"/>
       <c r="C64" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D64" s="40" t="s"/>
-      <c r="E64" s="16" t="n"/>
+        <v>129</v>
+      </c>
+      <c r="D64" s="22" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="E64" s="26" t="n"/>
       <c r="F64" s="19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G64" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="H64" s="16" t="n"/>
+        <v>130</v>
+      </c>
+      <c r="H64" s="42" t="s"/>
     </row>
     <row outlineLevel="0" r="65">
-      <c r="A65" s="57" t="n">
+      <c r="A65" s="21" t="n">
         <v>40</v>
       </c>
-      <c r="B65" s="58" t="n"/>
-      <c r="C65" s="59" t="s">
-        <v>130</v>
-      </c>
-      <c r="D65" s="60" t="s"/>
-      <c r="E65" s="52" t="n">
-        <v>45</v>
-      </c>
-      <c r="F65" s="26" t="n"/>
-      <c r="G65" s="27" t="s">
+      <c r="B65" s="16" t="n"/>
+      <c r="C65" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H65" s="54" t="n">
-        <v>0.03</v>
+      <c r="D65" s="22" t="n">
+        <v>9.72</v>
+      </c>
+      <c r="E65" s="54" t="n">
+        <v>42</v>
+      </c>
+      <c r="F65" s="16" t="n"/>
+      <c r="G65" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H65" s="56" t="n">
+        <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="66">
-      <c r="A66" s="16" t="n"/>
-      <c r="B66" s="61" t="n">
-        <v>7</v>
-      </c>
-      <c r="C66" s="18" t="s">
+      <c r="A66" s="26" t="n"/>
+      <c r="B66" s="26" t="n"/>
+      <c r="C66" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="D66" s="41" t="s"/>
-      <c r="E66" s="26" t="n"/>
-      <c r="F66" s="26" t="n"/>
+      <c r="D66" s="40" t="s"/>
+      <c r="E66" s="54" t="n">
+        <v>43</v>
+      </c>
+      <c r="F66" s="16" t="n"/>
       <c r="G66" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="H66" s="56" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="67">
+      <c r="A67" s="32" t="n">
+        <v>41</v>
+      </c>
+      <c r="B67" s="26" t="n"/>
+      <c r="C67" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="H66" s="39" t="s"/>
-    </row>
-    <row outlineLevel="0" r="67">
-      <c r="A67" s="21" t="n">
-        <v>41</v>
-      </c>
-      <c r="B67" s="16" t="n"/>
-      <c r="C67" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D67" s="22" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="E67" s="52" t="n">
-        <v>46</v>
-      </c>
-      <c r="F67" s="36" t="n"/>
-      <c r="G67" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="H67" s="62" t="n">
-        <v>0.0233</v>
+      <c r="D67" s="62" t="s"/>
+      <c r="E67" s="54" t="n">
+        <v>44</v>
+      </c>
+      <c r="F67" s="16" t="n"/>
+      <c r="G67" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="H67" s="56" t="n">
+        <v>42.5</v>
       </c>
     </row>
     <row outlineLevel="0" r="68">
       <c r="A68" s="21" t="n">
         <v>42</v>
       </c>
-      <c r="B68" s="16" t="n"/>
+      <c r="B68" s="26" t="n"/>
       <c r="C68" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D68" s="40" t="s"/>
+      <c r="E68" s="16" t="n"/>
+      <c r="F68" s="19" t="n">
+        <v>9</v>
+      </c>
+      <c r="G68" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="H68" s="16" t="n"/>
+    </row>
+    <row outlineLevel="0" r="69">
+      <c r="A69" s="63" t="n">
+        <v>43</v>
+      </c>
+      <c r="B69" s="64" t="n"/>
+      <c r="C69" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="D68" s="22" t="n">
+      <c r="D69" s="66" t="s"/>
+      <c r="E69" s="54" t="n">
+        <v>45</v>
+      </c>
+      <c r="F69" s="26" t="n"/>
+      <c r="G69" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="H69" s="60" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="70">
+      <c r="A70" s="16" t="n"/>
+      <c r="B70" s="67" t="n">
+        <v>9</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D70" s="41" t="s"/>
+      <c r="E70" s="26" t="n"/>
+      <c r="F70" s="26" t="n"/>
+      <c r="G70" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="H70" s="39" t="s"/>
+    </row>
+    <row outlineLevel="0" r="71">
+      <c r="A71" s="21" t="n">
+        <v>44</v>
+      </c>
+      <c r="B71" s="16" t="n"/>
+      <c r="C71" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D71" s="22" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E71" s="54" t="n">
+        <v>46</v>
+      </c>
+      <c r="F71" s="36" t="n"/>
+      <c r="G71" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="H71" s="68" t="n">
+        <v>0.0233</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="72">
+      <c r="A72" s="21" t="n">
+        <v>45</v>
+      </c>
+      <c r="B72" s="16" t="n"/>
+      <c r="C72" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D72" s="22" t="n">
         <v>6.78</v>
       </c>
-      <c r="E68" s="52" t="n">
+      <c r="E72" s="54" t="n">
         <v>47</v>
       </c>
-      <c r="F68" s="36" t="n"/>
-      <c r="G68" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="H68" s="62" t="n">
+      <c r="F72" s="36" t="n"/>
+      <c r="G72" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="H72" s="68" t="n">
         <v>0.0233</v>
       </c>
     </row>
-    <row outlineLevel="0" r="69">
-      <c r="A69" s="21" t="n">
-        <v>43</v>
-      </c>
-      <c r="B69" s="16" t="n"/>
-      <c r="C69" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D69" s="22" t="n">
+    <row outlineLevel="0" r="73">
+      <c r="A73" s="21" t="n">
+        <v>46</v>
+      </c>
+      <c r="B73" s="16" t="n"/>
+      <c r="C73" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D73" s="22" t="n">
         <v>9.72</v>
       </c>
-      <c r="E69" s="63" t="n">
+      <c r="E73" s="69" t="n">
         <v>48</v>
-      </c>
-      <c r="F69" s="36" t="n"/>
-      <c r="G69" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="H69" s="64" t="n">
-        <v>0.015</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="70">
-      <c r="A70" s="21" t="n">
-        <v>44</v>
-      </c>
-      <c r="B70" s="16" t="n"/>
-      <c r="C70" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D70" s="28" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E70" s="36" t="n"/>
-      <c r="F70" s="36" t="n"/>
-      <c r="G70" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="H70" s="39" t="s"/>
-    </row>
-    <row outlineLevel="0" r="71">
-      <c r="A71" s="32" t="n">
-        <v>45</v>
-      </c>
-      <c r="B71" s="26" t="n"/>
-      <c r="C71" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D71" s="40" t="s"/>
-      <c r="E71" s="63" t="n">
-        <v>49</v>
-      </c>
-      <c r="F71" s="36" t="n"/>
-      <c r="G71" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="H71" s="65" t="n">
-        <v>0.0233</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="72">
-      <c r="A72" s="16" t="n"/>
-      <c r="B72" s="61" t="n">
-        <v>8</v>
-      </c>
-      <c r="C72" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D72" s="16" t="n"/>
-      <c r="E72" s="63" t="n">
-        <v>50</v>
-      </c>
-      <c r="F72" s="26" t="n"/>
-      <c r="G72" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="H72" s="46" t="n">
-        <v>0.015</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="73">
-      <c r="A73" s="32" t="n">
-        <v>46</v>
-      </c>
-      <c r="B73" s="26" t="n"/>
-      <c r="C73" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="D73" s="66" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E73" s="63" t="n">
-        <v>51</v>
       </c>
       <c r="F73" s="36" t="n"/>
       <c r="G73" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="H73" s="70" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="74">
+      <c r="A74" s="21" t="n">
+        <v>47</v>
+      </c>
+      <c r="B74" s="16" t="n"/>
+      <c r="C74" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D74" s="28" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E74" s="36" t="n"/>
+      <c r="F74" s="36" t="n"/>
+      <c r="G74" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="H73" s="46" t="n">
-        <v>0.005</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="74">
-      <c r="A74" s="32" t="n">
-        <v>47</v>
-      </c>
-      <c r="B74" s="36" t="n"/>
-      <c r="C74" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D74" s="40" t="s"/>
-      <c r="E74" s="52" t="n">
-        <v>52</v>
-      </c>
-      <c r="F74" s="26" t="n"/>
-      <c r="G74" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="H74" s="67" t="n">
-        <v>0.009</v>
-      </c>
+      <c r="H74" s="0" t="n"/>
     </row>
     <row outlineLevel="0" r="75">
       <c r="A75" s="32" t="n">
         <v>48</v>
       </c>
-      <c r="B75" s="36" t="n"/>
+      <c r="B75" s="26" t="n"/>
       <c r="C75" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D75" s="40" t="s"/>
+      <c r="E75" s="69" t="n">
+        <v>49</v>
+      </c>
+      <c r="F75" s="36" t="n"/>
+      <c r="G75" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="H75" s="71" t="n">
+        <v>0.0233</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="76">
+      <c r="A76" s="16" t="n"/>
+      <c r="B76" s="67" t="n">
+        <v>10</v>
+      </c>
+      <c r="C76" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="D75" s="66" t="n">
+      <c r="D76" s="16" t="n"/>
+      <c r="E76" s="69" t="n">
+        <v>50</v>
+      </c>
+      <c r="F76" s="26" t="n"/>
+      <c r="G76" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="H76" s="46" t="n">
         <v>0.015</v>
       </c>
-      <c r="E75" s="16" t="n"/>
-      <c r="F75" s="19" t="n">
-        <v>8</v>
-      </c>
-      <c r="G75" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="H75" s="16" t="n"/>
-    </row>
-    <row outlineLevel="0" r="76">
-      <c r="A76" s="32" t="n">
+    </row>
+    <row outlineLevel="0" r="77">
+      <c r="A77" s="32" t="n">
         <v>49</v>
       </c>
-      <c r="B76" s="36" t="n"/>
-      <c r="C76" s="11" t="s">
+      <c r="B77" s="26" t="n"/>
+      <c r="C77" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="D76" s="34" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E76" s="52" t="n">
-        <v>53</v>
-      </c>
-      <c r="F76" s="36" t="n"/>
-      <c r="G76" s="27" t="s">
+      <c r="D77" s="72" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E77" s="69" t="n">
+        <v>51</v>
+      </c>
+      <c r="F77" s="36" t="n"/>
+      <c r="G77" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="H76" s="45" t="s"/>
-    </row>
-    <row outlineLevel="0" r="77">
-      <c r="A77" s="16" t="n"/>
-      <c r="B77" s="61" t="n">
-        <v>9</v>
-      </c>
-      <c r="C77" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="D77" s="41" t="s"/>
-      <c r="E77" s="16" t="n"/>
-      <c r="F77" s="19" t="n">
-        <v>9</v>
-      </c>
-      <c r="G77" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="H77" s="16" t="n"/>
+      <c r="H77" s="46" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row outlineLevel="0" r="78">
       <c r="A78" s="32" t="n">
@@ -4183,224 +4302,312 @@
       </c>
       <c r="B78" s="36" t="n"/>
       <c r="C78" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D78" s="40" t="s"/>
-      <c r="E78" s="63" t="n">
-        <v>54</v>
+      <c r="E78" s="54" t="n">
+        <v>52</v>
       </c>
       <c r="F78" s="26" t="n"/>
       <c r="G78" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="H78" s="73" t="n">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="79">
+      <c r="A79" s="32" t="n">
+        <v>51</v>
+      </c>
+      <c r="B79" s="36" t="n"/>
+      <c r="C79" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D79" s="72" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E79" s="16" t="n"/>
+      <c r="F79" s="19" t="n">
+        <v>8</v>
+      </c>
+      <c r="G79" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="H78" s="45" t="s"/>
-    </row>
-    <row outlineLevel="0" r="79">
-      <c r="A79" s="16" t="n"/>
-      <c r="B79" s="61" t="n">
-        <v>10</v>
-      </c>
-      <c r="C79" s="18" t="s">
+      <c r="H79" s="16" t="n"/>
+    </row>
+    <row outlineLevel="0" r="80">
+      <c r="A80" s="32" t="n">
+        <v>52</v>
+      </c>
+      <c r="B80" s="36" t="n"/>
+      <c r="C80" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="D79" s="41" t="s"/>
-      <c r="E79" s="63" t="n">
-        <v>55</v>
-      </c>
-      <c r="F79" s="26" t="n"/>
-      <c r="G79" s="27" t="s">
+      <c r="D80" s="34" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E80" s="54" t="n">
+        <v>53</v>
+      </c>
+      <c r="F80" s="36" t="n"/>
+      <c r="G80" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="H79" s="46" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="80">
-      <c r="A80" s="21" t="n">
-        <v>51</v>
-      </c>
-      <c r="B80" s="16" t="n"/>
-      <c r="C80" s="11" t="s">
+      <c r="H80" s="45" t="s"/>
+    </row>
+    <row outlineLevel="0" r="81">
+      <c r="A81" s="16" t="n"/>
+      <c r="B81" s="67" t="n">
+        <v>11</v>
+      </c>
+      <c r="C81" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="D80" s="22" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="E80" s="52" t="n">
-        <v>56</v>
-      </c>
-      <c r="F80" s="26" t="n"/>
-      <c r="G80" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="H80" s="45" t="s"/>
-    </row>
-    <row outlineLevel="0" r="81">
-      <c r="A81" s="21" t="n">
-        <v>52</v>
-      </c>
-      <c r="B81" s="16" t="n"/>
-      <c r="C81" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="D81" s="22" t="n">
-        <v>2.52</v>
-      </c>
+      <c r="D81" s="41" t="s"/>
       <c r="E81" s="16" t="n"/>
       <c r="F81" s="19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G81" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="H81" s="16" t="n"/>
+    </row>
+    <row outlineLevel="0" r="82">
+      <c r="A82" s="32" t="n">
+        <v>53</v>
+      </c>
+      <c r="B82" s="36" t="n"/>
+      <c r="C82" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D82" s="40" t="s"/>
+      <c r="E82" s="69" t="n">
+        <v>54</v>
+      </c>
+      <c r="F82" s="26" t="n"/>
+      <c r="G82" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="H81" s="42" t="s"/>
-    </row>
-    <row outlineLevel="0" r="82">
-      <c r="A82" s="21" t="n">
-        <v>53</v>
-      </c>
-      <c r="B82" s="16" t="n"/>
-      <c r="C82" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="D82" s="22" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="E82" s="52" t="n">
-        <v>57</v>
-      </c>
-      <c r="F82" s="16" t="n"/>
-      <c r="G82" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="H82" s="24" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="I82" s="25" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H82*1.2</f>
-        <v>0.78</v>
-      </c>
+      <c r="H82" s="0" t="n"/>
+      <c r="I82" s="0" t="n"/>
     </row>
     <row outlineLevel="0" r="83">
       <c r="A83" s="16" t="n"/>
-      <c r="B83" s="61" t="n">
-        <v>11</v>
+      <c r="B83" s="67" t="n">
+        <v>12</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="D83" s="16" t="n"/>
-      <c r="E83" s="52" t="n">
-        <v>58</v>
-      </c>
-      <c r="F83" s="16" t="n"/>
-      <c r="G83" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="H83" s="24" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="I83" s="25" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H83*1.2</f>
-        <v>2.52</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="D83" s="41" t="s"/>
+      <c r="E83" s="69" t="n">
+        <v>55</v>
+      </c>
+      <c r="F83" s="26" t="n"/>
+      <c r="G83" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="H83" s="46" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I83" s="0" t="n"/>
     </row>
     <row outlineLevel="0" r="84">
       <c r="A84" s="21" t="n">
         <v>54</v>
       </c>
-      <c r="B84" s="36" t="n"/>
+      <c r="B84" s="16" t="n"/>
       <c r="C84" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D84" s="22" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E84" s="54" t="n">
+        <v>56</v>
+      </c>
+      <c r="F84" s="26" t="n"/>
+      <c r="G84" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="H84" s="0" t="n"/>
+      <c r="I84" s="0" t="n"/>
+    </row>
+    <row outlineLevel="0" r="85">
+      <c r="A85" s="21" t="n">
+        <v>55</v>
+      </c>
+      <c r="B85" s="16" t="n"/>
+      <c r="C85" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="D84" s="40" t="s"/>
-      <c r="E84" s="52" t="n">
-        <v>59</v>
-      </c>
-      <c r="F84" s="16" t="n"/>
-      <c r="G84" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="H84" s="24" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="I84" s="25" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H84*1.2</f>
-        <v>0.54</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="85">
+      <c r="D85" s="22" t="n">
+        <v>2.52</v>
+      </c>
       <c r="E85" s="16" t="n"/>
       <c r="F85" s="19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G85" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="H85" s="42" t="s"/>
+    </row>
+    <row outlineLevel="0" r="86">
+      <c r="A86" s="21" t="n">
+        <v>56</v>
+      </c>
+      <c r="B86" s="16" t="n"/>
+      <c r="C86" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="H85" s="42" t="s"/>
-    </row>
-    <row outlineLevel="0" r="86">
-      <c r="E86" s="52" t="n">
-        <v>60</v>
-      </c>
-      <c r="F86" s="26" t="n"/>
-      <c r="G86" s="27" t="s">
+      <c r="D86" s="22" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E86" s="54" t="n">
+        <v>57</v>
+      </c>
+      <c r="F86" s="16" t="n"/>
+      <c r="G86" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="H86" s="45" t="s"/>
+      <c r="H86" s="24" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I86" s="25" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H86*1.2</f>
+        <v>0.78</v>
+      </c>
     </row>
     <row outlineLevel="0" r="87">
-      <c r="E87" s="52" t="n">
-        <v>61</v>
+      <c r="A87" s="16" t="n"/>
+      <c r="B87" s="67" t="n">
+        <v>13</v>
+      </c>
+      <c r="C87" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="D87" s="16" t="n"/>
+      <c r="E87" s="54" t="n">
+        <v>58</v>
       </c>
       <c r="F87" s="16" t="n"/>
       <c r="G87" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="H87" s="39" t="s"/>
+        <v>172</v>
+      </c>
+      <c r="H87" s="24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I87" s="25" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H87*1.2</f>
+        <v>2.52</v>
+      </c>
     </row>
     <row outlineLevel="0" r="88">
-      <c r="E88" s="52" t="n">
-        <v>62</v>
-      </c>
-      <c r="F88" s="26" t="n"/>
+      <c r="A88" s="21" t="n">
+        <v>57</v>
+      </c>
+      <c r="B88" s="36" t="n"/>
+      <c r="C88" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D88" s="40" t="s"/>
+      <c r="E88" s="54" t="n">
+        <v>59</v>
+      </c>
+      <c r="F88" s="16" t="n"/>
       <c r="G88" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="H88" s="39" t="s"/>
+        <v>174</v>
+      </c>
+      <c r="H88" s="24" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I88" s="25" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H88*1.2</f>
+        <v>0.54</v>
+      </c>
     </row>
     <row outlineLevel="0" r="89">
       <c r="E89" s="16" t="n"/>
       <c r="F89" s="19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G89" s="20" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="H89" s="42" t="s"/>
     </row>
     <row outlineLevel="0" r="90">
-      <c r="E90" s="63" t="n">
-        <v>63</v>
+      <c r="E90" s="54" t="n">
+        <v>60</v>
       </c>
       <c r="F90" s="26" t="n"/>
       <c r="G90" s="27" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H90" s="45" t="s"/>
     </row>
+    <row outlineLevel="0" r="91">
+      <c r="E91" s="54" t="n">
+        <v>61</v>
+      </c>
+      <c r="F91" s="16" t="n"/>
+      <c r="G91" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="H91" s="39" t="s"/>
+    </row>
+    <row outlineLevel="0" r="92">
+      <c r="E92" s="54" t="n">
+        <v>62</v>
+      </c>
+      <c r="F92" s="26" t="n"/>
+      <c r="G92" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="H92" s="39" t="s"/>
+    </row>
+    <row outlineLevel="0" r="93">
+      <c r="E93" s="16" t="n"/>
+      <c r="F93" s="19" t="n">
+        <v>12</v>
+      </c>
+      <c r="G93" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="H93" s="42" t="s"/>
+    </row>
+    <row outlineLevel="0" r="94">
+      <c r="E94" s="69" t="n">
+        <v>63</v>
+      </c>
+      <c r="F94" s="26" t="n"/>
+      <c r="G94" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="H94" s="45" t="s"/>
+    </row>
   </sheetData>
-  <mergeCells count="69">
+  <mergeCells count="72">
     <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:H4"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E4:H4"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="G22:H22"/>
@@ -4413,54 +4620,66 @@
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="G39:H39"/>
     <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G80:H80"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
     <mergeCell ref="G70:H70"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G54:H54"/>
     <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.300000011920929" header="0.300000011920929" left="0.700000047683716" right="0.700000047683716" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
+  <sheetPr>
+    <outlinePr summaryBelow="true" summaryRight="true"/>
+  </sheetPr>
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView showZeros="true" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" customHeight="false" defaultColWidth="10.7884703773945" defaultRowHeight="15" zeroHeight="false"/>
+  <sheetData/>
+  <pageMargins bottom="0.590555548667908" footer="0.5" header="0.5" left="0.590555548667908" right="0.590555548667908" top="0.590555548667908"/>
+  <pageSetup fitToHeight="0" fitToWidth="0" orientation="portrait" paperHeight="297.1798mm" paperSize="9" paperWidth="210.0438mm" scale="100"/>
+</worksheet>
 </file>
--- a/calc/files/letter2.xlsx
+++ b/calc/files/letter2.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
   <sheets>
     <sheet name="Table 1" r:id="rId1" sheetId="1" state="visible"/>
     <sheet name="Лист1" r:id="rId2" sheetId="2" state="visible"/>
   </sheets>
   <definedNames/>
+  <calcPr calcCompleted="true" calcMode="auto" calcOnSave="false" fullCalcOnLoad="false"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
   <si>
     <r>
       <rPr>
@@ -2107,7 +2108,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
   <numFmts>
     <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1000"/>
     <numFmt co:extendedFormatCode="0.00;-0.00" formatCode="0.00;-0.00" numFmtId="1001"/>
@@ -2116,7 +2117,8 @@
     <numFmt co:extendedFormatCode="0.0%" formatCode="0.0%" numFmtId="1004"/>
     <numFmt co:extendedFormatCode="0.000" formatCode="0.000" numFmtId="1005"/>
     <numFmt co:extendedFormatCode="0.0000" formatCode="0.0000" numFmtId="1006"/>
-    <numFmt co:extendedFormatCode="0.00%" formatCode="0.00%" numFmtId="1007"/>
+    <numFmt co:extendedFormatCode="0.00000;-0.00000" formatCode="0.00000;-0.00000" numFmtId="1007"/>
+    <numFmt co:extendedFormatCode="0.00%" formatCode="0.00%" numFmtId="1008"/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -2292,7 +2294,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="82">
     <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2428,6 +2430,12 @@
     <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1006" quotePrefix="false">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1007" quotePrefix="false">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="13" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
@@ -2458,8 +2466,20 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="12" numFmtId="1007" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="12" numFmtId="1008" quotePrefix="false">
       <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="12" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="12" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="11" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="11" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1003" quotePrefix="false">
       <alignment horizontal="right" indent="6" shrinkToFit="true" vertical="top"/>
@@ -2467,10 +2487,16 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="15" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="12" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="12" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="13" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="13" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1004" quotePrefix="false">
@@ -2497,7 +2523,7 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="8" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1007" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1008" quotePrefix="false">
       <alignment horizontal="right" indent="5" shrinkToFit="true" vertical="top"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1002" quotePrefix="false">
@@ -2506,7 +2532,7 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1004" quotePrefix="false">
       <alignment horizontal="right" indent="6" shrinkToFit="true" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1007" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="13" numFmtId="1008" quotePrefix="false">
       <alignment horizontal="right" indent="5" shrinkToFit="true" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="12" numFmtId="1004" quotePrefix="false">
@@ -2525,7 +2551,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2729,7 +2755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
   <sheetPr>
     <outlinePr summaryBelow="true" summaryRight="true"/>
   </sheetPr>
@@ -3356,9 +3382,10 @@
       <c r="H30" s="24" t="n">
         <v>0.8</v>
       </c>
-      <c r="J30" s="0" t="n"/>
-      <c r="K30" s="0" t="n"/>
-      <c r="L30" s="0" t="n"/>
+      <c r="I30" s="25" t="n"/>
+      <c r="J30" s="45" t="n"/>
+      <c r="K30" s="46" t="n"/>
+      <c r="L30" s="45" t="n"/>
       <c r="M30" s="0" t="n"/>
       <c r="N30" s="0" t="n"/>
       <c r="O30" s="0" t="n"/>
@@ -3381,10 +3408,12 @@
       <c r="G31" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="H31" s="45" t="s"/>
+      <c r="H31" s="47" t="s"/>
       <c r="I31" s="25" t="n"/>
       <c r="J31" s="0" t="n"/>
-      <c r="K31" s="25" t="n"/>
+      <c r="K31" s="44" t="n"/>
+      <c r="L31" s="45" t="n"/>
+      <c r="M31" s="45" t="n"/>
       <c r="N31" s="0" t="n"/>
     </row>
     <row customHeight="true" hidden="false" ht="45" outlineLevel="0" r="32">
@@ -3444,7 +3473,7 @@
       <c r="G34" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="H34" s="46" t="n">
+      <c r="H34" s="48" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -3468,7 +3497,7 @@
       <c r="G35" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="H35" s="45" t="s"/>
+      <c r="H35" s="47" t="s"/>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="32" t="n">
@@ -3483,10 +3512,10 @@
         <v>24</v>
       </c>
       <c r="F36" s="26" t="n"/>
-      <c r="G36" s="47" t="s">
+      <c r="G36" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="H36" s="48" t="s">
+      <c r="H36" s="50" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3508,7 +3537,7 @@
       <c r="G37" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="H37" s="45" t="s"/>
+      <c r="H37" s="47" t="s"/>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="21" t="n">
@@ -3546,17 +3575,17 @@
       <c r="G39" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="H39" s="45" t="s"/>
+      <c r="H39" s="47" t="s"/>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="26" t="n"/>
       <c r="B40" s="17" t="n">
         <v>6</v>
       </c>
-      <c r="C40" s="49" t="s">
+      <c r="C40" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="50" t="s"/>
+      <c r="D40" s="52" t="s"/>
       <c r="E40" s="14" t="s">
         <v>14</v>
       </c>
@@ -3596,17 +3625,17 @@
       <c r="C42" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="51" t="n">
+      <c r="D42" s="53" t="n">
         <v>3</v>
       </c>
-      <c r="E42" s="52" t="n">
+      <c r="E42" s="54" t="n">
         <v>28</v>
       </c>
       <c r="F42" s="16" t="n"/>
       <c r="G42" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="H42" s="53" t="n">
+      <c r="H42" s="55" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -3621,14 +3650,14 @@
       <c r="D43" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="E43" s="54" t="n">
+      <c r="E43" s="56" t="n">
         <v>29</v>
       </c>
       <c r="F43" s="16" t="n"/>
       <c r="G43" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="H43" s="55" t="n">
+      <c r="H43" s="57" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -3643,14 +3672,14 @@
       <c r="D44" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="E44" s="54" t="n">
+      <c r="E44" s="56" t="n">
         <v>30</v>
       </c>
       <c r="F44" s="16" t="n"/>
-      <c r="G44" s="33" t="s">
+      <c r="G44" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="H44" s="0" t="n"/>
+      <c r="H44" s="59" t="s"/>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="21" t="n">
@@ -3661,14 +3690,14 @@
         <v>94</v>
       </c>
       <c r="D45" s="38" t="s"/>
-      <c r="E45" s="54" t="n"/>
+      <c r="E45" s="56" t="n"/>
       <c r="F45" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="G45" s="20" t="s">
+      <c r="G45" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="H45" s="0" t="n"/>
+      <c r="H45" s="61" t="s"/>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="43" t="s">
@@ -3683,10 +3712,10 @@
       </c>
       <c r="E46" s="16" t="n"/>
       <c r="F46" s="16" t="n"/>
-      <c r="G46" s="20" t="s">
+      <c r="G46" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="H46" s="0" t="n"/>
+      <c r="H46" s="61" t="s"/>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="43" t="s">
@@ -3699,14 +3728,14 @@
       <c r="D47" s="22" t="n">
         <v>0.8</v>
       </c>
-      <c r="E47" s="54" t="n">
+      <c r="E47" s="56" t="n">
         <v>31</v>
       </c>
       <c r="F47" s="16" t="n"/>
       <c r="G47" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="H47" s="56" t="n">
+      <c r="H47" s="62" t="n">
         <v>2.35</v>
       </c>
     </row>
@@ -3719,14 +3748,14 @@
         <v>100</v>
       </c>
       <c r="D48" s="40" t="s"/>
-      <c r="E48" s="54" t="n">
+      <c r="E48" s="56" t="n">
         <v>32</v>
       </c>
       <c r="F48" s="16" t="n"/>
       <c r="G48" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="H48" s="56" t="n">
+      <c r="H48" s="62" t="n">
         <v>3.1</v>
       </c>
     </row>
@@ -3739,14 +3768,14 @@
         <v>102</v>
       </c>
       <c r="D49" s="40" t="s"/>
-      <c r="E49" s="54" t="n">
+      <c r="E49" s="56" t="n">
         <v>33</v>
       </c>
       <c r="F49" s="16" t="n"/>
       <c r="G49" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="H49" s="56" t="n">
+      <c r="H49" s="62" t="n">
         <v>3.9</v>
       </c>
     </row>
@@ -3761,10 +3790,10 @@
       <c r="D50" s="40" t="s"/>
       <c r="E50" s="26" t="n"/>
       <c r="F50" s="16" t="n"/>
-      <c r="G50" s="20" t="s">
+      <c r="G50" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="H50" s="0" t="n"/>
+      <c r="H50" s="61" t="s"/>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="21" t="n">
@@ -3777,14 +3806,14 @@
       <c r="D51" s="28" t="n">
         <v>0.01</v>
       </c>
-      <c r="E51" s="54" t="n">
+      <c r="E51" s="56" t="n">
         <v>34</v>
       </c>
       <c r="F51" s="16" t="n"/>
       <c r="G51" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="H51" s="56" t="n">
+      <c r="H51" s="62" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -3797,14 +3826,14 @@
         <v>108</v>
       </c>
       <c r="D52" s="38" t="s"/>
-      <c r="E52" s="54" t="n">
+      <c r="E52" s="56" t="n">
         <v>35</v>
       </c>
       <c r="F52" s="16" t="n"/>
       <c r="G52" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="H52" s="56" t="n">
+      <c r="H52" s="62" t="n">
         <v>5.65</v>
       </c>
     </row>
@@ -3813,16 +3842,16 @@
       <c r="B53" s="26" t="n">
         <v>7</v>
       </c>
-      <c r="C53" s="57" t="s">
+      <c r="C53" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="D53" s="53" t="n"/>
-      <c r="E53" s="54" t="n"/>
+      <c r="D53" s="55" t="n"/>
+      <c r="E53" s="56" t="n"/>
       <c r="F53" s="16" t="n"/>
       <c r="G53" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="H53" s="56" t="n">
+      <c r="H53" s="62" t="n">
         <v>8.1</v>
       </c>
     </row>
@@ -3834,15 +3863,15 @@
       <c r="C54" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="D54" s="53" t="n">
+      <c r="D54" s="55" t="n">
         <v>4.5</v>
       </c>
-      <c r="E54" s="54" t="n"/>
+      <c r="E54" s="56" t="n"/>
       <c r="F54" s="26" t="n"/>
       <c r="G54" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="H54" s="45" t="s"/>
+      <c r="H54" s="47" t="s"/>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="21" t="n">
@@ -3852,15 +3881,15 @@
       <c r="C55" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="D55" s="55" t="n">
+      <c r="D55" s="57" t="n">
         <v>0.01</v>
       </c>
-      <c r="E55" s="54" t="n"/>
+      <c r="E55" s="56" t="n"/>
       <c r="F55" s="26" t="n"/>
-      <c r="G55" s="14" t="s">
+      <c r="G55" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="H55" s="0" t="n"/>
+      <c r="H55" s="65" t="s"/>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="21" t="n">
@@ -3871,12 +3900,12 @@
         <v>114</v>
       </c>
       <c r="D56" s="59" t="s"/>
-      <c r="E56" s="54" t="n"/>
+      <c r="E56" s="56" t="n"/>
       <c r="F56" s="26" t="n"/>
-      <c r="G56" s="27" t="s">
+      <c r="G56" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="H56" s="0" t="n"/>
+      <c r="H56" s="67" t="s"/>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="26" t="n"/>
@@ -3887,14 +3916,14 @@
         <v>116</v>
       </c>
       <c r="D57" s="41" t="s"/>
-      <c r="E57" s="54" t="n">
+      <c r="E57" s="56" t="n">
         <v>36</v>
       </c>
       <c r="F57" s="26" t="n"/>
-      <c r="G57" s="27" t="s">
+      <c r="G57" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="H57" s="0" t="n"/>
+      <c r="H57" s="67" t="s"/>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="16" t="n"/>
@@ -3907,10 +3936,10 @@
       <c r="F58" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="G58" s="20" t="s">
+      <c r="G58" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="H58" s="0" t="n"/>
+      <c r="H58" s="61" t="s"/>
     </row>
     <row outlineLevel="0" r="59">
       <c r="A59" s="21" t="n">
@@ -3923,14 +3952,14 @@
       <c r="D59" s="22" t="n">
         <v>2.82</v>
       </c>
-      <c r="E59" s="54" t="n">
+      <c r="E59" s="56" t="n">
         <v>37</v>
       </c>
       <c r="F59" s="16" t="n"/>
       <c r="G59" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="H59" s="56" t="n">
+      <c r="H59" s="62" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -3945,14 +3974,14 @@
       <c r="D60" s="22" t="n">
         <v>3.72</v>
       </c>
-      <c r="E60" s="54" t="n">
+      <c r="E60" s="56" t="n">
         <v>38</v>
       </c>
       <c r="F60" s="16" t="n"/>
       <c r="G60" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="H60" s="56" t="n">
+      <c r="H60" s="62" t="n">
         <v>5.65</v>
       </c>
     </row>
@@ -3967,14 +3996,14 @@
       <c r="D61" s="22" t="n">
         <v>9.72</v>
       </c>
-      <c r="E61" s="54" t="n">
+      <c r="E61" s="56" t="n">
         <v>39</v>
       </c>
       <c r="F61" s="16" t="n"/>
       <c r="G61" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="H61" s="56" t="n">
+      <c r="H61" s="62" t="n">
         <v>8.1</v>
       </c>
     </row>
@@ -3985,14 +4014,14 @@
         <v>126</v>
       </c>
       <c r="D62" s="41" t="s"/>
-      <c r="E62" s="54" t="n">
+      <c r="E62" s="56" t="n">
         <v>40</v>
       </c>
       <c r="F62" s="26" t="n"/>
       <c r="G62" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H62" s="60" t="n">
+      <c r="H62" s="68" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -4007,14 +4036,14 @@
       <c r="D63" s="22" t="n">
         <v>5.4</v>
       </c>
-      <c r="E63" s="54" t="n">
+      <c r="E63" s="56" t="n">
         <v>41</v>
       </c>
       <c r="F63" s="26" t="n"/>
-      <c r="G63" s="27" t="s">
+      <c r="G63" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="H63" s="0" t="n"/>
+      <c r="H63" s="67" t="s"/>
     </row>
     <row outlineLevel="0" r="64">
       <c r="A64" s="21" t="n">
@@ -4047,14 +4076,14 @@
       <c r="D65" s="22" t="n">
         <v>9.72</v>
       </c>
-      <c r="E65" s="54" t="n">
+      <c r="E65" s="56" t="n">
         <v>42</v>
       </c>
       <c r="F65" s="16" t="n"/>
       <c r="G65" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="H65" s="56" t="n">
+      <c r="H65" s="62" t="n">
         <v>15</v>
       </c>
     </row>
@@ -4065,14 +4094,14 @@
         <v>132</v>
       </c>
       <c r="D66" s="40" t="s"/>
-      <c r="E66" s="54" t="n">
+      <c r="E66" s="56" t="n">
         <v>43</v>
       </c>
       <c r="F66" s="16" t="n"/>
       <c r="G66" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="H66" s="56" t="n">
+      <c r="H66" s="62" t="n">
         <v>30</v>
       </c>
     </row>
@@ -4081,18 +4110,18 @@
         <v>41</v>
       </c>
       <c r="B67" s="26" t="n"/>
-      <c r="C67" s="61" t="s">
+      <c r="C67" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="D67" s="62" t="s"/>
-      <c r="E67" s="54" t="n">
+      <c r="D67" s="70" t="s"/>
+      <c r="E67" s="56" t="n">
         <v>44</v>
       </c>
       <c r="F67" s="16" t="n"/>
       <c r="G67" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="H67" s="56" t="n">
+      <c r="H67" s="62" t="n">
         <v>42.5</v>
       </c>
     </row>
@@ -4115,28 +4144,28 @@
       <c r="H68" s="16" t="n"/>
     </row>
     <row outlineLevel="0" r="69">
-      <c r="A69" s="63" t="n">
+      <c r="A69" s="71" t="n">
         <v>43</v>
       </c>
-      <c r="B69" s="64" t="n"/>
-      <c r="C69" s="65" t="s">
+      <c r="B69" s="72" t="n"/>
+      <c r="C69" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="D69" s="66" t="s"/>
-      <c r="E69" s="54" t="n">
+      <c r="D69" s="74" t="s"/>
+      <c r="E69" s="56" t="n">
         <v>45</v>
       </c>
       <c r="F69" s="26" t="n"/>
       <c r="G69" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="H69" s="60" t="n">
+      <c r="H69" s="68" t="n">
         <v>0.03</v>
       </c>
     </row>
     <row outlineLevel="0" r="70">
       <c r="A70" s="16" t="n"/>
-      <c r="B70" s="67" t="n">
+      <c r="B70" s="75" t="n">
         <v>9</v>
       </c>
       <c r="C70" s="18" t="s">
@@ -4161,14 +4190,14 @@
       <c r="D71" s="22" t="n">
         <v>5.4</v>
       </c>
-      <c r="E71" s="54" t="n">
+      <c r="E71" s="56" t="n">
         <v>46</v>
       </c>
       <c r="F71" s="36" t="n"/>
       <c r="G71" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="H71" s="68" t="n">
+      <c r="H71" s="76" t="n">
         <v>0.0233</v>
       </c>
     </row>
@@ -4183,14 +4212,14 @@
       <c r="D72" s="22" t="n">
         <v>6.78</v>
       </c>
-      <c r="E72" s="54" t="n">
+      <c r="E72" s="56" t="n">
         <v>47</v>
       </c>
       <c r="F72" s="36" t="n"/>
       <c r="G72" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="H72" s="68" t="n">
+      <c r="H72" s="76" t="n">
         <v>0.0233</v>
       </c>
     </row>
@@ -4205,14 +4234,14 @@
       <c r="D73" s="22" t="n">
         <v>9.72</v>
       </c>
-      <c r="E73" s="69" t="n">
+      <c r="E73" s="77" t="n">
         <v>48</v>
       </c>
       <c r="F73" s="36" t="n"/>
       <c r="G73" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="H73" s="70" t="n">
+      <c r="H73" s="78" t="n">
         <v>0.015</v>
       </c>
     </row>
@@ -4229,10 +4258,10 @@
       </c>
       <c r="E74" s="36" t="n"/>
       <c r="F74" s="36" t="n"/>
-      <c r="G74" s="14" t="s">
+      <c r="G74" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="H74" s="0" t="n"/>
+      <c r="H74" s="65" t="s"/>
     </row>
     <row outlineLevel="0" r="75">
       <c r="A75" s="32" t="n">
@@ -4243,34 +4272,34 @@
         <v>147</v>
       </c>
       <c r="D75" s="40" t="s"/>
-      <c r="E75" s="69" t="n">
+      <c r="E75" s="77" t="n">
         <v>49</v>
       </c>
       <c r="F75" s="36" t="n"/>
       <c r="G75" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="H75" s="71" t="n">
+      <c r="H75" s="79" t="n">
         <v>0.0233</v>
       </c>
     </row>
     <row outlineLevel="0" r="76">
       <c r="A76" s="16" t="n"/>
-      <c r="B76" s="67" t="n">
+      <c r="B76" s="75" t="n">
         <v>10</v>
       </c>
       <c r="C76" s="18" t="s">
         <v>149</v>
       </c>
       <c r="D76" s="16" t="n"/>
-      <c r="E76" s="69" t="n">
+      <c r="E76" s="77" t="n">
         <v>50</v>
       </c>
       <c r="F76" s="26" t="n"/>
       <c r="G76" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="H76" s="46" t="n">
+      <c r="H76" s="48" t="n">
         <v>0.015</v>
       </c>
     </row>
@@ -4282,17 +4311,17 @@
       <c r="C77" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="D77" s="72" t="n">
+      <c r="D77" s="80" t="n">
         <v>0.03</v>
       </c>
-      <c r="E77" s="69" t="n">
+      <c r="E77" s="77" t="n">
         <v>51</v>
       </c>
       <c r="F77" s="36" t="n"/>
       <c r="G77" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="H77" s="46" t="n">
+      <c r="H77" s="48" t="n">
         <v>0.005</v>
       </c>
     </row>
@@ -4305,14 +4334,14 @@
         <v>153</v>
       </c>
       <c r="D78" s="40" t="s"/>
-      <c r="E78" s="54" t="n">
+      <c r="E78" s="56" t="n">
         <v>52</v>
       </c>
       <c r="F78" s="26" t="n"/>
       <c r="G78" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="H78" s="73" t="n">
+      <c r="H78" s="81" t="n">
         <v>0.009</v>
       </c>
     </row>
@@ -4324,7 +4353,7 @@
       <c r="C79" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="D79" s="72" t="n">
+      <c r="D79" s="80" t="n">
         <v>0.015</v>
       </c>
       <c r="E79" s="16" t="n"/>
@@ -4347,18 +4376,18 @@
       <c r="D80" s="34" t="n">
         <v>0.01</v>
       </c>
-      <c r="E80" s="54" t="n">
+      <c r="E80" s="56" t="n">
         <v>53</v>
       </c>
       <c r="F80" s="36" t="n"/>
       <c r="G80" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="H80" s="45" t="s"/>
+      <c r="H80" s="47" t="s"/>
     </row>
     <row outlineLevel="0" r="81">
       <c r="A81" s="16" t="n"/>
-      <c r="B81" s="67" t="n">
+      <c r="B81" s="75" t="n">
         <v>11</v>
       </c>
       <c r="C81" s="18" t="s">
@@ -4383,33 +4412,33 @@
         <v>161</v>
       </c>
       <c r="D82" s="40" t="s"/>
-      <c r="E82" s="69" t="n">
+      <c r="E82" s="77" t="n">
         <v>54</v>
       </c>
       <c r="F82" s="26" t="n"/>
-      <c r="G82" s="27" t="s">
+      <c r="G82" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="H82" s="0" t="n"/>
+      <c r="H82" s="67" t="s"/>
       <c r="I82" s="0" t="n"/>
     </row>
     <row outlineLevel="0" r="83">
       <c r="A83" s="16" t="n"/>
-      <c r="B83" s="67" t="n">
+      <c r="B83" s="75" t="n">
         <v>12</v>
       </c>
       <c r="C83" s="18" t="s">
         <v>163</v>
       </c>
       <c r="D83" s="41" t="s"/>
-      <c r="E83" s="69" t="n">
+      <c r="E83" s="77" t="n">
         <v>55</v>
       </c>
       <c r="F83" s="26" t="n"/>
       <c r="G83" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="H83" s="46" t="n">
+      <c r="H83" s="48" t="n">
         <v>0.03</v>
       </c>
       <c r="I83" s="0" t="n"/>
@@ -4425,14 +4454,14 @@
       <c r="D84" s="22" t="n">
         <v>0.78</v>
       </c>
-      <c r="E84" s="54" t="n">
+      <c r="E84" s="56" t="n">
         <v>56</v>
       </c>
       <c r="F84" s="26" t="n"/>
-      <c r="G84" s="27" t="s">
+      <c r="G84" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="H84" s="0" t="n"/>
+      <c r="H84" s="67" t="s"/>
       <c r="I84" s="0" t="n"/>
     </row>
     <row outlineLevel="0" r="85">
@@ -4466,7 +4495,7 @@
       <c r="D86" s="22" t="n">
         <v>0.54</v>
       </c>
-      <c r="E86" s="54" t="n">
+      <c r="E86" s="56" t="n">
         <v>57</v>
       </c>
       <c r="F86" s="16" t="n"/>
@@ -4483,14 +4512,14 @@
     </row>
     <row outlineLevel="0" r="87">
       <c r="A87" s="16" t="n"/>
-      <c r="B87" s="67" t="n">
+      <c r="B87" s="75" t="n">
         <v>13</v>
       </c>
       <c r="C87" s="18" t="s">
         <v>171</v>
       </c>
       <c r="D87" s="16" t="n"/>
-      <c r="E87" s="54" t="n">
+      <c r="E87" s="56" t="n">
         <v>58</v>
       </c>
       <c r="F87" s="16" t="n"/>
@@ -4514,7 +4543,7 @@
         <v>173</v>
       </c>
       <c r="D88" s="40" t="s"/>
-      <c r="E88" s="54" t="n">
+      <c r="E88" s="56" t="n">
         <v>59</v>
       </c>
       <c r="F88" s="16" t="n"/>
@@ -4540,17 +4569,17 @@
       <c r="H89" s="42" t="s"/>
     </row>
     <row outlineLevel="0" r="90">
-      <c r="E90" s="54" t="n">
+      <c r="E90" s="56" t="n">
         <v>60</v>
       </c>
       <c r="F90" s="26" t="n"/>
       <c r="G90" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="H90" s="45" t="s"/>
+      <c r="H90" s="47" t="s"/>
     </row>
     <row outlineLevel="0" r="91">
-      <c r="E91" s="54" t="n">
+      <c r="E91" s="56" t="n">
         <v>61</v>
       </c>
       <c r="F91" s="16" t="n"/>
@@ -4560,7 +4589,7 @@
       <c r="H91" s="39" t="s"/>
     </row>
     <row outlineLevel="0" r="92">
-      <c r="E92" s="54" t="n">
+      <c r="E92" s="56" t="n">
         <v>62</v>
       </c>
       <c r="F92" s="26" t="n"/>
@@ -4580,14 +4609,14 @@
       <c r="H93" s="42" t="s"/>
     </row>
     <row outlineLevel="0" r="94">
-      <c r="E94" s="69" t="n">
+      <c r="E94" s="77" t="n">
         <v>63</v>
       </c>
       <c r="F94" s="26" t="n"/>
       <c r="G94" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="H94" s="45" t="s"/>
+      <c r="H94" s="47" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="72">
@@ -4620,9 +4649,9 @@
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="G39:H39"/>
     <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G44:H44"/>
     <mergeCell ref="G45:H45"/>
     <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G44:H44"/>
     <mergeCell ref="G94:H94"/>
     <mergeCell ref="G93:H93"/>
     <mergeCell ref="G92:H92"/>
@@ -4653,13 +4682,13 @@
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="C67:D67"/>
     <mergeCell ref="C66:D66"/>
-    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G56:H56"/>
     <mergeCell ref="G57:H57"/>
     <mergeCell ref="G58:H58"/>
     <mergeCell ref="G63:H63"/>
     <mergeCell ref="G64:H64"/>
     <mergeCell ref="G70:H70"/>
-    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G74:H74"/>
     <mergeCell ref="G55:H55"/>
     <mergeCell ref="G54:H54"/>
     <mergeCell ref="G50:H50"/>
@@ -4669,7 +4698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
   <sheetPr>
     <outlinePr summaryBelow="true" summaryRight="true"/>
   </sheetPr>

--- a/calc/files/letter2.xlsx
+++ b/calc/files/letter2.xlsx
@@ -37,7 +37,7 @@
         <rFont val="Arial"/>
         <sz val="11"/>
       </rPr>
-      <t>от 11ноября 2024 № 1036</t>
+      <t>от 19 декабря 2024 № 1162</t>
     </r>
   </si>
   <si>
@@ -68,7 +68,7 @@
         <color rgb="FF0000" tint="0"/>
         <sz val="11"/>
       </rPr>
-      <t>в действии c 01.12.2024</t>
+      <t>в действии c 01.01.2025</t>
     </r>
   </si>
   <si>
@@ -483,7 +483,28 @@
         <color rgb="000000" tint="0"/>
         <sz val="11"/>
       </rPr>
-      <t>Плата  за  пересылку  посылки  с  товарным  вложением  в  упрощенной  упаковке</t>
+      <t xml:space="preserve">Плата  за  пересылку  посылки  с  товарным  вложением  в  упрощенной  упаковке </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="000000" tint="0"/>
+        <sz val="11"/>
+      </rPr>
+      <t>до РУПС, ГУПС, за кг*</t>
+    </r>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="000000" tint="0"/>
+        <sz val="11"/>
+      </rPr>
+      <t>Тарификация  за  массу  посылки  массой  свыше  1  кг  с  объявленной  ценностью  осуществляется  с точностью  до  десятков  граммов.  Любое  количество  граммов  округляется  до  десятков  граммов  в</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -495,31 +516,6 @@
         <color rgb="000000" tint="0"/>
         <sz val="11"/>
       </rPr>
-      <t>до РУПС, ГУПС, за кг*</t>
-    </r>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="000000" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t>Тарификация  за  массу  посылки  массой  свыше  1  кг  с  объявленной  ценностью  осуществляется  с точностью  до  десятков  граммов.  Любое  количество  граммов  округляется  до  десятков  граммов  в</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="000000" tint="0"/>
-        <sz val="11"/>
-      </rPr>
       <t>большую сторону</t>
     </r>
   </si>
@@ -557,11 +553,7 @@
         <color rgb="000000" tint="0"/>
         <sz val="11"/>
       </rPr>
-      <t>За хрупкие посылки с отметкой "Хрупкое" и громоздкие взимается надбавка к плате за пересылку посылки   в   размере   50%.   Если   посылка   является   одновременно   хрупкой   и   громоздкой,   то</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
+      <t xml:space="preserve">За хрупкие посылки с отметкой "Хрупкое" и громоздкие взимается надбавка к плате за пересылку посылки   в   размере   50%.   Если   посылка   является   одновременно   хрупкой   и   громоздкой,   то </t>
     </r>
     <r>
       <rPr>
@@ -1949,12 +1941,12 @@
     <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1003" quotePrefix="false">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1003" quotePrefix="false">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1003" quotePrefix="false">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
     </xf>
@@ -1991,6 +1983,9 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1006" quotePrefix="false">
       <alignment horizontal="center" vertical="top" wrapText="true"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="1003" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
+    </xf>
     <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1007" quotePrefix="false">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2030,12 +2025,12 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1001" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1003" quotePrefix="false">
       <alignment horizontal="right" indent="6" shrinkToFit="true" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="justify" vertical="top" wrapText="true"/>
     </xf>
@@ -2108,6 +2103,18 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="justify" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="justify" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="justify" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="justify" vertical="top" wrapText="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="3" numFmtId="1003" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
@@ -2126,35 +2133,20 @@
     <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
     <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="justify" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="justify" vertical="top" wrapText="true"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="center" vertical="bottom" wrapText="true"/>
-    </xf>
     <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="6" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
     <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
     <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="justify" vertical="top" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="justify" vertical="top" wrapText="true"/>
@@ -2433,8 +2425,9 @@
       <c r="E3" s="5" t="n"/>
       <c r="F3" s="3" t="n"/>
       <c r="G3" s="3" t="n"/>
-      <c r="H3" s="8" t="s">
-        <v>2</v>
+      <c r="H3" s="8" t="str">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D3</f>
+        <v>от 19 декабря 2024 № 1162</v>
       </c>
     </row>
     <row customHeight="true" ht="41.25" outlineLevel="0" r="4">
@@ -2461,8 +2454,9 @@
       <c r="E5" s="12" t="n"/>
       <c r="F5" s="10" t="n"/>
       <c r="G5" s="10" t="n"/>
-      <c r="H5" s="11" t="s">
-        <v>5</v>
+      <c r="H5" s="11" t="str">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D5</f>
+        <v>в действии c 01.01.2025</v>
       </c>
     </row>
     <row customHeight="true" ht="27.25" outlineLevel="0" r="6">
@@ -2518,7 +2512,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="23" t="n">
-        <v>2.7</v>
+        <v>2.94</v>
       </c>
       <c r="E8" s="22" t="n">
         <v>1</v>
@@ -2528,7 +2522,7 @@
         <v>12</v>
       </c>
       <c r="H8" s="23" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="I8" s="24" t="n"/>
       <c r="J8" s="1" t="s">
@@ -2563,7 +2557,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="23" t="n">
-        <v>3</v>
+        <v>3.24</v>
       </c>
       <c r="E10" s="22" t="n">
         <v>2</v>
@@ -2573,9 +2567,12 @@
         <v>15</v>
       </c>
       <c r="H10" s="23" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I10" s="24" t="n"/>
+        <v>2.7</v>
+      </c>
+      <c r="I10" s="25" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H10*1.2</f>
+        <v>3.24</v>
+      </c>
       <c r="J10" s="24" t="n"/>
       <c r="K10" s="24" t="n"/>
     </row>
@@ -2588,17 +2585,17 @@
         <v>16</v>
       </c>
       <c r="D11" s="23" t="n">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="E11" s="22" t="n">
         <v>3</v>
       </c>
       <c r="F11" s="17" t="n"/>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="26" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="23" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I11" s="24" t="n"/>
       <c r="J11" s="24" t="n"/>
@@ -2632,7 +2629,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="23" t="n">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="E13" s="22" t="n">
         <v>4</v>
@@ -2642,7 +2639,7 @@
         <v>19</v>
       </c>
       <c r="H13" s="23" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="I13" s="24" t="n"/>
     </row>
@@ -2655,7 +2652,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="23" t="n">
-        <v>3</v>
+        <v>3.24</v>
       </c>
       <c r="E14" s="22" t="n">
         <v>5</v>
@@ -2665,7 +2662,7 @@
         <v>20</v>
       </c>
       <c r="H14" s="23" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="I14" s="24" t="n"/>
     </row>
@@ -2678,7 +2675,7 @@
         <v>21</v>
       </c>
       <c r="D15" s="23" t="n">
-        <v>3.48</v>
+        <v>3.72</v>
       </c>
       <c r="E15" s="22" t="n">
         <v>6</v>
@@ -2690,7 +2687,7 @@
       <c r="H15" s="23" t="n">
         <v>3.2</v>
       </c>
-      <c r="I15" s="26" t="n">
+      <c r="I15" s="24" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H15*1.2</f>
         <v>3.84</v>
       </c>
@@ -2700,21 +2697,21 @@
         <v>7</v>
       </c>
       <c r="B16" s="28" t="n"/>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="29" t="n">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="E16" s="27" t="n">
         <v>7</v>
       </c>
-      <c r="F16" s="25" t="n"/>
+      <c r="F16" s="26" t="n"/>
       <c r="G16" s="13" t="s">
         <v>23</v>
       </c>
       <c r="H16" s="29" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I16" s="24" t="n"/>
     </row>
@@ -2753,7 +2750,7 @@
       <c r="E18" s="27" t="n">
         <v>9</v>
       </c>
-      <c r="F18" s="25" t="n"/>
+      <c r="F18" s="26" t="n"/>
       <c r="G18" s="13" t="s">
         <v>26</v>
       </c>
@@ -2761,7 +2758,7 @@
       <c r="I18" s="24" t="n"/>
       <c r="J18" s="35" t="n"/>
     </row>
-    <row customHeight="true" ht="34.75" outlineLevel="0" r="19">
+    <row customHeight="true" ht="49.1162414550781" outlineLevel="0" r="19">
       <c r="A19" s="27" t="n">
         <v>10</v>
       </c>
@@ -2808,7 +2805,7 @@
         <v>30</v>
       </c>
       <c r="D21" s="23" t="n">
-        <v>1.86</v>
+        <v>2.04</v>
       </c>
       <c r="E21" s="22" t="n">
         <v>11</v>
@@ -2818,7 +2815,7 @@
         <v>30</v>
       </c>
       <c r="H21" s="23" t="n">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="I21" s="24" t="n"/>
     </row>
@@ -2831,7 +2828,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="23" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="E22" s="22" t="n">
         <v>12</v>
@@ -2841,7 +2838,7 @@
         <v>31</v>
       </c>
       <c r="H22" s="23" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="I22" s="24" t="n"/>
     </row>
@@ -2875,7 +2872,7 @@
       <c r="E24" s="27" t="n">
         <v>14</v>
       </c>
-      <c r="F24" s="25" t="n"/>
+      <c r="F24" s="26" t="n"/>
       <c r="G24" s="13" t="s">
         <v>35</v>
       </c>
@@ -2925,7 +2922,7 @@
         <v>40</v>
       </c>
       <c r="D27" s="23" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="E27" s="22" t="n">
         <v>15</v>
@@ -2934,12 +2931,12 @@
       <c r="G27" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H27" s="23" t="n">
+      <c r="H27" s="39" t="n">
         <v>4.5</v>
       </c>
-      <c r="I27" s="39" t="n"/>
-      <c r="J27" s="39" t="n"/>
-      <c r="K27" s="39" t="n"/>
+      <c r="I27" s="40" t="n"/>
+      <c r="J27" s="40" t="n"/>
+      <c r="K27" s="40" t="n"/>
     </row>
     <row customHeight="true" ht="28.75" outlineLevel="0" r="28">
       <c r="A28" s="37" t="n">
@@ -2957,12 +2954,12 @@
       <c r="G28" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H28" s="23" t="n">
-        <v>0.8</v>
+      <c r="H28" s="39" t="n">
+        <v>0.85</v>
       </c>
       <c r="I28" s="24" t="n"/>
       <c r="J28" s="35" t="n"/>
-      <c r="K28" s="40" t="n"/>
+      <c r="K28" s="41" t="n"/>
       <c r="L28" s="35" t="n"/>
       <c r="M28" s="35" t="n"/>
       <c r="N28" s="35" t="n"/>
@@ -2976,20 +2973,20 @@
       <c r="C29" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="23" t="n">
+      <c r="D29" s="39" t="n">
         <v>4</v>
       </c>
       <c r="E29" s="22" t="n">
         <v>17</v>
       </c>
       <c r="F29" s="28" t="n"/>
-      <c r="G29" s="25" t="s">
+      <c r="G29" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="H29" s="41" t="s"/>
+      <c r="H29" s="42" t="s"/>
       <c r="I29" s="24" t="n"/>
       <c r="J29" s="35" t="n"/>
-      <c r="K29" s="39" t="n"/>
+      <c r="K29" s="40" t="n"/>
       <c r="L29" s="35" t="n"/>
       <c r="M29" s="35" t="n"/>
       <c r="N29" s="35" t="n"/>
@@ -3002,8 +2999,8 @@
       <c r="C30" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="23" t="n">
-        <v>0.8</v>
+      <c r="D30" s="39" t="n">
+        <v>0.85</v>
       </c>
       <c r="E30" s="27" t="n">
         <v>18</v>
@@ -3016,10 +3013,10 @@
       <c r="I30" s="24" t="n"/>
     </row>
     <row customHeight="true" ht="38.75" outlineLevel="0" r="31">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="25" t="n"/>
+      <c r="B31" s="26" t="n"/>
       <c r="C31" s="13" t="s">
         <v>49</v>
       </c>
@@ -3028,22 +3025,22 @@
         <v>19</v>
       </c>
       <c r="F31" s="28" t="n"/>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="H31" s="43" t="n">
-        <v>0.8</v>
+      <c r="H31" s="44" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row customHeight="true" ht="36.4999389648438" outlineLevel="0" r="32">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="43" t="s">
         <v>51</v>
       </c>
       <c r="B32" s="28" t="n"/>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="41" t="s"/>
+      <c r="D32" s="42" t="s"/>
       <c r="E32" s="27" t="n">
         <v>20</v>
       </c>
@@ -3051,7 +3048,7 @@
       <c r="G32" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="H32" s="44" t="n">
+      <c r="H32" s="45" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -3072,28 +3069,28 @@
         <v>21</v>
       </c>
       <c r="F33" s="28" t="n"/>
-      <c r="G33" s="25" t="s">
+      <c r="G33" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="H33" s="41" t="s"/>
+      <c r="H33" s="42" t="s"/>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="27" t="n">
         <v>19</v>
       </c>
       <c r="B34" s="28" t="n"/>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="41" t="s"/>
+      <c r="D34" s="42" t="s"/>
       <c r="E34" s="27" t="n">
         <v>22</v>
       </c>
       <c r="F34" s="28" t="n"/>
-      <c r="G34" s="45" t="s">
+      <c r="G34" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="H34" s="46" t="s">
+      <c r="H34" s="47" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3112,20 +3109,20 @@
         <v>23</v>
       </c>
       <c r="F35" s="28" t="n"/>
-      <c r="G35" s="25" t="s">
+      <c r="G35" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="H35" s="41" t="s"/>
+      <c r="H35" s="42" t="s"/>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="22" t="n">
         <v>21</v>
       </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="41" t="s"/>
+      <c r="D36" s="42" t="s"/>
       <c r="E36" s="22" t="n">
         <v>24</v>
       </c>
@@ -3142,28 +3139,28 @@
         <v>22</v>
       </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D37" s="41" t="s"/>
+      <c r="D37" s="42" t="s"/>
       <c r="E37" s="22" t="n">
         <v>25</v>
       </c>
       <c r="F37" s="28" t="n"/>
-      <c r="G37" s="25" t="s">
+      <c r="G37" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="H37" s="41" t="s"/>
+      <c r="H37" s="42" t="s"/>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="28" t="n"/>
       <c r="B38" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="C38" s="47" t="s">
+      <c r="C38" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="D38" s="48" t="s"/>
+      <c r="D38" s="49" t="s"/>
       <c r="E38" s="16" t="s">
         <v>6</v>
       </c>
@@ -3190,10 +3187,10 @@
       <c r="F39" s="21" t="n">
         <v>6</v>
       </c>
-      <c r="G39" s="49" t="s">
+      <c r="G39" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="H39" s="50" t="s"/>
+      <c r="H39" s="51" t="s"/>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="38" t="s">
@@ -3203,15 +3200,15 @@
       <c r="C40" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="51" t="n">
+      <c r="D40" s="52" t="n">
         <v>3</v>
       </c>
       <c r="E40" s="20" t="n"/>
       <c r="F40" s="17" t="n"/>
-      <c r="G40" s="49" t="s">
+      <c r="G40" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="H40" s="50" t="s"/>
+      <c r="H40" s="51" t="s"/>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="38" t="s">
@@ -3231,8 +3228,8 @@
       <c r="G41" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="H41" s="52" t="n">
-        <v>2.35</v>
+      <c r="H41" s="23" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row outlineLevel="0" r="42">
@@ -3253,8 +3250,8 @@
       <c r="G42" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="H42" s="52" t="n">
-        <v>3.1</v>
+      <c r="H42" s="23" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row outlineLevel="0" r="43">
@@ -3262,10 +3259,10 @@
         <v>73</v>
       </c>
       <c r="B43" s="28" t="n"/>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="41" t="s"/>
+      <c r="D43" s="42" t="s"/>
       <c r="E43" s="22" t="n">
         <v>28</v>
       </c>
@@ -3273,8 +3270,8 @@
       <c r="G43" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="H43" s="52" t="n">
-        <v>3.9</v>
+      <c r="H43" s="23" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row outlineLevel="0" r="44">
@@ -3304,7 +3301,7 @@
         <v>43</v>
       </c>
       <c r="D45" s="23" t="n">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="E45" s="22" t="n">
         <v>29</v>
@@ -3313,19 +3310,19 @@
       <c r="G45" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="H45" s="52" t="n">
+      <c r="H45" s="54" t="n">
         <v>4.5</v>
       </c>
     </row>
     <row outlineLevel="0" r="46">
-      <c r="A46" s="42" t="s">
+      <c r="A46" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="B46" s="25" t="n"/>
-      <c r="C46" s="54" t="s">
+      <c r="B46" s="26" t="n"/>
+      <c r="C46" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="D46" s="55" t="s"/>
+      <c r="D46" s="56" t="s"/>
       <c r="E46" s="22" t="n">
         <v>30</v>
       </c>
@@ -3333,19 +3330,19 @@
       <c r="G46" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="H46" s="52" t="n">
+      <c r="H46" s="54" t="n">
         <v>5.65</v>
       </c>
     </row>
     <row outlineLevel="0" r="47">
-      <c r="A47" s="42" t="s">
+      <c r="A47" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="B47" s="25" t="n"/>
-      <c r="C47" s="54" t="s">
+      <c r="B47" s="26" t="n"/>
+      <c r="C47" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="D47" s="55" t="s"/>
+      <c r="D47" s="56" t="s"/>
       <c r="E47" s="22" t="n">
         <v>31</v>
       </c>
@@ -3353,32 +3350,32 @@
       <c r="G47" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="H47" s="52" t="n">
+      <c r="H47" s="54" t="n">
         <v>8.1</v>
       </c>
     </row>
     <row outlineLevel="0" r="48">
-      <c r="A48" s="42" t="s">
+      <c r="A48" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="B48" s="25" t="n"/>
-      <c r="C48" s="54" t="s">
+      <c r="B48" s="26" t="n"/>
+      <c r="C48" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="D48" s="55" t="s"/>
+      <c r="D48" s="56" t="s"/>
       <c r="E48" s="22" t="n"/>
       <c r="F48" s="28" t="n"/>
-      <c r="G48" s="25" t="s">
+      <c r="G48" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="H48" s="41" t="s"/>
+      <c r="H48" s="42" t="s"/>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="22" t="n">
         <v>28</v>
       </c>
       <c r="B49" s="28" t="n"/>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="26" t="s">
         <v>89</v>
       </c>
       <c r="D49" s="30" t="n">
@@ -3391,73 +3388,73 @@
       <c r="G49" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="H49" s="1" t="n"/>
+      <c r="H49" s="34" t="s"/>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="22" t="n">
         <v>29</v>
       </c>
       <c r="B50" s="28" t="n"/>
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="D50" s="41" t="s"/>
+      <c r="D50" s="42" t="s"/>
       <c r="E50" s="22" t="n">
         <v>33</v>
       </c>
       <c r="F50" s="28" t="n"/>
-      <c r="G50" s="25" t="s">
+      <c r="G50" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="H50" s="1" t="n"/>
+      <c r="H50" s="42" t="s"/>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="22" t="n"/>
       <c r="B51" s="28" t="n">
         <v>7</v>
       </c>
-      <c r="C51" s="47" t="s">
+      <c r="C51" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="D51" s="56" t="n"/>
+      <c r="D51" s="57" t="n"/>
       <c r="E51" s="22" t="n">
         <v>34</v>
       </c>
       <c r="F51" s="28" t="n"/>
-      <c r="G51" s="25" t="s">
+      <c r="G51" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="H51" s="1" t="n"/>
+      <c r="H51" s="42" t="s"/>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="22" t="n">
         <v>30</v>
       </c>
       <c r="B52" s="28" t="n"/>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="D52" s="56" t="n">
+      <c r="D52" s="57" t="n">
         <v>4.5</v>
       </c>
       <c r="E52" s="53" t="n"/>
       <c r="F52" s="21" t="n">
         <v>7</v>
       </c>
-      <c r="G52" s="49" t="s">
+      <c r="G52" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="H52" s="50" t="s"/>
+      <c r="H52" s="36" t="s"/>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="22" t="n">
         <v>31</v>
       </c>
       <c r="B53" s="28" t="n"/>
-      <c r="C53" s="25" t="s">
+      <c r="C53" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="D53" s="57" t="n">
+      <c r="D53" s="58" t="n">
         <v>0.01</v>
       </c>
       <c r="E53" s="22" t="n">
@@ -3467,7 +3464,7 @@
       <c r="G53" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="H53" s="52" t="n">
+      <c r="H53" s="54" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -3476,10 +3473,10 @@
         <v>32</v>
       </c>
       <c r="B54" s="28" t="n"/>
-      <c r="C54" s="58" t="s">
+      <c r="C54" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="D54" s="59" t="s"/>
+      <c r="D54" s="60" t="s"/>
       <c r="E54" s="22" t="n">
         <v>36</v>
       </c>
@@ -3487,7 +3484,7 @@
       <c r="G54" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="H54" s="52" t="n">
+      <c r="H54" s="54" t="n">
         <v>5.65</v>
       </c>
     </row>
@@ -3507,7 +3504,7 @@
       <c r="G55" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="H55" s="52" t="n">
+      <c r="H55" s="54" t="n">
         <v>8.1</v>
       </c>
     </row>
@@ -3525,7 +3522,7 @@
       <c r="G56" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H56" s="60" t="n">
+      <c r="H56" s="61" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -3538,16 +3535,16 @@
         <v>69</v>
       </c>
       <c r="D57" s="23" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="E57" s="22" t="n">
         <v>39</v>
       </c>
       <c r="F57" s="28" t="n"/>
-      <c r="G57" s="25" t="s">
+      <c r="G57" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="H57" s="1" t="n"/>
+      <c r="H57" s="42" t="s"/>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="22" t="n">
@@ -3558,7 +3555,7 @@
         <v>72</v>
       </c>
       <c r="D58" s="23" t="n">
-        <v>3.72</v>
+        <v>3.96</v>
       </c>
       <c r="E58" s="53" t="n"/>
       <c r="F58" s="21" t="n">
@@ -3567,7 +3564,7 @@
       <c r="G58" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="H58" s="1" t="n"/>
+      <c r="H58" s="36" t="s"/>
     </row>
     <row outlineLevel="0" r="59">
       <c r="A59" s="22" t="n">
@@ -3578,7 +3575,7 @@
         <v>75</v>
       </c>
       <c r="D59" s="23" t="n">
-        <v>4.68</v>
+        <v>4.92</v>
       </c>
       <c r="E59" s="22" t="n">
         <v>40</v>
@@ -3587,7 +3584,7 @@
       <c r="G59" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="H59" s="52" t="n">
+      <c r="H59" s="54" t="n">
         <v>15</v>
       </c>
     </row>
@@ -3605,7 +3602,7 @@
       <c r="G60" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="H60" s="52" t="n">
+      <c r="H60" s="54" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3627,7 +3624,7 @@
       <c r="G61" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="H61" s="52" t="n">
+      <c r="H61" s="54" t="n">
         <v>42.5</v>
       </c>
     </row>
@@ -3666,10 +3663,10 @@
         <v>43</v>
       </c>
       <c r="F63" s="28" t="n"/>
-      <c r="G63" s="25" t="s">
+      <c r="G63" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="H63" s="60" t="n">
+      <c r="H63" s="61" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -3682,28 +3679,28 @@
       <c r="D64" s="34" t="s"/>
       <c r="E64" s="53" t="n"/>
       <c r="F64" s="28" t="n"/>
-      <c r="G64" s="54" t="s">
+      <c r="G64" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="H64" s="1" t="n"/>
+      <c r="H64" s="56" t="s"/>
     </row>
     <row outlineLevel="0" r="65">
       <c r="A65" s="27" t="n">
         <v>39</v>
       </c>
       <c r="B65" s="28" t="n"/>
-      <c r="C65" s="45" t="s">
+      <c r="C65" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="D65" s="61" t="s"/>
+      <c r="D65" s="62" t="s"/>
       <c r="E65" s="22" t="n">
         <v>44</v>
       </c>
-      <c r="F65" s="25" t="n"/>
+      <c r="F65" s="26" t="n"/>
       <c r="G65" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="H65" s="62" t="n">
+      <c r="H65" s="63" t="n">
         <v>0.0233</v>
       </c>
     </row>
@@ -3719,31 +3716,31 @@
       <c r="E66" s="22" t="n">
         <v>45</v>
       </c>
-      <c r="F66" s="25" t="n"/>
+      <c r="F66" s="26" t="n"/>
       <c r="G66" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="H66" s="62" t="n">
+      <c r="H66" s="63" t="n">
         <v>0.0233</v>
       </c>
     </row>
     <row outlineLevel="0" r="67">
-      <c r="A67" s="63" t="n">
+      <c r="A67" s="64" t="n">
         <v>41</v>
       </c>
-      <c r="B67" s="64" t="n"/>
-      <c r="C67" s="65" t="s">
+      <c r="B67" s="65" t="n"/>
+      <c r="C67" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="D67" s="66" t="s"/>
+      <c r="D67" s="67" t="s"/>
       <c r="E67" s="27" t="n">
         <v>46</v>
       </c>
-      <c r="F67" s="25" t="n"/>
+      <c r="F67" s="26" t="n"/>
       <c r="G67" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="H67" s="67" t="n">
+      <c r="H67" s="68" t="n">
         <v>0.015</v>
       </c>
     </row>
@@ -3756,8 +3753,8 @@
         <v>96</v>
       </c>
       <c r="D68" s="36" t="s"/>
-      <c r="E68" s="68" t="n"/>
-      <c r="F68" s="25" t="n"/>
+      <c r="E68" s="69" t="n"/>
+      <c r="F68" s="26" t="n"/>
       <c r="G68" s="13" t="s">
         <v>113</v>
       </c>
@@ -3777,11 +3774,11 @@
       <c r="E69" s="27" t="n">
         <v>47</v>
       </c>
-      <c r="F69" s="25" t="n"/>
-      <c r="G69" s="54" t="s">
+      <c r="F69" s="26" t="n"/>
+      <c r="G69" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="H69" s="69" t="n">
+      <c r="H69" s="70" t="n">
         <v>0.0233</v>
       </c>
     </row>
@@ -3803,7 +3800,7 @@
       <c r="G70" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="H70" s="44" t="n">
+      <c r="H70" s="45" t="n">
         <v>0.015</v>
       </c>
     </row>
@@ -3821,11 +3818,11 @@
       <c r="E71" s="27" t="n">
         <v>49</v>
       </c>
-      <c r="F71" s="25" t="n"/>
-      <c r="G71" s="54" t="s">
+      <c r="F71" s="26" t="n"/>
+      <c r="G71" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="H71" s="44" t="n">
+      <c r="H71" s="45" t="n">
         <v>0.005</v>
       </c>
     </row>
@@ -3844,10 +3841,10 @@
         <v>50</v>
       </c>
       <c r="F72" s="28" t="n"/>
-      <c r="G72" s="25" t="s">
+      <c r="G72" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="H72" s="70" t="n">
+      <c r="H72" s="71" t="n">
         <v>0.009</v>
       </c>
     </row>
@@ -3881,11 +3878,11 @@
       <c r="E74" s="22" t="n">
         <v>51</v>
       </c>
-      <c r="F74" s="25" t="n"/>
+      <c r="F74" s="26" t="n"/>
       <c r="G74" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="H74" s="1" t="n"/>
+      <c r="H74" s="33" t="s"/>
     </row>
     <row outlineLevel="0" r="75">
       <c r="A75" s="27" t="n">
@@ -3895,7 +3892,7 @@
       <c r="C75" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="D75" s="71" t="n">
+      <c r="D75" s="72" t="n">
         <v>4</v>
       </c>
       <c r="E75" s="20" t="n"/>
@@ -3911,11 +3908,11 @@
       <c r="A76" s="27" t="n">
         <v>48</v>
       </c>
-      <c r="B76" s="25" t="n"/>
+      <c r="B76" s="26" t="n"/>
       <c r="C76" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="D76" s="72" t="n">
+      <c r="D76" s="73" t="n">
         <v>6.6</v>
       </c>
       <c r="E76" s="27" t="n">
@@ -3925,17 +3922,17 @@
       <c r="G76" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="H76" s="1" t="n"/>
+      <c r="H76" s="33" t="s"/>
     </row>
     <row outlineLevel="0" r="77">
       <c r="A77" s="27" t="n"/>
-      <c r="B77" s="47" t="n">
+      <c r="B77" s="48" t="n">
         <v>11</v>
       </c>
       <c r="C77" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="D77" s="73" t="s">
+      <c r="D77" s="74" t="s">
         <v>130</v>
       </c>
       <c r="E77" s="27" t="n">
@@ -3945,7 +3942,7 @@
       <c r="G77" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="H77" s="44" t="n">
+      <c r="H77" s="45" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -3953,7 +3950,7 @@
       <c r="A78" s="27" t="n">
         <v>49</v>
       </c>
-      <c r="B78" s="25" t="n"/>
+      <c r="B78" s="26" t="n"/>
       <c r="C78" s="13" t="s">
         <v>132</v>
       </c>
@@ -3962,20 +3959,20 @@
         <v>54</v>
       </c>
       <c r="F78" s="28" t="n"/>
-      <c r="G78" s="25" t="s">
+      <c r="G78" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="H78" s="41" t="s"/>
+      <c r="H78" s="42" t="s"/>
     </row>
     <row outlineLevel="0" r="79">
       <c r="A79" s="20" t="n">
         <v>50</v>
       </c>
       <c r="B79" s="21" t="n"/>
-      <c r="C79" s="74" t="s">
+      <c r="C79" s="75" t="s">
         <v>134</v>
       </c>
-      <c r="D79" s="75" t="s"/>
+      <c r="D79" s="76" t="s"/>
       <c r="E79" s="20" t="n"/>
       <c r="F79" s="21" t="n">
         <v>12</v>
@@ -4002,7 +3999,7 @@
         <v>136</v>
       </c>
       <c r="H80" s="23" t="n">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="I80" s="35" t="n"/>
     </row>
@@ -4014,7 +4011,7 @@
       <c r="C81" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D81" s="44" t="n">
+      <c r="D81" s="45" t="n">
         <v>0.03</v>
       </c>
       <c r="E81" s="22" t="n">
@@ -4025,7 +4022,7 @@
         <v>138</v>
       </c>
       <c r="H81" s="23" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="I81" s="35" t="n"/>
     </row>
@@ -4033,11 +4030,11 @@
       <c r="A82" s="27" t="n">
         <v>52</v>
       </c>
-      <c r="B82" s="25" t="n"/>
-      <c r="C82" s="76" t="s">
+      <c r="B82" s="26" t="n"/>
+      <c r="C82" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="D82" s="77" t="s"/>
+      <c r="D82" s="78" t="s"/>
       <c r="E82" s="22" t="n">
         <v>57</v>
       </c>
@@ -4054,11 +4051,11 @@
       <c r="A83" s="27" t="n">
         <v>53</v>
       </c>
-      <c r="B83" s="25" t="n"/>
+      <c r="B83" s="26" t="n"/>
       <c r="C83" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="D83" s="44" t="n">
+      <c r="D83" s="45" t="n">
         <v>0.015</v>
       </c>
       <c r="E83" s="20" t="n"/>
@@ -4075,7 +4072,7 @@
       <c r="A84" s="27" t="n">
         <v>54</v>
       </c>
-      <c r="B84" s="25" t="n"/>
+      <c r="B84" s="26" t="n"/>
       <c r="C84" s="13" t="s">
         <v>143</v>
       </c>
@@ -4086,10 +4083,10 @@
         <v>58</v>
       </c>
       <c r="F84" s="28" t="n"/>
-      <c r="G84" s="32" t="s">
+      <c r="G84" s="79" t="s">
         <v>144</v>
       </c>
-      <c r="H84" s="1" t="n"/>
+      <c r="H84" s="80" t="s"/>
       <c r="I84" s="24" t="n"/>
     </row>
     <row outlineLevel="0" r="85">
@@ -4105,17 +4102,17 @@
         <v>59</v>
       </c>
       <c r="F85" s="17" t="n"/>
-      <c r="G85" s="54" t="s">
+      <c r="G85" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="H85" s="1" t="n"/>
+      <c r="H85" s="82" t="s"/>
       <c r="I85" s="24" t="n"/>
     </row>
     <row outlineLevel="0" r="86">
       <c r="A86" s="27" t="n">
         <v>55</v>
       </c>
-      <c r="B86" s="25" t="n"/>
+      <c r="B86" s="26" t="n"/>
       <c r="C86" s="13" t="s">
         <v>146</v>
       </c>
@@ -4124,10 +4121,10 @@
         <v>60</v>
       </c>
       <c r="F86" s="28" t="n"/>
-      <c r="G86" s="54" t="s">
+      <c r="G86" s="81" t="s">
         <v>147</v>
       </c>
-      <c r="H86" s="1" t="n"/>
+      <c r="H86" s="82" t="s"/>
       <c r="I86" s="24" t="n"/>
     </row>
     <row outlineLevel="0" r="87">
@@ -4157,7 +4154,7 @@
         <v>136</v>
       </c>
       <c r="D88" s="23" t="n">
-        <v>0.78</v>
+        <v>0.84</v>
       </c>
       <c r="E88" s="27" t="n">
         <v>61</v>
@@ -4176,13 +4173,13 @@
       <c r="C89" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="D89" s="78" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="E89" s="79" t="n"/>
-      <c r="F89" s="80" t="n"/>
-      <c r="G89" s="81" t="n"/>
-      <c r="H89" s="82" t="s"/>
+      <c r="D89" s="83" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="E89" s="84" t="n"/>
+      <c r="F89" s="85" t="n"/>
+      <c r="G89" s="86" t="n"/>
+      <c r="H89" s="87" t="s"/>
     </row>
     <row outlineLevel="0" r="90">
       <c r="A90" s="22" t="n">
@@ -4192,13 +4189,13 @@
       <c r="C90" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="D90" s="78" t="n">
+      <c r="D90" s="83" t="n">
         <v>0.54</v>
       </c>
-      <c r="E90" s="83" t="n"/>
-      <c r="F90" s="84" t="n"/>
-      <c r="G90" s="85" t="n"/>
-      <c r="H90" s="86" t="s"/>
+      <c r="E90" s="88" t="n"/>
+      <c r="F90" s="7" t="n"/>
+      <c r="G90" s="89" t="n"/>
+      <c r="H90" s="89" t="s"/>
     </row>
     <row outlineLevel="0" r="91">
       <c r="A91" s="17" t="n"/>
@@ -4208,24 +4205,24 @@
       <c r="C91" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="D91" s="87" t="n"/>
-      <c r="E91" s="88" t="n"/>
-      <c r="F91" s="89" t="n"/>
-      <c r="G91" s="90" t="n"/>
-      <c r="H91" s="91" t="s"/>
+      <c r="D91" s="90" t="n"/>
+      <c r="E91" s="5" t="n"/>
+      <c r="F91" s="91" t="n"/>
+      <c r="G91" s="92" t="n"/>
+      <c r="H91" s="92" t="s"/>
     </row>
     <row outlineLevel="0" r="92">
       <c r="A92" s="22" t="n">
         <v>59</v>
       </c>
-      <c r="B92" s="25" t="n"/>
+      <c r="B92" s="26" t="n"/>
       <c r="C92" s="13" t="s">
         <v>149</v>
       </c>
       <c r="D92" s="34" t="s"/>
-      <c r="E92" s="92" t="n"/>
-      <c r="F92" s="84" t="n"/>
-      <c r="G92" s="93" t="n"/>
+      <c r="E92" s="93" t="n"/>
+      <c r="F92" s="7" t="n"/>
+      <c r="G92" s="94" t="n"/>
       <c r="H92" s="94" t="s"/>
     </row>
     <row outlineLevel="0" r="93">
@@ -4297,8 +4294,9 @@
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G39:H39"/>
     <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G44:H44"/>
     <mergeCell ref="G92:H92"/>
     <mergeCell ref="G91:H91"/>
     <mergeCell ref="G90:H90"/>
@@ -4334,16 +4332,15 @@
     <mergeCell ref="C86:D86"/>
     <mergeCell ref="C85:D85"/>
     <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G74:H74"/>
     <mergeCell ref="G68:H68"/>
     <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G74:H74"/>
     <mergeCell ref="G57:H57"/>
     <mergeCell ref="G52:H52"/>
     <mergeCell ref="G51:H51"/>
     <mergeCell ref="G50:H50"/>
     <mergeCell ref="G49:H49"/>
     <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G44:H44"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.300000011920929" header="0.300000011920929" left="0.700000047683716" right="0.700000047683716" top="0.75"/>
 </worksheet>

--- a/calc/files/letter2.xlsx
+++ b/calc/files/letter2.xlsx
@@ -700,9 +700,10 @@
       <rPr>
         <rFont val="Arial"/>
         <b val="true"/>
-        <sz val="11"/>
-      </rPr>
-      <t>Услуга "Оплаченная пересылка" (без учета стоимости упаковки)</t>
+        <color rgb="000000" tint="0"/>
+        <sz val="11"/>
+      </rPr>
+      <t>Пересылка посылки QR</t>
     </r>
   </si>
   <si>
@@ -718,10 +719,10 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <b val="true"/>
-        <sz val="11"/>
-      </rPr>
-      <t>пересылка заказного мелкого пакета ( в т.ч. принятого посредством почтомата)</t>
+        <color rgb="000000" tint="0"/>
+        <sz val="11"/>
+      </rPr>
+      <t>плата за отправление</t>
     </r>
   </si>
   <si>
@@ -746,9 +747,10 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <sz val="11"/>
-      </rPr>
-      <t>Размер S (229х324)</t>
+        <color rgb="000000" tint="0"/>
+        <sz val="11"/>
+      </rPr>
+      <t>плата за объявленную ценность, % от суммы объявленной ценности, но не менее 0,50 руб</t>
     </r>
   </si>
   <si>
@@ -773,22 +775,10 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <sz val="11"/>
-      </rPr>
-      <t>Размер M (280х380)</t>
-    </r>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="000000" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t>За пересылку посылки массой свыше 5 кг до 50 кг взимается плата за отправление и за массу</t>
+        <color rgb="000000" tint="0"/>
+        <sz val="11"/>
+      </rPr>
+      <t>За  досылку и  (или)  возвращение  посылок  без  объявленной  ценности  и  с  объявленной  ценностью</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -800,135 +790,20 @@
         <color rgb="000000" tint="0"/>
         <sz val="11"/>
       </rPr>
-      <t>посылки</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="11"/>
-      </rPr>
-      <t>Размер L (320х355)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="11"/>
-      </rPr>
-      <t>24.1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <sz val="11"/>
-      </rPr>
-      <t>пересылка посылки (в т.ч. принятой посредством почтомата)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="11"/>
-      </rPr>
-      <t>24.2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="11"/>
-      </rPr>
-      <t>Размер S (270х175х60)</t>
-    </r>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="11"/>
-      </rPr>
-      <t>Тарификация  за  массу  посылки  массой  свыше  5  кг  без  объявленной  ценности  осуществляется  с точностью до сотен граммов. Любое количество граммов округляется до сотни граммов в большую сторону</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="11"/>
-      </rPr>
-      <t>Размер M (320х220х110)</t>
-    </r>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="11"/>
-      </rPr>
-      <t>Тарификация  за  массу  посылки  массой  свыше  5  кг  с  объявленной  ценностью  осуществляется  с точностью  до  десятков  граммов.  Любое  количество  граммов  округляется  до  десятков  граммов  в большую сторону</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="11"/>
-      </rPr>
-      <t>Размер L (400х250х200)</t>
-    </r>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="11"/>
-      </rPr>
-      <t>За хрупкие посылки с отметкой "Хрупкое и громоздкие взимается надбавка к плате за пересылку посылки   в   размере   50%.   Если   посылка   является   одновременно   хрупкой   и   громоздкой,   то дополнительная плата взимается только один раз</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="000000" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t xml:space="preserve">Тариф на услугу "Оплаченная пересылка" установлен без учета стоимости упаковки (пластиковый </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="000000" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t>конверт, коробка)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="000000" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t>плата за объявленную ценность, % от суммы объявленной ценности,</t>
+      <t>взимается плата за пересылку посылки  (поз.26)</t>
+    </r>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="000000" tint="0"/>
+        <sz val="11"/>
+      </rPr>
+      <t>За пересылку посылки массой свыше 5 кг до 50 кг взимается плата за отправление и за массу</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -940,26 +815,129 @@
         <color rgb="000000" tint="0"/>
         <sz val="11"/>
       </rPr>
-      <t>но не менее 0,50 руб.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="11"/>
-      </rPr>
-      <t>За возвращение заказных мелких пакетов в оплаченной упаковке плата не взимается</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="000000" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t>За  досылку и  (или)  возвращение  посылок  без  объявленной  ценности  и  с  объявленной  ценностью</t>
+      <t>посылки</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <sz val="11"/>
+      </rPr>
+      <t>Услуга "Оплаченная пересылка" (без учета стоимости упаковки)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="11"/>
+      </rPr>
+      <t>24.1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <sz val="11"/>
+      </rPr>
+      <t>пересылка заказного мелкого пакета ( в т.ч. принятого посредством почтомата)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="11"/>
+      </rPr>
+      <t>24.2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="11"/>
+      </rPr>
+      <t>Размер S (229х324)</t>
+    </r>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="11"/>
+      </rPr>
+      <t>Тарификация  за  массу  посылки  массой  свыше  5  кг  без  объявленной  ценности  осуществляется  с точностью до сотен граммов. Любое количество граммов округляется до сотни граммов в большую сторону</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="11"/>
+      </rPr>
+      <t>Размер M (280х380)</t>
+    </r>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="11"/>
+      </rPr>
+      <t>Тарификация  за  массу  посылки  массой  свыше  5  кг  с  объявленной  ценностью  осуществляется  с точностью  до  десятков  граммов.  Любое  количество  граммов  округляется  до  десятков  граммов  в большую сторону</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="11"/>
+      </rPr>
+      <t>Размер L (320х355)</t>
+    </r>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="11"/>
+      </rPr>
+      <t>За хрупкие посылки с отметкой "Хрупкое и громоздкие взимается надбавка к плате за пересылку посылки   в   размере   50%.   Если   посылка   является   одновременно   хрупкой   и   громоздкой,   то дополнительная плата взимается только один раз</t>
+    </r>
+  </si>
+  <si/>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <sz val="11"/>
+      </rPr>
+      <t>пересылка посылки (в т.ч. принятой посредством почтомата)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="000000" tint="0"/>
+        <sz val="11"/>
+      </rPr>
+      <t>плата за объявленную ценность, % от суммы объявленной ценности,</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -971,17 +949,26 @@
         <color rgb="000000" tint="0"/>
         <sz val="11"/>
       </rPr>
-      <t>взимается плата за пересылку посылки  (поз.23-24)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="000000" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t>За  досылку  заказных  мелких  пакетов  в  оплаченной  упаковке  по  письменному  распоряжению  взимается</t>
+      <t>но не менее 0,50 руб.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="11"/>
+      </rPr>
+      <t>Размер S (270х175х60)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="000000" tint="0"/>
+        <sz val="11"/>
+      </rPr>
+      <t>За  досылку и  (или)  возвращение  посылок  без  объявленной  ценности  и  с  объявленной  ценностью</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -993,75 +980,52 @@
         <color rgb="000000" tint="0"/>
         <sz val="11"/>
       </rPr>
-      <t>плата за пересылку заказного мелкого пакета (поз. 26, 27, 28)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <color rgb="000000" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t>Пересылка посылки QR</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="000000" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t xml:space="preserve">За досылку и (или) возвращение посылок в оплаченной упаковке взимается плата за пересылку посылки </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="000000" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t>(поз. 31,32,33)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="000000" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t>плата за отправление</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <sz val="11"/>
-      </rPr>
-      <t>Пересылка посылки, принятой посредством почтомата</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="000000" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t>плата за объявленную ценность, % от суммы объявленной ценности, но не менее 0,50 руб</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="11"/>
-      </rPr>
-      <t>Размер ячейки S  (119,4x400x500)</t>
+      <t>взимается плата за пересылку посылки  (поз.23-24)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="11"/>
+      </rPr>
+      <t>Размер M (320х220х110)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="11"/>
+      </rPr>
+      <t>Размер L (400х250х200)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="000000" tint="0"/>
+        <sz val="11"/>
+      </rPr>
+      <t xml:space="preserve">Тариф на услугу "Оплаченная пересылка" установлен без учета стоимости упаковки (пластиковый </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="000000" tint="0"/>
+        <sz val="11"/>
+      </rPr>
+      <t>конверт, коробка)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="11"/>
+      </rPr>
+      <t>За возвращение заказных мелких пакетов в оплаченной упаковке плата не взимается</t>
     </r>
   </si>
   <si>
@@ -1090,102 +1054,10 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <sz val="11"/>
-      </rPr>
-      <t>Размер ячейки M  (245,4x400x500)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="11"/>
-      </rPr>
-      <t>Размер ячейки L (379x400x500)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="000000" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t xml:space="preserve">За   досылку   и   (или)   возвращение   посылок,   принятых   посредством   почтомата,   взимается   плата   за </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="000000" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t>пересылку посылки  (согласно поз. 35, 36, 37)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <sz val="11"/>
-      </rPr>
-      <t>Услуга по доступу и управлению ячейкой почтомата, в месяц</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <sz val="11"/>
-      </rPr>
-      <t>Пересылка почтового денежного перевода</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="000000" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t xml:space="preserve">Плата  за  пересылку  почтового  денежного  перевода  с  выплатой  в  ОПС,  %  от </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="000000" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t>суммы перевода, но не менее 1,00 руб.**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="11"/>
-      </rPr>
-      <t>Тариф на услугу "Оплаченная пересылка" установлен без учета стоимости упаковки (пластиковый конверт, коробка)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="11"/>
-      </rPr>
-      <t>**При  пересылке  почтового  денежного  перевода  суммой  свыше  150,00  руб.  предоставляются  скидки согласно действующему Положению о порядке применения скидок</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="000000" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t>Плата  за  пересылку,  доставку  и  выплату  почтового  денежного  перевода  с пенсиями   и   другими   социальными   выплатами   (выплатами   на   погребение, единовременной материальной помощью), % от суммы перевода, но не менее</t>
+        <color rgb="000000" tint="0"/>
+        <sz val="11"/>
+      </rPr>
+      <t>За  досылку  заказных  мелких  пакетов  в  оплаченной  упаковке  по  письменному  распоряжению  взимается</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -1197,7 +1069,99 @@
         <color rgb="000000" tint="0"/>
         <sz val="11"/>
       </rPr>
-      <t>минимальной денежной единицы</t>
+      <t>плата за пересылку заказного мелкого пакета (поз. 26, 27, 28)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="000000" tint="0"/>
+        <sz val="11"/>
+      </rPr>
+      <t xml:space="preserve">За досылку и (или) возвращение посылок в оплаченной упаковке взимается плата за пересылку посылки </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="000000" tint="0"/>
+        <sz val="11"/>
+      </rPr>
+      <t>(поз. 31,32,33)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <sz val="11"/>
+      </rPr>
+      <t>Пересылка посылки, принятой посредством почтомата</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="11"/>
+      </rPr>
+      <t>Размер ячейки S  (119,4x400x500)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="11"/>
+      </rPr>
+      <t>Размер ячейки M  (245,4x400x500)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="11"/>
+      </rPr>
+      <t>Размер ячейки L (379x400x500)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="000000" tint="0"/>
+        <sz val="11"/>
+      </rPr>
+      <t xml:space="preserve">За   досылку   и   (или)   возвращение   посылок,   принятых   посредством   почтомата,   взимается   плата   за </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="000000" tint="0"/>
+        <sz val="11"/>
+      </rPr>
+      <t>пересылку посылки  (согласно поз. 35, 36, 37)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <sz val="11"/>
+      </rPr>
+      <t>Услуга по доступу и управлению ячейкой почтомата, в месяц</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="11"/>
+      </rPr>
+      <t>Тариф на услугу "Оплаченная пересылка" установлен без учета стоимости упаковки (пластиковый конверт, коробка)</t>
     </r>
   </si>
   <si>
@@ -1213,18 +1177,10 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="000000" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t xml:space="preserve">Плата  за  пересылку,  доставку  и  выплату  почтового  денежного  перевода  с вознаграждением     за     проведение     социальных     мероприятий     (перепись населения,  обследование  домашних  хозяйств),  %  от  суммы  перевода,   но  не </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="000000" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t>менее 0,20 руб.</t>
+        <b val="true"/>
+        <sz val="11"/>
+      </rPr>
+      <t>Пересылка почтового денежного перевода</t>
     </r>
   </si>
   <si>
@@ -1240,18 +1196,27 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <sz val="11"/>
-      </rPr>
-      <t>Плата  за  пересылку  почтового  денежного  перевода  с  выплатой  за  сданную сельскохозяйственную  продукцию,  %  от  суммы  перевода,  но  не  менее  0,20 руб. ***</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="11"/>
-      </rPr>
-      <t>***   При   пересылке    почтового   денежного   перевода  с   выплатами  за   сданную   сельскохозяйственную продукцию  суммой  свыше  20,00  рублей  предоставляются  скидки   согласно  действующему  Положению  о порядке применения скидок</t>
+        <color rgb="000000" tint="0"/>
+        <sz val="11"/>
+      </rPr>
+      <t xml:space="preserve">Плата  за  пересылку  почтового  денежного  перевода  с  выплатой  в  ОПС,  %  от </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="000000" tint="0"/>
+        <sz val="11"/>
+      </rPr>
+      <t>суммы перевода, но не менее 1,00 руб.**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="11"/>
+      </rPr>
+      <t>**При  пересылке  почтового  денежного  перевода  суммой  свыше  150,00  руб.  предоставляются  скидки согласно действующему Положению о порядке применения скидок</t>
     </r>
   </si>
   <si>
@@ -1267,28 +1232,10 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <sz val="11"/>
-      </rPr>
-      <t>Плата  за  пересылку  и  выплату  почтового  денежного  перевода,  принятого  от учреждений   уголовно   исполнительной   системы   (исправительные   колонии, исправительные  колонии-поселения,  воспитательные  колонии,  следственные изоляторы,    тюрьмы    и    лечебно-трудовые    профилактории)    Министерства внутренних    дел    Республики    Беларусь    (выплаты     по    исполнительным документам),  %  от  суммы  перевода,  но  не  менее  минимальной  денежной единицы</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="11"/>
-      </rPr>
-      <t>Размер ячейки M</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="000000" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t>Плата  за  пересылку  и  выплату  (доставку)  почтового  денежного  перевода  с суммами страхового обеспечения (возмещения), % от суммы перевода, но не</t>
+        <color rgb="000000" tint="0"/>
+        <sz val="11"/>
+      </rPr>
+      <t>Плата  за  пересылку,  доставку  и  выплату  почтового  денежного  перевода  с пенсиями   и   другими   социальными   выплатами   (выплатами   на   погребение, единовременной материальной помощью), % от суммы перевода, но не менее</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -1300,7 +1247,34 @@
         <color rgb="000000" tint="0"/>
         <sz val="11"/>
       </rPr>
-      <t>менее минимальной денежной единицы</t>
+      <t>минимальной денежной единицы</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="11"/>
+      </rPr>
+      <t>Размер ячейки M</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="000000" tint="0"/>
+        <sz val="11"/>
+      </rPr>
+      <t xml:space="preserve">Плата  за  пересылку,  доставку  и  выплату  почтового  денежного  перевода  с вознаграждением     за     проведение     социальных     мероприятий     (перепись населения,  обследование  домашних  хозяйств),  %  от  суммы  перевода,   но  не </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="000000" tint="0"/>
+        <sz val="11"/>
+      </rPr>
+      <t>менее 0,20 руб.</t>
     </r>
   </si>
   <si>
@@ -1318,25 +1292,16 @@
         <rFont val="Arial"/>
         <sz val="11"/>
       </rPr>
-      <t>Плата   за  пересылку  и  выплату  почтового  денежного  перевода  в  объекте почтовой   связи   в   рамках   многостороннего   сотрудничества   с   Белорусским Красным    Крестом    и    Представительством    Детского    фонда    Организации Объединенных  Наций  в  Республике  Беларусь  (ЮНИСЕФ  в  Беларуси),  %  от суммы денежного перевода, но не менее минимальной денежной единицы</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="000000" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t xml:space="preserve">Письменное  сообщение  в  электронном  денежном  переводе  оплачивается  за </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="000000" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t>каждое слово при пересылке электронным сообщением</t>
+      <t>Плата  за  пересылку  почтового  денежного  перевода  с  выплатой  за  сданную сельскохозяйственную  продукцию,  %  от  суммы  перевода,  но  не  менее  0,20 руб. ***</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="11"/>
+      </rPr>
+      <t>***   При   пересылке    почтового   денежного   перевода  с   выплатами  за   сданную   сельскохозяйственную продукцию  суммой  свыше  20,00  рублей  предоставляются  скидки   согласно  действующему  Положению  о порядке применения скидок</t>
     </r>
   </si>
   <si>
@@ -1352,19 +1317,18 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <sz val="11"/>
+      </rPr>
+      <t>Плата  за  пересылку  и  выплату  почтового  денежного  перевода,  принятого  от учреждений   уголовно   исполнительной   системы   (исправительные   колонии, исправительные  колонии-поселения,  воспитательные  колонии,  следственные изоляторы,    тюрьмы    и    лечебно-трудовые    профилактории)    Министерства внутренних    дел    Республики    Беларусь    (выплаты     по    исполнительным документам),  %  от  суммы  перевода,  но  не  менее  минимальной  денежной единицы</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
         <b val="true"/>
         <sz val="11"/>
       </rPr>
-      <t>Примечание:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <sz val="11"/>
-      </rPr>
       <t>Пересылка посылки "По пути" по Республике Беларусь, за 1 отправление</t>
     </r>
   </si>
@@ -1375,91 +1339,7 @@
         <color rgb="000000" tint="0"/>
         <sz val="11"/>
       </rPr>
-      <t xml:space="preserve">Почтовые  денежные  переводы,  принятые  от  юридических  лиц,  но  с  оплатой  их  пересылки  за  счет физических   лиц   (переводы   с   алиментами,   по   исполнительным   листам),   считаются   переводами, отправляемыми   физическими   лицами.   Оплата   их   производится   по   тарифам,   установленным   для </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="000000" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t>физических лиц, без взимания налога на добавленную стоимость</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="11"/>
-      </rPr>
-      <t xml:space="preserve">   - с документами (конверт)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <sz val="11"/>
-      </rPr>
-      <t>Пересылка почтового денежного перевода наложенного платежа</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="11"/>
-      </rPr>
-      <t xml:space="preserve">   - с товарным вложением</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="000000" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t xml:space="preserve">За пересылку почтового денежного  перевода наложенного платежа плата взимается  объектом  почтовой связи,   осуществляющим   выдачу   почтового   отправления,   в   соответствии   с   тарифами   на   пересылку </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="000000" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t>почтового денежного перевода</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <sz val="11"/>
-      </rPr>
-      <t>Пересылка посылки "По пути" в пределах филиала (одной области)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="000000" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t>утверждается филиалом самостоятельно</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="000000" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t>Плата  за  пересылку  почтового  денежного  перевода  наложенного  платежа  с оплатой отправителем платы за пересылку внутренней ускоренной почты, % от</t>
+      <t>Плата  за  пересылку  и  выплату  (доставку)  почтового  денежного  перевода  с суммами страхового обеспечения (возмещения), % от суммы перевода, но не</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -1471,6 +1351,177 @@
         <color rgb="000000" tint="0"/>
         <sz val="11"/>
       </rPr>
+      <t>менее минимальной денежной единицы</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="11"/>
+      </rPr>
+      <t xml:space="preserve">   - с документами (конверт)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="11"/>
+      </rPr>
+      <t>Плата   за  пересылку  и  выплату  почтового  денежного  перевода  в  объекте почтовой   связи   в   рамках   многостороннего   сотрудничества   с   Белорусским Красным    Крестом    и    Представительством    Детского    фонда    Организации Объединенных  Наций  в  Республике  Беларусь  (ЮНИСЕФ  в  Беларуси),  %  от суммы денежного перевода, но не менее минимальной денежной единицы</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="11"/>
+      </rPr>
+      <t xml:space="preserve">   - с товарным вложением</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="000000" tint="0"/>
+        <sz val="11"/>
+      </rPr>
+      <t xml:space="preserve">Письменное  сообщение  в  электронном  денежном  переводе  оплачивается  за </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="000000" tint="0"/>
+        <sz val="11"/>
+      </rPr>
+      <t>каждое слово при пересылке электронным сообщением</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <sz val="11"/>
+      </rPr>
+      <t>Пересылка посылки "По пути" в пределах филиала (одной области)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="000000" tint="0"/>
+        <sz val="11"/>
+      </rPr>
+      <t>утверждается филиалом самостоятельно</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <sz val="11"/>
+      </rPr>
+      <t>Примечание:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="11"/>
+      </rPr>
+      <t>За возвращение посылки "По пути" с отправителя дополнительно взимается плата за пересылку посылки "По пути" согласно действующим тарифам</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="000000" tint="0"/>
+        <sz val="11"/>
+      </rPr>
+      <t xml:space="preserve">Почтовые  денежные  переводы,  принятые  от  юридических  лиц,  но  с  оплатой  их  пересылки  за  счет физических   лиц   (переводы   с   алиментами,   по   исполнительным   листам),   считаются   переводами, отправляемыми   физическими   лицами.   Оплата   их   производится   по   тарифам,   установленным   для </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="000000" tint="0"/>
+        <sz val="11"/>
+      </rPr>
+      <t>физических лиц, без взимания налога на добавленную стоимость</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="false"/>
+        <sz val="11"/>
+      </rPr>
+      <t>По заявке получателя доставка посылки "По пути" может осуществляться на дом по тарифам на услугу "Почтовый курьер"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <sz val="11"/>
+      </rPr>
+      <t>Пересылка почтового денежного перевода наложенного платежа</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="000000" tint="0"/>
+        <sz val="11"/>
+      </rPr>
+      <t xml:space="preserve">За пересылку почтового денежного  перевода наложенного платежа плата взимается  объектом  почтовой связи,   осуществляющим   выдачу   почтового   отправления,   в   соответствии   с   тарифами   на   пересылку </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="000000" tint="0"/>
+        <sz val="11"/>
+      </rPr>
+      <t>почтового денежного перевода</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="11"/>
+      </rPr>
+      <t>Плата  за  пересылку  почтового  денежного  перевода  с  выплатой  в ОПС, % от суммы перевода, но не менее 1,00 руб.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="000000" tint="0"/>
+        <sz val="11"/>
+      </rPr>
+      <t>Плата  за  пересылку  почтового  денежного  перевода  наложенного  платежа  с оплатой отправителем платы за пересылку внутренней ускоренной почты, % от</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="000000" tint="0"/>
+        <sz val="11"/>
+      </rPr>
       <t>суммы перевода, но не менее 1,00 руб.****</t>
     </r>
   </si>
@@ -1480,7 +1531,7 @@
         <rFont val="Arial"/>
         <sz val="11"/>
       </rPr>
-      <t>За возвращение посылки "По пути" с отправителя дополнительно взимается плата за пересылку посылки "По пути" согласно действующим тарифам</t>
+      <t>*При  пересылке  почтового  денежного  перевода  суммой  свыше  150,00  рублей  предоставляются скидки согласно действующему Положению о порядке применения скидок</t>
     </r>
   </si>
   <si>
@@ -1505,10 +1556,9 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <b val="false"/>
-        <sz val="11"/>
-      </rPr>
-      <t>По заявке получателя доставка посылки "По пути" может осуществляться на дом по тарифам на услугу "Почтовый курьер"</t>
+        <sz val="11"/>
+      </rPr>
+      <t>При  приеме  почтового  денежного  перевода   с  использованием  БПК нерезидентов Республики Беларусь взимается дополнительная плата в размере, % от суммы перевода</t>
     </r>
   </si>
   <si>
@@ -1527,6 +1577,15 @@
         <rFont val="Arial"/>
         <sz val="11"/>
       </rPr>
+      <t>Письменное     сообщение     в     электронном     денежном     переводе оплачивается    за    каждое    слово    при    пересылке    электронным сообщением</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="11"/>
+      </rPr>
       <t>простого</t>
     </r>
   </si>
@@ -1536,15 +1595,6 @@
         <rFont val="Arial"/>
         <sz val="11"/>
       </rPr>
-      <t>Плата  за  пересылку  почтового  денежного  перевода  с  выплатой  в ОПС, % от суммы перевода, но не менее 1,00 руб.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="11"/>
-      </rPr>
       <t>заказного</t>
     </r>
   </si>
@@ -1554,7 +1604,7 @@
         <rFont val="Arial"/>
         <sz val="11"/>
       </rPr>
-      <t>*При  пересылке  почтового  денежного  перевода  суммой  свыше  150,00  рублей  предоставляются скидки согласно действующему Положению о порядке применения скидок</t>
+      <t>За  пересылку  почтового  денежного  перевода  наложенного  платежа  плата  взимается  объектом почтовой  связи,  осуществляющим  выдачу  почтового  отправления,  в  соответствии  с  тарифами  на пересылку почтового денежного перевода</t>
     </r>
   </si>
   <si>
@@ -1570,15 +1620,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <sz val="11"/>
-      </rPr>
-      <t>При  приеме  почтового  денежного  перевода   с  использованием  БПК нерезидентов Республики Беларусь взимается дополнительная плата в размере, % от суммы перевода</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
         <b val="true"/>
         <sz val="11"/>
       </rPr>
@@ -1589,15 +1630,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <sz val="11"/>
-      </rPr>
-      <t>Письменное     сообщение     в     электронном     денежном     переводе оплачивается    за    каждое    слово    при    пересылке    электронным сообщением</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
         <color rgb="000000" tint="0"/>
         <sz val="11"/>
       </rPr>
@@ -1627,15 +1659,6 @@
         <rFont val="Arial"/>
         <sz val="11"/>
       </rPr>
-      <t>За  пересылку  почтового  денежного  перевода  наложенного  платежа  плата  взимается  объектом почтовой  связи,  осуществляющим  выдачу  почтового  отправления,  в  соответствии  с  тарифами  на пересылку почтового денежного перевода</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="11"/>
-      </rPr>
       <t>Тарифы применяются при наличии договора с юридическим лицом (индивидуальным предпринимателем)</t>
     </r>
   </si>
@@ -1643,6 +1666,15 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <sz val="11"/>
+      </rPr>
+      <t>Тарифы  на  услуги,  оказываемые  физическим  лицам  (кроме  индивидуальных  предпринимателей), установлены   с   налогом   на   добавленную   стоимость   в   соответствии   с    законодательством Республики  Беларусь,  за  исключением  услуг  по  пересылке  посылок  и (или)  почтовых  денежных переводов, принятых от физических лиц (п.1.22 ст.118 НК РБ)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
         <color rgb="000000" tint="0"/>
         <sz val="11"/>
       </rPr>
@@ -1655,15 +1687,6 @@
         <sz val="11"/>
       </rPr>
       <t>Республики Беларусь</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="11"/>
-      </rPr>
-      <t>Тарифы  на  услуги,  оказываемые  физическим  лицам  (кроме  индивидуальных  предпринимателей), установлены   с   налогом   на   добавленную   стоимость   в   соответствии   с    законодательством Республики  Беларусь,  за  исключением  услуг  по  пересылке  посылок  и (или)  почтовых  денежных переводов, принятых от физических лиц (п.1.22 ст.118 НК РБ)</t>
     </r>
   </si>
 </sst>
@@ -1672,21 +1695,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
   <numFmts>
-    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1000"/>
-    <numFmt co:extendedFormatCode="0.00;-0.00" formatCode="0.00;-0.00" numFmtId="1001"/>
-    <numFmt co:extendedFormatCode="0" formatCode="0" numFmtId="1002"/>
-    <numFmt co:extendedFormatCode="0.00" formatCode="0.00" numFmtId="1003"/>
     <numFmt co:extendedFormatCode="0.0%" formatCode="0.0%" numFmtId="1004"/>
     <numFmt co:extendedFormatCode="0.000" formatCode="0.000" numFmtId="1005"/>
+    <numFmt co:extendedFormatCode="0.00" formatCode="0.00" numFmtId="1003"/>
+    <numFmt co:extendedFormatCode="0.0000" formatCode="0.0000" numFmtId="1007"/>
+    <numFmt co:extendedFormatCode="0.00;-0.00" formatCode="0.00;-0.00" numFmtId="1001"/>
     <numFmt co:extendedFormatCode="@" formatCode="@" numFmtId="1006"/>
-    <numFmt co:extendedFormatCode="0.0000" formatCode="0.0000" numFmtId="1007"/>
+    <numFmt co:extendedFormatCode="0" formatCode="0" numFmtId="1002"/>
+    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1000"/>
+    <numFmt co:extendedFormatCode="0.00%" formatCode="0.00%" numFmtId="1009"/>
     <numFmt co:extendedFormatCode="0.00000;-0.00000" formatCode="0.00000;-0.00000" numFmtId="1008"/>
-    <numFmt co:extendedFormatCode="0.00%" formatCode="0.00%" numFmtId="1009"/>
+    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1010"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <name val="Calibri"/>
-      <color rgb="000000" tint="0"/>
       <sz val="11"/>
     </font>
     <font>
@@ -1726,8 +1749,20 @@
       <sz val="11"/>
     </font>
     <font>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12"/>
+    </font>
+    <font>
       <name val="Arial"/>
       <b val="false"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="000000" tint="0"/>
       <sz val="11"/>
     </font>
   </fonts>
@@ -1744,7 +1779,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="68">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -1786,22 +1821,470 @@
       </bottom>
     </border>
     <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="000000" tint="0"/>
       </left>
-      <top style="thin">
-        <color rgb="000000" tint="0"/>
-      </top>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="000000" tint="0"/>
-      </top>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
         <color rgb="000000" tint="0"/>
       </left>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="000000" tint="0"/>
+      </left>
       <right style="thin">
         <color rgb="000000" tint="0"/>
       </right>
@@ -1818,6 +2301,126 @@
         <color rgb="000000" tint="0"/>
       </top>
       <bottom style="none"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
     </border>
     <border>
       <left style="thin">
@@ -1851,307 +2454,462 @@
       </diagonal>
     </border>
     <border>
-      <right style="none">
-        <color rgb="000000" tint="0"/>
-      </right>
-      <top style="thin">
-        <color rgb="000000" tint="0"/>
-      </top>
-      <bottom style="none">
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
         <color rgb="000000" tint="0"/>
       </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
+  <cellXfs count="137">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="2" quotePrefix="false"/>
-    <xf applyAlignment="true" applyFont="true" borderId="0" fillId="0" fontId="2" quotePrefix="false">
+    <xf applyBorder="false" applyFill="false" applyFont="true" borderId="0" fillId="0" fontId="2" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" borderId="0" fillId="0" fontId="2" quotePrefix="false">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="bottom" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="2" fontId="5" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" indent="2" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="3" numFmtId="1001" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="3" numFmtId="1001" quotePrefix="false">
       <alignment horizontal="center" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" indent="13" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" indent="2" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="1002" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="right" shrinkToFit="true" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="1002" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1002" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1003" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1003" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1003" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1003" quotePrefix="false">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1003" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1002" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1003" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1004" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1005" quotePrefix="false">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1002" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="justify" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="justify" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1006" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1006" quotePrefix="false">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="1003" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1007" quotePrefix="false">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1008" quotePrefix="false">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1006" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="19" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="7" numFmtId="1003" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="20" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1004" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="21" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="22" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1003" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" indent="1" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="24" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="25" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="26" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="27" fillId="0" fontId="6" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="28" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" borderId="29" fillId="0" fontId="8" quotePrefix="false">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1001" quotePrefix="false">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1001" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" borderId="29" fillId="0" fontId="9" quotePrefix="false">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1009" quotePrefix="false">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1010" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="32" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="justify" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="33" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="justify" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="34" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="justify" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="35" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="justify" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="36" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1003" quotePrefix="false">
+      <alignment horizontal="right" indent="6" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="37" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="38" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="39" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="40" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="41" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="42" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1004" quotePrefix="false">
+      <alignment horizontal="right" indent="6" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="43" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="44" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="45" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="46" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="47" fillId="0" fontId="3" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1004" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="47" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="47" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="48" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="49" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="50" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="justify" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1009" quotePrefix="false">
+      <alignment horizontal="right" indent="5" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1004" quotePrefix="false">
+      <alignment horizontal="right" indent="6" shrinkToFit="true" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="51" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1009" quotePrefix="false">
+      <alignment horizontal="right" indent="5" shrinkToFit="true" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1001" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1001" quotePrefix="false">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1005" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1005" quotePrefix="false">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1004" quotePrefix="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="52" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="justify" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="10" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="53" fillId="0" fontId="10" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="55" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="56" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="57" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="58" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="59" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="justify" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1006" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="60" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="justify" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="61" fillId="0" fontId="3" numFmtId="1003" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1006" quotePrefix="false">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="1003" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="62" fillId="0" fontId="3" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1007" quotePrefix="false">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1008" quotePrefix="false">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1006" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="justify" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="63" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="justify" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1002" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="64" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="justify" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="61" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="bottom" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="65" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="66" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="7" numFmtId="1003" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1004" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" indent="1" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="6" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1001" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1003" quotePrefix="false">
-      <alignment horizontal="right" indent="6" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="67" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="justify" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="justify" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1001" quotePrefix="false">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1009" quotePrefix="false">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1004" quotePrefix="false">
-      <alignment horizontal="right" indent="6" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1009" quotePrefix="false">
-      <alignment horizontal="right" indent="5" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="3" numFmtId="1002" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1004" quotePrefix="false">
-      <alignment horizontal="right" indent="6" shrinkToFit="true" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1009" quotePrefix="false">
-      <alignment horizontal="right" indent="5" shrinkToFit="true" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1005" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1001" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1001" quotePrefix="false">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1004" quotePrefix="false">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="8" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="8" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="justify" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="justify" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="justify" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="justify" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="3" numFmtId="1003" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="3" numFmtId="1002" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="bottom" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="justify" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="justify" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1002" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="justify" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="bottom" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="6" numFmtId="1002" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1002" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="justify" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="0" quotePrefix="false"/>
+    <xf applyBorder="false" applyFill="false" applyFont="true" borderId="0" fillId="0" fontId="11" quotePrefix="false"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2569,7 +3327,7 @@
       <c r="H10" s="23" t="n">
         <v>2.7</v>
       </c>
-      <c r="I10" s="25" t="n">
+      <c r="I10" s="24" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H10*1.2</f>
         <v>3.24</v>
       </c>
@@ -2591,7 +3349,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="17" t="n"/>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="25" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="23" t="n">
@@ -2693,24 +3451,24 @@
       </c>
     </row>
     <row customHeight="true" ht="43.25" outlineLevel="0" r="16">
-      <c r="A16" s="27" t="n">
+      <c r="A16" s="26" t="n">
         <v>7</v>
       </c>
-      <c r="B16" s="28" t="n"/>
-      <c r="C16" s="26" t="s">
+      <c r="B16" s="27" t="n"/>
+      <c r="C16" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="29" t="n">
+      <c r="D16" s="28" t="n">
         <v>0.07</v>
       </c>
-      <c r="E16" s="27" t="n">
+      <c r="E16" s="26" t="n">
         <v>7</v>
       </c>
-      <c r="F16" s="26" t="n"/>
+      <c r="F16" s="25" t="n"/>
       <c r="G16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="29" t="n">
+      <c r="H16" s="28" t="n">
         <v>0.06</v>
       </c>
       <c r="I16" s="24" t="n"/>
@@ -2719,11 +3477,11 @@
       <c r="A17" s="22" t="n">
         <v>8</v>
       </c>
-      <c r="B17" s="28" t="n"/>
+      <c r="B17" s="27" t="n"/>
       <c r="C17" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="30" t="n">
+      <c r="D17" s="29" t="n">
         <v>0.036</v>
       </c>
       <c r="E17" s="22" t="n">
@@ -2733,48 +3491,48 @@
       <c r="G17" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="30" t="n">
+      <c r="H17" s="29" t="n">
         <v>0.03</v>
       </c>
-      <c r="I17" s="31" t="n"/>
+      <c r="I17" s="30" t="n"/>
     </row>
     <row customHeight="true" ht="36.3837280273438" outlineLevel="0" r="18">
-      <c r="A18" s="27" t="n">
+      <c r="A18" s="26" t="n">
         <v>9</v>
       </c>
-      <c r="B18" s="28" t="n"/>
-      <c r="C18" s="32" t="s">
+      <c r="B18" s="27" t="n"/>
+      <c r="C18" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="33" t="s"/>
-      <c r="E18" s="27" t="n">
+      <c r="D18" s="32" t="s"/>
+      <c r="E18" s="26" t="n">
         <v>9</v>
       </c>
-      <c r="F18" s="26" t="n"/>
+      <c r="F18" s="25" t="n"/>
       <c r="G18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="34" t="s"/>
+      <c r="H18" s="33" t="s"/>
       <c r="I18" s="24" t="n"/>
-      <c r="J18" s="35" t="n"/>
+      <c r="J18" s="34" t="n"/>
     </row>
     <row customHeight="true" ht="49.1162414550781" outlineLevel="0" r="19">
-      <c r="A19" s="27" t="n">
+      <c r="A19" s="26" t="n">
         <v>10</v>
       </c>
-      <c r="B19" s="28" t="n"/>
+      <c r="B19" s="27" t="n"/>
       <c r="C19" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="34" t="s"/>
-      <c r="E19" s="27" t="n">
+      <c r="D19" s="35" t="s"/>
+      <c r="E19" s="26" t="n">
         <v>10</v>
       </c>
-      <c r="F19" s="28" t="n"/>
+      <c r="F19" s="27" t="n"/>
       <c r="G19" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="34" t="s"/>
+      <c r="H19" s="36" t="s"/>
       <c r="I19" s="24" t="n"/>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="20">
@@ -2785,7 +3543,7 @@
       <c r="C20" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="36" t="s"/>
+      <c r="D20" s="37" t="s"/>
       <c r="E20" s="20" t="n"/>
       <c r="F20" s="21" t="n">
         <v>4</v>
@@ -2793,7 +3551,7 @@
       <c r="G20" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="36" t="s"/>
+      <c r="H20" s="38" t="s"/>
       <c r="I20" s="24" t="n"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="21">
@@ -2843,40 +3601,40 @@
       <c r="I22" s="24" t="n"/>
     </row>
     <row customHeight="true" ht="36.75" outlineLevel="0" r="23">
-      <c r="A23" s="27" t="n">
+      <c r="A23" s="26" t="n">
         <v>13</v>
       </c>
-      <c r="B23" s="28" t="n"/>
+      <c r="B23" s="27" t="n"/>
       <c r="C23" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="34" t="s"/>
-      <c r="E23" s="27" t="n">
+      <c r="D23" s="39" t="s"/>
+      <c r="E23" s="26" t="n">
         <v>13</v>
       </c>
-      <c r="F23" s="28" t="n"/>
+      <c r="F23" s="27" t="n"/>
       <c r="G23" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="34" t="s"/>
+      <c r="H23" s="40" t="s"/>
     </row>
     <row customHeight="true" ht="38" outlineLevel="0" r="24">
-      <c r="A24" s="27" t="n">
+      <c r="A24" s="26" t="n">
         <v>14</v>
       </c>
-      <c r="B24" s="28" t="n"/>
+      <c r="B24" s="27" t="n"/>
       <c r="C24" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="34" t="s"/>
-      <c r="E24" s="27" t="n">
+      <c r="D24" s="41" t="s"/>
+      <c r="E24" s="26" t="n">
         <v>14</v>
       </c>
-      <c r="F24" s="26" t="n"/>
+      <c r="F24" s="25" t="n"/>
       <c r="G24" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="34" t="s"/>
+      <c r="H24" s="42" t="s"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="25">
       <c r="A25" s="17" t="n"/>
@@ -2886,7 +3644,7 @@
       <c r="C25" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="36" t="s"/>
+      <c r="D25" s="43" t="s"/>
       <c r="E25" s="20" t="n"/>
       <c r="F25" s="21" t="n">
         <v>5</v>
@@ -2898,23 +3656,23 @@
       <c r="K25" s="24" t="n"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="26">
-      <c r="A26" s="37" t="n">
+      <c r="A26" s="44" t="n">
         <v>15</v>
       </c>
       <c r="B26" s="17" t="n"/>
       <c r="C26" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="34" t="s"/>
+      <c r="D26" s="45" t="s"/>
       <c r="E26" s="20" t="n"/>
       <c r="F26" s="17" t="n"/>
       <c r="G26" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H26" s="34" t="s"/>
+      <c r="H26" s="46" t="s"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="27">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="47" t="s">
         <v>39</v>
       </c>
       <c r="B27" s="17" t="n"/>
@@ -2931,22 +3689,22 @@
       <c r="G27" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H27" s="39" t="n">
+      <c r="H27" s="48" t="n">
         <v>4.5</v>
       </c>
-      <c r="I27" s="40" t="n"/>
-      <c r="J27" s="40" t="n"/>
-      <c r="K27" s="40" t="n"/>
+      <c r="I27" s="49" t="n"/>
+      <c r="J27" s="49" t="n"/>
+      <c r="K27" s="49" t="n"/>
     </row>
     <row customHeight="true" ht="28.75" outlineLevel="0" r="28">
-      <c r="A28" s="37" t="n">
+      <c r="A28" s="44" t="n">
         <v>16</v>
       </c>
-      <c r="B28" s="28" t="n"/>
+      <c r="B28" s="27" t="n"/>
       <c r="C28" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="34" t="s"/>
+      <c r="D28" s="50" t="s"/>
       <c r="E28" s="22" t="n">
         <v>16</v>
       </c>
@@ -2954,101 +3712,101 @@
       <c r="G28" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H28" s="39" t="n">
+      <c r="H28" s="48" t="n">
         <v>0.85</v>
       </c>
       <c r="I28" s="24" t="n"/>
-      <c r="J28" s="35" t="n"/>
-      <c r="K28" s="41" t="n"/>
-      <c r="L28" s="35" t="n"/>
-      <c r="M28" s="35" t="n"/>
-      <c r="N28" s="35" t="n"/>
-      <c r="O28" s="35" t="n"/>
+      <c r="J28" s="34" t="n"/>
+      <c r="K28" s="51" t="n"/>
+      <c r="L28" s="34" t="n"/>
+      <c r="M28" s="34" t="n"/>
+      <c r="N28" s="34" t="n"/>
+      <c r="O28" s="34" t="n"/>
     </row>
     <row customHeight="true" ht="45.4999389648438" outlineLevel="0" r="29">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="47" t="s">
         <v>44</v>
       </c>
       <c r="B29" s="17" t="n"/>
       <c r="C29" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="39" t="n">
+      <c r="D29" s="48" t="n">
         <v>4</v>
       </c>
       <c r="E29" s="22" t="n">
         <v>17</v>
       </c>
-      <c r="F29" s="28" t="n"/>
-      <c r="G29" s="26" t="s">
+      <c r="F29" s="27" t="n"/>
+      <c r="G29" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="H29" s="42" t="s"/>
+      <c r="H29" s="52" t="s"/>
       <c r="I29" s="24" t="n"/>
-      <c r="J29" s="35" t="n"/>
-      <c r="K29" s="40" t="n"/>
-      <c r="L29" s="35" t="n"/>
-      <c r="M29" s="35" t="n"/>
-      <c r="N29" s="35" t="n"/>
+      <c r="J29" s="34" t="n"/>
+      <c r="K29" s="49" t="n"/>
+      <c r="L29" s="34" t="n"/>
+      <c r="M29" s="34" t="n"/>
+      <c r="N29" s="34" t="n"/>
     </row>
     <row customHeight="true" hidden="false" ht="45" outlineLevel="0" r="30">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="47" t="s">
         <v>46</v>
       </c>
       <c r="B30" s="17" t="n"/>
       <c r="C30" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="39" t="n">
+      <c r="D30" s="48" t="n">
         <v>0.85</v>
       </c>
-      <c r="E30" s="27" t="n">
+      <c r="E30" s="26" t="n">
         <v>18</v>
       </c>
-      <c r="F30" s="28" t="n"/>
+      <c r="F30" s="27" t="n"/>
       <c r="G30" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H30" s="34" t="s"/>
+      <c r="H30" s="53" t="s"/>
       <c r="I30" s="24" t="n"/>
     </row>
     <row customHeight="true" ht="38.75" outlineLevel="0" r="31">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="26" t="n"/>
+      <c r="B31" s="25" t="n"/>
       <c r="C31" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="34" t="s"/>
+      <c r="D31" s="55" t="s"/>
       <c r="E31" s="22" t="n">
         <v>19</v>
       </c>
-      <c r="F31" s="28" t="n"/>
-      <c r="G31" s="26" t="s">
+      <c r="F31" s="27" t="n"/>
+      <c r="G31" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="H31" s="44" t="n">
+      <c r="H31" s="56" t="n">
         <v>0.85</v>
       </c>
     </row>
     <row customHeight="true" ht="36.4999389648438" outlineLevel="0" r="32">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="28" t="n"/>
-      <c r="C32" s="26" t="s">
+      <c r="B32" s="27" t="n"/>
+      <c r="C32" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="42" t="s"/>
-      <c r="E32" s="27" t="n">
+      <c r="D32" s="57" t="s"/>
+      <c r="E32" s="26" t="n">
         <v>20</v>
       </c>
-      <c r="F32" s="28" t="n"/>
+      <c r="F32" s="27" t="n"/>
       <c r="G32" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="H32" s="45" t="n">
+      <c r="H32" s="58" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -3068,29 +3826,29 @@
       <c r="E33" s="22" t="n">
         <v>21</v>
       </c>
-      <c r="F33" s="28" t="n"/>
-      <c r="G33" s="26" t="s">
+      <c r="F33" s="27" t="n"/>
+      <c r="G33" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="H33" s="42" t="s"/>
+      <c r="H33" s="59" t="s"/>
     </row>
     <row outlineLevel="0" r="34">
-      <c r="A34" s="27" t="n">
+      <c r="A34" s="26" t="n">
         <v>19</v>
       </c>
-      <c r="B34" s="28" t="n"/>
-      <c r="C34" s="26" t="s">
+      <c r="B34" s="27" t="n"/>
+      <c r="C34" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="42" t="s"/>
-      <c r="E34" s="27" t="n">
+      <c r="D34" s="60" t="s"/>
+      <c r="E34" s="26" t="n">
         <v>22</v>
       </c>
-      <c r="F34" s="28" t="n"/>
-      <c r="G34" s="46" t="s">
+      <c r="F34" s="27" t="n"/>
+      <c r="G34" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="H34" s="47" t="s">
+      <c r="H34" s="62" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3098,31 +3856,31 @@
       <c r="A35" s="22" t="n">
         <v>20</v>
       </c>
-      <c r="B35" s="28" t="n"/>
+      <c r="B35" s="27" t="n"/>
       <c r="C35" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="30" t="n">
+      <c r="D35" s="29" t="n">
         <v>0.03</v>
       </c>
-      <c r="E35" s="27" t="n">
+      <c r="E35" s="26" t="n">
         <v>23</v>
       </c>
-      <c r="F35" s="28" t="n"/>
-      <c r="G35" s="26" t="s">
+      <c r="F35" s="27" t="n"/>
+      <c r="G35" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="H35" s="42" t="s"/>
+      <c r="H35" s="63" t="s"/>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="22" t="n">
         <v>21</v>
       </c>
-      <c r="B36" s="28" t="n"/>
-      <c r="C36" s="26" t="s">
+      <c r="B36" s="27" t="n"/>
+      <c r="C36" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="42" t="s"/>
+      <c r="D36" s="64" t="s"/>
       <c r="E36" s="22" t="n">
         <v>24</v>
       </c>
@@ -3130,7 +3888,7 @@
       <c r="G36" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="30" t="n">
+      <c r="H36" s="29" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -3138,29 +3896,29 @@
       <c r="A37" s="22" t="n">
         <v>22</v>
       </c>
-      <c r="B37" s="28" t="n"/>
-      <c r="C37" s="26" t="s">
+      <c r="B37" s="27" t="n"/>
+      <c r="C37" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="D37" s="42" t="s"/>
+      <c r="D37" s="65" t="s"/>
       <c r="E37" s="22" t="n">
         <v>25</v>
       </c>
-      <c r="F37" s="28" t="n"/>
-      <c r="G37" s="26" t="s">
+      <c r="F37" s="27" t="n"/>
+      <c r="G37" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="H37" s="42" t="s"/>
+      <c r="H37" s="66" t="s"/>
     </row>
     <row outlineLevel="0" r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="C38" s="48" t="s">
+      <c r="C38" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="D38" s="49" t="s"/>
+      <c r="D38" s="68" t="s"/>
       <c r="E38" s="16" t="s">
         <v>6</v>
       </c>
@@ -3170,7 +3928,7 @@
       <c r="G38" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H38" s="13" t="s">
+      <c r="H38" s="16" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3178,43 +3936,47 @@
       <c r="A39" s="22" t="n">
         <v>23</v>
       </c>
-      <c r="B39" s="28" t="n"/>
+      <c r="B39" s="27" t="n"/>
       <c r="C39" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="34" t="s"/>
+      <c r="D39" s="69" t="s"/>
       <c r="E39" s="22" t="n"/>
-      <c r="F39" s="21" t="n">
+      <c r="F39" s="70" t="n">
         <v>6</v>
       </c>
-      <c r="G39" s="50" t="s">
+      <c r="G39" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="H39" s="51" t="s"/>
+      <c r="H39" s="71" t="n"/>
     </row>
     <row outlineLevel="0" r="40">
-      <c r="A40" s="38" t="s">
+      <c r="A40" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B40" s="28" t="n"/>
+      <c r="B40" s="27" t="n"/>
       <c r="C40" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="52" t="n">
+      <c r="D40" s="72" t="n">
         <v>3</v>
       </c>
       <c r="E40" s="20" t="n"/>
-      <c r="F40" s="17" t="n"/>
-      <c r="G40" s="50" t="s">
+      <c r="F40" s="73" t="n">
+        <v>26</v>
+      </c>
+      <c r="G40" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H40" s="51" t="s"/>
+      <c r="H40" s="71" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row outlineLevel="0" r="41">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="28" t="n"/>
+      <c r="B41" s="27" t="n"/>
       <c r="C41" s="13" t="s">
         <v>68</v>
       </c>
@@ -3224,19 +3986,21 @@
       <c r="E41" s="22" t="n">
         <v>26</v>
       </c>
-      <c r="F41" s="17" t="n"/>
-      <c r="G41" s="13" t="s">
+      <c r="F41" s="73" t="n">
+        <v>27</v>
+      </c>
+      <c r="G41" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="H41" s="23" t="n">
-        <v>2.5</v>
+      <c r="H41" s="74" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row outlineLevel="0" r="42">
-      <c r="A42" s="38" t="s">
+      <c r="A42" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="B42" s="28" t="n"/>
+      <c r="B42" s="27" t="n"/>
       <c r="C42" s="13" t="s">
         <v>71</v>
       </c>
@@ -3246,57 +4010,57 @@
       <c r="E42" s="22" t="n">
         <v>27</v>
       </c>
-      <c r="F42" s="17" t="n"/>
-      <c r="G42" s="13" t="s">
+      <c r="F42" s="73" t="n">
+        <v>28</v>
+      </c>
+      <c r="G42" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="H42" s="23" t="n">
-        <v>3.3</v>
-      </c>
+      <c r="H42" s="1" t="n"/>
     </row>
     <row outlineLevel="0" r="43">
-      <c r="A43" s="37" t="s">
+      <c r="A43" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B43" s="28" t="n"/>
-      <c r="C43" s="26" t="s">
+      <c r="B43" s="27" t="n"/>
+      <c r="C43" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="42" t="s"/>
+      <c r="D43" s="76" t="s"/>
       <c r="E43" s="22" t="n">
         <v>28</v>
       </c>
-      <c r="F43" s="17" t="n"/>
-      <c r="G43" s="13" t="s">
+      <c r="F43" s="21" t="n">
+        <v>7</v>
+      </c>
+      <c r="G43" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="H43" s="23" t="n">
-        <v>4.1</v>
-      </c>
+      <c r="H43" s="1" t="n"/>
     </row>
     <row outlineLevel="0" r="44">
-      <c r="A44" s="38" t="s">
+      <c r="A44" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="B44" s="28" t="n"/>
+      <c r="B44" s="27" t="n"/>
       <c r="C44" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D44" s="23" t="n">
         <v>4</v>
       </c>
-      <c r="E44" s="53" t="n"/>
+      <c r="E44" s="77" t="n"/>
       <c r="F44" s="17" t="n"/>
-      <c r="G44" s="19" t="s">
+      <c r="G44" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="H44" s="36" t="s"/>
+      <c r="H44" s="79" t="s"/>
     </row>
     <row outlineLevel="0" r="45">
-      <c r="A45" s="38" t="s">
+      <c r="A45" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="B45" s="28" t="n"/>
+      <c r="B45" s="27" t="n"/>
       <c r="C45" s="13" t="s">
         <v>43</v>
       </c>
@@ -3306,225 +4070,237 @@
       <c r="E45" s="22" t="n">
         <v>29</v>
       </c>
-      <c r="F45" s="17" t="n"/>
+      <c r="F45" s="20" t="n">
+        <v>29</v>
+      </c>
       <c r="G45" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="H45" s="54" t="n">
-        <v>4.5</v>
+      <c r="H45" s="23" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row outlineLevel="0" r="46">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="B46" s="26" t="n"/>
-      <c r="C46" s="55" t="s">
+      <c r="B46" s="25" t="n"/>
+      <c r="C46" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="D46" s="56" t="s"/>
+      <c r="D46" s="81" t="s"/>
       <c r="E46" s="22" t="n">
         <v>30</v>
       </c>
-      <c r="F46" s="17" t="n"/>
+      <c r="F46" s="20" t="n">
+        <v>30</v>
+      </c>
       <c r="G46" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="H46" s="54" t="n">
-        <v>5.65</v>
+      <c r="H46" s="23" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row outlineLevel="0" r="47">
-      <c r="A47" s="43" t="s">
+      <c r="A47" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="B47" s="26" t="n"/>
-      <c r="C47" s="55" t="s">
+      <c r="B47" s="25" t="n"/>
+      <c r="C47" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="D47" s="56" t="s"/>
+      <c r="D47" s="82" t="s"/>
       <c r="E47" s="22" t="n">
         <v>31</v>
       </c>
-      <c r="F47" s="17" t="n"/>
+      <c r="F47" s="20" t="n">
+        <v>31</v>
+      </c>
       <c r="G47" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="H47" s="54" t="n">
-        <v>8.1</v>
+      <c r="H47" s="23" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row outlineLevel="0" r="48">
-      <c r="A48" s="43" t="s">
+      <c r="A48" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="B48" s="26" t="n"/>
-      <c r="C48" s="55" t="s">
+      <c r="B48" s="25" t="n"/>
+      <c r="C48" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="D48" s="56" t="s"/>
+      <c r="D48" s="83" t="s"/>
       <c r="E48" s="22" t="n"/>
-      <c r="F48" s="28" t="n"/>
-      <c r="G48" s="26" t="s">
+      <c r="F48" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="H48" s="42" t="s"/>
+      <c r="G48" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="H48" s="84" t="s"/>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="22" t="n">
         <v>28</v>
       </c>
-      <c r="B49" s="28" t="n"/>
-      <c r="C49" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D49" s="30" t="n">
+      <c r="B49" s="27" t="n"/>
+      <c r="C49" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" s="29" t="n">
         <v>0.01</v>
       </c>
       <c r="E49" s="22" t="n">
         <v>32</v>
       </c>
-      <c r="F49" s="28" t="n"/>
+      <c r="F49" s="20" t="n">
+        <v>32</v>
+      </c>
       <c r="G49" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="H49" s="34" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="H49" s="85" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="22" t="n">
         <v>29</v>
       </c>
-      <c r="B50" s="28" t="n"/>
-      <c r="C50" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D50" s="42" t="s"/>
+      <c r="B50" s="27" t="n"/>
+      <c r="C50" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" s="86" t="s"/>
       <c r="E50" s="22" t="n">
         <v>33</v>
       </c>
-      <c r="F50" s="28" t="n"/>
-      <c r="G50" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="H50" s="42" t="s"/>
+      <c r="F50" s="20" t="n">
+        <v>33</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H50" s="85" t="n">
+        <v>5.65</v>
+      </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="22" t="n"/>
-      <c r="B51" s="28" t="n">
+      <c r="B51" s="27" t="n">
         <v>7</v>
       </c>
-      <c r="C51" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="D51" s="57" t="n"/>
+      <c r="C51" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" s="71" t="n"/>
       <c r="E51" s="22" t="n">
         <v>34</v>
       </c>
-      <c r="F51" s="28" t="n"/>
-      <c r="G51" s="26" t="s">
+      <c r="F51" s="20" t="n">
+        <v>34</v>
+      </c>
+      <c r="G51" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="H51" s="42" t="s"/>
+      <c r="H51" s="85" t="n">
+        <v>8.1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="22" t="n">
         <v>30</v>
       </c>
-      <c r="B52" s="28" t="n"/>
-      <c r="C52" s="26" t="s">
+      <c r="B52" s="27" t="n"/>
+      <c r="C52" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" s="71" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E52" s="77" t="n"/>
+      <c r="F52" s="27" t="n"/>
+      <c r="G52" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="D52" s="57" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E52" s="53" t="n"/>
-      <c r="F52" s="21" t="n">
-        <v>7</v>
-      </c>
-      <c r="G52" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="H52" s="36" t="s"/>
+      <c r="H52" s="87" t="s"/>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="22" t="n">
         <v>31</v>
       </c>
-      <c r="B53" s="28" t="n"/>
-      <c r="C53" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="D53" s="58" t="n">
+      <c r="B53" s="27" t="n"/>
+      <c r="C53" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="74" t="n">
         <v>0.01</v>
       </c>
       <c r="E53" s="22" t="n">
         <v>35</v>
       </c>
-      <c r="F53" s="17" t="n"/>
+      <c r="F53" s="27" t="n"/>
       <c r="G53" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="H53" s="54" t="n">
-        <v>4.5</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="H53" s="1" t="n"/>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="22" t="n">
         <v>32</v>
       </c>
-      <c r="B54" s="28" t="n"/>
-      <c r="C54" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="D54" s="60" t="s"/>
+      <c r="B54" s="27" t="n"/>
+      <c r="C54" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" s="89" t="s"/>
       <c r="E54" s="22" t="n">
         <v>36</v>
       </c>
-      <c r="F54" s="17" t="n"/>
-      <c r="G54" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="H54" s="54" t="n">
-        <v>5.65</v>
-      </c>
+      <c r="F54" s="27" t="n"/>
+      <c r="G54" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="H54" s="1" t="n"/>
     </row>
     <row outlineLevel="0" r="55">
-      <c r="A55" s="28" t="n"/>
+      <c r="A55" s="27" t="n"/>
       <c r="B55" s="18" t="n">
         <v>8</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D55" s="36" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="D55" s="90" t="s"/>
       <c r="E55" s="22" t="n">
         <v>37</v>
       </c>
-      <c r="F55" s="17" t="n"/>
-      <c r="G55" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="H55" s="54" t="n">
-        <v>8.1</v>
-      </c>
+      <c r="F55" s="27" t="n"/>
+      <c r="G55" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="H55" s="1" t="n"/>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="17" t="n"/>
       <c r="B56" s="17" t="n"/>
       <c r="C56" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D56" s="36" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="D56" s="91" t="s"/>
       <c r="E56" s="22" t="n">
         <v>38</v>
       </c>
-      <c r="F56" s="28" t="n"/>
-      <c r="G56" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H56" s="61" t="n">
-        <v>0.03</v>
-      </c>
+      <c r="F56" s="21" t="n">
+        <v>7</v>
+      </c>
+      <c r="G56" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="H56" s="1" t="n"/>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="22" t="n">
@@ -3532,7 +4308,7 @@
       </c>
       <c r="B57" s="17" t="n"/>
       <c r="C57" s="13" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D57" s="23" t="n">
         <v>3</v>
@@ -3540,11 +4316,13 @@
       <c r="E57" s="22" t="n">
         <v>39</v>
       </c>
-      <c r="F57" s="28" t="n"/>
-      <c r="G57" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="H57" s="42" t="s"/>
+      <c r="F57" s="17" t="n"/>
+      <c r="G57" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H57" s="85" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="22" t="n">
@@ -3552,19 +4330,19 @@
       </c>
       <c r="B58" s="17" t="n"/>
       <c r="C58" s="13" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D58" s="23" t="n">
         <v>3.96</v>
       </c>
-      <c r="E58" s="53" t="n"/>
-      <c r="F58" s="21" t="n">
-        <v>8</v>
-      </c>
-      <c r="G58" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="H58" s="36" t="s"/>
+      <c r="E58" s="77" t="n"/>
+      <c r="F58" s="17" t="n"/>
+      <c r="G58" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H58" s="85" t="n">
+        <v>5.65</v>
+      </c>
     </row>
     <row outlineLevel="0" r="59">
       <c r="A59" s="22" t="n">
@@ -3572,7 +4350,7 @@
       </c>
       <c r="B59" s="17" t="n"/>
       <c r="C59" s="13" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D59" s="23" t="n">
         <v>4.92</v>
@@ -3582,28 +4360,28 @@
       </c>
       <c r="F59" s="17" t="n"/>
       <c r="G59" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="H59" s="54" t="n">
-        <v>15</v>
+        <v>103</v>
+      </c>
+      <c r="H59" s="85" t="n">
+        <v>8.1</v>
       </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="17" t="n"/>
       <c r="B60" s="17" t="n"/>
       <c r="C60" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D60" s="36" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="D60" s="92" t="s"/>
       <c r="E60" s="22" t="n">
         <v>41</v>
       </c>
-      <c r="F60" s="17" t="n"/>
+      <c r="F60" s="27" t="n"/>
       <c r="G60" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="H60" s="54" t="n">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="H60" s="93" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row outlineLevel="0" r="61">
@@ -3612,7 +4390,7 @@
       </c>
       <c r="B61" s="17" t="n"/>
       <c r="C61" s="13" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D61" s="23" t="n">
         <v>5.4</v>
@@ -3620,13 +4398,11 @@
       <c r="E61" s="22" t="n">
         <v>42</v>
       </c>
-      <c r="F61" s="17" t="n"/>
-      <c r="G61" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="H61" s="54" t="n">
-        <v>42.5</v>
-      </c>
+      <c r="F61" s="27" t="n"/>
+      <c r="G61" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="H61" s="1" t="n"/>
     </row>
     <row outlineLevel="0" r="62">
       <c r="A62" s="22" t="n">
@@ -3634,19 +4410,19 @@
       </c>
       <c r="B62" s="17" t="n"/>
       <c r="C62" s="13" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D62" s="23" t="n">
         <v>6.78</v>
       </c>
       <c r="E62" s="20" t="n"/>
       <c r="F62" s="21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="H62" s="17" t="n"/>
+        <v>105</v>
+      </c>
+      <c r="H62" s="94" t="s"/>
     </row>
     <row outlineLevel="0" r="63">
       <c r="A63" s="22" t="n">
@@ -3654,7 +4430,7 @@
       </c>
       <c r="B63" s="17" t="n"/>
       <c r="C63" s="13" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D63" s="23" t="n">
         <v>9.72</v>
@@ -3662,86 +4438,88 @@
       <c r="E63" s="22" t="n">
         <v>43</v>
       </c>
-      <c r="F63" s="28" t="n"/>
-      <c r="G63" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="H63" s="61" t="n">
-        <v>0.03</v>
+      <c r="F63" s="17" t="n"/>
+      <c r="G63" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H63" s="85" t="n">
+        <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="64">
-      <c r="A64" s="28" t="n"/>
-      <c r="B64" s="28" t="n"/>
+      <c r="A64" s="27" t="n"/>
+      <c r="B64" s="27" t="n"/>
       <c r="C64" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D64" s="34" t="s"/>
-      <c r="E64" s="53" t="n"/>
-      <c r="F64" s="28" t="n"/>
-      <c r="G64" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="H64" s="56" t="s"/>
+      <c r="D64" s="95" t="s"/>
+      <c r="E64" s="77" t="n"/>
+      <c r="F64" s="17" t="n"/>
+      <c r="G64" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H64" s="85" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row outlineLevel="0" r="65">
-      <c r="A65" s="27" t="n">
+      <c r="A65" s="26" t="n">
         <v>39</v>
       </c>
-      <c r="B65" s="28" t="n"/>
-      <c r="C65" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="D65" s="62" t="s"/>
+      <c r="B65" s="27" t="n"/>
+      <c r="C65" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="D65" s="96" t="s"/>
       <c r="E65" s="22" t="n">
         <v>44</v>
       </c>
-      <c r="F65" s="26" t="n"/>
-      <c r="G65" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="H65" s="63" t="n">
-        <v>0.0233</v>
+      <c r="F65" s="17" t="n"/>
+      <c r="G65" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H65" s="85" t="n">
+        <v>42.5</v>
       </c>
     </row>
     <row outlineLevel="0" r="66">
       <c r="A66" s="22" t="n">
         <v>40</v>
       </c>
-      <c r="B66" s="28" t="n"/>
+      <c r="B66" s="27" t="n"/>
       <c r="C66" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D66" s="34" t="s"/>
+        <v>107</v>
+      </c>
+      <c r="D66" s="97" t="s"/>
       <c r="E66" s="22" t="n">
         <v>45</v>
       </c>
-      <c r="F66" s="26" t="n"/>
-      <c r="G66" s="32" t="s">
+      <c r="F66" s="21" t="n">
+        <v>9</v>
+      </c>
+      <c r="G66" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="H66" s="17" t="n"/>
+    </row>
+    <row outlineLevel="0" r="67">
+      <c r="A67" s="98" t="n">
+        <v>41</v>
+      </c>
+      <c r="B67" s="99" t="n"/>
+      <c r="C67" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="D67" s="101" t="s"/>
+      <c r="E67" s="26" t="n">
+        <v>46</v>
+      </c>
+      <c r="F67" s="27" t="n"/>
+      <c r="G67" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="H66" s="63" t="n">
-        <v>0.0233</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="67">
-      <c r="A67" s="64" t="n">
-        <v>41</v>
-      </c>
-      <c r="B67" s="65" t="n"/>
-      <c r="C67" s="66" t="s">
-        <v>111</v>
-      </c>
-      <c r="D67" s="67" t="s"/>
-      <c r="E67" s="27" t="n">
-        <v>46</v>
-      </c>
-      <c r="F67" s="26" t="n"/>
-      <c r="G67" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="H67" s="68" t="n">
-        <v>0.015</v>
+      <c r="H67" s="93" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row outlineLevel="0" r="68">
@@ -3750,15 +4528,15 @@
         <v>9</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="D68" s="36" t="s"/>
-      <c r="E68" s="69" t="n"/>
-      <c r="F68" s="26" t="n"/>
-      <c r="G68" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="H68" s="34" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="D68" s="102" t="s"/>
+      <c r="E68" s="103" t="n"/>
+      <c r="F68" s="27" t="n"/>
+      <c r="G68" s="80" t="s">
+        <v>111</v>
+      </c>
+      <c r="H68" s="104" t="s"/>
     </row>
     <row outlineLevel="0" r="69">
       <c r="A69" s="22" t="n">
@@ -3766,19 +4544,19 @@
       </c>
       <c r="B69" s="17" t="n"/>
       <c r="C69" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D69" s="23" t="n">
         <v>5.4</v>
       </c>
-      <c r="E69" s="27" t="n">
+      <c r="E69" s="26" t="n">
         <v>47</v>
       </c>
-      <c r="F69" s="26" t="n"/>
-      <c r="G69" s="55" t="s">
-        <v>115</v>
-      </c>
-      <c r="H69" s="70" t="n">
+      <c r="F69" s="25" t="n"/>
+      <c r="G69" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="H69" s="105" t="n">
         <v>0.0233</v>
       </c>
     </row>
@@ -3788,20 +4566,20 @@
       </c>
       <c r="B70" s="17" t="n"/>
       <c r="C70" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D70" s="23" t="n">
         <v>6.78</v>
       </c>
-      <c r="E70" s="27" t="n">
+      <c r="E70" s="26" t="n">
         <v>48</v>
       </c>
-      <c r="F70" s="28" t="n"/>
-      <c r="G70" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="H70" s="45" t="n">
-        <v>0.015</v>
+      <c r="F70" s="25" t="n"/>
+      <c r="G70" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="H70" s="105" t="n">
+        <v>0.0233</v>
       </c>
     </row>
     <row outlineLevel="0" r="71">
@@ -3810,20 +4588,20 @@
       </c>
       <c r="B71" s="17" t="n"/>
       <c r="C71" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D71" s="23" t="n">
         <v>9.72</v>
       </c>
-      <c r="E71" s="27" t="n">
+      <c r="E71" s="26" t="n">
         <v>49</v>
       </c>
-      <c r="F71" s="26" t="n"/>
-      <c r="G71" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="H71" s="45" t="n">
-        <v>0.005</v>
+      <c r="F71" s="25" t="n"/>
+      <c r="G71" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H71" s="106" t="n">
+        <v>0.015</v>
       </c>
     </row>
     <row outlineLevel="0" r="72">
@@ -3834,37 +4612,35 @@
       <c r="C72" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D72" s="30" t="n">
+      <c r="D72" s="29" t="n">
         <v>0.03</v>
       </c>
       <c r="E72" s="22" t="n">
         <v>50</v>
       </c>
-      <c r="F72" s="28" t="n"/>
-      <c r="G72" s="26" t="s">
+      <c r="F72" s="25" t="n"/>
+      <c r="G72" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="H72" s="1" t="n"/>
+    </row>
+    <row outlineLevel="0" r="73">
+      <c r="A73" s="26" t="n">
+        <v>46</v>
+      </c>
+      <c r="B73" s="27" t="n"/>
+      <c r="C73" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D73" s="107" t="s"/>
+      <c r="E73" s="20" t="n"/>
+      <c r="F73" s="25" t="n"/>
+      <c r="G73" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="H72" s="71" t="n">
-        <v>0.009</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="73">
-      <c r="A73" s="27" t="n">
-        <v>46</v>
-      </c>
-      <c r="B73" s="28" t="n"/>
-      <c r="C73" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="D73" s="34" t="s"/>
-      <c r="E73" s="20" t="n"/>
-      <c r="F73" s="21" t="n">
-        <v>10</v>
-      </c>
-      <c r="G73" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="H73" s="17" t="n"/>
+      <c r="H73" s="108" t="n">
+        <v>0.0233</v>
+      </c>
     </row>
     <row outlineLevel="0" r="74">
       <c r="A74" s="17" t="n"/>
@@ -3872,115 +4648,119 @@
         <v>10</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D74" s="17" t="n"/>
       <c r="E74" s="22" t="n">
         <v>51</v>
       </c>
-      <c r="F74" s="26" t="n"/>
-      <c r="G74" s="32" t="s">
+      <c r="F74" s="27" t="n"/>
+      <c r="G74" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="H74" s="58" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="75">
+      <c r="A75" s="26" t="n">
+        <v>47</v>
+      </c>
+      <c r="B75" s="27" t="n"/>
+      <c r="C75" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D75" s="109" t="n">
+        <v>4</v>
+      </c>
+      <c r="E75" s="20" t="n"/>
+      <c r="F75" s="25" t="n"/>
+      <c r="G75" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="H74" s="33" t="s"/>
-    </row>
-    <row outlineLevel="0" r="75">
-      <c r="A75" s="27" t="n">
-        <v>47</v>
-      </c>
-      <c r="B75" s="28" t="n"/>
-      <c r="C75" s="13" t="s">
+      <c r="H75" s="58" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="76">
+      <c r="A76" s="26" t="n">
+        <v>48</v>
+      </c>
+      <c r="B76" s="25" t="n"/>
+      <c r="C76" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="D75" s="72" t="n">
-        <v>4</v>
-      </c>
-      <c r="E75" s="20" t="n"/>
-      <c r="F75" s="21" t="n">
+      <c r="D76" s="110" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E76" s="26" t="n">
+        <v>52</v>
+      </c>
+      <c r="F76" s="27" t="n"/>
+      <c r="G76" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="H76" s="111" t="n">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="77">
+      <c r="A77" s="26" t="n"/>
+      <c r="B77" s="67" t="n">
         <v>11</v>
       </c>
-      <c r="G75" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="H75" s="17" t="n"/>
-    </row>
-    <row outlineLevel="0" r="76">
-      <c r="A76" s="27" t="n">
-        <v>48</v>
-      </c>
-      <c r="B76" s="26" t="n"/>
-      <c r="C76" s="13" t="s">
+      <c r="C77" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="D76" s="73" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="E76" s="27" t="n">
-        <v>52</v>
-      </c>
-      <c r="F76" s="28" t="n"/>
-      <c r="G76" s="32" t="s">
+      <c r="D77" s="112" t="s">
         <v>128</v>
       </c>
-      <c r="H76" s="33" t="s"/>
-    </row>
-    <row outlineLevel="0" r="77">
-      <c r="A77" s="27" t="n"/>
-      <c r="B77" s="48" t="n">
-        <v>11</v>
-      </c>
-      <c r="C77" s="19" t="s">
+      <c r="E77" s="26" t="n">
+        <v>53</v>
+      </c>
+      <c r="F77" s="21" t="n">
+        <v>10</v>
+      </c>
+      <c r="G77" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="D77" s="74" t="s">
+      <c r="H77" s="17" t="n"/>
+    </row>
+    <row outlineLevel="0" r="78">
+      <c r="A78" s="26" t="n">
+        <v>49</v>
+      </c>
+      <c r="B78" s="25" t="n"/>
+      <c r="C78" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="E77" s="27" t="n">
-        <v>53</v>
-      </c>
-      <c r="F77" s="28" t="n"/>
-      <c r="G77" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="H77" s="45" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="78">
-      <c r="A78" s="27" t="n">
-        <v>49</v>
-      </c>
-      <c r="B78" s="26" t="n"/>
-      <c r="C78" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D78" s="29" t="n"/>
+      <c r="D78" s="28" t="n"/>
       <c r="E78" s="22" t="n">
         <v>54</v>
       </c>
-      <c r="F78" s="28" t="n"/>
-      <c r="G78" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="H78" s="42" t="s"/>
+      <c r="F78" s="25" t="n"/>
+      <c r="G78" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="H78" s="113" t="s"/>
     </row>
     <row outlineLevel="0" r="79">
       <c r="A79" s="20" t="n">
         <v>50</v>
       </c>
       <c r="B79" s="21" t="n"/>
-      <c r="C79" s="75" t="s">
-        <v>134</v>
-      </c>
-      <c r="D79" s="76" t="s"/>
+      <c r="C79" s="114" t="s">
+        <v>132</v>
+      </c>
+      <c r="D79" s="115" t="s"/>
       <c r="E79" s="20" t="n"/>
       <c r="F79" s="21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G79" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="H79" s="36" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="H79" s="17" t="n"/>
     </row>
     <row outlineLevel="0" r="80">
       <c r="A80" s="17" t="n"/>
@@ -3988,105 +4768,103 @@
         <v>12</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D80" s="17" t="n"/>
       <c r="E80" s="22" t="n">
         <v>55</v>
       </c>
-      <c r="F80" s="17" t="n"/>
-      <c r="G80" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="H80" s="23" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="I80" s="35" t="n"/>
+      <c r="F80" s="27" t="n"/>
+      <c r="G80" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="H80" s="1" t="n"/>
+      <c r="I80" s="34" t="n"/>
     </row>
     <row outlineLevel="0" r="81">
-      <c r="A81" s="27" t="n">
+      <c r="A81" s="26" t="n">
         <v>51</v>
       </c>
-      <c r="B81" s="28" t="n"/>
+      <c r="B81" s="27" t="n"/>
       <c r="C81" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="D81" s="45" t="n">
+        <v>135</v>
+      </c>
+      <c r="D81" s="58" t="n">
         <v>0.03</v>
       </c>
       <c r="E81" s="22" t="n">
         <v>56</v>
       </c>
-      <c r="F81" s="17" t="n"/>
-      <c r="G81" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="H81" s="23" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I81" s="35" t="n"/>
+      <c r="F81" s="27" t="n"/>
+      <c r="G81" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="H81" s="58" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I81" s="34" t="n"/>
     </row>
     <row outlineLevel="0" r="82">
-      <c r="A82" s="27" t="n">
+      <c r="A82" s="26" t="n">
         <v>52</v>
       </c>
-      <c r="B82" s="26" t="n"/>
-      <c r="C82" s="77" t="s">
-        <v>139</v>
-      </c>
-      <c r="D82" s="78" t="s"/>
+      <c r="B82" s="25" t="n"/>
+      <c r="C82" s="116" t="s">
+        <v>137</v>
+      </c>
+      <c r="D82" s="117" t="s"/>
       <c r="E82" s="22" t="n">
         <v>57</v>
       </c>
-      <c r="F82" s="17" t="n"/>
-      <c r="G82" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="H82" s="23" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="I82" s="35" t="n"/>
+      <c r="F82" s="27" t="n"/>
+      <c r="G82" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="H82" s="1" t="n"/>
+      <c r="I82" s="34" t="n"/>
     </row>
     <row outlineLevel="0" r="83">
-      <c r="A83" s="27" t="n">
+      <c r="A83" s="26" t="n">
         <v>53</v>
       </c>
-      <c r="B83" s="26" t="n"/>
+      <c r="B83" s="25" t="n"/>
       <c r="C83" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="D83" s="45" t="n">
+        <v>139</v>
+      </c>
+      <c r="D83" s="58" t="n">
         <v>0.015</v>
       </c>
       <c r="E83" s="20" t="n"/>
       <c r="F83" s="21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G83" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="H83" s="36" t="s"/>
+        <v>140</v>
+      </c>
+      <c r="H83" s="118" t="s"/>
       <c r="I83" s="1" t="n"/>
     </row>
     <row outlineLevel="0" r="84">
-      <c r="A84" s="27" t="n">
+      <c r="A84" s="26" t="n">
         <v>54</v>
       </c>
-      <c r="B84" s="26" t="n"/>
+      <c r="B84" s="25" t="n"/>
       <c r="C84" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="D84" s="29" t="n">
+        <v>141</v>
+      </c>
+      <c r="D84" s="28" t="n">
         <v>0.01</v>
       </c>
       <c r="E84" s="22" t="n">
         <v>58</v>
       </c>
-      <c r="F84" s="28" t="n"/>
-      <c r="G84" s="79" t="s">
-        <v>144</v>
-      </c>
-      <c r="H84" s="80" t="s"/>
+      <c r="F84" s="17" t="n"/>
+      <c r="G84" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="H84" s="23" t="n">
+        <v>0.7</v>
+      </c>
       <c r="I84" s="24" t="n"/>
     </row>
     <row outlineLevel="0" r="85">
@@ -4095,36 +4873,40 @@
         <v>13</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="D85" s="36" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="D85" s="119" t="s"/>
       <c r="E85" s="22" t="n">
         <v>59</v>
       </c>
       <c r="F85" s="17" t="n"/>
-      <c r="G85" s="81" t="s">
-        <v>145</v>
-      </c>
-      <c r="H85" s="82" t="s"/>
+      <c r="G85" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="H85" s="23" t="n">
+        <v>2.2</v>
+      </c>
       <c r="I85" s="24" t="n"/>
     </row>
     <row outlineLevel="0" r="86">
-      <c r="A86" s="27" t="n">
+      <c r="A86" s="26" t="n">
         <v>55</v>
       </c>
-      <c r="B86" s="26" t="n"/>
+      <c r="B86" s="25" t="n"/>
       <c r="C86" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D86" s="34" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="D86" s="120" t="s"/>
       <c r="E86" s="22" t="n">
         <v>60</v>
       </c>
-      <c r="F86" s="28" t="n"/>
-      <c r="G86" s="81" t="s">
-        <v>147</v>
-      </c>
-      <c r="H86" s="82" t="s"/>
+      <c r="F86" s="17" t="n"/>
+      <c r="G86" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="H86" s="23" t="n">
+        <v>0.45</v>
+      </c>
       <c r="I86" s="24" t="n"/>
     </row>
     <row outlineLevel="0" r="87">
@@ -4133,17 +4915,17 @@
         <v>14</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="D87" s="36" t="s"/>
+        <v>140</v>
+      </c>
+      <c r="D87" s="121" t="s"/>
       <c r="E87" s="20" t="n"/>
       <c r="F87" s="21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G87" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="H87" s="36" t="s"/>
+        <v>146</v>
+      </c>
+      <c r="H87" s="122" t="s"/>
     </row>
     <row outlineLevel="0" r="88">
       <c r="A88" s="22" t="n">
@@ -4151,19 +4933,19 @@
       </c>
       <c r="B88" s="17" t="n"/>
       <c r="C88" s="13" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D88" s="23" t="n">
         <v>0.84</v>
       </c>
-      <c r="E88" s="27" t="n">
+      <c r="E88" s="26" t="n">
         <v>61</v>
       </c>
-      <c r="F88" s="28" t="n"/>
-      <c r="G88" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="H88" s="33" t="s"/>
+      <c r="F88" s="27" t="n"/>
+      <c r="G88" s="123" t="s">
+        <v>147</v>
+      </c>
+      <c r="H88" s="124" t="s"/>
     </row>
     <row outlineLevel="0" r="89">
       <c r="A89" s="22" t="n">
@@ -4171,15 +4953,17 @@
       </c>
       <c r="B89" s="17" t="n"/>
       <c r="C89" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="D89" s="83" t="n">
+        <v>143</v>
+      </c>
+      <c r="D89" s="125" t="n">
         <v>2.64</v>
       </c>
-      <c r="E89" s="84" t="n"/>
-      <c r="F89" s="85" t="n"/>
-      <c r="G89" s="86" t="n"/>
-      <c r="H89" s="87" t="s"/>
+      <c r="E89" s="126" t="n"/>
+      <c r="F89" s="17" t="n"/>
+      <c r="G89" s="127" t="s">
+        <v>148</v>
+      </c>
+      <c r="H89" s="128" t="s"/>
     </row>
     <row outlineLevel="0" r="90">
       <c r="A90" s="22" t="n">
@@ -4187,15 +4971,17 @@
       </c>
       <c r="B90" s="17" t="n"/>
       <c r="C90" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="D90" s="83" t="n">
+        <v>145</v>
+      </c>
+      <c r="D90" s="125" t="n">
         <v>0.54</v>
       </c>
-      <c r="E90" s="88" t="n"/>
-      <c r="F90" s="7" t="n"/>
-      <c r="G90" s="89" t="n"/>
-      <c r="H90" s="89" t="s"/>
+      <c r="E90" s="129" t="n"/>
+      <c r="F90" s="27" t="n"/>
+      <c r="G90" s="127" t="s">
+        <v>149</v>
+      </c>
+      <c r="H90" s="130" t="s"/>
     </row>
     <row outlineLevel="0" r="91">
       <c r="A91" s="17" t="n"/>
@@ -4203,69 +4989,77 @@
         <v>13</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D91" s="90" t="n"/>
+        <v>129</v>
+      </c>
+      <c r="D91" s="131" t="n"/>
       <c r="E91" s="5" t="n"/>
-      <c r="F91" s="91" t="n"/>
-      <c r="G91" s="92" t="n"/>
-      <c r="H91" s="92" t="s"/>
+      <c r="F91" s="21" t="n">
+        <v>12</v>
+      </c>
+      <c r="G91" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="H91" s="132" t="s"/>
     </row>
     <row outlineLevel="0" r="92">
       <c r="A92" s="22" t="n">
         <v>59</v>
       </c>
-      <c r="B92" s="26" t="n"/>
+      <c r="B92" s="25" t="n"/>
       <c r="C92" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="D92" s="34" t="s"/>
-      <c r="E92" s="93" t="n"/>
-      <c r="F92" s="7" t="n"/>
-      <c r="G92" s="94" t="n"/>
-      <c r="H92" s="94" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="D92" s="133" t="s"/>
+      <c r="E92" s="134" t="n"/>
+      <c r="F92" s="27" t="n"/>
+      <c r="G92" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="H92" s="135" t="s"/>
     </row>
     <row outlineLevel="0" r="93">
       <c r="C93" s="1" t="n"/>
       <c r="D93" s="1" t="n"/>
+      <c r="F93" s="1" t="n"/>
+      <c r="G93" s="1" t="n"/>
     </row>
     <row outlineLevel="0" r="94">
       <c r="C94" s="1" t="n"/>
       <c r="D94" s="1" t="n"/>
       <c r="E94" s="0" t="n"/>
-      <c r="F94" s="95" t="n"/>
-      <c r="G94" s="95" t="n"/>
+      <c r="F94" s="136" t="n"/>
+      <c r="G94" s="136" t="n"/>
       <c r="I94" s="0" t="n"/>
     </row>
     <row outlineLevel="0" r="95">
       <c r="C95" s="1" t="n"/>
       <c r="D95" s="1" t="n"/>
       <c r="E95" s="0" t="n"/>
-      <c r="F95" s="95" t="n"/>
-      <c r="G95" s="95" t="n"/>
-      <c r="H95" s="95" t="n"/>
+      <c r="F95" s="136" t="n"/>
+      <c r="G95" s="136" t="n"/>
+      <c r="H95" s="136" t="n"/>
       <c r="I95" s="0" t="n"/>
     </row>
     <row outlineLevel="0" r="96">
       <c r="C96" s="1" t="n"/>
       <c r="D96" s="1" t="n"/>
       <c r="E96" s="0" t="n"/>
-      <c r="F96" s="95" t="n"/>
-      <c r="G96" s="95" t="n"/>
-      <c r="H96" s="95" t="n"/>
+      <c r="F96" s="136" t="n"/>
+      <c r="G96" s="136" t="n"/>
+      <c r="H96" s="136" t="n"/>
       <c r="I96" s="0" t="n"/>
     </row>
     <row outlineLevel="0" r="97">
       <c r="C97" s="1" t="n"/>
       <c r="D97" s="1" t="n"/>
       <c r="E97" s="0" t="n"/>
-      <c r="F97" s="95" t="n"/>
-      <c r="G97" s="95" t="n"/>
-      <c r="H97" s="95" t="n"/>
+      <c r="F97" s="136" t="n"/>
+      <c r="G97" s="136" t="n"/>
+      <c r="H97" s="136" t="n"/>
       <c r="I97" s="0" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="75">
+  <mergeCells count="72">
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C18:D18"/>
@@ -4294,22 +5088,14 @@
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C85:D85"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C47:D47"/>
@@ -4323,24 +5109,29 @@
     <mergeCell ref="C65:D65"/>
     <mergeCell ref="C66:D66"/>
     <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G72:H72"/>
     <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G53:H53"/>
     <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G49:H49"/>
     <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G42:H42"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.300000011920929" header="0.300000011920929" left="0.700000047683716" right="0.700000047683716" top="0.75"/>
 </worksheet>

--- a/calc/files/letter2.xlsx
+++ b/calc/files/letter2.xlsx
@@ -37,7 +37,7 @@
         <rFont val="Arial"/>
         <sz val="11"/>
       </rPr>
-      <t>от 19 декабря 2024 № 1162</t>
+      <t>от 27.02.2025 № 193</t>
     </r>
   </si>
   <si>
@@ -68,7 +68,7 @@
         <color rgb="FF0000" tint="0"/>
         <sz val="11"/>
       </rPr>
-      <t>в действии c 01.01.2025</t>
+      <t>в действии c 01.03.2025</t>
     </r>
   </si>
   <si>
@@ -919,7 +919,6 @@
       <t>За хрупкие посылки с отметкой "Хрупкое и громоздкие взимается надбавка к плате за пересылку посылки   в   размере   50%.   Если   посылка   является   одновременно   хрупкой   и   громоздкой,   то дополнительная плата взимается только один раз</t>
     </r>
   </si>
-  <si/>
   <si>
     <r>
       <rPr>
@@ -1531,7 +1530,7 @@
         <rFont val="Arial"/>
         <sz val="11"/>
       </rPr>
-      <t>*При  пересылке  почтового  денежного  перевода  суммой  свыше  150,00  рублей  предоставляются скидки согласно действующему Положению о порядке применения скидок</t>
+      <t>*При  пересылке  почтового  денежного  перевода  суммой  свыше  200,00  рублей  предоставляются скидки согласно действующему Положению о порядке применения скидок</t>
     </r>
   </si>
   <si>
@@ -1695,17 +1694,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
   <numFmts>
-    <numFmt co:extendedFormatCode="0.0%" formatCode="0.0%" numFmtId="1004"/>
-    <numFmt co:extendedFormatCode="0.000" formatCode="0.000" numFmtId="1005"/>
-    <numFmt co:extendedFormatCode="0.00" formatCode="0.00" numFmtId="1003"/>
-    <numFmt co:extendedFormatCode="0.0000" formatCode="0.0000" numFmtId="1007"/>
-    <numFmt co:extendedFormatCode="0.00;-0.00" formatCode="0.00;-0.00" numFmtId="1001"/>
-    <numFmt co:extendedFormatCode="@" formatCode="@" numFmtId="1006"/>
-    <numFmt co:extendedFormatCode="0" formatCode="0" numFmtId="1002"/>
+    <numFmt co:extendedFormatCode="0" formatCode="0" numFmtId="1004"/>
+    <numFmt co:extendedFormatCode="0.0%" formatCode="0.0%" numFmtId="1006"/>
+    <numFmt co:extendedFormatCode="0.00" formatCode="0.00" numFmtId="1005"/>
+    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1012"/>
+    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1002"/>
+    <numFmt co:extendedFormatCode="0.00;-0.00" formatCode="0.00;-0.00" numFmtId="1003"/>
+    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1001"/>
     <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1000"/>
-    <numFmt co:extendedFormatCode="0.00%" formatCode="0.00%" numFmtId="1009"/>
-    <numFmt co:extendedFormatCode="0.00000;-0.00000" formatCode="0.00000;-0.00000" numFmtId="1008"/>
-    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1010"/>
+    <numFmt co:extendedFormatCode="@" formatCode="@" numFmtId="1008"/>
+    <numFmt co:extendedFormatCode="0.0000" formatCode="0.0000" numFmtId="1009"/>
+    <numFmt co:extendedFormatCode="0.00000;-0.00000" formatCode="0.00000;-0.00000" numFmtId="1010"/>
+    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1013"/>
+    <numFmt co:extendedFormatCode="0.000" formatCode="0.000" numFmtId="1007"/>
+    <numFmt co:extendedFormatCode="0.00%" formatCode="0.00%" numFmtId="1011"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -1749,7 +1751,9 @@
       <sz val="11"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b val="true"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1779,7 +1783,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="68">
+  <borders count="78">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -2110,17 +2114,6 @@
       </bottom>
     </border>
     <border>
-      <right style="thin">
-        <color rgb="000000" tint="0"/>
-      </right>
-      <top style="thin">
-        <color rgb="000000" tint="0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="000000" tint="0"/>
-      </bottom>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="000000" tint="0"/>
       </left>
@@ -2145,97 +2138,143 @@
       </bottom>
     </border>
     <border>
-      <right style="thin">
-        <color rgb="000000" tint="0"/>
-      </right>
-      <top style="thin">
-        <color rgb="000000" tint="0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="000000" tint="0"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="000000" tint="0"/>
-      </right>
-      <top style="thin">
-        <color rgb="000000" tint="0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="000000" tint="0"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="000000" tint="0"/>
-      </right>
-      <top style="thin">
-        <color rgb="000000" tint="0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="000000" tint="0"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="000000" tint="0"/>
-      </right>
-      <top style="thin">
-        <color rgb="000000" tint="0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="000000" tint="0"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="000000" tint="0"/>
-      </right>
-      <top style="thin">
-        <color rgb="000000" tint="0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="000000" tint="0"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="000000" tint="0"/>
-      </top>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="000000" tint="0"/>
-      </right>
-      <top style="thin">
-        <color rgb="000000" tint="0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="000000" tint="0"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="000000" tint="0"/>
-      </right>
-      <top style="thin">
-        <color rgb="000000" tint="0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="000000" tint="0"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="000000" tint="0"/>
-      </right>
-      <top style="thin">
-        <color rgb="000000" tint="0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="000000" tint="0"/>
-      </bottom>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
     </border>
     <border>
       <right style="thin">
@@ -2325,37 +2364,52 @@
       </bottom>
     </border>
     <border>
-      <right style="thin">
-        <color rgb="000000" tint="0"/>
-      </right>
-      <top style="thin">
-        <color rgb="000000" tint="0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="000000" tint="0"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="000000" tint="0"/>
-      </right>
-      <top style="thin">
-        <color rgb="000000" tint="0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="000000" tint="0"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="000000" tint="0"/>
-      </right>
-      <top style="thin">
-        <color rgb="000000" tint="0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="000000" tint="0"/>
-      </bottom>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
     </border>
     <border>
       <top style="thin">
@@ -2502,7 +2556,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="150">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2525,6 +2579,9 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="2" numFmtId="1001" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
@@ -2534,12 +2591,15 @@
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="bottom" wrapText="true"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="2" fontId="5" numFmtId="1002" quotePrefix="false">
+      <alignment horizontal="left" indent="2" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="3" numFmtId="1003" quotePrefix="false">
+      <alignment horizontal="center" vertical="bottom" wrapText="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="2" fontId="5" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" indent="2" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="3" numFmtId="1001" quotePrefix="false">
-      <alignment horizontal="center" vertical="bottom" wrapText="true"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
@@ -2555,7 +2615,7 @@
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="1002" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="1004" quotePrefix="false">
       <alignment horizontal="right" shrinkToFit="true" vertical="top"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
@@ -2564,349 +2624,382 @@
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="1002" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="1004" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1002" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1004" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1003" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1005" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1003" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1005" quotePrefix="false">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1002" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1004" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1005" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1006" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1007" quotePrefix="false">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="justify" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="justify" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1008" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1008" quotePrefix="false">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="1005" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1009" quotePrefix="false">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1010" quotePrefix="false">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1008" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="19" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="7" numFmtId="1005" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="20" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1006" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="21" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="22" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" indent="1" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="24" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="25" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="26" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="27" fillId="0" fontId="6" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="28" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" borderId="29" fillId="0" fontId="8" quotePrefix="false">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1003" quotePrefix="false">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="1003" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" borderId="29" fillId="0" fontId="9" quotePrefix="false">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1011" quotePrefix="false">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="32" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="33" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="34" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="justify" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="35" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="justify" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="36" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="justify" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="37" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="justify" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="38" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1005" quotePrefix="false">
+      <alignment horizontal="right" indent="6" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="39" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="40" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="41" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="42" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="43" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="44" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="45" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="46" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="47" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="48" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1006" quotePrefix="false">
+      <alignment horizontal="right" indent="6" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="49" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="50" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="51" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="52" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="53" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="3" numFmtId="1004" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="55" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="56" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="57" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="justify" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1011" quotePrefix="false">
+      <alignment horizontal="right" indent="5" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1006" quotePrefix="false">
+      <alignment horizontal="right" indent="6" shrinkToFit="true" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="58" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="59" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1011" quotePrefix="false">
+      <alignment horizontal="right" indent="5" shrinkToFit="true" vertical="center"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1003" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1004" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1003" quotePrefix="false">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1007" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1005" quotePrefix="false">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="justify" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="justify" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1006" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1006" quotePrefix="false">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="1003" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1007" quotePrefix="false">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1008" quotePrefix="false">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1006" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="19" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="7" numFmtId="1003" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="20" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1004" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="21" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="22" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" indent="1" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="24" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="25" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="26" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="27" fillId="0" fontId="6" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="28" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" borderId="29" fillId="0" fontId="8" quotePrefix="false">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1001" quotePrefix="false">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1001" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" borderId="29" fillId="0" fontId="9" quotePrefix="false">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1009" quotePrefix="false">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1010" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="32" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="justify" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="33" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="justify" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="34" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="justify" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="35" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="justify" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="36" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1003" quotePrefix="false">
-      <alignment horizontal="right" indent="6" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="37" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="38" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="39" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="40" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="41" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="42" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1004" quotePrefix="false">
-      <alignment horizontal="right" indent="6" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="43" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="44" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="45" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="46" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="47" fillId="0" fontId="3" numFmtId="1002" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="47" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="47" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="48" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="49" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="50" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="justify" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1009" quotePrefix="false">
-      <alignment horizontal="right" indent="5" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1004" quotePrefix="false">
-      <alignment horizontal="right" indent="6" shrinkToFit="true" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="51" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1009" quotePrefix="false">
-      <alignment horizontal="right" indent="5" shrinkToFit="true" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1001" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1001" quotePrefix="false">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1005" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1004" quotePrefix="false">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="52" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="justify" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="10" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="53" fillId="0" fontId="10" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="55" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="56" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="57" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="58" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="59" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="justify" vertical="top" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="60" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="justify" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="61" fillId="0" fontId="3" numFmtId="1003" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="10" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="61" fillId="0" fontId="10" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="justify" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="62" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="justify" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="2" numFmtId="1012" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="63" fillId="0" fontId="2" numFmtId="1012" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="64" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="65" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="66" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="67" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="68" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="69" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="70" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="justify" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="71" fillId="0" fontId="3" numFmtId="1005" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="62" fillId="0" fontId="3" numFmtId="1002" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="72" fillId="0" fontId="3" numFmtId="1004" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="justify" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="63" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="73" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="justify" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1002" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1004" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="64" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="74" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="justify" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="61" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="71" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="65" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="66" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1002" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="75" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1013" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="76" fillId="0" fontId="2" numFmtId="1013" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1004" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="67" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="77" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="justify" vertical="top" wrapText="true"/>
     </xf>
     <xf applyBorder="false" applyFill="false" applyFont="true" borderId="0" fillId="0" fontId="11" quotePrefix="false"/>
@@ -3183,1839 +3276,1837 @@
       <c r="E3" s="5" t="n"/>
       <c r="F3" s="3" t="n"/>
       <c r="G3" s="3" t="n"/>
-      <c r="H3" s="8" t="str">
+      <c r="H3" s="9" t="str">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D3</f>
-        <v>от 19 декабря 2024 № 1162</v>
+        <v>от 27.02.2025 № 193</v>
       </c>
     </row>
     <row customHeight="true" ht="41.25" outlineLevel="0" r="4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s"/>
-      <c r="C4" s="9" t="s"/>
-      <c r="D4" s="9" t="s"/>
-      <c r="E4" s="9" t="s">
+      <c r="B4" s="10" t="s"/>
+      <c r="C4" s="10" t="s"/>
+      <c r="D4" s="10" t="s"/>
+      <c r="E4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="9" t="s"/>
-      <c r="G4" s="9" t="s"/>
-      <c r="H4" s="9" t="s"/>
+      <c r="F4" s="10" t="s"/>
+      <c r="G4" s="10" t="s"/>
+      <c r="H4" s="10" t="s"/>
     </row>
     <row customHeight="true" ht="17" outlineLevel="0" r="5">
-      <c r="A5" s="10" t="n"/>
-      <c r="B5" s="10" t="n"/>
-      <c r="C5" s="10" t="n"/>
-      <c r="D5" s="11" t="s">
+      <c r="A5" s="11" t="n"/>
+      <c r="B5" s="11" t="n"/>
+      <c r="C5" s="11" t="n"/>
+      <c r="D5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="12" t="n"/>
-      <c r="F5" s="10" t="n"/>
-      <c r="G5" s="10" t="n"/>
-      <c r="H5" s="11" t="str">
+      <c r="E5" s="13" t="n"/>
+      <c r="F5" s="11" t="n"/>
+      <c r="G5" s="11" t="n"/>
+      <c r="H5" s="14" t="str">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D5</f>
-        <v>в действии c 01.01.2025</v>
+        <v>в действии c 01.03.2025</v>
       </c>
     </row>
     <row customHeight="true" ht="27.25" outlineLevel="0" r="6">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="7">
-      <c r="A7" s="17" t="n"/>
-      <c r="B7" s="18" t="n">
+      <c r="A7" s="19" t="n"/>
+      <c r="B7" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="17" t="n"/>
-      <c r="E7" s="20" t="n"/>
-      <c r="F7" s="21" t="n">
+      <c r="D7" s="19" t="n"/>
+      <c r="E7" s="22" t="n"/>
+      <c r="F7" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="17" t="n"/>
+      <c r="H7" s="19" t="n"/>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="8">
-      <c r="A8" s="22" t="n">
+      <c r="A8" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="B8" s="17" t="n"/>
-      <c r="C8" s="13" t="s">
+      <c r="B8" s="19" t="n"/>
+      <c r="C8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="23" t="n">
+      <c r="D8" s="25" t="n">
         <v>2.94</v>
       </c>
-      <c r="E8" s="22" t="n">
+      <c r="E8" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="F8" s="17" t="n"/>
-      <c r="G8" s="13" t="s">
+      <c r="F8" s="19" t="n"/>
+      <c r="G8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="23" t="n">
+      <c r="H8" s="25" t="n">
         <v>2.45</v>
       </c>
-      <c r="I8" s="24" t="n"/>
+      <c r="I8" s="26" t="n"/>
       <c r="J8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="9">
-      <c r="A9" s="17" t="n"/>
-      <c r="B9" s="18" t="n">
+      <c r="A9" s="19" t="n"/>
+      <c r="B9" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="17" t="n"/>
-      <c r="E9" s="20" t="n"/>
-      <c r="F9" s="21" t="n">
+      <c r="D9" s="19" t="n"/>
+      <c r="E9" s="22" t="n"/>
+      <c r="F9" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="17" t="n"/>
-      <c r="I9" s="24" t="n"/>
+      <c r="H9" s="19" t="n"/>
+      <c r="I9" s="26" t="n"/>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="10">
-      <c r="A10" s="22" t="n">
+      <c r="A10" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="B10" s="17" t="n"/>
-      <c r="C10" s="13" t="s">
+      <c r="B10" s="19" t="n"/>
+      <c r="C10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="23" t="n">
+      <c r="D10" s="25" t="n">
         <v>3.24</v>
       </c>
-      <c r="E10" s="22" t="n">
+      <c r="E10" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="F10" s="17" t="n"/>
-      <c r="G10" s="13" t="s">
+      <c r="F10" s="19" t="n"/>
+      <c r="G10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="23" t="n">
+      <c r="H10" s="25" t="n">
         <v>2.7</v>
       </c>
-      <c r="I10" s="24" t="n">
+      <c r="I10" s="26" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H10*1.2</f>
         <v>3.24</v>
       </c>
-      <c r="J10" s="24" t="n"/>
-      <c r="K10" s="24" t="n"/>
+      <c r="J10" s="26" t="n"/>
+      <c r="K10" s="26" t="n"/>
     </row>
     <row customHeight="true" ht="25.9999694824219" outlineLevel="0" r="11">
-      <c r="A11" s="22" t="n">
+      <c r="A11" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="B11" s="17" t="n"/>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="19" t="n"/>
+      <c r="C11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="23" t="n">
+      <c r="D11" s="25" t="n">
         <v>0.07</v>
       </c>
-      <c r="E11" s="22" t="n">
+      <c r="E11" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="F11" s="17" t="n"/>
-      <c r="G11" s="25" t="s">
+      <c r="F11" s="19" t="n"/>
+      <c r="G11" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="23" t="n">
+      <c r="H11" s="25" t="n">
         <v>0.06</v>
       </c>
-      <c r="I11" s="24" t="n"/>
-      <c r="J11" s="24" t="n"/>
-      <c r="K11" s="24" t="n"/>
+      <c r="I11" s="26" t="n"/>
+      <c r="J11" s="26" t="n"/>
+      <c r="K11" s="26" t="n"/>
     </row>
     <row customHeight="true" ht="12.75" outlineLevel="0" r="12">
-      <c r="A12" s="17" t="n"/>
-      <c r="B12" s="18" t="n">
+      <c r="A12" s="19" t="n"/>
+      <c r="B12" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="17" t="n"/>
-      <c r="E12" s="20" t="n"/>
-      <c r="F12" s="21" t="n">
+      <c r="D12" s="19" t="n"/>
+      <c r="E12" s="22" t="n"/>
+      <c r="F12" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="17" t="n"/>
-      <c r="I12" s="24" t="n"/>
+      <c r="H12" s="19" t="n"/>
+      <c r="I12" s="26" t="n"/>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="13">
-      <c r="A13" s="22" t="n">
+      <c r="A13" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="B13" s="17" t="n"/>
-      <c r="C13" s="13" t="s">
+      <c r="B13" s="19" t="n"/>
+      <c r="C13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="23" t="n">
+      <c r="D13" s="25" t="n">
         <v>0.9</v>
       </c>
-      <c r="E13" s="22" t="n">
+      <c r="E13" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="F13" s="17" t="n"/>
-      <c r="G13" s="13" t="s">
+      <c r="F13" s="19" t="n"/>
+      <c r="G13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="23" t="n">
+      <c r="H13" s="25" t="n">
         <v>0.75</v>
       </c>
-      <c r="I13" s="24" t="n"/>
+      <c r="I13" s="26" t="n"/>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="14">
-      <c r="A14" s="22" t="n">
+      <c r="A14" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="B14" s="17" t="n"/>
-      <c r="C14" s="13" t="s">
+      <c r="B14" s="19" t="n"/>
+      <c r="C14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="23" t="n">
+      <c r="D14" s="25" t="n">
         <v>3.24</v>
       </c>
-      <c r="E14" s="22" t="n">
+      <c r="E14" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="F14" s="17" t="n"/>
-      <c r="G14" s="13" t="s">
+      <c r="F14" s="19" t="n"/>
+      <c r="G14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="23" t="n">
+      <c r="H14" s="25" t="n">
         <v>2.7</v>
       </c>
-      <c r="I14" s="24" t="n"/>
+      <c r="I14" s="26" t="n"/>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="15">
-      <c r="A15" s="22" t="n">
+      <c r="A15" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="B15" s="17" t="n"/>
-      <c r="C15" s="13" t="s">
+      <c r="B15" s="19" t="n"/>
+      <c r="C15" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="23" t="n">
+      <c r="D15" s="25" t="n">
         <v>3.72</v>
       </c>
-      <c r="E15" s="22" t="n">
+      <c r="E15" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="F15" s="17" t="n"/>
-      <c r="G15" s="13" t="s">
+      <c r="F15" s="19" t="n"/>
+      <c r="G15" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="23" t="n">
+      <c r="H15" s="25" t="n">
         <v>3.2</v>
       </c>
-      <c r="I15" s="24" t="n">
+      <c r="I15" s="26" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H15*1.2</f>
         <v>3.84</v>
       </c>
     </row>
     <row customHeight="true" ht="43.25" outlineLevel="0" r="16">
-      <c r="A16" s="26" t="n">
+      <c r="A16" s="28" t="n">
         <v>7</v>
       </c>
-      <c r="B16" s="27" t="n"/>
-      <c r="C16" s="25" t="s">
+      <c r="B16" s="29" t="n"/>
+      <c r="C16" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="28" t="n">
+      <c r="D16" s="30" t="n">
         <v>0.07</v>
       </c>
-      <c r="E16" s="26" t="n">
+      <c r="E16" s="28" t="n">
         <v>7</v>
       </c>
-      <c r="F16" s="25" t="n"/>
-      <c r="G16" s="13" t="s">
+      <c r="F16" s="27" t="n"/>
+      <c r="G16" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="28" t="n">
+      <c r="H16" s="30" t="n">
         <v>0.06</v>
       </c>
-      <c r="I16" s="24" t="n"/>
+      <c r="I16" s="26" t="n"/>
     </row>
     <row customHeight="true" ht="22.75" outlineLevel="0" r="17">
-      <c r="A17" s="22" t="n">
+      <c r="A17" s="24" t="n">
         <v>8</v>
       </c>
-      <c r="B17" s="27" t="n"/>
-      <c r="C17" s="13" t="s">
+      <c r="B17" s="29" t="n"/>
+      <c r="C17" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="29" t="n">
+      <c r="D17" s="31" t="n">
         <v>0.036</v>
       </c>
-      <c r="E17" s="22" t="n">
+      <c r="E17" s="24" t="n">
         <v>8</v>
       </c>
-      <c r="F17" s="17" t="n"/>
-      <c r="G17" s="13" t="s">
+      <c r="F17" s="19" t="n"/>
+      <c r="G17" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="29" t="n">
+      <c r="H17" s="31" t="n">
         <v>0.03</v>
       </c>
-      <c r="I17" s="30" t="n"/>
+      <c r="I17" s="32" t="n"/>
     </row>
     <row customHeight="true" ht="36.3837280273438" outlineLevel="0" r="18">
-      <c r="A18" s="26" t="n">
+      <c r="A18" s="28" t="n">
         <v>9</v>
       </c>
-      <c r="B18" s="27" t="n"/>
-      <c r="C18" s="31" t="s">
+      <c r="B18" s="29" t="n"/>
+      <c r="C18" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="32" t="s"/>
-      <c r="E18" s="26" t="n">
+      <c r="D18" s="34" t="s"/>
+      <c r="E18" s="28" t="n">
         <v>9</v>
       </c>
-      <c r="F18" s="25" t="n"/>
-      <c r="G18" s="13" t="s">
+      <c r="F18" s="27" t="n"/>
+      <c r="G18" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="33" t="s"/>
-      <c r="I18" s="24" t="n"/>
-      <c r="J18" s="34" t="n"/>
+      <c r="H18" s="35" t="s"/>
+      <c r="I18" s="26" t="n"/>
+      <c r="J18" s="36" t="n"/>
     </row>
     <row customHeight="true" ht="49.1162414550781" outlineLevel="0" r="19">
-      <c r="A19" s="26" t="n">
+      <c r="A19" s="28" t="n">
         <v>10</v>
       </c>
-      <c r="B19" s="27" t="n"/>
-      <c r="C19" s="13" t="s">
+      <c r="B19" s="29" t="n"/>
+      <c r="C19" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="35" t="s"/>
-      <c r="E19" s="26" t="n">
+      <c r="D19" s="37" t="s"/>
+      <c r="E19" s="28" t="n">
         <v>10</v>
       </c>
-      <c r="F19" s="27" t="n"/>
-      <c r="G19" s="13" t="s">
+      <c r="F19" s="29" t="n"/>
+      <c r="G19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="36" t="s"/>
-      <c r="I19" s="24" t="n"/>
+      <c r="H19" s="38" t="s"/>
+      <c r="I19" s="26" t="n"/>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="20">
-      <c r="A20" s="17" t="n"/>
-      <c r="B20" s="18" t="n">
+      <c r="A20" s="19" t="n"/>
+      <c r="B20" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="37" t="s"/>
-      <c r="E20" s="20" t="n"/>
-      <c r="F20" s="21" t="n">
+      <c r="D20" s="39" t="s"/>
+      <c r="E20" s="22" t="n"/>
+      <c r="F20" s="23" t="n">
         <v>4</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="38" t="s"/>
-      <c r="I20" s="24" t="n"/>
+      <c r="H20" s="40" t="s"/>
+      <c r="I20" s="26" t="n"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="21">
-      <c r="A21" s="22" t="n">
+      <c r="A21" s="24" t="n">
         <v>11</v>
       </c>
-      <c r="B21" s="17" t="n"/>
-      <c r="C21" s="13" t="s">
+      <c r="B21" s="19" t="n"/>
+      <c r="C21" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="23" t="n">
+      <c r="D21" s="25" t="n">
         <v>2.04</v>
       </c>
-      <c r="E21" s="22" t="n">
+      <c r="E21" s="24" t="n">
         <v>11</v>
       </c>
-      <c r="F21" s="17" t="n"/>
-      <c r="G21" s="13" t="s">
+      <c r="F21" s="19" t="n"/>
+      <c r="G21" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="23" t="n">
+      <c r="H21" s="25" t="n">
         <v>1.7</v>
       </c>
-      <c r="I21" s="24" t="n"/>
+      <c r="I21" s="26" t="n"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="22">
-      <c r="A22" s="22" t="n">
+      <c r="A22" s="24" t="n">
         <v>12</v>
       </c>
-      <c r="B22" s="17" t="n"/>
-      <c r="C22" s="13" t="s">
+      <c r="B22" s="19" t="n"/>
+      <c r="C22" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="23" t="n">
+      <c r="D22" s="25" t="n">
         <v>0.42</v>
       </c>
-      <c r="E22" s="22" t="n">
+      <c r="E22" s="24" t="n">
         <v>12</v>
       </c>
-      <c r="F22" s="17" t="n"/>
-      <c r="G22" s="13" t="s">
+      <c r="F22" s="19" t="n"/>
+      <c r="G22" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H22" s="23" t="n">
+      <c r="H22" s="25" t="n">
         <v>0.35</v>
       </c>
-      <c r="I22" s="24" t="n"/>
+      <c r="I22" s="26" t="n"/>
     </row>
     <row customHeight="true" ht="36.75" outlineLevel="0" r="23">
-      <c r="A23" s="26" t="n">
+      <c r="A23" s="28" t="n">
         <v>13</v>
       </c>
-      <c r="B23" s="27" t="n"/>
-      <c r="C23" s="13" t="s">
+      <c r="B23" s="29" t="n"/>
+      <c r="C23" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="39" t="s"/>
-      <c r="E23" s="26" t="n">
+      <c r="D23" s="41" t="s"/>
+      <c r="E23" s="28" t="n">
         <v>13</v>
       </c>
-      <c r="F23" s="27" t="n"/>
-      <c r="G23" s="13" t="s">
+      <c r="F23" s="29" t="n"/>
+      <c r="G23" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="40" t="s"/>
+      <c r="H23" s="42" t="s"/>
     </row>
     <row customHeight="true" ht="38" outlineLevel="0" r="24">
-      <c r="A24" s="26" t="n">
+      <c r="A24" s="28" t="n">
         <v>14</v>
       </c>
-      <c r="B24" s="27" t="n"/>
-      <c r="C24" s="13" t="s">
+      <c r="B24" s="29" t="n"/>
+      <c r="C24" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="41" t="s"/>
-      <c r="E24" s="26" t="n">
+      <c r="D24" s="43" t="s"/>
+      <c r="E24" s="28" t="n">
         <v>14</v>
       </c>
-      <c r="F24" s="25" t="n"/>
-      <c r="G24" s="13" t="s">
+      <c r="F24" s="27" t="n"/>
+      <c r="G24" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="42" t="s"/>
+      <c r="H24" s="44" t="s"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="25">
-      <c r="A25" s="17" t="n"/>
-      <c r="B25" s="18" t="n">
+      <c r="A25" s="19" t="n"/>
+      <c r="B25" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="43" t="s"/>
-      <c r="E25" s="20" t="n"/>
-      <c r="F25" s="21" t="n">
+      <c r="D25" s="45" t="s"/>
+      <c r="E25" s="22" t="n"/>
+      <c r="F25" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="G25" s="19" t="s">
+      <c r="G25" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="H25" s="17" t="n"/>
-      <c r="K25" s="24" t="n"/>
+      <c r="H25" s="19" t="n"/>
+      <c r="K25" s="26" t="n"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="26">
-      <c r="A26" s="44" t="n">
+      <c r="A26" s="46" t="n">
         <v>15</v>
       </c>
-      <c r="B26" s="17" t="n"/>
-      <c r="C26" s="13" t="s">
+      <c r="B26" s="19" t="n"/>
+      <c r="C26" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="45" t="s"/>
-      <c r="E26" s="20" t="n"/>
-      <c r="F26" s="17" t="n"/>
-      <c r="G26" s="13" t="s">
+      <c r="D26" s="47" t="s"/>
+      <c r="E26" s="22" t="n"/>
+      <c r="F26" s="19" t="n"/>
+      <c r="G26" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="H26" s="46" t="s"/>
+      <c r="H26" s="48" t="s"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="27">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="17" t="n"/>
-      <c r="C27" s="13" t="s">
+      <c r="B27" s="19" t="n"/>
+      <c r="C27" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="23" t="n">
+      <c r="D27" s="50" t="n">
+        <v>4</v>
+      </c>
+      <c r="E27" s="24" t="n">
+        <v>15</v>
+      </c>
+      <c r="F27" s="19" t="n"/>
+      <c r="G27" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="50" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I27" s="51" t="n"/>
+      <c r="J27" s="51" t="n"/>
+      <c r="K27" s="51" t="n"/>
+    </row>
+    <row customHeight="true" ht="28.75" outlineLevel="0" r="28">
+      <c r="A28" s="46" t="n">
+        <v>16</v>
+      </c>
+      <c r="B28" s="29" t="n"/>
+      <c r="C28" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="52" t="s"/>
+      <c r="E28" s="24" t="n">
+        <v>16</v>
+      </c>
+      <c r="F28" s="19" t="n"/>
+      <c r="G28" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="50" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I28" s="26" t="n"/>
+      <c r="J28" s="36" t="n"/>
+      <c r="K28" s="53" t="n"/>
+      <c r="L28" s="36" t="n"/>
+      <c r="M28" s="36" t="n"/>
+      <c r="N28" s="36" t="n"/>
+      <c r="O28" s="36" t="n"/>
+    </row>
+    <row customHeight="true" ht="45.4999389648438" outlineLevel="0" r="29">
+      <c r="A29" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="19" t="n"/>
+      <c r="C29" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="50" t="n">
+        <v>4</v>
+      </c>
+      <c r="E29" s="24" t="n">
+        <v>17</v>
+      </c>
+      <c r="F29" s="29" t="n"/>
+      <c r="G29" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" s="54" t="s"/>
+      <c r="I29" s="26" t="n"/>
+      <c r="J29" s="36" t="n"/>
+      <c r="K29" s="51" t="n"/>
+      <c r="L29" s="36" t="n"/>
+      <c r="M29" s="36" t="n"/>
+      <c r="N29" s="36" t="n"/>
+    </row>
+    <row customHeight="true" hidden="false" ht="45" outlineLevel="0" r="30">
+      <c r="A30" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="19" t="n"/>
+      <c r="C30" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="50" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E30" s="28" t="n">
+        <v>18</v>
+      </c>
+      <c r="F30" s="29" t="n"/>
+      <c r="G30" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="55" t="s"/>
+      <c r="I30" s="26" t="n"/>
+    </row>
+    <row customHeight="true" ht="38.75" outlineLevel="0" r="31">
+      <c r="A31" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="27" t="n"/>
+      <c r="C31" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="57" t="s"/>
+      <c r="E31" s="24" t="n">
+        <v>19</v>
+      </c>
+      <c r="F31" s="29" t="n"/>
+      <c r="G31" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31" s="58" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="36.4999389648438" outlineLevel="0" r="32">
+      <c r="A32" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="29" t="n"/>
+      <c r="C32" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="59" t="s"/>
+      <c r="E32" s="28" t="n">
+        <v>20</v>
+      </c>
+      <c r="F32" s="29" t="n"/>
+      <c r="G32" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32" s="60" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="36.4999389648438" outlineLevel="0" r="33">
+      <c r="A33" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="24" t="n">
+        <v>21</v>
+      </c>
+      <c r="F33" s="29" t="n"/>
+      <c r="G33" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" s="61" t="s"/>
+    </row>
+    <row outlineLevel="0" r="34">
+      <c r="A34" s="28" t="n">
+        <v>19</v>
+      </c>
+      <c r="B34" s="29" t="n"/>
+      <c r="C34" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="62" t="s"/>
+      <c r="E34" s="28" t="n">
+        <v>22</v>
+      </c>
+      <c r="F34" s="29" t="n"/>
+      <c r="G34" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="64" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="35">
+      <c r="A35" s="24" t="n">
+        <v>20</v>
+      </c>
+      <c r="B35" s="29" t="n"/>
+      <c r="C35" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="31" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E35" s="28" t="n">
+        <v>23</v>
+      </c>
+      <c r="F35" s="29" t="n"/>
+      <c r="G35" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="H35" s="65" t="s"/>
+    </row>
+    <row outlineLevel="0" r="36">
+      <c r="A36" s="24" t="n">
+        <v>21</v>
+      </c>
+      <c r="B36" s="29" t="n"/>
+      <c r="C36" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="66" t="s"/>
+      <c r="E36" s="24" t="n">
+        <v>24</v>
+      </c>
+      <c r="F36" s="19" t="n"/>
+      <c r="G36" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="31" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="37">
+      <c r="A37" s="24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B37" s="29" t="n"/>
+      <c r="C37" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="67" t="s"/>
+      <c r="E37" s="24" t="n">
+        <v>25</v>
+      </c>
+      <c r="F37" s="29" t="n"/>
+      <c r="G37" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="H37" s="68" t="s"/>
+    </row>
+    <row outlineLevel="0" r="38">
+      <c r="A38" s="29" t="n"/>
+      <c r="B38" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C38" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="70" t="s"/>
+      <c r="E38" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="39">
+      <c r="A39" s="24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B39" s="29" t="n"/>
+      <c r="C39" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="71" t="s"/>
+      <c r="E39" s="24" t="n"/>
+      <c r="F39" s="72" t="n">
+        <v>6</v>
+      </c>
+      <c r="G39" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="H39" s="73" t="n"/>
+    </row>
+    <row outlineLevel="0" r="40">
+      <c r="A40" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="29" t="n"/>
+      <c r="C40" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="74" t="n">
         <v>3.5</v>
       </c>
-      <c r="E27" s="22" t="n">
+      <c r="E40" s="22" t="n"/>
+      <c r="F40" s="75" t="n">
+        <v>26</v>
+      </c>
+      <c r="G40" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H40" s="73" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="41">
+      <c r="A41" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="29" t="n"/>
+      <c r="C41" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="50" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E41" s="24" t="n">
+        <v>26</v>
+      </c>
+      <c r="F41" s="75" t="n">
+        <v>27</v>
+      </c>
+      <c r="G41" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="H41" s="76" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="42">
+      <c r="A42" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="29" t="n"/>
+      <c r="C42" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="50" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E42" s="24" t="n">
+        <v>27</v>
+      </c>
+      <c r="F42" s="75" t="n">
+        <v>28</v>
+      </c>
+      <c r="G42" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="H42" s="78" t="s"/>
+    </row>
+    <row outlineLevel="0" r="43">
+      <c r="A43" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="29" t="n"/>
+      <c r="C43" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" s="79" t="s"/>
+      <c r="E43" s="24" t="n">
+        <v>28</v>
+      </c>
+      <c r="F43" s="23" t="n">
+        <v>7</v>
+      </c>
+      <c r="G43" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="H43" s="81" t="s"/>
+    </row>
+    <row outlineLevel="0" r="44">
+      <c r="A44" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="29" t="n"/>
+      <c r="C44" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="25" t="n">
+        <v>4</v>
+      </c>
+      <c r="E44" s="82" t="n"/>
+      <c r="F44" s="19" t="n"/>
+      <c r="G44" s="80" t="s">
+        <v>77</v>
+      </c>
+      <c r="H44" s="83" t="s"/>
+    </row>
+    <row outlineLevel="0" r="45">
+      <c r="A45" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" s="29" t="n"/>
+      <c r="C45" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="25" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E45" s="24" t="n">
+        <v>29</v>
+      </c>
+      <c r="F45" s="22" t="n">
+        <v>29</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H45" s="25" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="46">
+      <c r="A46" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="27" t="n"/>
+      <c r="C46" s="84" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="85" t="s"/>
+      <c r="E46" s="24" t="n">
+        <v>30</v>
+      </c>
+      <c r="F46" s="22" t="n">
+        <v>30</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H46" s="25" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="47">
+      <c r="A47" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="27" t="n"/>
+      <c r="C47" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="86" t="s"/>
+      <c r="E47" s="24" t="n">
+        <v>31</v>
+      </c>
+      <c r="F47" s="22" t="n">
+        <v>31</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H47" s="25" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="48">
+      <c r="A48" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="27" t="n"/>
+      <c r="C48" s="84" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="87" t="s"/>
+      <c r="E48" s="24" t="n"/>
+      <c r="F48" s="22" t="n"/>
+      <c r="G48" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="H48" s="88" t="s"/>
+    </row>
+    <row outlineLevel="0" r="49">
+      <c r="A49" s="24" t="n">
+        <v>28</v>
+      </c>
+      <c r="B49" s="29" t="n"/>
+      <c r="C49" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="31" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E49" s="24" t="n">
+        <v>32</v>
+      </c>
+      <c r="F49" s="22" t="n">
+        <v>32</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H49" s="89" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="50">
+      <c r="A50" s="24" t="n">
+        <v>29</v>
+      </c>
+      <c r="B50" s="29" t="n"/>
+      <c r="C50" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" s="90" t="s"/>
+      <c r="E50" s="24" t="n">
+        <v>33</v>
+      </c>
+      <c r="F50" s="22" t="n">
+        <v>33</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H50" s="89" t="n">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="51">
+      <c r="A51" s="24" t="n"/>
+      <c r="B51" s="29" t="n">
+        <v>7</v>
+      </c>
+      <c r="C51" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" s="73" t="n"/>
+      <c r="E51" s="24" t="n">
+        <v>34</v>
+      </c>
+      <c r="F51" s="22" t="n">
+        <v>34</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H51" s="89" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="52">
+      <c r="A52" s="24" t="n">
+        <v>30</v>
+      </c>
+      <c r="B52" s="29" t="n"/>
+      <c r="C52" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" s="73" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E52" s="82" t="n"/>
+      <c r="F52" s="29" t="n"/>
+      <c r="G52" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="H52" s="91" t="s"/>
+    </row>
+    <row outlineLevel="0" r="53">
+      <c r="A53" s="24" t="n">
+        <v>31</v>
+      </c>
+      <c r="B53" s="29" t="n"/>
+      <c r="C53" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="76" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E53" s="24" t="n">
+        <v>35</v>
+      </c>
+      <c r="F53" s="29" t="n"/>
+      <c r="G53" s="92" t="s">
+        <v>95</v>
+      </c>
+      <c r="H53" s="93" t="s"/>
+    </row>
+    <row outlineLevel="0" r="54">
+      <c r="A54" s="24" t="n">
+        <v>32</v>
+      </c>
+      <c r="B54" s="29" t="n"/>
+      <c r="C54" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" s="94" t="s"/>
+      <c r="E54" s="24" t="n">
+        <v>36</v>
+      </c>
+      <c r="F54" s="29" t="n"/>
+      <c r="G54" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="H54" s="95" t="s"/>
+    </row>
+    <row outlineLevel="0" r="55">
+      <c r="A55" s="29" t="n"/>
+      <c r="B55" s="20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55" s="96" t="s"/>
+      <c r="E55" s="24" t="n">
+        <v>37</v>
+      </c>
+      <c r="F55" s="29" t="n"/>
+      <c r="G55" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="H55" s="97" t="s"/>
+    </row>
+    <row outlineLevel="0" r="56">
+      <c r="A56" s="19" t="n"/>
+      <c r="B56" s="19" t="n"/>
+      <c r="C56" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" s="98" t="s"/>
+      <c r="E56" s="24" t="n">
+        <v>38</v>
+      </c>
+      <c r="F56" s="23" t="n">
+        <v>7</v>
+      </c>
+      <c r="G56" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="H56" s="99" t="s"/>
+    </row>
+    <row outlineLevel="0" r="57">
+      <c r="A57" s="24" t="n">
+        <v>33</v>
+      </c>
+      <c r="B57" s="19" t="n"/>
+      <c r="C57" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D57" s="25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E57" s="24" t="n">
+        <v>39</v>
+      </c>
+      <c r="F57" s="19" t="n"/>
+      <c r="G57" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="H57" s="89" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="58">
+      <c r="A58" s="24" t="n">
+        <v>34</v>
+      </c>
+      <c r="B58" s="19" t="n"/>
+      <c r="C58" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D58" s="25" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E58" s="82" t="n"/>
+      <c r="F58" s="19" t="n"/>
+      <c r="G58" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="H58" s="89" t="n">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="59">
+      <c r="A59" s="24" t="n">
+        <v>35</v>
+      </c>
+      <c r="B59" s="19" t="n"/>
+      <c r="C59" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59" s="25" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="E59" s="24" t="n">
+        <v>40</v>
+      </c>
+      <c r="F59" s="19" t="n"/>
+      <c r="G59" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="H59" s="89" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="60">
+      <c r="A60" s="19" t="n"/>
+      <c r="B60" s="19" t="n"/>
+      <c r="C60" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D60" s="100" t="s"/>
+      <c r="E60" s="24" t="n">
+        <v>41</v>
+      </c>
+      <c r="F60" s="29" t="n"/>
+      <c r="G60" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H60" s="101" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="61">
+      <c r="A61" s="24" t="n">
+        <v>36</v>
+      </c>
+      <c r="B61" s="19" t="n"/>
+      <c r="C61" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61" s="25" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E61" s="24" t="n">
+        <v>42</v>
+      </c>
+      <c r="F61" s="29" t="n"/>
+      <c r="G61" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="H61" s="102" t="s"/>
+    </row>
+    <row outlineLevel="0" r="62">
+      <c r="A62" s="24" t="n">
+        <v>37</v>
+      </c>
+      <c r="B62" s="19" t="n"/>
+      <c r="C62" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D62" s="25" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="E62" s="22" t="n"/>
+      <c r="F62" s="23" t="n">
+        <v>8</v>
+      </c>
+      <c r="G62" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="H62" s="103" t="s"/>
+    </row>
+    <row outlineLevel="0" r="63">
+      <c r="A63" s="24" t="n">
+        <v>38</v>
+      </c>
+      <c r="B63" s="19" t="n"/>
+      <c r="C63" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D63" s="25" t="n">
+        <v>9.72</v>
+      </c>
+      <c r="E63" s="24" t="n">
+        <v>43</v>
+      </c>
+      <c r="F63" s="19" t="n"/>
+      <c r="G63" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="H63" s="89" t="n">
         <v>15</v>
       </c>
-      <c r="F27" s="17" t="n"/>
-      <c r="G27" s="13" t="s">
+    </row>
+    <row outlineLevel="0" r="64">
+      <c r="A64" s="29" t="n"/>
+      <c r="B64" s="29" t="n"/>
+      <c r="C64" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D64" s="104" t="s"/>
+      <c r="E64" s="82" t="n"/>
+      <c r="F64" s="19" t="n"/>
+      <c r="G64" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="H64" s="89" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="65">
+      <c r="A65" s="28" t="n">
+        <v>39</v>
+      </c>
+      <c r="B65" s="29" t="n"/>
+      <c r="C65" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="D65" s="105" t="s"/>
+      <c r="E65" s="24" t="n">
+        <v>44</v>
+      </c>
+      <c r="F65" s="19" t="n"/>
+      <c r="G65" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="H65" s="89" t="n">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="66">
+      <c r="A66" s="24" t="n">
+        <v>40</v>
+      </c>
+      <c r="B66" s="29" t="n"/>
+      <c r="C66" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D66" s="106" t="s"/>
+      <c r="E66" s="24" t="n">
+        <v>45</v>
+      </c>
+      <c r="F66" s="23" t="n">
+        <v>9</v>
+      </c>
+      <c r="G66" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H66" s="19" t="n"/>
+    </row>
+    <row outlineLevel="0" r="67">
+      <c r="A67" s="107" t="n">
         <v>41</v>
       </c>
-      <c r="H27" s="48" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I27" s="49" t="n"/>
-      <c r="J27" s="49" t="n"/>
-      <c r="K27" s="49" t="n"/>
-    </row>
-    <row customHeight="true" ht="28.75" outlineLevel="0" r="28">
-      <c r="A28" s="44" t="n">
-        <v>16</v>
-      </c>
-      <c r="B28" s="27" t="n"/>
-      <c r="C28" s="13" t="s">
+      <c r="B67" s="108" t="n"/>
+      <c r="C67" s="109" t="s">
+        <v>108</v>
+      </c>
+      <c r="D67" s="110" t="s"/>
+      <c r="E67" s="28" t="n">
+        <v>46</v>
+      </c>
+      <c r="F67" s="29" t="n"/>
+      <c r="G67" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="H67" s="101" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="68">
+      <c r="A68" s="19" t="n"/>
+      <c r="B68" s="23" t="n">
+        <v>9</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D68" s="111" t="s"/>
+      <c r="E68" s="112" t="n"/>
+      <c r="F68" s="29" t="n"/>
+      <c r="G68" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="H68" s="113" t="s"/>
+    </row>
+    <row outlineLevel="0" r="69">
+      <c r="A69" s="24" t="n">
         <v>42</v>
       </c>
-      <c r="D28" s="50" t="s"/>
-      <c r="E28" s="22" t="n">
-        <v>16</v>
-      </c>
-      <c r="F28" s="17" t="n"/>
-      <c r="G28" s="13" t="s">
+      <c r="B69" s="19" t="n"/>
+      <c r="C69" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D69" s="25" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E69" s="28" t="n">
+        <v>47</v>
+      </c>
+      <c r="F69" s="27" t="n"/>
+      <c r="G69" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="H69" s="114" t="n">
+        <v>0.0233</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="70">
+      <c r="A70" s="24" t="n">
         <v>43</v>
       </c>
-      <c r="H28" s="48" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="I28" s="24" t="n"/>
-      <c r="J28" s="34" t="n"/>
-      <c r="K28" s="51" t="n"/>
-      <c r="L28" s="34" t="n"/>
-      <c r="M28" s="34" t="n"/>
-      <c r="N28" s="34" t="n"/>
-      <c r="O28" s="34" t="n"/>
-    </row>
-    <row customHeight="true" ht="45.4999389648438" outlineLevel="0" r="29">
-      <c r="A29" s="47" t="s">
+      <c r="B70" s="19" t="n"/>
+      <c r="C70" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D70" s="25" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="E70" s="28" t="n">
+        <v>48</v>
+      </c>
+      <c r="F70" s="27" t="n"/>
+      <c r="G70" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="H70" s="114" t="n">
+        <v>0.0233</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="71">
+      <c r="A71" s="24" t="n">
         <v>44</v>
       </c>
-      <c r="B29" s="17" t="n"/>
-      <c r="C29" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="48" t="n">
+      <c r="B71" s="19" t="n"/>
+      <c r="C71" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D71" s="25" t="n">
+        <v>9.72</v>
+      </c>
+      <c r="E71" s="28" t="n">
+        <v>49</v>
+      </c>
+      <c r="F71" s="27" t="n"/>
+      <c r="G71" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H71" s="115" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="72">
+      <c r="A72" s="24" t="n">
+        <v>45</v>
+      </c>
+      <c r="B72" s="19" t="n"/>
+      <c r="C72" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" s="31" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E72" s="24" t="n">
+        <v>50</v>
+      </c>
+      <c r="F72" s="27" t="n"/>
+      <c r="G72" s="92" t="s">
+        <v>117</v>
+      </c>
+      <c r="H72" s="116" t="s"/>
+    </row>
+    <row outlineLevel="0" r="73">
+      <c r="A73" s="28" t="n">
+        <v>46</v>
+      </c>
+      <c r="B73" s="29" t="n"/>
+      <c r="C73" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D73" s="117" t="s"/>
+      <c r="E73" s="22" t="n"/>
+      <c r="F73" s="27" t="n"/>
+      <c r="G73" s="84" t="s">
+        <v>119</v>
+      </c>
+      <c r="H73" s="118" t="n">
+        <v>0.0233</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="74">
+      <c r="A74" s="19" t="n"/>
+      <c r="B74" s="23" t="n">
+        <v>10</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D74" s="19" t="n"/>
+      <c r="E74" s="24" t="n">
+        <v>51</v>
+      </c>
+      <c r="F74" s="29" t="n"/>
+      <c r="G74" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="H74" s="60" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="75">
+      <c r="A75" s="28" t="n">
+        <v>47</v>
+      </c>
+      <c r="B75" s="29" t="n"/>
+      <c r="C75" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D75" s="119" t="n">
         <v>4</v>
       </c>
-      <c r="E29" s="22" t="n">
-        <v>17</v>
-      </c>
-      <c r="F29" s="27" t="n"/>
-      <c r="G29" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="H29" s="52" t="s"/>
-      <c r="I29" s="24" t="n"/>
-      <c r="J29" s="34" t="n"/>
-      <c r="K29" s="49" t="n"/>
-      <c r="L29" s="34" t="n"/>
-      <c r="M29" s="34" t="n"/>
-      <c r="N29" s="34" t="n"/>
-    </row>
-    <row customHeight="true" hidden="false" ht="45" outlineLevel="0" r="30">
-      <c r="A30" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="17" t="n"/>
-      <c r="C30" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="48" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="E30" s="26" t="n">
-        <v>18</v>
-      </c>
-      <c r="F30" s="27" t="n"/>
-      <c r="G30" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H30" s="53" t="s"/>
-      <c r="I30" s="24" t="n"/>
-    </row>
-    <row customHeight="true" ht="38.75" outlineLevel="0" r="31">
-      <c r="A31" s="54" t="s">
+      <c r="E75" s="22" t="n"/>
+      <c r="F75" s="27" t="n"/>
+      <c r="G75" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="H75" s="60" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="76">
+      <c r="A76" s="28" t="n">
         <v>48</v>
       </c>
-      <c r="B31" s="25" t="n"/>
-      <c r="C31" s="13" t="s">
+      <c r="B76" s="27" t="n"/>
+      <c r="C76" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D76" s="120" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E76" s="28" t="n">
+        <v>52</v>
+      </c>
+      <c r="F76" s="29" t="n"/>
+      <c r="G76" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="H76" s="121" t="n">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="77">
+      <c r="A77" s="28" t="n"/>
+      <c r="B77" s="69" t="n">
+        <v>11</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D77" s="122" t="s">
+        <v>127</v>
+      </c>
+      <c r="E77" s="28" t="n">
+        <v>53</v>
+      </c>
+      <c r="F77" s="23" t="n">
+        <v>10</v>
+      </c>
+      <c r="G77" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="H77" s="19" t="n"/>
+    </row>
+    <row outlineLevel="0" r="78">
+      <c r="A78" s="28" t="n">
         <v>49</v>
       </c>
-      <c r="D31" s="55" t="s"/>
-      <c r="E31" s="22" t="n">
-        <v>19</v>
-      </c>
-      <c r="F31" s="27" t="n"/>
-      <c r="G31" s="25" t="s">
+      <c r="B78" s="27" t="n"/>
+      <c r="C78" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D78" s="30" t="n"/>
+      <c r="E78" s="24" t="n">
+        <v>54</v>
+      </c>
+      <c r="F78" s="27" t="n"/>
+      <c r="G78" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="H78" s="123" t="s"/>
+    </row>
+    <row outlineLevel="0" r="79">
+      <c r="A79" s="22" t="n">
         <v>50</v>
       </c>
-      <c r="H31" s="56" t="n">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="36.4999389648438" outlineLevel="0" r="32">
-      <c r="A32" s="54" t="s">
+      <c r="B79" s="23" t="n"/>
+      <c r="C79" s="124" t="s">
+        <v>131</v>
+      </c>
+      <c r="D79" s="125" t="s"/>
+      <c r="E79" s="22" t="n"/>
+      <c r="F79" s="23" t="n">
+        <v>11</v>
+      </c>
+      <c r="G79" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="H79" s="19" t="n"/>
+    </row>
+    <row outlineLevel="0" r="80">
+      <c r="A80" s="19" t="n"/>
+      <c r="B80" s="23" t="n">
+        <v>12</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D80" s="19" t="n"/>
+      <c r="E80" s="24" t="n">
+        <v>55</v>
+      </c>
+      <c r="F80" s="29" t="n"/>
+      <c r="G80" s="126" t="s">
+        <v>133</v>
+      </c>
+      <c r="H80" s="127" t="s"/>
+      <c r="I80" s="36" t="n"/>
+    </row>
+    <row outlineLevel="0" r="81">
+      <c r="A81" s="28" t="n">
         <v>51</v>
       </c>
-      <c r="B32" s="27" t="n"/>
-      <c r="C32" s="25" t="s">
+      <c r="B81" s="29" t="n"/>
+      <c r="C81" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D81" s="60" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E81" s="24" t="n">
+        <v>56</v>
+      </c>
+      <c r="F81" s="29" t="n"/>
+      <c r="G81" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="H81" s="60" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I81" s="36" t="n"/>
+    </row>
+    <row outlineLevel="0" r="82">
+      <c r="A82" s="28" t="n">
         <v>52</v>
       </c>
-      <c r="D32" s="57" t="s"/>
-      <c r="E32" s="26" t="n">
-        <v>20</v>
-      </c>
-      <c r="F32" s="27" t="n"/>
-      <c r="G32" s="13" t="s">
+      <c r="B82" s="27" t="n"/>
+      <c r="C82" s="128" t="s">
+        <v>136</v>
+      </c>
+      <c r="D82" s="129" t="s"/>
+      <c r="E82" s="24" t="n">
+        <v>57</v>
+      </c>
+      <c r="F82" s="29" t="n"/>
+      <c r="G82" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="H82" s="130" t="s"/>
+      <c r="I82" s="36" t="n"/>
+    </row>
+    <row outlineLevel="0" r="83">
+      <c r="A83" s="28" t="n">
         <v>53</v>
       </c>
-      <c r="H32" s="58" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="36.4999389648438" outlineLevel="0" r="33">
-      <c r="A33" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="22" t="n">
-        <v>21</v>
-      </c>
-      <c r="F33" s="27" t="n"/>
-      <c r="G33" s="25" t="s">
+      <c r="B83" s="27" t="n"/>
+      <c r="C83" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D83" s="60" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E83" s="22" t="n"/>
+      <c r="F83" s="23" t="n">
+        <v>12</v>
+      </c>
+      <c r="G83" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="H83" s="131" t="s"/>
+      <c r="I83" s="1" t="n"/>
+    </row>
+    <row outlineLevel="0" r="84">
+      <c r="A84" s="28" t="n">
         <v>54</v>
       </c>
-      <c r="H33" s="59" t="s"/>
-    </row>
-    <row outlineLevel="0" r="34">
-      <c r="A34" s="26" t="n">
-        <v>19</v>
-      </c>
-      <c r="B34" s="27" t="n"/>
-      <c r="C34" s="25" t="s">
+      <c r="B84" s="27" t="n"/>
+      <c r="C84" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D84" s="30" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E84" s="24" t="n">
+        <v>58</v>
+      </c>
+      <c r="F84" s="19" t="n"/>
+      <c r="G84" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="H84" s="25" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I84" s="26" t="n"/>
+    </row>
+    <row outlineLevel="0" r="85">
+      <c r="A85" s="19" t="n"/>
+      <c r="B85" s="23" t="n">
+        <v>13</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D85" s="132" t="s"/>
+      <c r="E85" s="24" t="n">
+        <v>59</v>
+      </c>
+      <c r="F85" s="19" t="n"/>
+      <c r="G85" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="H85" s="25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I85" s="26" t="n"/>
+    </row>
+    <row outlineLevel="0" r="86">
+      <c r="A86" s="28" t="n">
         <v>55</v>
       </c>
-      <c r="D34" s="60" t="s"/>
-      <c r="E34" s="26" t="n">
-        <v>22</v>
-      </c>
-      <c r="F34" s="27" t="n"/>
-      <c r="G34" s="61" t="s">
+      <c r="B86" s="27" t="n"/>
+      <c r="C86" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D86" s="133" t="s"/>
+      <c r="E86" s="24" t="n">
+        <v>60</v>
+      </c>
+      <c r="F86" s="19" t="n"/>
+      <c r="G86" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="H86" s="25" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I86" s="26" t="n"/>
+    </row>
+    <row outlineLevel="0" r="87">
+      <c r="A87" s="19" t="n"/>
+      <c r="B87" s="23" t="n">
+        <v>14</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D87" s="134" t="s"/>
+      <c r="E87" s="22" t="n"/>
+      <c r="F87" s="23" t="n">
+        <v>13</v>
+      </c>
+      <c r="G87" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="H87" s="135" t="s"/>
+    </row>
+    <row outlineLevel="0" r="88">
+      <c r="A88" s="24" t="n">
         <v>56</v>
       </c>
-      <c r="H34" s="62" t="s">
+      <c r="B88" s="19" t="n"/>
+      <c r="C88" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D88" s="25" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="E88" s="28" t="n">
+        <v>61</v>
+      </c>
+      <c r="F88" s="29" t="n"/>
+      <c r="G88" s="126" t="s">
+        <v>146</v>
+      </c>
+      <c r="H88" s="136" t="s"/>
+    </row>
+    <row outlineLevel="0" r="89">
+      <c r="A89" s="24" t="n">
         <v>57</v>
       </c>
-    </row>
-    <row outlineLevel="0" r="35">
-      <c r="A35" s="22" t="n">
-        <v>20</v>
-      </c>
-      <c r="B35" s="27" t="n"/>
-      <c r="C35" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="29" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E35" s="26" t="n">
-        <v>23</v>
-      </c>
-      <c r="F35" s="27" t="n"/>
-      <c r="G35" s="25" t="s">
+      <c r="B89" s="19" t="n"/>
+      <c r="C89" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D89" s="137" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="E89" s="138" t="n"/>
+      <c r="F89" s="19" t="n"/>
+      <c r="G89" s="139" t="s">
+        <v>147</v>
+      </c>
+      <c r="H89" s="140" t="s"/>
+    </row>
+    <row outlineLevel="0" r="90">
+      <c r="A90" s="24" t="n">
         <v>58</v>
       </c>
-      <c r="H35" s="63" t="s"/>
-    </row>
-    <row outlineLevel="0" r="36">
-      <c r="A36" s="22" t="n">
-        <v>21</v>
-      </c>
-      <c r="B36" s="27" t="n"/>
-      <c r="C36" s="25" t="s">
+      <c r="B90" s="19" t="n"/>
+      <c r="C90" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D90" s="137" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E90" s="141" t="n"/>
+      <c r="F90" s="29" t="n"/>
+      <c r="G90" s="139" t="s">
+        <v>148</v>
+      </c>
+      <c r="H90" s="142" t="s"/>
+    </row>
+    <row outlineLevel="0" r="91">
+      <c r="A91" s="19" t="n"/>
+      <c r="B91" s="23" t="n">
+        <v>13</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D91" s="143" t="n"/>
+      <c r="E91" s="5" t="n"/>
+      <c r="F91" s="23" t="n">
+        <v>12</v>
+      </c>
+      <c r="G91" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="H91" s="144" t="s"/>
+    </row>
+    <row outlineLevel="0" r="92">
+      <c r="A92" s="24" t="n">
         <v>59</v>
       </c>
-      <c r="D36" s="64" t="s"/>
-      <c r="E36" s="22" t="n">
-        <v>24</v>
-      </c>
-      <c r="F36" s="17" t="n"/>
-      <c r="G36" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" s="29" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="37">
-      <c r="A37" s="22" t="n">
-        <v>22</v>
-      </c>
-      <c r="B37" s="27" t="n"/>
-      <c r="C37" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" s="65" t="s"/>
-      <c r="E37" s="22" t="n">
-        <v>25</v>
-      </c>
-      <c r="F37" s="27" t="n"/>
-      <c r="G37" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="H37" s="66" t="s"/>
-    </row>
-    <row outlineLevel="0" r="38">
-      <c r="A38" s="27" t="n"/>
-      <c r="B38" s="18" t="n">
-        <v>6</v>
-      </c>
-      <c r="C38" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="D38" s="68" t="s"/>
-      <c r="E38" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H38" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="39">
-      <c r="A39" s="22" t="n">
-        <v>23</v>
-      </c>
-      <c r="B39" s="27" t="n"/>
-      <c r="C39" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" s="69" t="s"/>
-      <c r="E39" s="22" t="n"/>
-      <c r="F39" s="70" t="n">
-        <v>6</v>
-      </c>
-      <c r="G39" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="H39" s="71" t="n"/>
-    </row>
-    <row outlineLevel="0" r="40">
-      <c r="A40" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="B40" s="27" t="n"/>
-      <c r="C40" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="72" t="n">
-        <v>3</v>
-      </c>
-      <c r="E40" s="20" t="n"/>
-      <c r="F40" s="73" t="n">
-        <v>26</v>
-      </c>
-      <c r="G40" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="H40" s="71" t="n">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="41">
-      <c r="A41" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" s="27" t="n"/>
-      <c r="C41" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" s="23" t="n">
-        <v>4</v>
-      </c>
-      <c r="E41" s="22" t="n">
-        <v>26</v>
-      </c>
-      <c r="F41" s="73" t="n">
-        <v>27</v>
-      </c>
-      <c r="G41" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="H41" s="74" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="42">
-      <c r="A42" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="B42" s="27" t="n"/>
-      <c r="C42" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D42" s="23" t="n">
-        <v>5</v>
-      </c>
-      <c r="E42" s="22" t="n">
-        <v>27</v>
-      </c>
-      <c r="F42" s="73" t="n">
-        <v>28</v>
-      </c>
-      <c r="G42" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="H42" s="1" t="n"/>
-    </row>
-    <row outlineLevel="0" r="43">
-      <c r="A43" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="B43" s="27" t="n"/>
-      <c r="C43" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="D43" s="76" t="s"/>
-      <c r="E43" s="22" t="n">
-        <v>28</v>
-      </c>
-      <c r="F43" s="21" t="n">
-        <v>7</v>
-      </c>
-      <c r="G43" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="H43" s="1" t="n"/>
-    </row>
-    <row outlineLevel="0" r="44">
-      <c r="A44" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="B44" s="27" t="n"/>
-      <c r="C44" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" s="23" t="n">
-        <v>4</v>
-      </c>
-      <c r="E44" s="77" t="n"/>
-      <c r="F44" s="17" t="n"/>
-      <c r="G44" s="78" t="s">
-        <v>77</v>
-      </c>
-      <c r="H44" s="79" t="s"/>
-    </row>
-    <row outlineLevel="0" r="45">
-      <c r="A45" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="27" t="n"/>
-      <c r="C45" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D45" s="23" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="E45" s="22" t="n">
-        <v>29</v>
-      </c>
-      <c r="F45" s="20" t="n">
-        <v>29</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H45" s="23" t="n">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="46">
-      <c r="A46" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="B46" s="25" t="n"/>
-      <c r="C46" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="D46" s="81" t="s"/>
-      <c r="E46" s="22" t="n">
-        <v>30</v>
-      </c>
-      <c r="F46" s="20" t="n">
-        <v>30</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="H46" s="23" t="n">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="47">
-      <c r="A47" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="B47" s="25" t="n"/>
-      <c r="C47" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="D47" s="82" t="s"/>
-      <c r="E47" s="22" t="n">
-        <v>31</v>
-      </c>
-      <c r="F47" s="20" t="n">
-        <v>31</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="H47" s="23" t="n">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="48">
-      <c r="A48" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="B48" s="25" t="n"/>
-      <c r="C48" s="80" t="s">
-        <v>87</v>
-      </c>
-      <c r="D48" s="83" t="s"/>
-      <c r="E48" s="22" t="n"/>
-      <c r="F48" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="G48" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="H48" s="84" t="s"/>
-    </row>
-    <row outlineLevel="0" r="49">
-      <c r="A49" s="22" t="n">
-        <v>28</v>
-      </c>
-      <c r="B49" s="27" t="n"/>
-      <c r="C49" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="D49" s="29" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E49" s="22" t="n">
-        <v>32</v>
-      </c>
-      <c r="F49" s="20" t="n">
-        <v>32</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="H49" s="85" t="n">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="50">
-      <c r="A50" s="22" t="n">
-        <v>29</v>
-      </c>
-      <c r="B50" s="27" t="n"/>
-      <c r="C50" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D50" s="86" t="s"/>
-      <c r="E50" s="22" t="n">
-        <v>33</v>
-      </c>
-      <c r="F50" s="20" t="n">
-        <v>33</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="H50" s="85" t="n">
-        <v>5.65</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="51">
-      <c r="A51" s="22" t="n"/>
-      <c r="B51" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="C51" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="D51" s="71" t="n"/>
-      <c r="E51" s="22" t="n">
-        <v>34</v>
-      </c>
-      <c r="F51" s="20" t="n">
-        <v>34</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="H51" s="85" t="n">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="52">
-      <c r="A52" s="22" t="n">
-        <v>30</v>
-      </c>
-      <c r="B52" s="27" t="n"/>
-      <c r="C52" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D52" s="71" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E52" s="77" t="n"/>
-      <c r="F52" s="27" t="n"/>
-      <c r="G52" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="H52" s="87" t="s"/>
-    </row>
-    <row outlineLevel="0" r="53">
-      <c r="A53" s="22" t="n">
-        <v>31</v>
-      </c>
-      <c r="B53" s="27" t="n"/>
-      <c r="C53" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="D53" s="74" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E53" s="22" t="n">
-        <v>35</v>
-      </c>
-      <c r="F53" s="27" t="n"/>
-      <c r="G53" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="H53" s="1" t="n"/>
-    </row>
-    <row outlineLevel="0" r="54">
-      <c r="A54" s="22" t="n">
-        <v>32</v>
-      </c>
-      <c r="B54" s="27" t="n"/>
-      <c r="C54" s="88" t="s">
-        <v>97</v>
-      </c>
-      <c r="D54" s="89" t="s"/>
-      <c r="E54" s="22" t="n">
-        <v>36</v>
-      </c>
-      <c r="F54" s="27" t="n"/>
-      <c r="G54" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="H54" s="1" t="n"/>
-    </row>
-    <row outlineLevel="0" r="55">
-      <c r="A55" s="27" t="n"/>
-      <c r="B55" s="18" t="n">
-        <v>8</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D55" s="90" t="s"/>
-      <c r="E55" s="22" t="n">
-        <v>37</v>
-      </c>
-      <c r="F55" s="27" t="n"/>
-      <c r="G55" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="H55" s="1" t="n"/>
-    </row>
-    <row outlineLevel="0" r="56">
-      <c r="A56" s="17" t="n"/>
-      <c r="B56" s="17" t="n"/>
-      <c r="C56" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D56" s="91" t="s"/>
-      <c r="E56" s="22" t="n">
-        <v>38</v>
-      </c>
-      <c r="F56" s="21" t="n">
-        <v>7</v>
-      </c>
-      <c r="G56" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="H56" s="1" t="n"/>
-    </row>
-    <row outlineLevel="0" r="57">
-      <c r="A57" s="22" t="n">
-        <v>33</v>
-      </c>
-      <c r="B57" s="17" t="n"/>
-      <c r="C57" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D57" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="E57" s="22" t="n">
-        <v>39</v>
-      </c>
-      <c r="F57" s="17" t="n"/>
-      <c r="G57" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="H57" s="85" t="n">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="58">
-      <c r="A58" s="22" t="n">
-        <v>34</v>
-      </c>
-      <c r="B58" s="17" t="n"/>
-      <c r="C58" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D58" s="23" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="E58" s="77" t="n"/>
-      <c r="F58" s="17" t="n"/>
-      <c r="G58" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="H58" s="85" t="n">
-        <v>5.65</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="59">
-      <c r="A59" s="22" t="n">
-        <v>35</v>
-      </c>
-      <c r="B59" s="17" t="n"/>
-      <c r="C59" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D59" s="23" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="E59" s="22" t="n">
-        <v>40</v>
-      </c>
-      <c r="F59" s="17" t="n"/>
-      <c r="G59" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="H59" s="85" t="n">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="60">
-      <c r="A60" s="17" t="n"/>
-      <c r="B60" s="17" t="n"/>
-      <c r="C60" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D60" s="92" t="s"/>
-      <c r="E60" s="22" t="n">
-        <v>41</v>
-      </c>
-      <c r="F60" s="27" t="n"/>
-      <c r="G60" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H60" s="93" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="61">
-      <c r="A61" s="22" t="n">
-        <v>36</v>
-      </c>
-      <c r="B61" s="17" t="n"/>
-      <c r="C61" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D61" s="23" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="E61" s="22" t="n">
-        <v>42</v>
-      </c>
-      <c r="F61" s="27" t="n"/>
-      <c r="G61" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="H61" s="1" t="n"/>
-    </row>
-    <row outlineLevel="0" r="62">
-      <c r="A62" s="22" t="n">
-        <v>37</v>
-      </c>
-      <c r="B62" s="17" t="n"/>
-      <c r="C62" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D62" s="23" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="E62" s="20" t="n"/>
-      <c r="F62" s="21" t="n">
-        <v>8</v>
-      </c>
-      <c r="G62" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="H62" s="94" t="s"/>
-    </row>
-    <row outlineLevel="0" r="63">
-      <c r="A63" s="22" t="n">
-        <v>38</v>
-      </c>
-      <c r="B63" s="17" t="n"/>
-      <c r="C63" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D63" s="23" t="n">
-        <v>9.72</v>
-      </c>
-      <c r="E63" s="22" t="n">
-        <v>43</v>
-      </c>
-      <c r="F63" s="17" t="n"/>
-      <c r="G63" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="H63" s="85" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="64">
-      <c r="A64" s="27" t="n"/>
-      <c r="B64" s="27" t="n"/>
-      <c r="C64" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="D64" s="95" t="s"/>
-      <c r="E64" s="77" t="n"/>
-      <c r="F64" s="17" t="n"/>
-      <c r="G64" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="H64" s="85" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="65">
-      <c r="A65" s="26" t="n">
-        <v>39</v>
-      </c>
-      <c r="B65" s="27" t="n"/>
-      <c r="C65" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="D65" s="96" t="s"/>
-      <c r="E65" s="22" t="n">
-        <v>44</v>
-      </c>
-      <c r="F65" s="17" t="n"/>
-      <c r="G65" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="H65" s="85" t="n">
-        <v>42.5</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="66">
-      <c r="A66" s="22" t="n">
-        <v>40</v>
-      </c>
-      <c r="B66" s="27" t="n"/>
-      <c r="C66" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D66" s="97" t="s"/>
-      <c r="E66" s="22" t="n">
-        <v>45</v>
-      </c>
-      <c r="F66" s="21" t="n">
-        <v>9</v>
-      </c>
-      <c r="G66" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="H66" s="17" t="n"/>
-    </row>
-    <row outlineLevel="0" r="67">
-      <c r="A67" s="98" t="n">
-        <v>41</v>
-      </c>
-      <c r="B67" s="99" t="n"/>
-      <c r="C67" s="100" t="s">
-        <v>109</v>
-      </c>
-      <c r="D67" s="101" t="s"/>
-      <c r="E67" s="26" t="n">
-        <v>46</v>
-      </c>
-      <c r="F67" s="27" t="n"/>
-      <c r="G67" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="H67" s="93" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="68">
-      <c r="A68" s="17" t="n"/>
-      <c r="B68" s="21" t="n">
-        <v>9</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="D68" s="102" t="s"/>
-      <c r="E68" s="103" t="n"/>
-      <c r="F68" s="27" t="n"/>
-      <c r="G68" s="80" t="s">
-        <v>111</v>
-      </c>
-      <c r="H68" s="104" t="s"/>
-    </row>
-    <row outlineLevel="0" r="69">
-      <c r="A69" s="22" t="n">
-        <v>42</v>
-      </c>
-      <c r="B69" s="17" t="n"/>
-      <c r="C69" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D69" s="23" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="E69" s="26" t="n">
-        <v>47</v>
-      </c>
-      <c r="F69" s="25" t="n"/>
-      <c r="G69" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="H69" s="105" t="n">
-        <v>0.0233</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="70">
-      <c r="A70" s="22" t="n">
-        <v>43</v>
-      </c>
-      <c r="B70" s="17" t="n"/>
-      <c r="C70" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="D70" s="23" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="E70" s="26" t="n">
-        <v>48</v>
-      </c>
-      <c r="F70" s="25" t="n"/>
-      <c r="G70" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="H70" s="105" t="n">
-        <v>0.0233</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="71">
-      <c r="A71" s="22" t="n">
-        <v>44</v>
-      </c>
-      <c r="B71" s="17" t="n"/>
-      <c r="C71" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="D71" s="23" t="n">
-        <v>9.72</v>
-      </c>
-      <c r="E71" s="26" t="n">
-        <v>49</v>
-      </c>
-      <c r="F71" s="25" t="n"/>
-      <c r="G71" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="H71" s="106" t="n">
-        <v>0.015</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="72">
-      <c r="A72" s="22" t="n">
-        <v>45</v>
-      </c>
-      <c r="B72" s="17" t="n"/>
-      <c r="C72" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D72" s="29" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E72" s="22" t="n">
-        <v>50</v>
-      </c>
-      <c r="F72" s="25" t="n"/>
-      <c r="G72" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="H72" s="1" t="n"/>
-    </row>
-    <row outlineLevel="0" r="73">
-      <c r="A73" s="26" t="n">
-        <v>46</v>
-      </c>
-      <c r="B73" s="27" t="n"/>
-      <c r="C73" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D73" s="107" t="s"/>
-      <c r="E73" s="20" t="n"/>
-      <c r="F73" s="25" t="n"/>
-      <c r="G73" s="80" t="s">
-        <v>120</v>
-      </c>
-      <c r="H73" s="108" t="n">
-        <v>0.0233</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="74">
-      <c r="A74" s="17" t="n"/>
-      <c r="B74" s="21" t="n">
-        <v>10</v>
-      </c>
-      <c r="C74" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="D74" s="17" t="n"/>
-      <c r="E74" s="22" t="n">
-        <v>51</v>
-      </c>
-      <c r="F74" s="27" t="n"/>
-      <c r="G74" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="H74" s="58" t="n">
-        <v>0.015</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="75">
-      <c r="A75" s="26" t="n">
-        <v>47</v>
-      </c>
-      <c r="B75" s="27" t="n"/>
-      <c r="C75" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="D75" s="109" t="n">
-        <v>4</v>
-      </c>
-      <c r="E75" s="20" t="n"/>
-      <c r="F75" s="25" t="n"/>
-      <c r="G75" s="80" t="s">
-        <v>124</v>
-      </c>
-      <c r="H75" s="58" t="n">
-        <v>0.005</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="76">
-      <c r="A76" s="26" t="n">
-        <v>48</v>
-      </c>
-      <c r="B76" s="25" t="n"/>
-      <c r="C76" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D76" s="110" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="E76" s="26" t="n">
-        <v>52</v>
-      </c>
-      <c r="F76" s="27" t="n"/>
-      <c r="G76" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="H76" s="111" t="n">
-        <v>0.009</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="77">
-      <c r="A77" s="26" t="n"/>
-      <c r="B77" s="67" t="n">
-        <v>11</v>
-      </c>
-      <c r="C77" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D77" s="112" t="s">
-        <v>128</v>
-      </c>
-      <c r="E77" s="26" t="n">
-        <v>53</v>
-      </c>
-      <c r="F77" s="21" t="n">
-        <v>10</v>
-      </c>
-      <c r="G77" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="H77" s="17" t="n"/>
-    </row>
-    <row outlineLevel="0" r="78">
-      <c r="A78" s="26" t="n">
-        <v>49</v>
-      </c>
-      <c r="B78" s="25" t="n"/>
-      <c r="C78" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="D78" s="28" t="n"/>
-      <c r="E78" s="22" t="n">
-        <v>54</v>
-      </c>
-      <c r="F78" s="25" t="n"/>
-      <c r="G78" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="H78" s="113" t="s"/>
-    </row>
-    <row outlineLevel="0" r="79">
-      <c r="A79" s="20" t="n">
-        <v>50</v>
-      </c>
-      <c r="B79" s="21" t="n"/>
-      <c r="C79" s="114" t="s">
-        <v>132</v>
-      </c>
-      <c r="D79" s="115" t="s"/>
-      <c r="E79" s="20" t="n"/>
-      <c r="F79" s="21" t="n">
-        <v>11</v>
-      </c>
-      <c r="G79" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="H79" s="17" t="n"/>
-    </row>
-    <row outlineLevel="0" r="80">
-      <c r="A80" s="17" t="n"/>
-      <c r="B80" s="21" t="n">
-        <v>12</v>
-      </c>
-      <c r="C80" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="D80" s="17" t="n"/>
-      <c r="E80" s="22" t="n">
-        <v>55</v>
-      </c>
-      <c r="F80" s="27" t="n"/>
-      <c r="G80" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="H80" s="1" t="n"/>
-      <c r="I80" s="34" t="n"/>
-    </row>
-    <row outlineLevel="0" r="81">
-      <c r="A81" s="26" t="n">
-        <v>51</v>
-      </c>
-      <c r="B81" s="27" t="n"/>
-      <c r="C81" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D81" s="58" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E81" s="22" t="n">
-        <v>56</v>
-      </c>
-      <c r="F81" s="27" t="n"/>
-      <c r="G81" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="H81" s="58" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="I81" s="34" t="n"/>
-    </row>
-    <row outlineLevel="0" r="82">
-      <c r="A82" s="26" t="n">
-        <v>52</v>
-      </c>
-      <c r="B82" s="25" t="n"/>
-      <c r="C82" s="116" t="s">
-        <v>137</v>
-      </c>
-      <c r="D82" s="117" t="s"/>
-      <c r="E82" s="22" t="n">
-        <v>57</v>
-      </c>
-      <c r="F82" s="27" t="n"/>
-      <c r="G82" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="H82" s="1" t="n"/>
-      <c r="I82" s="34" t="n"/>
-    </row>
-    <row outlineLevel="0" r="83">
-      <c r="A83" s="26" t="n">
-        <v>53</v>
-      </c>
-      <c r="B83" s="25" t="n"/>
-      <c r="C83" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D83" s="58" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="E83" s="20" t="n"/>
-      <c r="F83" s="21" t="n">
-        <v>12</v>
-      </c>
-      <c r="G83" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="H83" s="118" t="s"/>
-      <c r="I83" s="1" t="n"/>
-    </row>
-    <row outlineLevel="0" r="84">
-      <c r="A84" s="26" t="n">
-        <v>54</v>
-      </c>
-      <c r="B84" s="25" t="n"/>
-      <c r="C84" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="D84" s="28" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E84" s="22" t="n">
-        <v>58</v>
-      </c>
-      <c r="F84" s="17" t="n"/>
-      <c r="G84" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="H84" s="23" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="I84" s="24" t="n"/>
-    </row>
-    <row outlineLevel="0" r="85">
-      <c r="A85" s="17" t="n"/>
-      <c r="B85" s="21" t="n">
-        <v>13</v>
-      </c>
-      <c r="C85" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="D85" s="119" t="s"/>
-      <c r="E85" s="22" t="n">
-        <v>59</v>
-      </c>
-      <c r="F85" s="17" t="n"/>
-      <c r="G85" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="H85" s="23" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I85" s="24" t="n"/>
-    </row>
-    <row outlineLevel="0" r="86">
-      <c r="A86" s="26" t="n">
-        <v>55</v>
-      </c>
-      <c r="B86" s="25" t="n"/>
-      <c r="C86" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="D86" s="120" t="s"/>
-      <c r="E86" s="22" t="n">
-        <v>60</v>
-      </c>
-      <c r="F86" s="17" t="n"/>
-      <c r="G86" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="H86" s="23" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="I86" s="24" t="n"/>
-    </row>
-    <row outlineLevel="0" r="87">
-      <c r="A87" s="17" t="n"/>
-      <c r="B87" s="21" t="n">
-        <v>14</v>
-      </c>
-      <c r="C87" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="D87" s="121" t="s"/>
-      <c r="E87" s="20" t="n"/>
-      <c r="F87" s="21" t="n">
-        <v>13</v>
-      </c>
-      <c r="G87" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="H87" s="122" t="s"/>
-    </row>
-    <row outlineLevel="0" r="88">
-      <c r="A88" s="22" t="n">
-        <v>56</v>
-      </c>
-      <c r="B88" s="17" t="n"/>
-      <c r="C88" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="D88" s="23" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="E88" s="26" t="n">
-        <v>61</v>
-      </c>
-      <c r="F88" s="27" t="n"/>
-      <c r="G88" s="123" t="s">
-        <v>147</v>
-      </c>
-      <c r="H88" s="124" t="s"/>
-    </row>
-    <row outlineLevel="0" r="89">
-      <c r="A89" s="22" t="n">
-        <v>57</v>
-      </c>
-      <c r="B89" s="17" t="n"/>
-      <c r="C89" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="D89" s="125" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="E89" s="126" t="n"/>
-      <c r="F89" s="17" t="n"/>
-      <c r="G89" s="127" t="s">
-        <v>148</v>
-      </c>
-      <c r="H89" s="128" t="s"/>
-    </row>
-    <row outlineLevel="0" r="90">
-      <c r="A90" s="22" t="n">
-        <v>58</v>
-      </c>
-      <c r="B90" s="17" t="n"/>
-      <c r="C90" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D90" s="125" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="E90" s="129" t="n"/>
-      <c r="F90" s="27" t="n"/>
-      <c r="G90" s="127" t="s">
+      <c r="B92" s="27" t="n"/>
+      <c r="C92" s="145" t="s">
         <v>149</v>
       </c>
-      <c r="H90" s="130" t="s"/>
-    </row>
-    <row outlineLevel="0" r="91">
-      <c r="A91" s="17" t="n"/>
-      <c r="B91" s="21" t="n">
-        <v>13</v>
-      </c>
-      <c r="C91" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="D91" s="131" t="n"/>
-      <c r="E91" s="5" t="n"/>
-      <c r="F91" s="21" t="n">
-        <v>12</v>
-      </c>
-      <c r="G91" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="H91" s="132" t="s"/>
-    </row>
-    <row outlineLevel="0" r="92">
-      <c r="A92" s="22" t="n">
-        <v>59</v>
-      </c>
-      <c r="B92" s="25" t="n"/>
-      <c r="C92" s="13" t="s">
+      <c r="D92" s="146" t="s"/>
+      <c r="E92" s="147" t="n"/>
+      <c r="F92" s="29" t="n"/>
+      <c r="G92" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="D92" s="133" t="s"/>
-      <c r="E92" s="134" t="n"/>
-      <c r="F92" s="27" t="n"/>
-      <c r="G92" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="H92" s="135" t="s"/>
+      <c r="H92" s="148" t="s"/>
     </row>
     <row outlineLevel="0" r="93">
       <c r="C93" s="1" t="n"/>
@@ -5027,43 +5118,54 @@
       <c r="C94" s="1" t="n"/>
       <c r="D94" s="1" t="n"/>
       <c r="E94" s="0" t="n"/>
-      <c r="F94" s="136" t="n"/>
-      <c r="G94" s="136" t="n"/>
+      <c r="F94" s="149" t="n"/>
+      <c r="G94" s="149" t="n"/>
       <c r="I94" s="0" t="n"/>
     </row>
     <row outlineLevel="0" r="95">
       <c r="C95" s="1" t="n"/>
       <c r="D95" s="1" t="n"/>
       <c r="E95" s="0" t="n"/>
-      <c r="F95" s="136" t="n"/>
-      <c r="G95" s="136" t="n"/>
-      <c r="H95" s="136" t="n"/>
+      <c r="F95" s="149" t="n"/>
+      <c r="G95" s="149" t="n"/>
+      <c r="H95" s="149" t="n"/>
       <c r="I95" s="0" t="n"/>
     </row>
     <row outlineLevel="0" r="96">
       <c r="C96" s="1" t="n"/>
       <c r="D96" s="1" t="n"/>
       <c r="E96" s="0" t="n"/>
-      <c r="F96" s="136" t="n"/>
-      <c r="G96" s="136" t="n"/>
-      <c r="H96" s="136" t="n"/>
+      <c r="F96" s="149" t="n"/>
+      <c r="G96" s="149" t="n"/>
+      <c r="H96" s="149" t="n"/>
       <c r="I96" s="0" t="n"/>
     </row>
     <row outlineLevel="0" r="97">
       <c r="C97" s="1" t="n"/>
       <c r="D97" s="1" t="n"/>
       <c r="E97" s="0" t="n"/>
-      <c r="F97" s="136" t="n"/>
-      <c r="G97" s="136" t="n"/>
-      <c r="H97" s="136" t="n"/>
+      <c r="F97" s="149" t="n"/>
+      <c r="G97" s="149" t="n"/>
+      <c r="H97" s="149" t="n"/>
       <c r="I97" s="0" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="72">
     <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:H4"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G37:H37"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
@@ -5077,29 +5179,18 @@
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G37:H37"/>
     <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C79:D79"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
     <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C46:D46"/>
     <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="C55:D55"/>
@@ -5119,13 +5210,13 @@
     <mergeCell ref="G82:H82"/>
     <mergeCell ref="G80:H80"/>
     <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G54:H54"/>
     <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G62:H62"/>
     <mergeCell ref="G53:H53"/>
     <mergeCell ref="G52:H52"/>
     <mergeCell ref="G48:H48"/>

--- a/calc/files/letter2.xlsx
+++ b/calc/files/letter2.xlsx
@@ -1215,7 +1215,7 @@
         <rFont val="Arial"/>
         <sz val="11"/>
       </rPr>
-      <t>**При  пересылке  почтового  денежного  перевода  суммой  свыше  150,00  руб.  предоставляются  скидки согласно действующему Положению о порядке применения скидок</t>
+      <t>**При  пересылке  почтового  денежного  перевода  суммой  свыше  200,00  руб.  предоставляются  скидки согласно действующему Положению о порядке применения скидок</t>
     </r>
   </si>
   <si>
@@ -1300,7 +1300,7 @@
         <rFont val="Arial"/>
         <sz val="11"/>
       </rPr>
-      <t>***   При   пересылке    почтового   денежного   перевода  с   выплатами  за   сданную   сельскохозяйственную продукцию  суммой  свыше  20,00  рублей  предоставляются  скидки   согласно  действующему  Положению  о порядке применения скидок</t>
+      <t>***   При   пересылке    почтового   денежного   перевода  с   выплатами  за   сданную   сельскохозяйственную продукцию  суммой  свыше  100,00  рублей  предоставляются  скидки   согласно  действующему  Положению  о порядке применения скидок</t>
     </r>
   </si>
   <si>
@@ -1694,20 +1694,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
   <numFmts>
+    <numFmt co:extendedFormatCode="0.00;-0.00" formatCode="0.00;-0.00" numFmtId="1003"/>
     <numFmt co:extendedFormatCode="0" formatCode="0" numFmtId="1004"/>
-    <numFmt co:extendedFormatCode="0.0%" formatCode="0.0%" numFmtId="1006"/>
     <numFmt co:extendedFormatCode="0.00" formatCode="0.00" numFmtId="1005"/>
     <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1012"/>
     <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1002"/>
-    <numFmt co:extendedFormatCode="0.00;-0.00" formatCode="0.00;-0.00" numFmtId="1003"/>
+    <numFmt co:extendedFormatCode="0.0%" formatCode="0.0%" numFmtId="1006"/>
     <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1001"/>
     <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1000"/>
+    <numFmt co:extendedFormatCode="0.0000" formatCode="0.0000" numFmtId="1009"/>
+    <numFmt co:extendedFormatCode="0.000" formatCode="0.000" numFmtId="1007"/>
+    <numFmt co:extendedFormatCode="0.00000;-0.00000" formatCode="0.00000;-0.00000" numFmtId="1010"/>
     <numFmt co:extendedFormatCode="@" formatCode="@" numFmtId="1008"/>
-    <numFmt co:extendedFormatCode="0.0000" formatCode="0.0000" numFmtId="1009"/>
-    <numFmt co:extendedFormatCode="0.00000;-0.00000" formatCode="0.00000;-0.00000" numFmtId="1010"/>
+    <numFmt co:extendedFormatCode="0.00%" formatCode="0.00%" numFmtId="1011"/>
     <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1013"/>
-    <numFmt co:extendedFormatCode="0.000" formatCode="0.000" numFmtId="1007"/>
-    <numFmt co:extendedFormatCode="0.00%" formatCode="0.00%" numFmtId="1011"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -2402,79 +2402,97 @@
       </bottom>
     </border>
     <border>
-      <top style="thin">
-        <color rgb="000000" tint="0"/>
-      </top>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="000000" tint="0"/>
-      </top>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="000000" tint="0"/>
-      </top>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="000000" tint="0"/>
-      </right>
-      <top style="thin">
-        <color rgb="000000" tint="0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="000000" tint="0"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="000000" tint="0"/>
-      </right>
-      <top style="thin">
-        <color rgb="000000" tint="0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="000000" tint="0"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="000000" tint="0"/>
-      </right>
-      <top style="thin">
-        <color rgb="000000" tint="0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="000000" tint="0"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="000000" tint="0"/>
-      </right>
-      <top style="thin">
-        <color rgb="000000" tint="0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="000000" tint="0"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="000000" tint="0"/>
-      </right>
-      <top style="thin">
-        <color rgb="000000" tint="0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="000000" tint="0"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="000000" tint="0"/>
-      </top>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -2508,14 +2526,26 @@
       </diagonal>
     </border>
     <border>
-      <top style="thin">
-        <color rgb="000000" tint="0"/>
-      </top>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="000000" tint="0"/>
-      </top>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
     </border>
     <border>
       <right style="thin">
@@ -2556,7 +2586,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="146">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2582,9 +2612,6 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="2" numFmtId="1001" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="top" wrapText="true"/>
     </xf>
@@ -2597,9 +2624,6 @@
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="3" numFmtId="1003" quotePrefix="false">
       <alignment horizontal="center" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="2" fontId="5" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" indent="2" vertical="top" wrapText="true"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
@@ -2894,7 +2918,10 @@
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="57" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1012" quotePrefix="false">
+      <alignment horizontal="justify" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="57" fillId="0" fontId="2" numFmtId="1012" quotePrefix="false">
       <alignment horizontal="justify" vertical="top" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1011" quotePrefix="false">
@@ -2903,7 +2930,10 @@
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1006" quotePrefix="false">
       <alignment horizontal="right" indent="6" shrinkToFit="true" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="58" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="2" numFmtId="1013" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="58" fillId="0" fontId="2" numFmtId="1013" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="59" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
@@ -2933,16 +2963,10 @@
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="61" fillId="0" fontId="10" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="justify" vertical="top" wrapText="true"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="62" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="justify" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="2" numFmtId="1012" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="63" fillId="0" fontId="2" numFmtId="1012" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="63" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="64" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
@@ -2972,9 +2996,6 @@
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="72" fillId="0" fontId="3" numFmtId="1004" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="justify" vertical="top" wrapText="true"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="73" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="justify" vertical="top" wrapText="true"/>
     </xf>
@@ -2990,10 +3011,7 @@
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="75" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1013" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="76" fillId="0" fontId="2" numFmtId="1013" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="76" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1004" quotePrefix="false">
@@ -3276,1457 +3294,1461 @@
       <c r="E3" s="5" t="n"/>
       <c r="F3" s="3" t="n"/>
       <c r="G3" s="3" t="n"/>
-      <c r="H3" s="9" t="str">
+      <c r="H3" s="8" t="str">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D3</f>
         <v>от 27.02.2025 № 193</v>
       </c>
     </row>
     <row customHeight="true" ht="41.25" outlineLevel="0" r="4">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s"/>
-      <c r="C4" s="10" t="s"/>
-      <c r="D4" s="10" t="s"/>
-      <c r="E4" s="10" t="s">
+      <c r="B4" s="9" t="s"/>
+      <c r="C4" s="9" t="s"/>
+      <c r="D4" s="9" t="s"/>
+      <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="10" t="s"/>
-      <c r="G4" s="10" t="s"/>
-      <c r="H4" s="10" t="s"/>
+      <c r="F4" s="9" t="s"/>
+      <c r="G4" s="9" t="s"/>
+      <c r="H4" s="9" t="s"/>
     </row>
     <row customHeight="true" ht="17" outlineLevel="0" r="5">
-      <c r="A5" s="11" t="n"/>
-      <c r="B5" s="11" t="n"/>
-      <c r="C5" s="11" t="n"/>
-      <c r="D5" s="12" t="s">
+      <c r="A5" s="10" t="n"/>
+      <c r="B5" s="10" t="n"/>
+      <c r="C5" s="10" t="n"/>
+      <c r="D5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="13" t="n"/>
-      <c r="F5" s="11" t="n"/>
-      <c r="G5" s="11" t="n"/>
-      <c r="H5" s="14" t="str">
+      <c r="E5" s="12" t="n"/>
+      <c r="F5" s="10" t="n"/>
+      <c r="G5" s="10" t="n"/>
+      <c r="H5" s="11" t="str">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D5</f>
         <v>в действии c 01.03.2025</v>
       </c>
     </row>
     <row customHeight="true" ht="27.25" outlineLevel="0" r="6">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="7">
-      <c r="A7" s="19" t="n"/>
-      <c r="B7" s="20" t="n">
+      <c r="A7" s="17" t="n"/>
+      <c r="B7" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="19" t="n"/>
-      <c r="E7" s="22" t="n"/>
-      <c r="F7" s="23" t="n">
+      <c r="D7" s="17" t="n"/>
+      <c r="E7" s="20" t="n"/>
+      <c r="F7" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="19" t="n"/>
+      <c r="H7" s="17" t="n"/>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="8">
-      <c r="A8" s="24" t="n">
+      <c r="A8" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="B8" s="19" t="n"/>
-      <c r="C8" s="15" t="s">
+      <c r="B8" s="17" t="n"/>
+      <c r="C8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="25" t="n">
+      <c r="D8" s="23" t="n">
         <v>2.94</v>
       </c>
-      <c r="E8" s="24" t="n">
+      <c r="E8" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="F8" s="19" t="n"/>
-      <c r="G8" s="15" t="s">
+      <c r="F8" s="17" t="n"/>
+      <c r="G8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="25" t="n">
+      <c r="H8" s="23" t="n">
         <v>2.45</v>
       </c>
-      <c r="I8" s="26" t="n"/>
+      <c r="I8" s="24" t="n"/>
       <c r="J8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="9">
-      <c r="A9" s="19" t="n"/>
-      <c r="B9" s="20" t="n">
+      <c r="A9" s="17" t="n"/>
+      <c r="B9" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="19" t="n"/>
-      <c r="E9" s="22" t="n"/>
-      <c r="F9" s="23" t="n">
+      <c r="D9" s="17" t="n"/>
+      <c r="E9" s="20" t="n"/>
+      <c r="F9" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="19" t="n"/>
-      <c r="I9" s="26" t="n"/>
+      <c r="H9" s="17" t="n"/>
+      <c r="I9" s="24" t="n"/>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="10">
-      <c r="A10" s="24" t="n">
+      <c r="A10" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="B10" s="19" t="n"/>
-      <c r="C10" s="15" t="s">
+      <c r="B10" s="17" t="n"/>
+      <c r="C10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="25" t="n">
+      <c r="D10" s="23" t="n">
         <v>3.24</v>
       </c>
-      <c r="E10" s="24" t="n">
+      <c r="E10" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="F10" s="19" t="n"/>
-      <c r="G10" s="15" t="s">
+      <c r="F10" s="17" t="n"/>
+      <c r="G10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="25" t="n">
+      <c r="H10" s="23" t="n">
         <v>2.7</v>
       </c>
-      <c r="I10" s="26" t="n">
+      <c r="I10" s="24" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H10*1.2</f>
         <v>3.24</v>
       </c>
-      <c r="J10" s="26" t="n"/>
-      <c r="K10" s="26" t="n"/>
+      <c r="J10" s="24" t="n"/>
+      <c r="K10" s="24" t="n"/>
     </row>
     <row customHeight="true" ht="25.9999694824219" outlineLevel="0" r="11">
-      <c r="A11" s="24" t="n">
+      <c r="A11" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="B11" s="19" t="n"/>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="17" t="n"/>
+      <c r="C11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="25" t="n">
+      <c r="D11" s="23" t="n">
         <v>0.07</v>
       </c>
-      <c r="E11" s="24" t="n">
+      <c r="E11" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="F11" s="19" t="n"/>
-      <c r="G11" s="27" t="s">
+      <c r="F11" s="17" t="n"/>
+      <c r="G11" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="25" t="n">
+      <c r="H11" s="23" t="n">
         <v>0.06</v>
       </c>
-      <c r="I11" s="26" t="n"/>
-      <c r="J11" s="26" t="n"/>
-      <c r="K11" s="26" t="n"/>
+      <c r="I11" s="24" t="n"/>
+      <c r="J11" s="24" t="n"/>
+      <c r="K11" s="24" t="n"/>
     </row>
     <row customHeight="true" ht="12.75" outlineLevel="0" r="12">
-      <c r="A12" s="19" t="n"/>
-      <c r="B12" s="20" t="n">
+      <c r="A12" s="17" t="n"/>
+      <c r="B12" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="19" t="n"/>
-      <c r="E12" s="22" t="n"/>
-      <c r="F12" s="23" t="n">
+      <c r="D12" s="17" t="n"/>
+      <c r="E12" s="20" t="n"/>
+      <c r="F12" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="19" t="n"/>
-      <c r="I12" s="26" t="n"/>
+      <c r="H12" s="17" t="n"/>
+      <c r="I12" s="24" t="n"/>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="13">
-      <c r="A13" s="24" t="n">
+      <c r="A13" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="B13" s="19" t="n"/>
-      <c r="C13" s="15" t="s">
+      <c r="B13" s="17" t="n"/>
+      <c r="C13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="25" t="n">
+      <c r="D13" s="23" t="n">
         <v>0.9</v>
       </c>
-      <c r="E13" s="24" t="n">
+      <c r="E13" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="F13" s="19" t="n"/>
-      <c r="G13" s="15" t="s">
+      <c r="F13" s="17" t="n"/>
+      <c r="G13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="25" t="n">
+      <c r="H13" s="23" t="n">
         <v>0.75</v>
       </c>
-      <c r="I13" s="26" t="n"/>
+      <c r="I13" s="24" t="n"/>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="14">
-      <c r="A14" s="24" t="n">
+      <c r="A14" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="B14" s="19" t="n"/>
-      <c r="C14" s="15" t="s">
+      <c r="B14" s="17" t="n"/>
+      <c r="C14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="25" t="n">
+      <c r="D14" s="23" t="n">
         <v>3.24</v>
       </c>
-      <c r="E14" s="24" t="n">
+      <c r="E14" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="F14" s="19" t="n"/>
-      <c r="G14" s="15" t="s">
+      <c r="F14" s="17" t="n"/>
+      <c r="G14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="25" t="n">
+      <c r="H14" s="23" t="n">
         <v>2.7</v>
       </c>
-      <c r="I14" s="26" t="n"/>
+      <c r="I14" s="24" t="n"/>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="15">
-      <c r="A15" s="24" t="n">
+      <c r="A15" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="B15" s="19" t="n"/>
-      <c r="C15" s="15" t="s">
+      <c r="B15" s="17" t="n"/>
+      <c r="C15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="25" t="n">
+      <c r="D15" s="23" t="n">
         <v>3.72</v>
       </c>
-      <c r="E15" s="24" t="n">
+      <c r="E15" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="F15" s="19" t="n"/>
-      <c r="G15" s="15" t="s">
+      <c r="F15" s="17" t="n"/>
+      <c r="G15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="25" t="n">
+      <c r="H15" s="23" t="n">
         <v>3.2</v>
       </c>
-      <c r="I15" s="26" t="n">
+      <c r="I15" s="24" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H15*1.2</f>
         <v>3.84</v>
       </c>
     </row>
     <row customHeight="true" ht="43.25" outlineLevel="0" r="16">
-      <c r="A16" s="28" t="n">
+      <c r="A16" s="26" t="n">
         <v>7</v>
       </c>
-      <c r="B16" s="29" t="n"/>
-      <c r="C16" s="27" t="s">
+      <c r="B16" s="27" t="n"/>
+      <c r="C16" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="30" t="n">
+      <c r="D16" s="28" t="n">
         <v>0.07</v>
       </c>
-      <c r="E16" s="28" t="n">
+      <c r="E16" s="26" t="n">
         <v>7</v>
       </c>
-      <c r="F16" s="27" t="n"/>
-      <c r="G16" s="15" t="s">
+      <c r="F16" s="25" t="n"/>
+      <c r="G16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="30" t="n">
+      <c r="H16" s="28" t="n">
         <v>0.06</v>
       </c>
-      <c r="I16" s="26" t="n"/>
+      <c r="I16" s="24" t="n"/>
     </row>
     <row customHeight="true" ht="22.75" outlineLevel="0" r="17">
-      <c r="A17" s="24" t="n">
+      <c r="A17" s="22" t="n">
         <v>8</v>
       </c>
-      <c r="B17" s="29" t="n"/>
-      <c r="C17" s="15" t="s">
+      <c r="B17" s="27" t="n"/>
+      <c r="C17" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="31" t="n">
+      <c r="D17" s="29" t="n">
         <v>0.036</v>
       </c>
-      <c r="E17" s="24" t="n">
+      <c r="E17" s="22" t="n">
         <v>8</v>
       </c>
-      <c r="F17" s="19" t="n"/>
-      <c r="G17" s="15" t="s">
+      <c r="F17" s="17" t="n"/>
+      <c r="G17" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="31" t="n">
+      <c r="H17" s="29" t="n">
         <v>0.03</v>
       </c>
-      <c r="I17" s="32" t="n"/>
+      <c r="I17" s="30" t="n"/>
     </row>
     <row customHeight="true" ht="36.3837280273438" outlineLevel="0" r="18">
-      <c r="A18" s="28" t="n">
+      <c r="A18" s="26" t="n">
         <v>9</v>
       </c>
-      <c r="B18" s="29" t="n"/>
-      <c r="C18" s="33" t="s">
+      <c r="B18" s="27" t="n"/>
+      <c r="C18" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="34" t="s"/>
-      <c r="E18" s="28" t="n">
+      <c r="D18" s="32" t="s"/>
+      <c r="E18" s="26" t="n">
         <v>9</v>
       </c>
-      <c r="F18" s="27" t="n"/>
-      <c r="G18" s="15" t="s">
+      <c r="F18" s="25" t="n"/>
+      <c r="G18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="35" t="s"/>
-      <c r="I18" s="26" t="n"/>
-      <c r="J18" s="36" t="n"/>
+      <c r="H18" s="33" t="s"/>
+      <c r="I18" s="24" t="n"/>
+      <c r="J18" s="34" t="n"/>
     </row>
     <row customHeight="true" ht="49.1162414550781" outlineLevel="0" r="19">
-      <c r="A19" s="28" t="n">
+      <c r="A19" s="26" t="n">
         <v>10</v>
       </c>
-      <c r="B19" s="29" t="n"/>
-      <c r="C19" s="15" t="s">
+      <c r="B19" s="27" t="n"/>
+      <c r="C19" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="37" t="s"/>
-      <c r="E19" s="28" t="n">
+      <c r="D19" s="35" t="s"/>
+      <c r="E19" s="26" t="n">
         <v>10</v>
       </c>
-      <c r="F19" s="29" t="n"/>
-      <c r="G19" s="15" t="s">
+      <c r="F19" s="27" t="n"/>
+      <c r="G19" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="38" t="s"/>
-      <c r="I19" s="26" t="n"/>
+      <c r="H19" s="36" t="s"/>
+      <c r="I19" s="24" t="n"/>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="20">
-      <c r="A20" s="19" t="n"/>
-      <c r="B20" s="20" t="n">
+      <c r="A20" s="17" t="n"/>
+      <c r="B20" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="39" t="s"/>
-      <c r="E20" s="22" t="n"/>
-      <c r="F20" s="23" t="n">
+      <c r="D20" s="37" t="s"/>
+      <c r="E20" s="20" t="n"/>
+      <c r="F20" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="40" t="s"/>
-      <c r="I20" s="26" t="n"/>
+      <c r="H20" s="38" t="s"/>
+      <c r="I20" s="24" t="n"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="21">
-      <c r="A21" s="24" t="n">
+      <c r="A21" s="22" t="n">
         <v>11</v>
       </c>
-      <c r="B21" s="19" t="n"/>
-      <c r="C21" s="15" t="s">
+      <c r="B21" s="17" t="n"/>
+      <c r="C21" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="25" t="n">
+      <c r="D21" s="23" t="n">
         <v>2.04</v>
       </c>
-      <c r="E21" s="24" t="n">
+      <c r="E21" s="22" t="n">
         <v>11</v>
       </c>
-      <c r="F21" s="19" t="n"/>
-      <c r="G21" s="15" t="s">
+      <c r="F21" s="17" t="n"/>
+      <c r="G21" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="25" t="n">
+      <c r="H21" s="23" t="n">
         <v>1.7</v>
       </c>
-      <c r="I21" s="26" t="n"/>
+      <c r="I21" s="24" t="n"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="22">
-      <c r="A22" s="24" t="n">
+      <c r="A22" s="22" t="n">
         <v>12</v>
       </c>
-      <c r="B22" s="19" t="n"/>
-      <c r="C22" s="15" t="s">
+      <c r="B22" s="17" t="n"/>
+      <c r="C22" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="25" t="n">
+      <c r="D22" s="23" t="n">
         <v>0.42</v>
       </c>
-      <c r="E22" s="24" t="n">
+      <c r="E22" s="22" t="n">
         <v>12</v>
       </c>
-      <c r="F22" s="19" t="n"/>
-      <c r="G22" s="15" t="s">
+      <c r="F22" s="17" t="n"/>
+      <c r="G22" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H22" s="25" t="n">
+      <c r="H22" s="23" t="n">
         <v>0.35</v>
       </c>
-      <c r="I22" s="26" t="n"/>
+      <c r="I22" s="24" t="n"/>
     </row>
     <row customHeight="true" ht="36.75" outlineLevel="0" r="23">
-      <c r="A23" s="28" t="n">
+      <c r="A23" s="26" t="n">
         <v>13</v>
       </c>
-      <c r="B23" s="29" t="n"/>
-      <c r="C23" s="15" t="s">
+      <c r="B23" s="27" t="n"/>
+      <c r="C23" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="41" t="s"/>
-      <c r="E23" s="28" t="n">
+      <c r="D23" s="39" t="s"/>
+      <c r="E23" s="26" t="n">
         <v>13</v>
       </c>
-      <c r="F23" s="29" t="n"/>
-      <c r="G23" s="15" t="s">
+      <c r="F23" s="27" t="n"/>
+      <c r="G23" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="42" t="s"/>
+      <c r="H23" s="40" t="s"/>
     </row>
     <row customHeight="true" ht="38" outlineLevel="0" r="24">
-      <c r="A24" s="28" t="n">
+      <c r="A24" s="26" t="n">
         <v>14</v>
       </c>
-      <c r="B24" s="29" t="n"/>
-      <c r="C24" s="15" t="s">
+      <c r="B24" s="27" t="n"/>
+      <c r="C24" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="43" t="s"/>
-      <c r="E24" s="28" t="n">
+      <c r="D24" s="41" t="s"/>
+      <c r="E24" s="26" t="n">
         <v>14</v>
       </c>
-      <c r="F24" s="27" t="n"/>
-      <c r="G24" s="15" t="s">
+      <c r="F24" s="25" t="n"/>
+      <c r="G24" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="44" t="s"/>
+      <c r="H24" s="42" t="s"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="25">
-      <c r="A25" s="19" t="n"/>
-      <c r="B25" s="20" t="n">
+      <c r="A25" s="17" t="n"/>
+      <c r="B25" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="45" t="s"/>
-      <c r="E25" s="22" t="n"/>
-      <c r="F25" s="23" t="n">
+      <c r="D25" s="43" t="s"/>
+      <c r="E25" s="20" t="n"/>
+      <c r="F25" s="21" t="n">
         <v>5</v>
       </c>
-      <c r="G25" s="21" t="s">
+      <c r="G25" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H25" s="19" t="n"/>
-      <c r="K25" s="26" t="n"/>
+      <c r="H25" s="17" t="n"/>
+      <c r="K25" s="24" t="n"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="26">
-      <c r="A26" s="46" t="n">
+      <c r="A26" s="44" t="n">
         <v>15</v>
       </c>
-      <c r="B26" s="19" t="n"/>
-      <c r="C26" s="15" t="s">
+      <c r="B26" s="17" t="n"/>
+      <c r="C26" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="47" t="s"/>
-      <c r="E26" s="22" t="n"/>
-      <c r="F26" s="19" t="n"/>
-      <c r="G26" s="15" t="s">
+      <c r="D26" s="45" t="s"/>
+      <c r="E26" s="20" t="n"/>
+      <c r="F26" s="17" t="n"/>
+      <c r="G26" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H26" s="48" t="s"/>
+      <c r="H26" s="46" t="s"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="27">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="19" t="n"/>
-      <c r="C27" s="15" t="s">
+      <c r="B27" s="17" t="n"/>
+      <c r="C27" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="50" t="n">
+      <c r="D27" s="48" t="n">
         <v>4</v>
       </c>
-      <c r="E27" s="24" t="n">
+      <c r="E27" s="22" t="n">
         <v>15</v>
       </c>
-      <c r="F27" s="19" t="n"/>
-      <c r="G27" s="15" t="s">
+      <c r="F27" s="17" t="n"/>
+      <c r="G27" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H27" s="50" t="n">
+      <c r="H27" s="48" t="n">
         <v>4.5</v>
       </c>
-      <c r="I27" s="51" t="n"/>
-      <c r="J27" s="51" t="n"/>
-      <c r="K27" s="51" t="n"/>
+      <c r="I27" s="49" t="n"/>
+      <c r="J27" s="49" t="n"/>
+      <c r="K27" s="49" t="n"/>
     </row>
     <row customHeight="true" ht="28.75" outlineLevel="0" r="28">
-      <c r="A28" s="46" t="n">
+      <c r="A28" s="44" t="n">
         <v>16</v>
       </c>
-      <c r="B28" s="29" t="n"/>
-      <c r="C28" s="15" t="s">
+      <c r="B28" s="27" t="n"/>
+      <c r="C28" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="52" t="s"/>
-      <c r="E28" s="24" t="n">
+      <c r="D28" s="50" t="s"/>
+      <c r="E28" s="22" t="n">
         <v>16</v>
       </c>
-      <c r="F28" s="19" t="n"/>
-      <c r="G28" s="15" t="s">
+      <c r="F28" s="17" t="n"/>
+      <c r="G28" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H28" s="50" t="n">
+      <c r="H28" s="48" t="n">
         <v>0.85</v>
       </c>
-      <c r="I28" s="26" t="n"/>
-      <c r="J28" s="36" t="n"/>
-      <c r="K28" s="53" t="n"/>
-      <c r="L28" s="36" t="n"/>
-      <c r="M28" s="36" t="n"/>
-      <c r="N28" s="36" t="n"/>
-      <c r="O28" s="36" t="n"/>
+      <c r="I28" s="24" t="n"/>
+      <c r="J28" s="34" t="n"/>
+      <c r="K28" s="51" t="n"/>
+      <c r="L28" s="34" t="n"/>
+      <c r="M28" s="34" t="n"/>
+      <c r="N28" s="34" t="n"/>
+      <c r="O28" s="34" t="n"/>
     </row>
     <row customHeight="true" ht="45.4999389648438" outlineLevel="0" r="29">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="19" t="n"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="17" t="n"/>
+      <c r="C29" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="50" t="n">
+      <c r="D29" s="48" t="n">
         <v>4</v>
       </c>
-      <c r="E29" s="24" t="n">
+      <c r="E29" s="22" t="n">
         <v>17</v>
       </c>
-      <c r="F29" s="29" t="n"/>
-      <c r="G29" s="27" t="s">
+      <c r="F29" s="27" t="n"/>
+      <c r="G29" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="H29" s="54" t="s"/>
-      <c r="I29" s="26" t="n"/>
-      <c r="J29" s="36" t="n"/>
-      <c r="K29" s="51" t="n"/>
-      <c r="L29" s="36" t="n"/>
-      <c r="M29" s="36" t="n"/>
-      <c r="N29" s="36" t="n"/>
+      <c r="H29" s="52" t="s"/>
+      <c r="I29" s="24" t="n"/>
+      <c r="J29" s="34" t="n"/>
+      <c r="K29" s="49" t="n"/>
+      <c r="L29" s="34" t="n"/>
+      <c r="M29" s="34" t="n"/>
+      <c r="N29" s="34" t="n"/>
     </row>
     <row customHeight="true" hidden="false" ht="45" outlineLevel="0" r="30">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="19" t="n"/>
-      <c r="C30" s="15" t="s">
+      <c r="B30" s="17" t="n"/>
+      <c r="C30" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="50" t="n">
+      <c r="D30" s="48" t="n">
         <v>0.85</v>
       </c>
-      <c r="E30" s="28" t="n">
+      <c r="E30" s="26" t="n">
         <v>18</v>
       </c>
-      <c r="F30" s="29" t="n"/>
-      <c r="G30" s="15" t="s">
+      <c r="F30" s="27" t="n"/>
+      <c r="G30" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H30" s="55" t="s"/>
-      <c r="I30" s="26" t="n"/>
+      <c r="H30" s="53" t="s"/>
+      <c r="I30" s="24" t="n"/>
     </row>
     <row customHeight="true" ht="38.75" outlineLevel="0" r="31">
-      <c r="A31" s="56" t="s">
+      <c r="A31" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="27" t="n"/>
-      <c r="C31" s="15" t="s">
+      <c r="B31" s="25" t="n"/>
+      <c r="C31" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="57" t="s"/>
-      <c r="E31" s="24" t="n">
+      <c r="D31" s="55" t="s"/>
+      <c r="E31" s="22" t="n">
         <v>19</v>
       </c>
-      <c r="F31" s="29" t="n"/>
-      <c r="G31" s="27" t="s">
+      <c r="F31" s="27" t="n"/>
+      <c r="G31" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="H31" s="58" t="n">
+      <c r="H31" s="56" t="n">
         <v>0.85</v>
       </c>
     </row>
     <row customHeight="true" ht="36.4999389648438" outlineLevel="0" r="32">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="29" t="n"/>
-      <c r="C32" s="27" t="s">
+      <c r="B32" s="27" t="n"/>
+      <c r="C32" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="59" t="s"/>
-      <c r="E32" s="28" t="n">
+      <c r="D32" s="57" t="s"/>
+      <c r="E32" s="26" t="n">
         <v>20</v>
       </c>
-      <c r="F32" s="29" t="n"/>
-      <c r="G32" s="15" t="s">
+      <c r="F32" s="27" t="n"/>
+      <c r="G32" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="H32" s="60" t="n">
+      <c r="H32" s="58" t="n">
         <v>0.05</v>
       </c>
     </row>
     <row customHeight="true" ht="36.4999389648438" outlineLevel="0" r="33">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="24" t="n">
+      <c r="E33" s="22" t="n">
         <v>21</v>
       </c>
-      <c r="F33" s="29" t="n"/>
-      <c r="G33" s="27" t="s">
+      <c r="F33" s="27" t="n"/>
+      <c r="G33" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="H33" s="61" t="s"/>
+      <c r="H33" s="59" t="s"/>
     </row>
     <row outlineLevel="0" r="34">
-      <c r="A34" s="28" t="n">
+      <c r="A34" s="26" t="n">
         <v>19</v>
       </c>
-      <c r="B34" s="29" t="n"/>
-      <c r="C34" s="27" t="s">
+      <c r="B34" s="27" t="n"/>
+      <c r="C34" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="62" t="s"/>
-      <c r="E34" s="28" t="n">
+      <c r="D34" s="60" t="s"/>
+      <c r="E34" s="26" t="n">
         <v>22</v>
       </c>
-      <c r="F34" s="29" t="n"/>
-      <c r="G34" s="63" t="s">
+      <c r="F34" s="27" t="n"/>
+      <c r="G34" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="H34" s="64" t="s">
+      <c r="H34" s="62" t="s">
         <v>57</v>
       </c>
     </row>
     <row outlineLevel="0" r="35">
-      <c r="A35" s="24" t="n">
+      <c r="A35" s="22" t="n">
         <v>20</v>
       </c>
-      <c r="B35" s="29" t="n"/>
-      <c r="C35" s="15" t="s">
+      <c r="B35" s="27" t="n"/>
+      <c r="C35" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="31" t="n">
+      <c r="D35" s="29" t="n">
         <v>0.03</v>
       </c>
-      <c r="E35" s="28" t="n">
+      <c r="E35" s="26" t="n">
         <v>23</v>
       </c>
-      <c r="F35" s="29" t="n"/>
-      <c r="G35" s="27" t="s">
+      <c r="F35" s="27" t="n"/>
+      <c r="G35" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="H35" s="65" t="s"/>
+      <c r="H35" s="63" t="s"/>
     </row>
     <row outlineLevel="0" r="36">
-      <c r="A36" s="24" t="n">
+      <c r="A36" s="22" t="n">
         <v>21</v>
       </c>
-      <c r="B36" s="29" t="n"/>
-      <c r="C36" s="27" t="s">
+      <c r="B36" s="27" t="n"/>
+      <c r="C36" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="66" t="s"/>
-      <c r="E36" s="24" t="n">
+      <c r="D36" s="64" t="s"/>
+      <c r="E36" s="22" t="n">
         <v>24</v>
       </c>
-      <c r="F36" s="19" t="n"/>
-      <c r="G36" s="15" t="s">
+      <c r="F36" s="17" t="n"/>
+      <c r="G36" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="31" t="n">
+      <c r="H36" s="29" t="n">
         <v>0.03</v>
       </c>
     </row>
     <row outlineLevel="0" r="37">
-      <c r="A37" s="24" t="n">
+      <c r="A37" s="22" t="n">
         <v>22</v>
       </c>
-      <c r="B37" s="29" t="n"/>
-      <c r="C37" s="27" t="s">
+      <c r="B37" s="27" t="n"/>
+      <c r="C37" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="D37" s="67" t="s"/>
-      <c r="E37" s="24" t="n">
+      <c r="D37" s="65" t="s"/>
+      <c r="E37" s="22" t="n">
         <v>25</v>
       </c>
-      <c r="F37" s="29" t="n"/>
-      <c r="G37" s="27" t="s">
+      <c r="F37" s="27" t="n"/>
+      <c r="G37" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="H37" s="68" t="s"/>
+      <c r="H37" s="66" t="s"/>
     </row>
     <row outlineLevel="0" r="38">
-      <c r="A38" s="29" t="n"/>
-      <c r="B38" s="20" t="n">
+      <c r="A38" s="27" t="n"/>
+      <c r="B38" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="C38" s="69" t="s">
+      <c r="C38" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="D38" s="70" t="s"/>
-      <c r="E38" s="18" t="s">
+      <c r="D38" s="68" t="s"/>
+      <c r="E38" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="F38" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G38" s="18" t="s">
+      <c r="G38" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H38" s="18" t="s">
+      <c r="H38" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row outlineLevel="0" r="39">
-      <c r="A39" s="24" t="n">
+      <c r="A39" s="22" t="n">
         <v>23</v>
       </c>
-      <c r="B39" s="29" t="n"/>
-      <c r="C39" s="15" t="s">
+      <c r="B39" s="27" t="n"/>
+      <c r="C39" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="71" t="s"/>
-      <c r="E39" s="24" t="n"/>
-      <c r="F39" s="72" t="n">
+      <c r="D39" s="69" t="s"/>
+      <c r="E39" s="22" t="n"/>
+      <c r="F39" s="70" t="n">
         <v>6</v>
       </c>
-      <c r="G39" s="69" t="s">
+      <c r="G39" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="H39" s="73" t="n"/>
+      <c r="H39" s="71" t="n"/>
     </row>
     <row outlineLevel="0" r="40">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B40" s="29" t="n"/>
-      <c r="C40" s="15" t="s">
+      <c r="B40" s="27" t="n"/>
+      <c r="C40" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="74" t="n">
+      <c r="D40" s="72" t="n">
         <v>3.5</v>
       </c>
-      <c r="E40" s="22" t="n"/>
-      <c r="F40" s="75" t="n">
+      <c r="E40" s="20" t="n"/>
+      <c r="F40" s="73" t="n">
         <v>26</v>
       </c>
-      <c r="G40" s="27" t="s">
+      <c r="G40" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H40" s="73" t="n">
+      <c r="H40" s="71" t="n">
         <v>4.5</v>
       </c>
     </row>
     <row outlineLevel="0" r="41">
-      <c r="A41" s="49" t="s">
+      <c r="A41" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="29" t="n"/>
-      <c r="C41" s="15" t="s">
+      <c r="B41" s="27" t="n"/>
+      <c r="C41" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D41" s="50" t="n">
+      <c r="D41" s="48" t="n">
         <v>4.5</v>
       </c>
-      <c r="E41" s="24" t="n">
+      <c r="E41" s="22" t="n">
         <v>26</v>
       </c>
-      <c r="F41" s="75" t="n">
+      <c r="F41" s="73" t="n">
         <v>27</v>
       </c>
-      <c r="G41" s="27" t="s">
+      <c r="G41" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="H41" s="76" t="n">
+      <c r="H41" s="74" t="n">
         <v>0.01</v>
       </c>
     </row>
     <row outlineLevel="0" r="42">
-      <c r="A42" s="49" t="s">
+      <c r="A42" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="B42" s="29" t="n"/>
-      <c r="C42" s="15" t="s">
+      <c r="B42" s="27" t="n"/>
+      <c r="C42" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D42" s="50" t="n">
+      <c r="D42" s="48" t="n">
         <v>5.5</v>
       </c>
-      <c r="E42" s="24" t="n">
+      <c r="E42" s="22" t="n">
         <v>27</v>
       </c>
-      <c r="F42" s="75" t="n">
+      <c r="F42" s="73" t="n">
         <v>28</v>
       </c>
-      <c r="G42" s="77" t="s">
+      <c r="G42" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="H42" s="78" t="s"/>
+      <c r="H42" s="76" t="s"/>
     </row>
     <row outlineLevel="0" r="43">
-      <c r="A43" s="46" t="s">
+      <c r="A43" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B43" s="29" t="n"/>
-      <c r="C43" s="27" t="s">
+      <c r="B43" s="27" t="n"/>
+      <c r="C43" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="79" t="s"/>
-      <c r="E43" s="24" t="n">
+      <c r="D43" s="77" t="s"/>
+      <c r="E43" s="22" t="n">
         <v>28</v>
       </c>
-      <c r="F43" s="23" t="n">
+      <c r="F43" s="21" t="n">
         <v>7</v>
       </c>
-      <c r="G43" s="80" t="s">
+      <c r="G43" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="H43" s="81" t="s"/>
+      <c r="H43" s="79" t="s"/>
     </row>
     <row outlineLevel="0" r="44">
-      <c r="A44" s="49" t="s">
+      <c r="A44" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="B44" s="29" t="n"/>
-      <c r="C44" s="15" t="s">
+      <c r="B44" s="27" t="n"/>
+      <c r="C44" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D44" s="25" t="n">
+      <c r="D44" s="23" t="n">
         <v>4</v>
       </c>
-      <c r="E44" s="82" t="n"/>
-      <c r="F44" s="19" t="n"/>
-      <c r="G44" s="80" t="s">
+      <c r="E44" s="80" t="n"/>
+      <c r="F44" s="17" t="n"/>
+      <c r="G44" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="H44" s="83" t="s"/>
+      <c r="H44" s="81" t="s"/>
     </row>
     <row outlineLevel="0" r="45">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="B45" s="29" t="n"/>
-      <c r="C45" s="15" t="s">
+      <c r="B45" s="27" t="n"/>
+      <c r="C45" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="25" t="n">
+      <c r="D45" s="23" t="n">
         <v>0.85</v>
       </c>
-      <c r="E45" s="24" t="n">
+      <c r="E45" s="22" t="n">
         <v>29</v>
       </c>
-      <c r="F45" s="22" t="n">
+      <c r="F45" s="20" t="n">
         <v>29</v>
       </c>
-      <c r="G45" s="15" t="s">
+      <c r="G45" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="H45" s="25" t="n">
+      <c r="H45" s="23" t="n">
         <v>2.5</v>
       </c>
     </row>
     <row outlineLevel="0" r="46">
-      <c r="A46" s="56" t="s">
+      <c r="A46" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="B46" s="27" t="n"/>
-      <c r="C46" s="84" t="s">
+      <c r="B46" s="25" t="n"/>
+      <c r="C46" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="D46" s="85" t="s"/>
-      <c r="E46" s="24" t="n">
+      <c r="D46" s="83" t="s"/>
+      <c r="E46" s="22" t="n">
         <v>30</v>
       </c>
-      <c r="F46" s="22" t="n">
+      <c r="F46" s="20" t="n">
         <v>30</v>
       </c>
-      <c r="G46" s="15" t="s">
+      <c r="G46" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="H46" s="25" t="n">
+      <c r="H46" s="23" t="n">
         <v>3.3</v>
       </c>
     </row>
     <row outlineLevel="0" r="47">
-      <c r="A47" s="56" t="s">
+      <c r="A47" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="B47" s="27" t="n"/>
-      <c r="C47" s="84" t="s">
+      <c r="B47" s="25" t="n"/>
+      <c r="C47" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="D47" s="86" t="s"/>
-      <c r="E47" s="24" t="n">
+      <c r="D47" s="84" t="s"/>
+      <c r="E47" s="22" t="n">
         <v>31</v>
       </c>
-      <c r="F47" s="22" t="n">
+      <c r="F47" s="20" t="n">
         <v>31</v>
       </c>
-      <c r="G47" s="15" t="s">
+      <c r="G47" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="H47" s="25" t="n">
+      <c r="H47" s="23" t="n">
         <v>4.1</v>
       </c>
     </row>
     <row outlineLevel="0" r="48">
-      <c r="A48" s="56" t="s">
+      <c r="A48" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="B48" s="27" t="n"/>
-      <c r="C48" s="84" t="s">
+      <c r="B48" s="25" t="n"/>
+      <c r="C48" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="D48" s="87" t="s"/>
-      <c r="E48" s="24" t="n"/>
-      <c r="F48" s="22" t="n"/>
-      <c r="G48" s="21" t="s">
+      <c r="D48" s="85" t="s"/>
+      <c r="E48" s="22" t="n"/>
+      <c r="F48" s="20" t="n"/>
+      <c r="G48" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="H48" s="88" t="s"/>
+      <c r="H48" s="86" t="s"/>
     </row>
     <row outlineLevel="0" r="49">
-      <c r="A49" s="24" t="n">
+      <c r="A49" s="22" t="n">
         <v>28</v>
       </c>
-      <c r="B49" s="29" t="n"/>
-      <c r="C49" s="27" t="s">
+      <c r="B49" s="27" t="n"/>
+      <c r="C49" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="D49" s="31" t="n">
+      <c r="D49" s="29" t="n">
         <v>0.01</v>
       </c>
-      <c r="E49" s="24" t="n">
+      <c r="E49" s="22" t="n">
         <v>32</v>
       </c>
-      <c r="F49" s="22" t="n">
+      <c r="F49" s="20" t="n">
         <v>32</v>
       </c>
-      <c r="G49" s="15" t="s">
+      <c r="G49" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="H49" s="89" t="n">
+      <c r="H49" s="87" t="n">
         <v>4.5</v>
       </c>
     </row>
     <row outlineLevel="0" r="50">
-      <c r="A50" s="24" t="n">
+      <c r="A50" s="22" t="n">
         <v>29</v>
       </c>
-      <c r="B50" s="29" t="n"/>
-      <c r="C50" s="27" t="s">
+      <c r="B50" s="27" t="n"/>
+      <c r="C50" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="D50" s="90" t="s"/>
-      <c r="E50" s="24" t="n">
+      <c r="D50" s="88" t="s"/>
+      <c r="E50" s="22" t="n">
         <v>33</v>
       </c>
-      <c r="F50" s="22" t="n">
+      <c r="F50" s="20" t="n">
         <v>33</v>
       </c>
-      <c r="G50" s="15" t="s">
+      <c r="G50" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="H50" s="89" t="n">
+      <c r="H50" s="87" t="n">
         <v>5.65</v>
       </c>
     </row>
     <row outlineLevel="0" r="51">
-      <c r="A51" s="24" t="n"/>
-      <c r="B51" s="29" t="n">
+      <c r="A51" s="22" t="n"/>
+      <c r="B51" s="27" t="n">
         <v>7</v>
       </c>
-      <c r="C51" s="69" t="s">
+      <c r="C51" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="D51" s="73" t="n"/>
-      <c r="E51" s="24" t="n">
+      <c r="D51" s="71" t="n"/>
+      <c r="E51" s="22" t="n">
         <v>34</v>
       </c>
-      <c r="F51" s="22" t="n">
+      <c r="F51" s="20" t="n">
         <v>34</v>
       </c>
-      <c r="G51" s="15" t="s">
+      <c r="G51" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="H51" s="89" t="n">
+      <c r="H51" s="87" t="n">
         <v>8.1</v>
       </c>
     </row>
     <row outlineLevel="0" r="52">
-      <c r="A52" s="24" t="n">
+      <c r="A52" s="22" t="n">
         <v>30</v>
       </c>
-      <c r="B52" s="29" t="n"/>
-      <c r="C52" s="27" t="s">
+      <c r="B52" s="27" t="n"/>
+      <c r="C52" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="D52" s="73" t="n">
+      <c r="D52" s="71" t="n">
         <v>4.5</v>
       </c>
-      <c r="E52" s="82" t="n"/>
-      <c r="F52" s="29" t="n"/>
-      <c r="G52" s="27" t="s">
+      <c r="E52" s="80" t="n"/>
+      <c r="F52" s="27" t="n"/>
+      <c r="G52" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="H52" s="91" t="s"/>
+      <c r="H52" s="89" t="s"/>
     </row>
     <row outlineLevel="0" r="53">
-      <c r="A53" s="24" t="n">
+      <c r="A53" s="22" t="n">
         <v>31</v>
       </c>
-      <c r="B53" s="29" t="n"/>
-      <c r="C53" s="27" t="s">
+      <c r="B53" s="27" t="n"/>
+      <c r="C53" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="D53" s="76" t="n">
+      <c r="D53" s="74" t="n">
         <v>0.01</v>
       </c>
-      <c r="E53" s="24" t="n">
+      <c r="E53" s="22" t="n">
         <v>35</v>
       </c>
-      <c r="F53" s="29" t="n"/>
-      <c r="G53" s="92" t="s">
+      <c r="F53" s="27" t="n"/>
+      <c r="G53" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="H53" s="93" t="s"/>
+      <c r="H53" s="91" t="s"/>
     </row>
     <row outlineLevel="0" r="54">
-      <c r="A54" s="24" t="n">
+      <c r="A54" s="22" t="n">
         <v>32</v>
       </c>
-      <c r="B54" s="29" t="n"/>
-      <c r="C54" s="77" t="s">
+      <c r="B54" s="27" t="n"/>
+      <c r="C54" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="D54" s="94" t="s"/>
-      <c r="E54" s="24" t="n">
+      <c r="D54" s="92" t="s"/>
+      <c r="E54" s="22" t="n">
         <v>36</v>
       </c>
-      <c r="F54" s="29" t="n"/>
-      <c r="G54" s="77" t="s">
+      <c r="F54" s="27" t="n"/>
+      <c r="G54" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="H54" s="95" t="s"/>
+      <c r="H54" s="93" t="s"/>
     </row>
     <row outlineLevel="0" r="55">
-      <c r="A55" s="29" t="n"/>
-      <c r="B55" s="20" t="n">
+      <c r="A55" s="27" t="n"/>
+      <c r="B55" s="18" t="n">
         <v>8</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D55" s="96" t="s"/>
-      <c r="E55" s="24" t="n">
+      <c r="D55" s="94" t="s"/>
+      <c r="E55" s="22" t="n">
         <v>37</v>
       </c>
-      <c r="F55" s="29" t="n"/>
-      <c r="G55" s="77" t="s">
+      <c r="F55" s="27" t="n"/>
+      <c r="G55" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="H55" s="97" t="s"/>
+      <c r="H55" s="95" t="s"/>
     </row>
     <row outlineLevel="0" r="56">
-      <c r="A56" s="19" t="n"/>
-      <c r="B56" s="19" t="n"/>
-      <c r="C56" s="21" t="s">
+      <c r="A56" s="17" t="n"/>
+      <c r="B56" s="17" t="n"/>
+      <c r="C56" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D56" s="98" t="s"/>
-      <c r="E56" s="24" t="n">
+      <c r="D56" s="96" t="s"/>
+      <c r="E56" s="22" t="n">
         <v>38</v>
       </c>
-      <c r="F56" s="23" t="n">
+      <c r="F56" s="21" t="n">
         <v>7</v>
       </c>
-      <c r="G56" s="80" t="s">
+      <c r="G56" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="H56" s="99" t="s"/>
+      <c r="H56" s="97" t="s"/>
     </row>
     <row outlineLevel="0" r="57">
-      <c r="A57" s="24" t="n">
+      <c r="A57" s="22" t="n">
         <v>33</v>
       </c>
-      <c r="B57" s="19" t="n"/>
-      <c r="C57" s="15" t="s">
+      <c r="B57" s="17" t="n"/>
+      <c r="C57" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D57" s="25" t="n">
+      <c r="D57" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="E57" s="24" t="n">
+      <c r="E57" s="22" t="n">
         <v>39</v>
       </c>
-      <c r="F57" s="19" t="n"/>
-      <c r="G57" s="15" t="s">
+      <c r="F57" s="17" t="n"/>
+      <c r="G57" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="H57" s="89" t="n">
+      <c r="H57" s="87" t="n">
         <v>4.5</v>
       </c>
     </row>
     <row outlineLevel="0" r="58">
-      <c r="A58" s="24" t="n">
+      <c r="A58" s="22" t="n">
         <v>34</v>
       </c>
-      <c r="B58" s="19" t="n"/>
-      <c r="C58" s="15" t="s">
+      <c r="B58" s="17" t="n"/>
+      <c r="C58" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D58" s="25" t="n">
+      <c r="D58" s="23" t="n">
         <v>3.96</v>
       </c>
-      <c r="E58" s="82" t="n"/>
-      <c r="F58" s="19" t="n"/>
-      <c r="G58" s="15" t="s">
+      <c r="E58" s="80" t="n"/>
+      <c r="F58" s="17" t="n"/>
+      <c r="G58" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="H58" s="89" t="n">
+      <c r="H58" s="87" t="n">
         <v>5.65</v>
       </c>
     </row>
     <row outlineLevel="0" r="59">
-      <c r="A59" s="24" t="n">
+      <c r="A59" s="22" t="n">
         <v>35</v>
       </c>
-      <c r="B59" s="19" t="n"/>
-      <c r="C59" s="15" t="s">
+      <c r="B59" s="17" t="n"/>
+      <c r="C59" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D59" s="25" t="n">
+      <c r="D59" s="23" t="n">
         <v>4.92</v>
       </c>
-      <c r="E59" s="24" t="n">
+      <c r="E59" s="22" t="n">
         <v>40</v>
       </c>
-      <c r="F59" s="19" t="n"/>
-      <c r="G59" s="15" t="s">
+      <c r="F59" s="17" t="n"/>
+      <c r="G59" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="H59" s="89" t="n">
+      <c r="H59" s="87" t="n">
         <v>8.1</v>
       </c>
     </row>
     <row outlineLevel="0" r="60">
-      <c r="A60" s="19" t="n"/>
-      <c r="B60" s="19" t="n"/>
-      <c r="C60" s="21" t="s">
+      <c r="A60" s="17" t="n"/>
+      <c r="B60" s="17" t="n"/>
+      <c r="C60" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D60" s="100" t="s"/>
-      <c r="E60" s="24" t="n">
+      <c r="D60" s="98" t="s"/>
+      <c r="E60" s="22" t="n">
         <v>41</v>
       </c>
-      <c r="F60" s="29" t="n"/>
-      <c r="G60" s="15" t="s">
+      <c r="F60" s="27" t="n"/>
+      <c r="G60" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H60" s="101" t="n">
+      <c r="H60" s="99" t="n">
         <v>0.03</v>
       </c>
     </row>
     <row outlineLevel="0" r="61">
-      <c r="A61" s="24" t="n">
+      <c r="A61" s="22" t="n">
         <v>36</v>
       </c>
-      <c r="B61" s="19" t="n"/>
-      <c r="C61" s="15" t="s">
+      <c r="B61" s="17" t="n"/>
+      <c r="C61" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D61" s="25" t="n">
+      <c r="D61" s="23" t="n">
         <v>5.4</v>
       </c>
-      <c r="E61" s="24" t="n">
+      <c r="E61" s="22" t="n">
         <v>42</v>
       </c>
-      <c r="F61" s="29" t="n"/>
-      <c r="G61" s="77" t="s">
+      <c r="F61" s="27" t="n"/>
+      <c r="G61" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="H61" s="102" t="s"/>
+      <c r="H61" s="100" t="s"/>
     </row>
     <row outlineLevel="0" r="62">
-      <c r="A62" s="24" t="n">
+      <c r="A62" s="22" t="n">
         <v>37</v>
       </c>
-      <c r="B62" s="19" t="n"/>
-      <c r="C62" s="15" t="s">
+      <c r="B62" s="17" t="n"/>
+      <c r="C62" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D62" s="25" t="n">
+      <c r="D62" s="23" t="n">
         <v>6.78</v>
       </c>
-      <c r="E62" s="22" t="n"/>
-      <c r="F62" s="23" t="n">
+      <c r="E62" s="20" t="n"/>
+      <c r="F62" s="21" t="n">
         <v>8</v>
       </c>
-      <c r="G62" s="21" t="s">
+      <c r="G62" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="H62" s="103" t="s"/>
+      <c r="H62" s="101" t="s"/>
     </row>
     <row outlineLevel="0" r="63">
-      <c r="A63" s="24" t="n">
+      <c r="A63" s="22" t="n">
         <v>38</v>
       </c>
-      <c r="B63" s="19" t="n"/>
-      <c r="C63" s="15" t="s">
+      <c r="B63" s="17" t="n"/>
+      <c r="C63" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D63" s="25" t="n">
+      <c r="D63" s="23" t="n">
         <v>9.72</v>
       </c>
-      <c r="E63" s="24" t="n">
+      <c r="E63" s="22" t="n">
         <v>43</v>
       </c>
-      <c r="F63" s="19" t="n"/>
-      <c r="G63" s="15" t="s">
+      <c r="F63" s="17" t="n"/>
+      <c r="G63" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="H63" s="89" t="n">
+      <c r="H63" s="87" t="n">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="64">
-      <c r="A64" s="29" t="n"/>
-      <c r="B64" s="29" t="n"/>
-      <c r="C64" s="15" t="s">
+      <c r="A64" s="27" t="n"/>
+      <c r="B64" s="27" t="n"/>
+      <c r="C64" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D64" s="104" t="s"/>
-      <c r="E64" s="82" t="n"/>
-      <c r="F64" s="19" t="n"/>
-      <c r="G64" s="15" t="s">
+      <c r="D64" s="102" t="s"/>
+      <c r="E64" s="80" t="n">
+        <v>44</v>
+      </c>
+      <c r="F64" s="17" t="n"/>
+      <c r="G64" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="H64" s="89" t="n">
+      <c r="H64" s="87" t="n">
         <v>30</v>
       </c>
     </row>
     <row outlineLevel="0" r="65">
-      <c r="A65" s="28" t="n">
+      <c r="A65" s="26" t="n">
         <v>39</v>
       </c>
-      <c r="B65" s="29" t="n"/>
-      <c r="C65" s="63" t="s">
+      <c r="B65" s="27" t="n"/>
+      <c r="C65" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="D65" s="105" t="s"/>
-      <c r="E65" s="24" t="n">
+      <c r="D65" s="103" t="s"/>
+      <c r="E65" s="22" t="n">
+        <v>45</v>
+      </c>
+      <c r="F65" s="17" t="n"/>
+      <c r="G65" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H65" s="87" t="n">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="66">
+      <c r="A66" s="22" t="n">
+        <v>40</v>
+      </c>
+      <c r="B66" s="27" t="n"/>
+      <c r="C66" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D66" s="104" t="s"/>
+      <c r="E66" s="22" t="n"/>
+      <c r="F66" s="21" t="n">
+        <v>9</v>
+      </c>
+      <c r="G66" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="H66" s="17" t="n"/>
+    </row>
+    <row outlineLevel="0" r="67">
+      <c r="A67" s="105" t="n">
+        <v>41</v>
+      </c>
+      <c r="B67" s="106" t="n"/>
+      <c r="C67" s="107" t="s">
+        <v>108</v>
+      </c>
+      <c r="D67" s="108" t="s"/>
+      <c r="E67" s="26" t="n">
+        <v>46</v>
+      </c>
+      <c r="F67" s="27" t="n"/>
+      <c r="G67" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="H67" s="99" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="68">
+      <c r="A68" s="17" t="n"/>
+      <c r="B68" s="21" t="n">
+        <v>9</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D68" s="109" t="s"/>
+      <c r="E68" s="110" t="n">
+        <v>47</v>
+      </c>
+      <c r="F68" s="27" t="n"/>
+      <c r="G68" s="111" t="s">
+        <v>110</v>
+      </c>
+      <c r="H68" s="112" t="s"/>
+    </row>
+    <row outlineLevel="0" r="69">
+      <c r="A69" s="22" t="n">
+        <v>42</v>
+      </c>
+      <c r="B69" s="17" t="n"/>
+      <c r="C69" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D69" s="23" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E69" s="26" t="n">
+        <v>48</v>
+      </c>
+      <c r="F69" s="25" t="n"/>
+      <c r="G69" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="H69" s="113" t="n">
+        <v>0.0233</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="70">
+      <c r="A70" s="22" t="n">
+        <v>43</v>
+      </c>
+      <c r="B70" s="17" t="n"/>
+      <c r="C70" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D70" s="23" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="E70" s="26" t="n">
+        <v>49</v>
+      </c>
+      <c r="F70" s="25" t="n"/>
+      <c r="G70" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="H70" s="113" t="n">
+        <v>0.0233</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="71">
+      <c r="A71" s="22" t="n">
         <v>44</v>
       </c>
-      <c r="F65" s="19" t="n"/>
-      <c r="G65" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="H65" s="89" t="n">
-        <v>42.5</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="66">
-      <c r="A66" s="24" t="n">
-        <v>40</v>
-      </c>
-      <c r="B66" s="29" t="n"/>
-      <c r="C66" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D66" s="106" t="s"/>
-      <c r="E66" s="24" t="n">
+      <c r="B71" s="17" t="n"/>
+      <c r="C71" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D71" s="23" t="n">
+        <v>9.72</v>
+      </c>
+      <c r="E71" s="26" t="n">
+        <v>50</v>
+      </c>
+      <c r="F71" s="25" t="n"/>
+      <c r="G71" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="H71" s="114" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="72">
+      <c r="A72" s="22" t="n">
         <v>45</v>
       </c>
-      <c r="F66" s="23" t="n">
-        <v>9</v>
-      </c>
-      <c r="G66" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="H66" s="19" t="n"/>
-    </row>
-    <row outlineLevel="0" r="67">
-      <c r="A67" s="107" t="n">
-        <v>41</v>
-      </c>
-      <c r="B67" s="108" t="n"/>
-      <c r="C67" s="109" t="s">
-        <v>108</v>
-      </c>
-      <c r="D67" s="110" t="s"/>
-      <c r="E67" s="28" t="n">
+      <c r="B72" s="17" t="n"/>
+      <c r="C72" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" s="29" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E72" s="22" t="n">
+        <v>51</v>
+      </c>
+      <c r="F72" s="25" t="n"/>
+      <c r="G72" s="115" t="s">
+        <v>117</v>
+      </c>
+      <c r="H72" s="116" t="s"/>
+    </row>
+    <row outlineLevel="0" r="73">
+      <c r="A73" s="26" t="n">
         <v>46</v>
       </c>
-      <c r="F67" s="29" t="n"/>
-      <c r="G67" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="H67" s="101" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="68">
-      <c r="A68" s="19" t="n"/>
-      <c r="B68" s="23" t="n">
-        <v>9</v>
-      </c>
-      <c r="C68" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="D68" s="111" t="s"/>
-      <c r="E68" s="112" t="n"/>
-      <c r="F68" s="29" t="n"/>
-      <c r="G68" s="84" t="s">
-        <v>110</v>
-      </c>
-      <c r="H68" s="113" t="s"/>
-    </row>
-    <row outlineLevel="0" r="69">
-      <c r="A69" s="24" t="n">
-        <v>42</v>
-      </c>
-      <c r="B69" s="19" t="n"/>
-      <c r="C69" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D69" s="25" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="E69" s="28" t="n">
-        <v>47</v>
-      </c>
-      <c r="F69" s="27" t="n"/>
-      <c r="G69" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="H69" s="114" t="n">
-        <v>0.0233</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="70">
-      <c r="A70" s="24" t="n">
-        <v>43</v>
-      </c>
-      <c r="B70" s="19" t="n"/>
-      <c r="C70" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D70" s="25" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="E70" s="28" t="n">
-        <v>48</v>
-      </c>
-      <c r="F70" s="27" t="n"/>
-      <c r="G70" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="H70" s="114" t="n">
-        <v>0.0233</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="71">
-      <c r="A71" s="24" t="n">
-        <v>44</v>
-      </c>
-      <c r="B71" s="19" t="n"/>
-      <c r="C71" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D71" s="25" t="n">
-        <v>9.72</v>
-      </c>
-      <c r="E71" s="28" t="n">
-        <v>49</v>
-      </c>
-      <c r="F71" s="27" t="n"/>
-      <c r="G71" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="H71" s="115" t="n">
-        <v>0.015</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="72">
-      <c r="A72" s="24" t="n">
-        <v>45</v>
-      </c>
-      <c r="B72" s="19" t="n"/>
-      <c r="C72" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D72" s="31" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E72" s="24" t="n">
-        <v>50</v>
-      </c>
-      <c r="F72" s="27" t="n"/>
-      <c r="G72" s="92" t="s">
-        <v>117</v>
-      </c>
-      <c r="H72" s="116" t="s"/>
-    </row>
-    <row outlineLevel="0" r="73">
-      <c r="A73" s="28" t="n">
-        <v>46</v>
-      </c>
-      <c r="B73" s="29" t="n"/>
-      <c r="C73" s="15" t="s">
+      <c r="B73" s="27" t="n"/>
+      <c r="C73" s="13" t="s">
         <v>118</v>
       </c>
       <c r="D73" s="117" t="s"/>
-      <c r="E73" s="22" t="n"/>
-      <c r="F73" s="27" t="n"/>
-      <c r="G73" s="84" t="s">
+      <c r="E73" s="20" t="n">
+        <v>52</v>
+      </c>
+      <c r="F73" s="25" t="n"/>
+      <c r="G73" s="82" t="s">
         <v>119</v>
       </c>
       <c r="H73" s="118" t="n">
@@ -4734,61 +4756,63 @@
       </c>
     </row>
     <row outlineLevel="0" r="74">
-      <c r="A74" s="19" t="n"/>
-      <c r="B74" s="23" t="n">
+      <c r="A74" s="17" t="n"/>
+      <c r="B74" s="21" t="n">
         <v>10</v>
       </c>
-      <c r="C74" s="21" t="s">
+      <c r="C74" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="D74" s="19" t="n"/>
-      <c r="E74" s="24" t="n">
-        <v>51</v>
-      </c>
-      <c r="F74" s="29" t="n"/>
-      <c r="G74" s="33" t="s">
+      <c r="D74" s="17" t="n"/>
+      <c r="E74" s="22" t="n">
+        <v>53</v>
+      </c>
+      <c r="F74" s="27" t="n"/>
+      <c r="G74" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="H74" s="60" t="n">
+      <c r="H74" s="58" t="n">
         <v>0.015</v>
       </c>
     </row>
     <row outlineLevel="0" r="75">
-      <c r="A75" s="28" t="n">
+      <c r="A75" s="26" t="n">
         <v>47</v>
       </c>
-      <c r="B75" s="29" t="n"/>
-      <c r="C75" s="15" t="s">
+      <c r="B75" s="27" t="n"/>
+      <c r="C75" s="13" t="s">
         <v>122</v>
       </c>
       <c r="D75" s="119" t="n">
         <v>4</v>
       </c>
-      <c r="E75" s="22" t="n"/>
-      <c r="F75" s="27" t="n"/>
-      <c r="G75" s="84" t="s">
+      <c r="E75" s="20" t="n">
+        <v>54</v>
+      </c>
+      <c r="F75" s="25" t="n"/>
+      <c r="G75" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="H75" s="60" t="n">
+      <c r="H75" s="58" t="n">
         <v>0.005</v>
       </c>
     </row>
     <row outlineLevel="0" r="76">
-      <c r="A76" s="28" t="n">
+      <c r="A76" s="26" t="n">
         <v>48</v>
       </c>
-      <c r="B76" s="27" t="n"/>
-      <c r="C76" s="15" t="s">
+      <c r="B76" s="25" t="n"/>
+      <c r="C76" s="13" t="s">
         <v>124</v>
       </c>
       <c r="D76" s="120" t="n">
         <v>6.6</v>
       </c>
-      <c r="E76" s="28" t="n">
-        <v>52</v>
-      </c>
-      <c r="F76" s="29" t="n"/>
-      <c r="G76" s="27" t="s">
+      <c r="E76" s="26" t="n">
+        <v>55</v>
+      </c>
+      <c r="F76" s="27" t="n"/>
+      <c r="G76" s="25" t="s">
         <v>125</v>
       </c>
       <c r="H76" s="121" t="n">
@@ -4796,317 +4820,317 @@
       </c>
     </row>
     <row outlineLevel="0" r="77">
-      <c r="A77" s="28" t="n"/>
-      <c r="B77" s="69" t="n">
+      <c r="A77" s="26" t="n"/>
+      <c r="B77" s="67" t="n">
         <v>11</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="C77" s="19" t="s">
         <v>126</v>
       </c>
       <c r="D77" s="122" t="s">
         <v>127</v>
       </c>
-      <c r="E77" s="28" t="n">
-        <v>53</v>
-      </c>
-      <c r="F77" s="23" t="n">
+      <c r="E77" s="26" t="n">
+        <v>56</v>
+      </c>
+      <c r="F77" s="21" t="n">
         <v>10</v>
       </c>
-      <c r="G77" s="21" t="s">
+      <c r="G77" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="H77" s="19" t="n"/>
+      <c r="H77" s="17" t="n"/>
     </row>
     <row outlineLevel="0" r="78">
-      <c r="A78" s="28" t="n">
+      <c r="A78" s="26" t="n">
         <v>49</v>
       </c>
-      <c r="B78" s="27" t="n"/>
-      <c r="C78" s="15" t="s">
+      <c r="B78" s="25" t="n"/>
+      <c r="C78" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D78" s="30" t="n"/>
-      <c r="E78" s="24" t="n">
+      <c r="D78" s="28" t="n"/>
+      <c r="E78" s="22" t="n">
         <v>54</v>
       </c>
-      <c r="F78" s="27" t="n"/>
-      <c r="G78" s="33" t="s">
+      <c r="F78" s="25" t="n"/>
+      <c r="G78" s="31" t="s">
         <v>130</v>
       </c>
       <c r="H78" s="123" t="s"/>
     </row>
     <row outlineLevel="0" r="79">
-      <c r="A79" s="22" t="n">
+      <c r="A79" s="20" t="n">
         <v>50</v>
       </c>
-      <c r="B79" s="23" t="n"/>
+      <c r="B79" s="21" t="n"/>
       <c r="C79" s="124" t="s">
         <v>131</v>
       </c>
       <c r="D79" s="125" t="s"/>
-      <c r="E79" s="22" t="n"/>
-      <c r="F79" s="23" t="n">
+      <c r="E79" s="20" t="n"/>
+      <c r="F79" s="21" t="n">
         <v>11</v>
       </c>
-      <c r="G79" s="21" t="s">
+      <c r="G79" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="H79" s="19" t="n"/>
+      <c r="H79" s="17" t="n"/>
     </row>
     <row outlineLevel="0" r="80">
-      <c r="A80" s="19" t="n"/>
-      <c r="B80" s="23" t="n">
+      <c r="A80" s="17" t="n"/>
+      <c r="B80" s="21" t="n">
         <v>12</v>
       </c>
-      <c r="C80" s="21" t="s">
+      <c r="C80" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="D80" s="19" t="n"/>
-      <c r="E80" s="24" t="n">
+      <c r="D80" s="17" t="n"/>
+      <c r="E80" s="22" t="n">
         <v>55</v>
       </c>
-      <c r="F80" s="29" t="n"/>
-      <c r="G80" s="126" t="s">
+      <c r="F80" s="27" t="n"/>
+      <c r="G80" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="H80" s="127" t="s"/>
-      <c r="I80" s="36" t="n"/>
+      <c r="H80" s="126" t="s"/>
+      <c r="I80" s="34" t="n"/>
     </row>
     <row outlineLevel="0" r="81">
-      <c r="A81" s="28" t="n">
+      <c r="A81" s="26" t="n">
         <v>51</v>
       </c>
-      <c r="B81" s="29" t="n"/>
-      <c r="C81" s="15" t="s">
+      <c r="B81" s="27" t="n"/>
+      <c r="C81" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D81" s="60" t="n">
+      <c r="D81" s="58" t="n">
         <v>0.03</v>
       </c>
-      <c r="E81" s="24" t="n">
+      <c r="E81" s="22" t="n">
         <v>56</v>
       </c>
-      <c r="F81" s="29" t="n"/>
-      <c r="G81" s="33" t="s">
+      <c r="F81" s="27" t="n"/>
+      <c r="G81" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="H81" s="60" t="n">
+      <c r="H81" s="58" t="n">
         <v>0.03</v>
       </c>
-      <c r="I81" s="36" t="n"/>
+      <c r="I81" s="34" t="n"/>
     </row>
     <row outlineLevel="0" r="82">
-      <c r="A82" s="28" t="n">
+      <c r="A82" s="26" t="n">
         <v>52</v>
       </c>
-      <c r="B82" s="27" t="n"/>
-      <c r="C82" s="128" t="s">
+      <c r="B82" s="25" t="n"/>
+      <c r="C82" s="90" t="s">
         <v>136</v>
       </c>
-      <c r="D82" s="129" t="s"/>
-      <c r="E82" s="24" t="n">
+      <c r="D82" s="127" t="s"/>
+      <c r="E82" s="22" t="n">
         <v>57</v>
       </c>
-      <c r="F82" s="29" t="n"/>
-      <c r="G82" s="77" t="s">
+      <c r="F82" s="27" t="n"/>
+      <c r="G82" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="H82" s="130" t="s"/>
-      <c r="I82" s="36" t="n"/>
+      <c r="H82" s="128" t="s"/>
+      <c r="I82" s="34" t="n"/>
     </row>
     <row outlineLevel="0" r="83">
-      <c r="A83" s="28" t="n">
+      <c r="A83" s="26" t="n">
         <v>53</v>
       </c>
-      <c r="B83" s="27" t="n"/>
-      <c r="C83" s="15" t="s">
+      <c r="B83" s="25" t="n"/>
+      <c r="C83" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="D83" s="60" t="n">
+      <c r="D83" s="58" t="n">
         <v>0.015</v>
       </c>
-      <c r="E83" s="22" t="n"/>
-      <c r="F83" s="23" t="n">
+      <c r="E83" s="20" t="n"/>
+      <c r="F83" s="21" t="n">
         <v>12</v>
       </c>
-      <c r="G83" s="21" t="s">
+      <c r="G83" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="H83" s="131" t="s"/>
+      <c r="H83" s="129" t="s"/>
       <c r="I83" s="1" t="n"/>
     </row>
     <row outlineLevel="0" r="84">
-      <c r="A84" s="28" t="n">
+      <c r="A84" s="26" t="n">
         <v>54</v>
       </c>
-      <c r="B84" s="27" t="n"/>
-      <c r="C84" s="15" t="s">
+      <c r="B84" s="25" t="n"/>
+      <c r="C84" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="D84" s="30" t="n">
+      <c r="D84" s="28" t="n">
         <v>0.01</v>
       </c>
-      <c r="E84" s="24" t="n">
+      <c r="E84" s="22" t="n">
         <v>58</v>
       </c>
-      <c r="F84" s="19" t="n"/>
-      <c r="G84" s="15" t="s">
+      <c r="F84" s="17" t="n"/>
+      <c r="G84" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="H84" s="25" t="n">
+      <c r="H84" s="23" t="n">
         <v>0.7</v>
       </c>
-      <c r="I84" s="26" t="n"/>
+      <c r="I84" s="24" t="n"/>
     </row>
     <row outlineLevel="0" r="85">
-      <c r="A85" s="19" t="n"/>
-      <c r="B85" s="23" t="n">
+      <c r="A85" s="17" t="n"/>
+      <c r="B85" s="21" t="n">
         <v>13</v>
       </c>
-      <c r="C85" s="21" t="s">
+      <c r="C85" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="D85" s="132" t="s"/>
-      <c r="E85" s="24" t="n">
+      <c r="D85" s="130" t="s"/>
+      <c r="E85" s="22" t="n">
         <v>59</v>
       </c>
-      <c r="F85" s="19" t="n"/>
-      <c r="G85" s="15" t="s">
+      <c r="F85" s="17" t="n"/>
+      <c r="G85" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="H85" s="25" t="n">
+      <c r="H85" s="23" t="n">
         <v>2.2</v>
       </c>
-      <c r="I85" s="26" t="n"/>
+      <c r="I85" s="24" t="n"/>
     </row>
     <row outlineLevel="0" r="86">
-      <c r="A86" s="28" t="n">
+      <c r="A86" s="26" t="n">
         <v>55</v>
       </c>
-      <c r="B86" s="27" t="n"/>
-      <c r="C86" s="15" t="s">
+      <c r="B86" s="25" t="n"/>
+      <c r="C86" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="D86" s="133" t="s"/>
-      <c r="E86" s="24" t="n">
+      <c r="D86" s="131" t="s"/>
+      <c r="E86" s="22" t="n">
         <v>60</v>
       </c>
-      <c r="F86" s="19" t="n"/>
-      <c r="G86" s="15" t="s">
+      <c r="F86" s="17" t="n"/>
+      <c r="G86" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="H86" s="25" t="n">
+      <c r="H86" s="23" t="n">
         <v>0.45</v>
       </c>
-      <c r="I86" s="26" t="n"/>
+      <c r="I86" s="24" t="n"/>
     </row>
     <row outlineLevel="0" r="87">
-      <c r="A87" s="19" t="n"/>
-      <c r="B87" s="23" t="n">
+      <c r="A87" s="17" t="n"/>
+      <c r="B87" s="21" t="n">
         <v>14</v>
       </c>
-      <c r="C87" s="21" t="s">
+      <c r="C87" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="D87" s="134" t="s"/>
-      <c r="E87" s="22" t="n"/>
-      <c r="F87" s="23" t="n">
+      <c r="D87" s="132" t="s"/>
+      <c r="E87" s="20" t="n"/>
+      <c r="F87" s="21" t="n">
         <v>13</v>
       </c>
-      <c r="G87" s="21" t="s">
+      <c r="G87" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="H87" s="135" t="s"/>
+      <c r="H87" s="133" t="s"/>
     </row>
     <row outlineLevel="0" r="88">
-      <c r="A88" s="24" t="n">
+      <c r="A88" s="22" t="n">
         <v>56</v>
       </c>
-      <c r="B88" s="19" t="n"/>
-      <c r="C88" s="15" t="s">
+      <c r="B88" s="17" t="n"/>
+      <c r="C88" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="D88" s="25" t="n">
+      <c r="D88" s="23" t="n">
         <v>0.84</v>
       </c>
-      <c r="E88" s="28" t="n">
+      <c r="E88" s="26" t="n">
         <v>61</v>
       </c>
-      <c r="F88" s="29" t="n"/>
-      <c r="G88" s="126" t="s">
+      <c r="F88" s="27" t="n"/>
+      <c r="G88" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="H88" s="136" t="s"/>
+      <c r="H88" s="134" t="s"/>
     </row>
     <row outlineLevel="0" r="89">
-      <c r="A89" s="24" t="n">
+      <c r="A89" s="22" t="n">
         <v>57</v>
       </c>
-      <c r="B89" s="19" t="n"/>
-      <c r="C89" s="15" t="s">
+      <c r="B89" s="17" t="n"/>
+      <c r="C89" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="D89" s="137" t="n">
+      <c r="D89" s="135" t="n">
         <v>2.64</v>
       </c>
-      <c r="E89" s="138" t="n"/>
-      <c r="F89" s="19" t="n"/>
-      <c r="G89" s="139" t="s">
+      <c r="E89" s="136" t="n"/>
+      <c r="F89" s="17" t="n"/>
+      <c r="G89" s="82" t="s">
         <v>147</v>
       </c>
-      <c r="H89" s="140" t="s"/>
+      <c r="H89" s="137" t="s"/>
     </row>
     <row outlineLevel="0" r="90">
-      <c r="A90" s="24" t="n">
+      <c r="A90" s="22" t="n">
         <v>58</v>
       </c>
-      <c r="B90" s="19" t="n"/>
-      <c r="C90" s="15" t="s">
+      <c r="B90" s="17" t="n"/>
+      <c r="C90" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D90" s="137" t="n">
+      <c r="D90" s="135" t="n">
         <v>0.54</v>
       </c>
-      <c r="E90" s="141" t="n"/>
-      <c r="F90" s="29" t="n"/>
-      <c r="G90" s="139" t="s">
+      <c r="E90" s="138" t="n"/>
+      <c r="F90" s="27" t="n"/>
+      <c r="G90" s="82" t="s">
         <v>148</v>
       </c>
-      <c r="H90" s="142" t="s"/>
+      <c r="H90" s="139" t="s"/>
     </row>
     <row outlineLevel="0" r="91">
-      <c r="A91" s="19" t="n"/>
-      <c r="B91" s="23" t="n">
+      <c r="A91" s="17" t="n"/>
+      <c r="B91" s="21" t="n">
         <v>13</v>
       </c>
-      <c r="C91" s="21" t="s">
+      <c r="C91" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="D91" s="143" t="n"/>
+      <c r="D91" s="140" t="n"/>
       <c r="E91" s="5" t="n"/>
-      <c r="F91" s="23" t="n">
+      <c r="F91" s="21" t="n">
         <v>12</v>
       </c>
-      <c r="G91" s="21" t="s">
+      <c r="G91" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="H91" s="144" t="s"/>
+      <c r="H91" s="141" t="s"/>
     </row>
     <row outlineLevel="0" r="92">
-      <c r="A92" s="24" t="n">
+      <c r="A92" s="22" t="n">
         <v>59</v>
       </c>
-      <c r="B92" s="27" t="n"/>
-      <c r="C92" s="145" t="s">
+      <c r="B92" s="25" t="n"/>
+      <c r="C92" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="D92" s="146" t="s"/>
-      <c r="E92" s="147" t="n"/>
-      <c r="F92" s="29" t="n"/>
-      <c r="G92" s="33" t="s">
+      <c r="D92" s="142" t="s"/>
+      <c r="E92" s="143" t="n"/>
+      <c r="F92" s="27" t="n"/>
+      <c r="G92" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="H92" s="148" t="s"/>
+      <c r="H92" s="144" t="s"/>
     </row>
     <row outlineLevel="0" r="93">
       <c r="C93" s="1" t="n"/>
@@ -5118,35 +5142,35 @@
       <c r="C94" s="1" t="n"/>
       <c r="D94" s="1" t="n"/>
       <c r="E94" s="0" t="n"/>
-      <c r="F94" s="149" t="n"/>
-      <c r="G94" s="149" t="n"/>
+      <c r="F94" s="145" t="n"/>
+      <c r="G94" s="145" t="n"/>
       <c r="I94" s="0" t="n"/>
     </row>
     <row outlineLevel="0" r="95">
       <c r="C95" s="1" t="n"/>
       <c r="D95" s="1" t="n"/>
       <c r="E95" s="0" t="n"/>
-      <c r="F95" s="149" t="n"/>
-      <c r="G95" s="149" t="n"/>
-      <c r="H95" s="149" t="n"/>
+      <c r="F95" s="145" t="n"/>
+      <c r="G95" s="145" t="n"/>
+      <c r="H95" s="145" t="n"/>
       <c r="I95" s="0" t="n"/>
     </row>
     <row outlineLevel="0" r="96">
       <c r="C96" s="1" t="n"/>
       <c r="D96" s="1" t="n"/>
       <c r="E96" s="0" t="n"/>
-      <c r="F96" s="149" t="n"/>
-      <c r="G96" s="149" t="n"/>
-      <c r="H96" s="149" t="n"/>
+      <c r="F96" s="145" t="n"/>
+      <c r="G96" s="145" t="n"/>
+      <c r="H96" s="145" t="n"/>
       <c r="I96" s="0" t="n"/>
     </row>
     <row outlineLevel="0" r="97">
       <c r="C97" s="1" t="n"/>
       <c r="D97" s="1" t="n"/>
       <c r="E97" s="0" t="n"/>
-      <c r="F97" s="149" t="n"/>
-      <c r="G97" s="149" t="n"/>
-      <c r="H97" s="149" t="n"/>
+      <c r="F97" s="145" t="n"/>
+      <c r="G97" s="145" t="n"/>
+      <c r="H97" s="145" t="n"/>
       <c r="I97" s="0" t="n"/>
     </row>
   </sheetData>
@@ -5180,9 +5204,9 @@
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C73:D73"/>
     <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C79:D79"/>
     <mergeCell ref="C85:D85"/>
     <mergeCell ref="C86:D86"/>
     <mergeCell ref="C87:D87"/>

--- a/calc/files/letter2.xlsx
+++ b/calc/files/letter2.xlsx
@@ -1688,26 +1688,25 @@
       <t>Республики Беларусь</t>
     </r>
   </si>
+  <si/>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
   <numFmts>
-    <numFmt co:extendedFormatCode="0.00;-0.00" formatCode="0.00;-0.00" numFmtId="1003"/>
     <numFmt co:extendedFormatCode="0" formatCode="0" numFmtId="1004"/>
     <numFmt co:extendedFormatCode="0.00" formatCode="0.00" numFmtId="1005"/>
-    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1012"/>
+    <numFmt co:extendedFormatCode="0.0%" formatCode="0.0%" numFmtId="1006"/>
+    <numFmt co:extendedFormatCode="0.000" formatCode="0.000" numFmtId="1007"/>
     <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1002"/>
-    <numFmt co:extendedFormatCode="0.0%" formatCode="0.0%" numFmtId="1006"/>
+    <numFmt co:extendedFormatCode="0.00;-0.00" formatCode="0.00;-0.00" numFmtId="1003"/>
     <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1001"/>
     <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1000"/>
+    <numFmt co:extendedFormatCode="0.00000;-0.00000" formatCode="0.00000;-0.00000" numFmtId="1010"/>
+    <numFmt co:extendedFormatCode="0.00%" formatCode="0.00%" numFmtId="1011"/>
+    <numFmt co:extendedFormatCode="@" formatCode="@" numFmtId="1008"/>
     <numFmt co:extendedFormatCode="0.0000" formatCode="0.0000" numFmtId="1009"/>
-    <numFmt co:extendedFormatCode="0.000" formatCode="0.000" numFmtId="1007"/>
-    <numFmt co:extendedFormatCode="0.00000;-0.00000" formatCode="0.00000;-0.00000" numFmtId="1010"/>
-    <numFmt co:extendedFormatCode="@" formatCode="@" numFmtId="1008"/>
-    <numFmt co:extendedFormatCode="0.00%" formatCode="0.00%" numFmtId="1011"/>
-    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1013"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -2586,7 +2585,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="144">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2918,10 +2917,7 @@
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1012" quotePrefix="false">
-      <alignment horizontal="justify" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="57" fillId="0" fontId="2" numFmtId="1012" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="57" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="justify" vertical="top" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1011" quotePrefix="false">
@@ -2930,10 +2926,7 @@
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1006" quotePrefix="false">
       <alignment horizontal="right" indent="6" shrinkToFit="true" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="2" numFmtId="1013" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="58" fillId="0" fontId="2" numFmtId="1013" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="58" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="59" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
@@ -3239,7 +3232,7 @@
   <sheetPr>
     <outlinePr summaryBelow="true" summaryRight="true"/>
   </sheetPr>
-  <dimension ref="A1:O97"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView showZeros="true" workbookViewId="0"/>
   </sheetViews>
@@ -4644,10 +4637,10 @@
         <v>47</v>
       </c>
       <c r="F68" s="27" t="n"/>
-      <c r="G68" s="111" t="s">
+      <c r="G68" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="H68" s="112" t="s"/>
+      <c r="H68" s="111" t="s"/>
     </row>
     <row outlineLevel="0" r="69">
       <c r="A69" s="22" t="n">
@@ -4667,7 +4660,7 @@
       <c r="G69" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="H69" s="113" t="n">
+      <c r="H69" s="112" t="n">
         <v>0.0233</v>
       </c>
     </row>
@@ -4689,7 +4682,7 @@
       <c r="G70" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="H70" s="113" t="n">
+      <c r="H70" s="112" t="n">
         <v>0.0233</v>
       </c>
     </row>
@@ -4711,7 +4704,7 @@
       <c r="G71" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="H71" s="114" t="n">
+      <c r="H71" s="113" t="n">
         <v>0.015</v>
       </c>
     </row>
@@ -4730,10 +4723,10 @@
         <v>51</v>
       </c>
       <c r="F72" s="25" t="n"/>
-      <c r="G72" s="115" t="s">
+      <c r="G72" s="90" t="s">
         <v>117</v>
       </c>
-      <c r="H72" s="116" t="s"/>
+      <c r="H72" s="114" t="s"/>
     </row>
     <row outlineLevel="0" r="73">
       <c r="A73" s="26" t="n">
@@ -4743,7 +4736,7 @@
       <c r="C73" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="D73" s="117" t="s"/>
+      <c r="D73" s="115" t="s"/>
       <c r="E73" s="20" t="n">
         <v>52</v>
       </c>
@@ -4751,7 +4744,7 @@
       <c r="G73" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="H73" s="118" t="n">
+      <c r="H73" s="116" t="n">
         <v>0.0233</v>
       </c>
     </row>
@@ -4783,7 +4776,7 @@
       <c r="C75" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D75" s="119" t="n">
+      <c r="D75" s="117" t="n">
         <v>4</v>
       </c>
       <c r="E75" s="20" t="n">
@@ -4805,7 +4798,7 @@
       <c r="C76" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="D76" s="120" t="n">
+      <c r="D76" s="118" t="n">
         <v>6.6</v>
       </c>
       <c r="E76" s="26" t="n">
@@ -4815,7 +4808,7 @@
       <c r="G76" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="H76" s="121" t="n">
+      <c r="H76" s="119" t="n">
         <v>0.009</v>
       </c>
     </row>
@@ -4827,7 +4820,7 @@
       <c r="C77" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="D77" s="122" t="s">
+      <c r="D77" s="120" t="s">
         <v>127</v>
       </c>
       <c r="E77" s="26" t="n">
@@ -4857,17 +4850,17 @@
       <c r="G78" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="H78" s="123" t="s"/>
+      <c r="H78" s="121" t="s"/>
     </row>
     <row outlineLevel="0" r="79">
       <c r="A79" s="20" t="n">
         <v>50</v>
       </c>
       <c r="B79" s="21" t="n"/>
-      <c r="C79" s="124" t="s">
+      <c r="C79" s="122" t="s">
         <v>131</v>
       </c>
-      <c r="D79" s="125" t="s"/>
+      <c r="D79" s="123" t="s"/>
       <c r="E79" s="20" t="n"/>
       <c r="F79" s="21" t="n">
         <v>11</v>
@@ -4893,7 +4886,7 @@
       <c r="G80" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="H80" s="126" t="s"/>
+      <c r="H80" s="124" t="s"/>
       <c r="I80" s="34" t="n"/>
     </row>
     <row outlineLevel="0" r="81">
@@ -4927,7 +4920,7 @@
       <c r="C82" s="90" t="s">
         <v>136</v>
       </c>
-      <c r="D82" s="127" t="s"/>
+      <c r="D82" s="125" t="s"/>
       <c r="E82" s="22" t="n">
         <v>57</v>
       </c>
@@ -4935,7 +4928,7 @@
       <c r="G82" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="H82" s="128" t="s"/>
+      <c r="H82" s="126" t="s"/>
       <c r="I82" s="34" t="n"/>
     </row>
     <row outlineLevel="0" r="83">
@@ -4956,7 +4949,7 @@
       <c r="G83" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="H83" s="129" t="s"/>
+      <c r="H83" s="127" t="s"/>
       <c r="I83" s="1" t="n"/>
     </row>
     <row outlineLevel="0" r="84">
@@ -4990,7 +4983,7 @@
       <c r="C85" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="D85" s="130" t="s"/>
+      <c r="D85" s="128" t="s"/>
       <c r="E85" s="22" t="n">
         <v>59</v>
       </c>
@@ -5011,7 +5004,7 @@
       <c r="C86" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="D86" s="131" t="s"/>
+      <c r="D86" s="129" t="s"/>
       <c r="E86" s="22" t="n">
         <v>60</v>
       </c>
@@ -5032,7 +5025,7 @@
       <c r="C87" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="D87" s="132" t="s"/>
+      <c r="D87" s="130" t="s"/>
       <c r="E87" s="20" t="n"/>
       <c r="F87" s="21" t="n">
         <v>13</v>
@@ -5040,7 +5033,7 @@
       <c r="G87" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="H87" s="133" t="s"/>
+      <c r="H87" s="131" t="s"/>
     </row>
     <row outlineLevel="0" r="88">
       <c r="A88" s="22" t="n">
@@ -5060,7 +5053,7 @@
       <c r="G88" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="H88" s="134" t="s"/>
+      <c r="H88" s="132" t="s"/>
     </row>
     <row outlineLevel="0" r="89">
       <c r="A89" s="22" t="n">
@@ -5070,15 +5063,15 @@
       <c r="C89" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="D89" s="135" t="n">
+      <c r="D89" s="133" t="n">
         <v>2.64</v>
       </c>
-      <c r="E89" s="136" t="n"/>
+      <c r="E89" s="134" t="n"/>
       <c r="F89" s="17" t="n"/>
       <c r="G89" s="82" t="s">
         <v>147</v>
       </c>
-      <c r="H89" s="137" t="s"/>
+      <c r="H89" s="135" t="s"/>
     </row>
     <row outlineLevel="0" r="90">
       <c r="A90" s="22" t="n">
@@ -5088,15 +5081,15 @@
       <c r="C90" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D90" s="135" t="n">
+      <c r="D90" s="133" t="n">
         <v>0.54</v>
       </c>
-      <c r="E90" s="138" t="n"/>
+      <c r="E90" s="136" t="n"/>
       <c r="F90" s="27" t="n"/>
       <c r="G90" s="82" t="s">
         <v>148</v>
       </c>
-      <c r="H90" s="139" t="s"/>
+      <c r="H90" s="137" t="s"/>
     </row>
     <row outlineLevel="0" r="91">
       <c r="A91" s="17" t="n"/>
@@ -5106,7 +5099,7 @@
       <c r="C91" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="D91" s="140" t="n"/>
+      <c r="D91" s="138" t="n"/>
       <c r="E91" s="5" t="n"/>
       <c r="F91" s="21" t="n">
         <v>12</v>
@@ -5114,7 +5107,7 @@
       <c r="G91" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="H91" s="141" t="s"/>
+      <c r="H91" s="139" t="s"/>
     </row>
     <row outlineLevel="0" r="92">
       <c r="A92" s="22" t="n">
@@ -5124,13 +5117,13 @@
       <c r="C92" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="D92" s="142" t="s"/>
-      <c r="E92" s="143" t="n"/>
+      <c r="D92" s="140" t="s"/>
+      <c r="E92" s="141" t="n"/>
       <c r="F92" s="27" t="n"/>
       <c r="G92" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="H92" s="144" t="s"/>
+      <c r="H92" s="142" t="s"/>
     </row>
     <row outlineLevel="0" r="93">
       <c r="C93" s="1" t="n"/>
@@ -5142,36 +5135,41 @@
       <c r="C94" s="1" t="n"/>
       <c r="D94" s="1" t="n"/>
       <c r="E94" s="0" t="n"/>
-      <c r="F94" s="145" t="n"/>
-      <c r="G94" s="145" t="n"/>
+      <c r="F94" s="143" t="n"/>
+      <c r="G94" s="143" t="n"/>
       <c r="I94" s="0" t="n"/>
     </row>
     <row outlineLevel="0" r="95">
       <c r="C95" s="1" t="n"/>
       <c r="D95" s="1" t="n"/>
       <c r="E95" s="0" t="n"/>
-      <c r="F95" s="145" t="n"/>
-      <c r="G95" s="145" t="n"/>
-      <c r="H95" s="145" t="n"/>
+      <c r="F95" s="143" t="n"/>
+      <c r="G95" s="143" t="n"/>
+      <c r="H95" s="143" t="n"/>
       <c r="I95" s="0" t="n"/>
     </row>
     <row outlineLevel="0" r="96">
       <c r="C96" s="1" t="n"/>
       <c r="D96" s="1" t="n"/>
       <c r="E96" s="0" t="n"/>
-      <c r="F96" s="145" t="n"/>
-      <c r="G96" s="145" t="n"/>
-      <c r="H96" s="145" t="n"/>
+      <c r="F96" s="143" t="n"/>
+      <c r="G96" s="143" t="n"/>
+      <c r="H96" s="143" t="n"/>
       <c r="I96" s="0" t="n"/>
     </row>
     <row outlineLevel="0" r="97">
       <c r="C97" s="1" t="n"/>
       <c r="D97" s="1" t="n"/>
       <c r="E97" s="0" t="n"/>
-      <c r="F97" s="145" t="n"/>
-      <c r="G97" s="145" t="n"/>
-      <c r="H97" s="145" t="n"/>
+      <c r="F97" s="143" t="n"/>
+      <c r="G97" s="143" t="n"/>
+      <c r="H97" s="143" t="n"/>
       <c r="I97" s="0" t="n"/>
+    </row>
+    <row outlineLevel="0" r="101">
+      <c r="G101" s="1" t="s">
+        <v>151</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="72">

--- a/calc/files/letter2.xlsx
+++ b/calc/files/letter2.xlsx
@@ -1688,7 +1688,6 @@
       <t>Республики Беларусь</t>
     </r>
   </si>
-  <si/>
 </sst>
 </file>
 
@@ -1699,14 +1698,14 @@
     <numFmt co:extendedFormatCode="0.00" formatCode="0.00" numFmtId="1005"/>
     <numFmt co:extendedFormatCode="0.0%" formatCode="0.0%" numFmtId="1006"/>
     <numFmt co:extendedFormatCode="0.000" formatCode="0.000" numFmtId="1007"/>
+    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1001"/>
+    <numFmt co:extendedFormatCode="0.00;-0.00" formatCode="0.00;-0.00" numFmtId="1003"/>
     <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1002"/>
-    <numFmt co:extendedFormatCode="0.00;-0.00" formatCode="0.00;-0.00" numFmtId="1003"/>
-    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1001"/>
     <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1000"/>
+    <numFmt co:extendedFormatCode="0.0000" formatCode="0.0000" numFmtId="1009"/>
     <numFmt co:extendedFormatCode="0.00000;-0.00000" formatCode="0.00000;-0.00000" numFmtId="1010"/>
+    <numFmt co:extendedFormatCode="@" formatCode="@" numFmtId="1008"/>
     <numFmt co:extendedFormatCode="0.00%" formatCode="0.00%" numFmtId="1011"/>
-    <numFmt co:extendedFormatCode="@" formatCode="@" numFmtId="1008"/>
-    <numFmt co:extendedFormatCode="0.0000" formatCode="0.0000" numFmtId="1009"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -2933,7 +2932,7 @@
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1011" quotePrefix="false">
-      <alignment horizontal="right" indent="5" shrinkToFit="true" vertical="center"/>
+      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1003" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
@@ -3784,7 +3783,7 @@
         <v>40</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="E27" s="22" t="n">
         <v>15</v>
@@ -3836,7 +3835,7 @@
         <v>41</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="E29" s="22" t="n">
         <v>17</v>
@@ -4063,7 +4062,7 @@
         <v>40</v>
       </c>
       <c r="D40" s="72" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E40" s="20" t="n"/>
       <c r="F40" s="73" t="n">
@@ -4085,7 +4084,7 @@
         <v>68</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="E41" s="22" t="n">
         <v>26</v>
@@ -4109,7 +4108,7 @@
         <v>71</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="E42" s="22" t="n">
         <v>27</v>
@@ -4151,7 +4150,7 @@
         <v>41</v>
       </c>
       <c r="D44" s="23" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="E44" s="80" t="n"/>
       <c r="F44" s="17" t="n"/>
@@ -5167,9 +5166,7 @@
       <c r="I97" s="0" t="n"/>
     </row>
     <row outlineLevel="0" r="101">
-      <c r="G101" s="1" t="s">
-        <v>151</v>
-      </c>
+      <c r="G101" s="1" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="72">

--- a/calc/files/letter2.xlsx
+++ b/calc/files/letter2.xlsx
@@ -1697,15 +1697,15 @@
     <numFmt co:extendedFormatCode="0" formatCode="0" numFmtId="1004"/>
     <numFmt co:extendedFormatCode="0.00" formatCode="0.00" numFmtId="1005"/>
     <numFmt co:extendedFormatCode="0.0%" formatCode="0.0%" numFmtId="1006"/>
-    <numFmt co:extendedFormatCode="0.000" formatCode="0.000" numFmtId="1007"/>
+    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1002"/>
+    <numFmt co:extendedFormatCode="0.00;-0.00" formatCode="0.00;-0.00" numFmtId="1003"/>
     <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1001"/>
-    <numFmt co:extendedFormatCode="0.00;-0.00" formatCode="0.00;-0.00" numFmtId="1003"/>
-    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1002"/>
     <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1000"/>
+    <numFmt co:extendedFormatCode="@" formatCode="@" numFmtId="1008"/>
     <numFmt co:extendedFormatCode="0.0000" formatCode="0.0000" numFmtId="1009"/>
     <numFmt co:extendedFormatCode="0.00000;-0.00000" formatCode="0.00000;-0.00000" numFmtId="1010"/>
-    <numFmt co:extendedFormatCode="@" formatCode="@" numFmtId="1008"/>
     <numFmt co:extendedFormatCode="0.00%" formatCode="0.00%" numFmtId="1011"/>
+    <numFmt co:extendedFormatCode="0.000" formatCode="0.000" numFmtId="1007"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -4149,7 +4149,7 @@
       <c r="C44" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D44" s="23" t="n">
+      <c r="D44" s="48" t="n">
         <v>4.1</v>
       </c>
       <c r="E44" s="80" t="n"/>

--- a/calc/files/letter2.xlsx
+++ b/calc/files/letter2.xlsx
@@ -37,7 +37,7 @@
         <rFont val="Arial"/>
         <sz val="11"/>
       </rPr>
-      <t>от 27.02.2025 № 193</t>
+      <t>от 15.12.2025 № 1143</t>
     </r>
   </si>
   <si>
@@ -68,7 +68,7 @@
         <color rgb="FF0000" tint="0"/>
         <sz val="11"/>
       </rPr>
-      <t>в действии c 01.03.2025</t>
+      <t>в действии c 01.01.2026</t>
     </r>
   </si>
   <si>
@@ -147,6 +147,9 @@
       </rPr>
       <t>Пересылка письма</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <r>
@@ -607,7 +610,62 @@
         <color rgb="000000" tint="0"/>
         <sz val="11"/>
       </rPr>
-      <t>За  досылку и  (или)  возвращение  посылок  без  объявленной  ценности  и  с  объявленной  ценностью</t>
+      <t xml:space="preserve">За  досылку и  (или)  возвращение  посылок  без  объявленной  ценности  и  с  объявленной  ценностью </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="000000" tint="0"/>
+        <sz val="11"/>
+      </rPr>
+      <t>взимается плата за пересылку посылки  (поз.15-16)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="000000" tint="0"/>
+        <sz val="11"/>
+      </rPr>
+      <t xml:space="preserve">За досылку посылок Е-соmmerce пакетов услуг «Лайт», «Оптима», «Стандарт» взимается плата за пересылку </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="000000" tint="0"/>
+        <sz val="11"/>
+      </rPr>
+      <t>посылки (поз.15-16)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="000000" tint="0"/>
+        <sz val="11"/>
+      </rPr>
+      <t xml:space="preserve">За  досылку  и  (или)   возвращение   посылок   без  объявленной   ценности   и  с   объявленной  ценностью </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="000000" tint="0"/>
+        <sz val="11"/>
+      </rPr>
+      <t>взимается плата за пересылку посылки (согласно поз.15-16)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="true"/>
+        <color rgb="000000" tint="0"/>
+        <sz val="11"/>
+      </rPr>
+      <t>Пересылка посылки с  on-line оформлением в личном кабинете интернет-портала или</t>
     </r>
     <r>
       <t xml:space="preserve">
@@ -616,74 +674,11 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="000000" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t>взимается плата за пересылку посылки  (поз.15-16)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="000000" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t>За досылку посылок Е-соmmerce пакетов услуг «Лайт», «Оптима», «Стандарт» взимается плата за пересылку</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="000000" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t>посылки (поз.15-16)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="000000" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t xml:space="preserve">За  досылку  и  (или)   возвращение   посылок   без  объявленной   ценности   и  с   объявленной  ценностью </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="000000" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t>взимается плата за пересылку посылки (согласно поз.15-16)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
         <b val="true"/>
         <color rgb="000000" tint="0"/>
         <sz val="11"/>
       </rPr>
-      <t>Пересылка посылки с  on-line оформлением в личном кабинете интернет-портала или</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="true"/>
-        <color rgb="000000" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t>мобильном приложении РУП  "Белпочта" - «Тариф 3, 4, 5»</t>
+      <t>мобильном приложении РУП  "Белпочта" - «Тариф Предпочтовый»</t>
     </r>
   </si>
   <si>
@@ -1694,18 +1689,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
   <numFmts>
-    <numFmt co:extendedFormatCode="0" formatCode="0" numFmtId="1004"/>
-    <numFmt co:extendedFormatCode="0.00" formatCode="0.00" numFmtId="1005"/>
-    <numFmt co:extendedFormatCode="0.0%" formatCode="0.0%" numFmtId="1006"/>
+    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1008"/>
+    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1000"/>
+    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1005"/>
+    <numFmt co:extendedFormatCode="0.000" formatCode="0.000" numFmtId="1010"/>
+    <numFmt co:extendedFormatCode="0.00000;-0.00000" formatCode="0.00000;-0.00000" numFmtId="1013"/>
+    <numFmt co:extendedFormatCode="0.00;-0.00" formatCode="0.00;-0.00" numFmtId="1004"/>
+    <numFmt co:extendedFormatCode="0.0%" formatCode="0.0%" numFmtId="1009"/>
+    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1014"/>
+    <numFmt co:extendedFormatCode="0.0000" formatCode="0.0000" numFmtId="1012"/>
+    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1015"/>
+    <numFmt co:extendedFormatCode="0" formatCode="0" numFmtId="1006"/>
     <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1002"/>
-    <numFmt co:extendedFormatCode="0.00;-0.00" formatCode="0.00;-0.00" numFmtId="1003"/>
+    <numFmt co:extendedFormatCode="@" formatCode="@" numFmtId="1011"/>
+    <numFmt co:extendedFormatCode="0.00%" formatCode="0.00%" numFmtId="1016"/>
+    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1003"/>
+    <numFmt co:extendedFormatCode="0.00" formatCode="0.00" numFmtId="1007"/>
     <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1001"/>
-    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1000"/>
-    <numFmt co:extendedFormatCode="@" formatCode="@" numFmtId="1008"/>
-    <numFmt co:extendedFormatCode="0.0000" formatCode="0.0000" numFmtId="1009"/>
-    <numFmt co:extendedFormatCode="0.00000;-0.00000" formatCode="0.00000;-0.00000" numFmtId="1010"/>
-    <numFmt co:extendedFormatCode="0.00%" formatCode="0.00%" numFmtId="1011"/>
-    <numFmt co:extendedFormatCode="0.000" formatCode="0.000" numFmtId="1007"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -2584,7 +2584,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="149">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2610,17 +2610,23 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="2" numFmtId="1001" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="2" numFmtId="1002" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="top" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="2" fontId="5" numFmtId="1002" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="2" fontId="5" numFmtId="1003" quotePrefix="false">
       <alignment horizontal="left" indent="2" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="3" numFmtId="1003" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="3" numFmtId="1004" quotePrefix="false">
       <alignment horizontal="center" vertical="bottom" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="2" fontId="5" numFmtId="1005" quotePrefix="false">
+      <alignment horizontal="left" indent="2" vertical="top" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
@@ -2637,7 +2643,7 @@
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="1004" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="1006" quotePrefix="false">
       <alignment horizontal="right" shrinkToFit="true" vertical="top"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
@@ -2646,304 +2652,313 @@
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="bottom" wrapText="true"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="1006" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1006" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1007" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1007" quotePrefix="false">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1008" quotePrefix="false">
+      <alignment horizontal="left" vertical="bottom" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1006" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1007" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1009" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1010" quotePrefix="false">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="justify" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="justify" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1011" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1011" quotePrefix="false">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="1007" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1012" quotePrefix="false">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1013" quotePrefix="false">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1011" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="19" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="7" numFmtId="1007" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="20" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1009" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="21" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="22" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" indent="1" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1014" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="24" fillId="0" fontId="3" numFmtId="1014" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="25" fillId="0" fontId="3" numFmtId="1014" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="26" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="1015" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="27" fillId="0" fontId="6" numFmtId="1015" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="28" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" borderId="29" fillId="0" fontId="8" quotePrefix="false">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1004" quotePrefix="false">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="1004" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1004" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1005" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1005" quotePrefix="false">
-      <alignment horizontal="left" vertical="top"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" borderId="29" fillId="0" fontId="9" quotePrefix="false">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1016" quotePrefix="false">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="32" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="33" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="34" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="justify" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="35" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="justify" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="36" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="justify" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="37" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="justify" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="38" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1007" quotePrefix="false">
+      <alignment horizontal="right" indent="6" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="39" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="40" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="41" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="42" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="43" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="44" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="45" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="46" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="47" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="48" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1009" quotePrefix="false">
+      <alignment horizontal="right" indent="6" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="49" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="50" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="51" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="52" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="53" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="3" numFmtId="1006" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="55" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="56" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="57" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="justify" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1016" quotePrefix="false">
+      <alignment horizontal="right" indent="5" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1009" quotePrefix="false">
+      <alignment horizontal="right" indent="6" shrinkToFit="true" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="58" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="59" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1016" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1004" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1005" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1006" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1004" quotePrefix="false">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1010" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1007" quotePrefix="false">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="justify" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="justify" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1008" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1008" quotePrefix="false">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="1005" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1009" quotePrefix="false">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1010" quotePrefix="false">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1008" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="19" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="7" numFmtId="1005" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="20" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1006" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="21" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="22" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" indent="1" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="24" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="25" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="26" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="27" fillId="0" fontId="6" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="28" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" borderId="29" fillId="0" fontId="8" quotePrefix="false">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1003" quotePrefix="false">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="1003" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" borderId="29" fillId="0" fontId="9" quotePrefix="false">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1011" quotePrefix="false">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="32" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="33" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="34" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="justify" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="35" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="justify" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="36" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="justify" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="37" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="justify" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="38" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1005" quotePrefix="false">
-      <alignment horizontal="right" indent="6" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="39" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="40" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="41" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="42" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="43" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="44" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="45" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="46" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="47" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="48" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1006" quotePrefix="false">
-      <alignment horizontal="right" indent="6" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="49" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="50" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="51" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="52" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="53" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="3" numFmtId="1004" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="55" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="56" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="57" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="justify" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1011" quotePrefix="false">
-      <alignment horizontal="right" indent="5" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1006" quotePrefix="false">
-      <alignment horizontal="right" indent="6" shrinkToFit="true" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="58" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="59" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1011" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1003" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1003" quotePrefix="false">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1007" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1006" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1009" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="60" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
@@ -2982,16 +2997,16 @@
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="70" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="justify" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="71" fillId="0" fontId="3" numFmtId="1005" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="71" fillId="0" fontId="3" numFmtId="1007" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="72" fillId="0" fontId="3" numFmtId="1004" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="72" fillId="0" fontId="3" numFmtId="1006" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="73" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="justify" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1004" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1006" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="74" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
@@ -3006,7 +3021,7 @@
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="76" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1004" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1006" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="77" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
@@ -3286,1843 +3301,1845 @@
       <c r="E3" s="5" t="n"/>
       <c r="F3" s="3" t="n"/>
       <c r="G3" s="3" t="n"/>
-      <c r="H3" s="8" t="str">
+      <c r="H3" s="9" t="str">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D3</f>
-        <v>от 27.02.2025 № 193</v>
+        <v>от 15.12.2025 № 1143</v>
       </c>
     </row>
     <row customHeight="true" ht="41.25" outlineLevel="0" r="4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s"/>
-      <c r="C4" s="9" t="s"/>
-      <c r="D4" s="9" t="s"/>
-      <c r="E4" s="9" t="s">
+      <c r="B4" s="10" t="s"/>
+      <c r="C4" s="10" t="s"/>
+      <c r="D4" s="10" t="s"/>
+      <c r="E4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="9" t="s"/>
-      <c r="G4" s="9" t="s"/>
-      <c r="H4" s="9" t="s"/>
+      <c r="F4" s="10" t="s"/>
+      <c r="G4" s="10" t="s"/>
+      <c r="H4" s="10" t="s"/>
     </row>
     <row customHeight="true" ht="17" outlineLevel="0" r="5">
-      <c r="A5" s="10" t="n"/>
-      <c r="B5" s="10" t="n"/>
-      <c r="C5" s="10" t="n"/>
-      <c r="D5" s="11" t="s">
+      <c r="A5" s="11" t="n"/>
+      <c r="B5" s="11" t="n"/>
+      <c r="C5" s="11" t="n"/>
+      <c r="D5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="12" t="n"/>
-      <c r="F5" s="10" t="n"/>
-      <c r="G5" s="10" t="n"/>
-      <c r="H5" s="11" t="str">
+      <c r="E5" s="13" t="n"/>
+      <c r="F5" s="11" t="n"/>
+      <c r="G5" s="11" t="n"/>
+      <c r="H5" s="14" t="str">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D5</f>
-        <v>в действии c 01.03.2025</v>
+        <v>в действии c 01.01.2026</v>
       </c>
     </row>
     <row customHeight="true" ht="27.25" outlineLevel="0" r="6">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="7">
-      <c r="A7" s="17" t="n"/>
-      <c r="B7" s="18" t="n">
+      <c r="A7" s="19" t="n"/>
+      <c r="B7" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="17" t="n"/>
-      <c r="E7" s="20" t="n"/>
-      <c r="F7" s="21" t="n">
+      <c r="D7" s="19" t="n"/>
+      <c r="E7" s="22" t="n"/>
+      <c r="F7" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="17" t="n"/>
+      <c r="H7" s="19" t="n"/>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="8">
-      <c r="A8" s="22" t="n">
+      <c r="A8" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="B8" s="17" t="n"/>
-      <c r="C8" s="13" t="s">
+      <c r="B8" s="19" t="n"/>
+      <c r="C8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="23" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="E8" s="22" t="n">
+      <c r="D8" s="25" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="E8" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="F8" s="17" t="n"/>
-      <c r="G8" s="13" t="s">
+      <c r="F8" s="19" t="n"/>
+      <c r="G8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="23" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="I8" s="24" t="n"/>
+      <c r="H8" s="25" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="I8" s="26" t="n"/>
       <c r="J8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="9">
-      <c r="A9" s="17" t="n"/>
-      <c r="B9" s="18" t="n">
+      <c r="A9" s="19" t="n"/>
+      <c r="B9" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="17" t="n"/>
-      <c r="E9" s="20" t="n"/>
-      <c r="F9" s="21" t="n">
+      <c r="D9" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="22" t="n"/>
+      <c r="F9" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="17" t="n"/>
-      <c r="I9" s="24" t="n"/>
+      <c r="H9" s="19" t="n"/>
+      <c r="I9" s="26" t="n"/>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="10">
-      <c r="A10" s="22" t="n">
+      <c r="A10" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="B10" s="17" t="n"/>
-      <c r="C10" s="13" t="s">
+      <c r="B10" s="19" t="n"/>
+      <c r="C10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="25" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E10" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" s="19" t="n"/>
+      <c r="G10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="25" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I10" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H10*1.2</f>
+        <v>3.9599999999999995</v>
+      </c>
+      <c r="J10" s="26" t="n"/>
+      <c r="K10" s="26" t="n"/>
+    </row>
+    <row customHeight="true" ht="25.9999694824219" outlineLevel="0" r="11">
+      <c r="A11" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" s="19" t="n"/>
+      <c r="C11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="25" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E11" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" s="19" t="n"/>
+      <c r="G11" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="25" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="I11" s="26" t="n"/>
+      <c r="J11" s="26" t="n"/>
+      <c r="K11" s="26" t="n"/>
+    </row>
+    <row customHeight="true" ht="12.75" outlineLevel="0" r="12">
+      <c r="A12" s="19" t="n"/>
+      <c r="B12" s="20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="19" t="n"/>
+      <c r="E12" s="22" t="n"/>
+      <c r="F12" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="19" t="n"/>
+      <c r="I12" s="26" t="n"/>
+    </row>
+    <row customHeight="true" ht="13.25" outlineLevel="0" r="13">
+      <c r="A13" s="24" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" s="19" t="n"/>
+      <c r="C13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="25" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E13" s="24" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" s="19" t="n"/>
+      <c r="G13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="25" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I13" s="26" t="n"/>
+    </row>
+    <row customHeight="true" ht="13.25" outlineLevel="0" r="14">
+      <c r="A14" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" s="19" t="n"/>
+      <c r="C14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="25" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E14" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="F14" s="19" t="n"/>
+      <c r="G14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="25" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I14" s="26" t="n"/>
+    </row>
+    <row customHeight="true" ht="13.25" outlineLevel="0" r="15">
+      <c r="A15" s="24" t="n">
+        <v>6</v>
+      </c>
+      <c r="B15" s="19" t="n"/>
+      <c r="C15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="25" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="E15" s="24" t="n">
+        <v>6</v>
+      </c>
+      <c r="F15" s="19" t="n"/>
+      <c r="G15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="25" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I15" s="26" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H15*1.2</f>
+        <v>4.62</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="43.25" outlineLevel="0" r="16">
+      <c r="A16" s="29" t="n">
+        <v>7</v>
+      </c>
+      <c r="B16" s="30" t="n"/>
+      <c r="C16" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="31" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E16" s="29" t="n">
+        <v>7</v>
+      </c>
+      <c r="F16" s="28" t="n"/>
+      <c r="G16" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="31" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="I16" s="26" t="n"/>
+    </row>
+    <row customHeight="true" ht="22.75" outlineLevel="0" r="17">
+      <c r="A17" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="B17" s="30" t="n"/>
+      <c r="C17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="32" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E17" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="F17" s="19" t="n"/>
+      <c r="G17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="32" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I17" s="33" t="n"/>
+    </row>
+    <row customHeight="true" ht="36.3837280273438" outlineLevel="0" r="18">
+      <c r="A18" s="29" t="n">
+        <v>9</v>
+      </c>
+      <c r="B18" s="30" t="n"/>
+      <c r="C18" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="35" t="s"/>
+      <c r="E18" s="29" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" s="28" t="n"/>
+      <c r="G18" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="36" t="s"/>
+      <c r="I18" s="26" t="n"/>
+      <c r="J18" s="37" t="n"/>
+    </row>
+    <row customHeight="true" ht="49.1162414550781" outlineLevel="0" r="19">
+      <c r="A19" s="29" t="n">
+        <v>10</v>
+      </c>
+      <c r="B19" s="30" t="n"/>
+      <c r="C19" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="38" t="s"/>
+      <c r="E19" s="29" t="n">
+        <v>10</v>
+      </c>
+      <c r="F19" s="30" t="n"/>
+      <c r="G19" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="39" t="s"/>
+      <c r="I19" s="26" t="n"/>
+    </row>
+    <row customHeight="true" ht="13.25" outlineLevel="0" r="20">
+      <c r="A20" s="19" t="n"/>
+      <c r="B20" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="40" t="s"/>
+      <c r="E20" s="22" t="n"/>
+      <c r="F20" s="23" t="n">
+        <v>4</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="41" t="s"/>
+      <c r="I20" s="26" t="n"/>
+    </row>
+    <row customHeight="true" ht="14" outlineLevel="0" r="21">
+      <c r="A21" s="24" t="n">
+        <v>11</v>
+      </c>
+      <c r="B21" s="19" t="n"/>
+      <c r="C21" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="25" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="E21" s="24" t="n">
+        <v>11</v>
+      </c>
+      <c r="F21" s="19" t="n"/>
+      <c r="G21" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="25" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="I21" s="26" t="n"/>
+    </row>
+    <row customHeight="true" ht="14" outlineLevel="0" r="22">
+      <c r="A22" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="B22" s="19" t="n"/>
+      <c r="C22" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="25" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="E22" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="F22" s="19" t="n"/>
+      <c r="G22" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="25" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I22" s="26" t="n"/>
+    </row>
+    <row customHeight="true" ht="36.75" outlineLevel="0" r="23">
+      <c r="A23" s="29" t="n">
+        <v>13</v>
+      </c>
+      <c r="B23" s="30" t="n"/>
+      <c r="C23" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="42" t="s"/>
+      <c r="E23" s="29" t="n">
+        <v>13</v>
+      </c>
+      <c r="F23" s="30" t="n"/>
+      <c r="G23" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="43" t="s"/>
+    </row>
+    <row customHeight="true" ht="38" outlineLevel="0" r="24">
+      <c r="A24" s="29" t="n">
+        <v>14</v>
+      </c>
+      <c r="B24" s="30" t="n"/>
+      <c r="C24" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="44" t="s"/>
+      <c r="E24" s="29" t="n">
+        <v>14</v>
+      </c>
+      <c r="F24" s="28" t="n"/>
+      <c r="G24" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="45" t="s"/>
+    </row>
+    <row customHeight="true" ht="14" outlineLevel="0" r="25">
+      <c r="A25" s="19" t="n"/>
+      <c r="B25" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="46" t="s"/>
+      <c r="E25" s="22" t="n"/>
+      <c r="F25" s="23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="19" t="n"/>
+      <c r="K25" s="26" t="n"/>
+    </row>
+    <row customHeight="true" ht="14" outlineLevel="0" r="26">
+      <c r="A26" s="47" t="n">
         <v>15</v>
       </c>
-      <c r="D10" s="23" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="E10" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" s="17" t="n"/>
-      <c r="G10" s="13" t="s">
+      <c r="B26" s="19" t="n"/>
+      <c r="C26" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="48" t="s"/>
+      <c r="E26" s="22" t="n"/>
+      <c r="F26" s="19" t="n"/>
+      <c r="G26" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" s="49" t="s"/>
+    </row>
+    <row customHeight="true" ht="14" outlineLevel="0" r="27">
+      <c r="A27" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="19" t="n"/>
+      <c r="C27" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="51" t="n">
+        <v>5</v>
+      </c>
+      <c r="E27" s="24" t="n">
         <v>15</v>
       </c>
-      <c r="H10" s="23" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="I10" s="24" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H10*1.2</f>
-        <v>3.24</v>
-      </c>
-      <c r="J10" s="24" t="n"/>
-      <c r="K10" s="24" t="n"/>
-    </row>
-    <row customHeight="true" ht="25.9999694824219" outlineLevel="0" r="11">
-      <c r="A11" s="22" t="n">
+      <c r="F27" s="19" t="n"/>
+      <c r="G27" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" s="51" t="n">
+        <v>5</v>
+      </c>
+      <c r="I27" s="52" t="n"/>
+      <c r="J27" s="52" t="n"/>
+      <c r="K27" s="52" t="n"/>
+    </row>
+    <row customHeight="true" ht="28.75" outlineLevel="0" r="28">
+      <c r="A28" s="47" t="n">
+        <v>16</v>
+      </c>
+      <c r="B28" s="30" t="n"/>
+      <c r="C28" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="53" t="s"/>
+      <c r="E28" s="24" t="n">
+        <v>16</v>
+      </c>
+      <c r="F28" s="19" t="n"/>
+      <c r="G28" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="51" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I28" s="26" t="n"/>
+      <c r="J28" s="37" t="n"/>
+      <c r="K28" s="54" t="n"/>
+      <c r="L28" s="37" t="n"/>
+      <c r="M28" s="37" t="n"/>
+      <c r="N28" s="37" t="n"/>
+      <c r="O28" s="37" t="n"/>
+    </row>
+    <row customHeight="true" ht="45.4999389648438" outlineLevel="0" r="29">
+      <c r="A29" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="19" t="n"/>
+      <c r="C29" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="51" t="n">
+        <v>5</v>
+      </c>
+      <c r="E29" s="24" t="n">
+        <v>17</v>
+      </c>
+      <c r="F29" s="30" t="n"/>
+      <c r="G29" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" s="55" t="s"/>
+      <c r="I29" s="26" t="n"/>
+      <c r="J29" s="37" t="n"/>
+      <c r="K29" s="52" t="n"/>
+      <c r="L29" s="37" t="n"/>
+      <c r="M29" s="37" t="n"/>
+      <c r="N29" s="37" t="n"/>
+    </row>
+    <row customHeight="true" hidden="false" ht="45" outlineLevel="0" r="30">
+      <c r="A30" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="19" t="n"/>
+      <c r="C30" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="51" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E30" s="29" t="n">
+        <v>18</v>
+      </c>
+      <c r="F30" s="30" t="n"/>
+      <c r="G30" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H30" s="56" t="s"/>
+      <c r="I30" s="26" t="n"/>
+    </row>
+    <row customHeight="true" ht="38.75" outlineLevel="0" r="31">
+      <c r="A31" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="28" t="n"/>
+      <c r="C31" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="58" t="s"/>
+      <c r="E31" s="24" t="n">
+        <v>19</v>
+      </c>
+      <c r="F31" s="30" t="n"/>
+      <c r="G31" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" s="59" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="36.4999389648438" outlineLevel="0" r="32">
+      <c r="A32" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="30" t="n"/>
+      <c r="C32" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="60" t="s"/>
+      <c r="E32" s="29" t="n">
+        <v>20</v>
+      </c>
+      <c r="F32" s="30" t="n"/>
+      <c r="G32" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" s="61" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="36.4999389648438" outlineLevel="0" r="33">
+      <c r="A33" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="24" t="n">
+        <v>21</v>
+      </c>
+      <c r="F33" s="30" t="n"/>
+      <c r="G33" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" s="62" t="s"/>
+    </row>
+    <row outlineLevel="0" r="34">
+      <c r="A34" s="29" t="n">
+        <v>19</v>
+      </c>
+      <c r="B34" s="30" t="n"/>
+      <c r="C34" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="63" t="s"/>
+      <c r="E34" s="29" t="n">
+        <v>22</v>
+      </c>
+      <c r="F34" s="30" t="n"/>
+      <c r="G34" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="H34" s="65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="35">
+      <c r="A35" s="24" t="n">
+        <v>20</v>
+      </c>
+      <c r="B35" s="30" t="n"/>
+      <c r="C35" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="32" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E35" s="29" t="n">
+        <v>23</v>
+      </c>
+      <c r="F35" s="30" t="n"/>
+      <c r="G35" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="H35" s="66" t="s"/>
+    </row>
+    <row outlineLevel="0" r="36">
+      <c r="A36" s="24" t="n">
+        <v>21</v>
+      </c>
+      <c r="B36" s="30" t="n"/>
+      <c r="C36" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="68" t="s"/>
+      <c r="E36" s="24" t="n">
+        <v>24</v>
+      </c>
+      <c r="F36" s="19" t="n"/>
+      <c r="G36" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="32" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="37">
+      <c r="A37" s="24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B37" s="30" t="n"/>
+      <c r="C37" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="69" t="s"/>
+      <c r="E37" s="24" t="n">
+        <v>25</v>
+      </c>
+      <c r="F37" s="30" t="n"/>
+      <c r="G37" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="H37" s="70" t="s"/>
+    </row>
+    <row outlineLevel="0" r="38">
+      <c r="A38" s="30" t="n"/>
+      <c r="B38" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C38" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="72" t="s"/>
+      <c r="E38" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="39">
+      <c r="A39" s="24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B39" s="30" t="n"/>
+      <c r="C39" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="73" t="s"/>
+      <c r="E39" s="24" t="n"/>
+      <c r="F39" s="74" t="n">
+        <v>6</v>
+      </c>
+      <c r="G39" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="H39" s="76" t="n"/>
+    </row>
+    <row outlineLevel="0" r="40">
+      <c r="A40" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="30" t="n"/>
+      <c r="C40" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="77" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E40" s="22" t="n"/>
+      <c r="F40" s="78" t="n">
+        <v>26</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="H40" s="76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="41">
+      <c r="A41" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="30" t="n"/>
+      <c r="C41" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="51" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E41" s="24" t="n">
+        <v>26</v>
+      </c>
+      <c r="F41" s="78" t="n">
+        <v>27</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="H41" s="79" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="42">
+      <c r="A42" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="30" t="n"/>
+      <c r="C42" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" s="51" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E42" s="24" t="n">
+        <v>27</v>
+      </c>
+      <c r="F42" s="78" t="n">
+        <v>28</v>
+      </c>
+      <c r="G42" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="H42" s="81" t="s"/>
+    </row>
+    <row outlineLevel="0" r="43">
+      <c r="A43" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="30" t="n"/>
+      <c r="C43" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="82" t="s"/>
+      <c r="E43" s="24" t="n">
+        <v>28</v>
+      </c>
+      <c r="F43" s="23" t="n">
+        <v>7</v>
+      </c>
+      <c r="G43" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="84" t="s"/>
+    </row>
+    <row outlineLevel="0" r="44">
+      <c r="A44" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="30" t="n"/>
+      <c r="C44" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="51" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E44" s="85" t="n"/>
+      <c r="F44" s="19" t="n"/>
+      <c r="G44" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="H44" s="86" t="s"/>
+    </row>
+    <row outlineLevel="0" r="45">
+      <c r="A45" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="30" t="n"/>
+      <c r="C45" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="25" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E45" s="24" t="n">
+        <v>29</v>
+      </c>
+      <c r="F45" s="22" t="n">
+        <v>29</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H45" s="25" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="46">
+      <c r="A46" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="28" t="n"/>
+      <c r="C46" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="88" t="s"/>
+      <c r="E46" s="24" t="n">
+        <v>30</v>
+      </c>
+      <c r="F46" s="22" t="n">
+        <v>30</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H46" s="25" t="n">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="47">
+      <c r="A47" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="28" t="n"/>
+      <c r="C47" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" s="89" t="s"/>
+      <c r="E47" s="24" t="n">
+        <v>31</v>
+      </c>
+      <c r="F47" s="22" t="n">
+        <v>31</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="H47" s="25" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="48">
+      <c r="A48" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="28" t="n"/>
+      <c r="C48" s="87" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" s="90" t="s"/>
+      <c r="E48" s="24" t="n"/>
+      <c r="F48" s="22" t="n"/>
+      <c r="G48" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="H48" s="91" t="s"/>
+    </row>
+    <row outlineLevel="0" r="49">
+      <c r="A49" s="24" t="n">
+        <v>28</v>
+      </c>
+      <c r="B49" s="30" t="n"/>
+      <c r="C49" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" s="32" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E49" s="24" t="n">
+        <v>32</v>
+      </c>
+      <c r="F49" s="22" t="n">
+        <v>32</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H49" s="92" t="n">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="50">
+      <c r="A50" s="24" t="n">
+        <v>29</v>
+      </c>
+      <c r="B50" s="30" t="n"/>
+      <c r="C50" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" s="93" t="s"/>
+      <c r="E50" s="24" t="n">
+        <v>33</v>
+      </c>
+      <c r="F50" s="22" t="n">
+        <v>33</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H50" s="92" t="n">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="51">
+      <c r="A51" s="24" t="n"/>
+      <c r="B51" s="30" t="n">
+        <v>7</v>
+      </c>
+      <c r="C51" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="76" t="n"/>
+      <c r="E51" s="24" t="n">
+        <v>34</v>
+      </c>
+      <c r="F51" s="22" t="n">
+        <v>34</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H51" s="92" t="n">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="52">
+      <c r="A52" s="24" t="n">
+        <v>30</v>
+      </c>
+      <c r="B52" s="30" t="n"/>
+      <c r="C52" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" s="76" t="n">
+        <v>5</v>
+      </c>
+      <c r="E52" s="85" t="n"/>
+      <c r="F52" s="30" t="n"/>
+      <c r="G52" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="H52" s="94" t="s"/>
+    </row>
+    <row outlineLevel="0" r="53">
+      <c r="A53" s="24" t="n">
+        <v>31</v>
+      </c>
+      <c r="B53" s="30" t="n"/>
+      <c r="C53" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="79" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E53" s="24" t="n">
+        <v>35</v>
+      </c>
+      <c r="F53" s="30" t="n"/>
+      <c r="G53" s="95" t="s">
+        <v>96</v>
+      </c>
+      <c r="H53" s="96" t="s"/>
+    </row>
+    <row outlineLevel="0" r="54">
+      <c r="A54" s="24" t="n">
+        <v>32</v>
+      </c>
+      <c r="B54" s="30" t="n"/>
+      <c r="C54" s="80" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" s="97" t="s"/>
+      <c r="E54" s="24" t="n">
+        <v>36</v>
+      </c>
+      <c r="F54" s="30" t="n"/>
+      <c r="G54" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="H54" s="98" t="s"/>
+    </row>
+    <row outlineLevel="0" r="55">
+      <c r="A55" s="30" t="n"/>
+      <c r="B55" s="20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55" s="99" t="s"/>
+      <c r="E55" s="24" t="n">
+        <v>37</v>
+      </c>
+      <c r="F55" s="30" t="n"/>
+      <c r="G55" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="H55" s="100" t="s"/>
+    </row>
+    <row outlineLevel="0" r="56">
+      <c r="A56" s="19" t="n"/>
+      <c r="B56" s="19" t="n"/>
+      <c r="C56" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" s="101" t="s"/>
+      <c r="E56" s="24" t="n">
+        <v>38</v>
+      </c>
+      <c r="F56" s="23" t="n">
+        <v>7</v>
+      </c>
+      <c r="G56" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="H56" s="102" t="s"/>
+    </row>
+    <row outlineLevel="0" r="57">
+      <c r="A57" s="24" t="n">
+        <v>33</v>
+      </c>
+      <c r="B57" s="19" t="n"/>
+      <c r="C57" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" s="25" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E57" s="24" t="n">
+        <v>39</v>
+      </c>
+      <c r="F57" s="19" t="n"/>
+      <c r="G57" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="H57" s="92" t="n">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="58">
+      <c r="A58" s="24" t="n">
+        <v>34</v>
+      </c>
+      <c r="B58" s="19" t="n"/>
+      <c r="C58" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D58" s="25" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="E58" s="85" t="n"/>
+      <c r="F58" s="19" t="n"/>
+      <c r="G58" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="H58" s="92" t="n">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="59">
+      <c r="A59" s="24" t="n">
+        <v>35</v>
+      </c>
+      <c r="B59" s="19" t="n"/>
+      <c r="C59" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="25" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E59" s="24" t="n">
+        <v>40</v>
+      </c>
+      <c r="F59" s="19" t="n"/>
+      <c r="G59" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="H59" s="92" t="n">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="60">
+      <c r="A60" s="19" t="n"/>
+      <c r="B60" s="19" t="n"/>
+      <c r="C60" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D60" s="103" t="s"/>
+      <c r="E60" s="24" t="n">
+        <v>41</v>
+      </c>
+      <c r="F60" s="30" t="n"/>
+      <c r="G60" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H60" s="104" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="61">
+      <c r="A61" s="24" t="n">
+        <v>36</v>
+      </c>
+      <c r="B61" s="19" t="n"/>
+      <c r="C61" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D61" s="25" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="E61" s="24" t="n">
+        <v>42</v>
+      </c>
+      <c r="F61" s="30" t="n"/>
+      <c r="G61" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="H61" s="105" t="s"/>
+    </row>
+    <row outlineLevel="0" r="62">
+      <c r="A62" s="24" t="n">
+        <v>37</v>
+      </c>
+      <c r="B62" s="19" t="n"/>
+      <c r="C62" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D62" s="25" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="E62" s="22" t="n"/>
+      <c r="F62" s="23" t="n">
+        <v>8</v>
+      </c>
+      <c r="G62" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H62" s="106" t="s"/>
+    </row>
+    <row outlineLevel="0" r="63">
+      <c r="A63" s="24" t="n">
+        <v>38</v>
+      </c>
+      <c r="B63" s="19" t="n"/>
+      <c r="C63" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D63" s="25" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="E63" s="24" t="n">
+        <v>43</v>
+      </c>
+      <c r="F63" s="19" t="n"/>
+      <c r="G63" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="H63" s="92" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="64">
+      <c r="A64" s="30" t="n"/>
+      <c r="B64" s="30" t="n"/>
+      <c r="C64" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D64" s="107" t="s"/>
+      <c r="E64" s="85" t="n">
+        <v>44</v>
+      </c>
+      <c r="F64" s="19" t="n"/>
+      <c r="G64" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="H64" s="92" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="65">
+      <c r="A65" s="29" t="n">
+        <v>39</v>
+      </c>
+      <c r="B65" s="30" t="n"/>
+      <c r="C65" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="D65" s="108" t="s"/>
+      <c r="E65" s="24" t="n">
+        <v>45</v>
+      </c>
+      <c r="F65" s="19" t="n"/>
+      <c r="G65" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="H65" s="92" t="n">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="66">
+      <c r="A66" s="24" t="n">
+        <v>40</v>
+      </c>
+      <c r="B66" s="30" t="n"/>
+      <c r="C66" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D66" s="109" t="s"/>
+      <c r="E66" s="24" t="n"/>
+      <c r="F66" s="23" t="n">
+        <v>9</v>
+      </c>
+      <c r="G66" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="H66" s="19" t="n"/>
+    </row>
+    <row outlineLevel="0" r="67">
+      <c r="A67" s="110" t="n">
+        <v>41</v>
+      </c>
+      <c r="B67" s="111" t="n"/>
+      <c r="C67" s="112" t="s">
+        <v>109</v>
+      </c>
+      <c r="D67" s="113" t="s"/>
+      <c r="E67" s="29" t="n">
+        <v>46</v>
+      </c>
+      <c r="F67" s="30" t="n"/>
+      <c r="G67" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="H67" s="104" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="68">
+      <c r="A68" s="19" t="n"/>
+      <c r="B68" s="23" t="n">
+        <v>9</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D68" s="114" t="s"/>
+      <c r="E68" s="115" t="n">
+        <v>47</v>
+      </c>
+      <c r="F68" s="30" t="n"/>
+      <c r="G68" s="87" t="s">
+        <v>111</v>
+      </c>
+      <c r="H68" s="116" t="s"/>
+    </row>
+    <row outlineLevel="0" r="69">
+      <c r="A69" s="24" t="n">
+        <v>42</v>
+      </c>
+      <c r="B69" s="19" t="n"/>
+      <c r="C69" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D69" s="25" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="E69" s="29" t="n">
+        <v>48</v>
+      </c>
+      <c r="F69" s="28" t="n"/>
+      <c r="G69" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="H69" s="117" t="n">
+        <v>0.0233</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="70">
+      <c r="A70" s="24" t="n">
+        <v>43</v>
+      </c>
+      <c r="B70" s="19" t="n"/>
+      <c r="C70" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D70" s="25" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="E70" s="29" t="n">
+        <v>49</v>
+      </c>
+      <c r="F70" s="28" t="n"/>
+      <c r="G70" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="H70" s="117" t="n">
+        <v>0.0233</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="71">
+      <c r="A71" s="24" t="n">
+        <v>44</v>
+      </c>
+      <c r="B71" s="19" t="n"/>
+      <c r="C71" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D71" s="25" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="E71" s="29" t="n">
+        <v>50</v>
+      </c>
+      <c r="F71" s="28" t="n"/>
+      <c r="G71" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H71" s="118" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="72">
+      <c r="A72" s="24" t="n">
+        <v>45</v>
+      </c>
+      <c r="B72" s="19" t="n"/>
+      <c r="C72" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" s="32" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E72" s="24" t="n">
+        <v>51</v>
+      </c>
+      <c r="F72" s="28" t="n"/>
+      <c r="G72" s="95" t="s">
+        <v>118</v>
+      </c>
+      <c r="H72" s="119" t="s"/>
+    </row>
+    <row outlineLevel="0" r="73">
+      <c r="A73" s="29" t="n">
+        <v>46</v>
+      </c>
+      <c r="B73" s="30" t="n"/>
+      <c r="C73" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D73" s="120" t="s"/>
+      <c r="E73" s="22" t="n">
+        <v>52</v>
+      </c>
+      <c r="F73" s="28" t="n"/>
+      <c r="G73" s="87" t="s">
+        <v>120</v>
+      </c>
+      <c r="H73" s="121" t="n">
+        <v>0.0233</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="74">
+      <c r="A74" s="19" t="n"/>
+      <c r="B74" s="23" t="n">
+        <v>10</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D74" s="19" t="n"/>
+      <c r="E74" s="24" t="n">
+        <v>53</v>
+      </c>
+      <c r="F74" s="30" t="n"/>
+      <c r="G74" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="H74" s="61" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="75">
+      <c r="A75" s="29" t="n">
+        <v>47</v>
+      </c>
+      <c r="B75" s="30" t="n"/>
+      <c r="C75" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D75" s="122" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E75" s="22" t="n">
+        <v>54</v>
+      </c>
+      <c r="F75" s="28" t="n"/>
+      <c r="G75" s="87" t="s">
+        <v>124</v>
+      </c>
+      <c r="H75" s="61" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="76">
+      <c r="A76" s="29" t="n">
+        <v>48</v>
+      </c>
+      <c r="B76" s="28" t="n"/>
+      <c r="C76" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D76" s="123" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="E76" s="29" t="n">
+        <v>55</v>
+      </c>
+      <c r="F76" s="30" t="n"/>
+      <c r="G76" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="H76" s="124" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="77">
+      <c r="A77" s="29" t="n"/>
+      <c r="B77" s="75" t="n">
+        <v>11</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D77" s="125" t="s">
+        <v>128</v>
+      </c>
+      <c r="E77" s="29" t="n">
+        <v>56</v>
+      </c>
+      <c r="F77" s="23" t="n">
+        <v>10</v>
+      </c>
+      <c r="G77" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="H77" s="19" t="n"/>
+    </row>
+    <row outlineLevel="0" r="78">
+      <c r="A78" s="29" t="n">
+        <v>49</v>
+      </c>
+      <c r="B78" s="28" t="n"/>
+      <c r="C78" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D78" s="31" t="n"/>
+      <c r="E78" s="24" t="n">
+        <v>54</v>
+      </c>
+      <c r="F78" s="28" t="n"/>
+      <c r="G78" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="H78" s="126" t="s"/>
+    </row>
+    <row outlineLevel="0" r="79">
+      <c r="A79" s="22" t="n">
+        <v>50</v>
+      </c>
+      <c r="B79" s="23" t="n"/>
+      <c r="C79" s="127" t="s">
+        <v>132</v>
+      </c>
+      <c r="D79" s="128" t="s"/>
+      <c r="E79" s="22" t="n"/>
+      <c r="F79" s="23" t="n">
+        <v>11</v>
+      </c>
+      <c r="G79" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="H79" s="19" t="n"/>
+    </row>
+    <row outlineLevel="0" r="80">
+      <c r="A80" s="19" t="n"/>
+      <c r="B80" s="23" t="n">
+        <v>12</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D80" s="19" t="n"/>
+      <c r="E80" s="24" t="n">
+        <v>55</v>
+      </c>
+      <c r="F80" s="30" t="n"/>
+      <c r="G80" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="H80" s="129" t="s"/>
+      <c r="I80" s="37" t="n"/>
+    </row>
+    <row outlineLevel="0" r="81">
+      <c r="A81" s="29" t="n">
+        <v>51</v>
+      </c>
+      <c r="B81" s="30" t="n"/>
+      <c r="C81" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D81" s="61" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E81" s="24" t="n">
+        <v>56</v>
+      </c>
+      <c r="F81" s="30" t="n"/>
+      <c r="G81" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="H81" s="61" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I81" s="37" t="n"/>
+    </row>
+    <row outlineLevel="0" r="82">
+      <c r="A82" s="29" t="n">
+        <v>52</v>
+      </c>
+      <c r="B82" s="28" t="n"/>
+      <c r="C82" s="95" t="s">
+        <v>137</v>
+      </c>
+      <c r="D82" s="130" t="s"/>
+      <c r="E82" s="24" t="n">
+        <v>57</v>
+      </c>
+      <c r="F82" s="30" t="n"/>
+      <c r="G82" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="H82" s="131" t="s"/>
+      <c r="I82" s="37" t="n"/>
+    </row>
+    <row outlineLevel="0" r="83">
+      <c r="A83" s="29" t="n">
+        <v>53</v>
+      </c>
+      <c r="B83" s="28" t="n"/>
+      <c r="C83" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D83" s="61" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E83" s="22" t="n"/>
+      <c r="F83" s="23" t="n">
+        <v>12</v>
+      </c>
+      <c r="G83" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="H83" s="132" t="s"/>
+      <c r="I83" s="1" t="n"/>
+    </row>
+    <row outlineLevel="0" r="84">
+      <c r="A84" s="29" t="n">
+        <v>54</v>
+      </c>
+      <c r="B84" s="28" t="n"/>
+      <c r="C84" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D84" s="31" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E84" s="24" t="n">
+        <v>58</v>
+      </c>
+      <c r="F84" s="19" t="n"/>
+      <c r="G84" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="H84" s="25" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I84" s="26" t="n"/>
+    </row>
+    <row outlineLevel="0" r="85">
+      <c r="A85" s="19" t="n"/>
+      <c r="B85" s="23" t="n">
+        <v>13</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D85" s="133" t="s"/>
+      <c r="E85" s="24" t="n">
+        <v>59</v>
+      </c>
+      <c r="F85" s="19" t="n"/>
+      <c r="G85" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="H85" s="25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I85" s="26" t="n"/>
+    </row>
+    <row outlineLevel="0" r="86">
+      <c r="A86" s="29" t="n">
+        <v>55</v>
+      </c>
+      <c r="B86" s="28" t="n"/>
+      <c r="C86" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D86" s="134" t="s"/>
+      <c r="E86" s="24" t="n">
+        <v>60</v>
+      </c>
+      <c r="F86" s="19" t="n"/>
+      <c r="G86" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="H86" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I86" s="26" t="n"/>
+    </row>
+    <row outlineLevel="0" r="87">
+      <c r="A87" s="19" t="n"/>
+      <c r="B87" s="23" t="n">
+        <v>14</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D87" s="135" t="s"/>
+      <c r="E87" s="22" t="n"/>
+      <c r="F87" s="23" t="n">
+        <v>13</v>
+      </c>
+      <c r="G87" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="H87" s="136" t="s"/>
+    </row>
+    <row outlineLevel="0" r="88">
+      <c r="A88" s="24" t="n">
+        <v>56</v>
+      </c>
+      <c r="B88" s="19" t="n"/>
+      <c r="C88" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D88" s="25" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E88" s="29" t="n">
+        <v>61</v>
+      </c>
+      <c r="F88" s="30" t="n"/>
+      <c r="G88" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="H88" s="137" t="s"/>
+    </row>
+    <row outlineLevel="0" r="89">
+      <c r="A89" s="24" t="n">
+        <v>57</v>
+      </c>
+      <c r="B89" s="19" t="n"/>
+      <c r="C89" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D89" s="138" t="n">
         <v>3</v>
       </c>
-      <c r="B11" s="17" t="n"/>
-      <c r="C11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="23" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="E11" s="22" t="n">
-        <v>3</v>
-      </c>
-      <c r="F11" s="17" t="n"/>
-      <c r="G11" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="23" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="I11" s="24" t="n"/>
-      <c r="J11" s="24" t="n"/>
-      <c r="K11" s="24" t="n"/>
-    </row>
-    <row customHeight="true" ht="12.75" outlineLevel="0" r="12">
-      <c r="A12" s="17" t="n"/>
-      <c r="B12" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="17" t="n"/>
-      <c r="E12" s="20" t="n"/>
-      <c r="F12" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="17" t="n"/>
-      <c r="I12" s="24" t="n"/>
-    </row>
-    <row customHeight="true" ht="13.25" outlineLevel="0" r="13">
-      <c r="A13" s="22" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" s="17" t="n"/>
-      <c r="C13" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="23" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="E13" s="22" t="n">
-        <v>4</v>
-      </c>
-      <c r="F13" s="17" t="n"/>
-      <c r="G13" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="23" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="I13" s="24" t="n"/>
-    </row>
-    <row customHeight="true" ht="13.25" outlineLevel="0" r="14">
-      <c r="A14" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" s="17" t="n"/>
-      <c r="C14" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="23" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="E14" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="F14" s="17" t="n"/>
-      <c r="G14" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="23" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="I14" s="24" t="n"/>
-    </row>
-    <row customHeight="true" ht="13.25" outlineLevel="0" r="15">
-      <c r="A15" s="22" t="n">
-        <v>6</v>
-      </c>
-      <c r="B15" s="17" t="n"/>
-      <c r="C15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="23" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="E15" s="22" t="n">
-        <v>6</v>
-      </c>
-      <c r="F15" s="17" t="n"/>
-      <c r="G15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="23" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I15" s="24" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H15*1.2</f>
-        <v>3.84</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="43.25" outlineLevel="0" r="16">
-      <c r="A16" s="26" t="n">
-        <v>7</v>
-      </c>
-      <c r="B16" s="27" t="n"/>
-      <c r="C16" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="28" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="E16" s="26" t="n">
-        <v>7</v>
-      </c>
-      <c r="F16" s="25" t="n"/>
-      <c r="G16" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="28" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="I16" s="24" t="n"/>
-    </row>
-    <row customHeight="true" ht="22.75" outlineLevel="0" r="17">
-      <c r="A17" s="22" t="n">
-        <v>8</v>
-      </c>
-      <c r="B17" s="27" t="n"/>
-      <c r="C17" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="29" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="E17" s="22" t="n">
-        <v>8</v>
-      </c>
-      <c r="F17" s="17" t="n"/>
-      <c r="G17" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="29" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="I17" s="30" t="n"/>
-    </row>
-    <row customHeight="true" ht="36.3837280273438" outlineLevel="0" r="18">
-      <c r="A18" s="26" t="n">
-        <v>9</v>
-      </c>
-      <c r="B18" s="27" t="n"/>
-      <c r="C18" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="32" t="s"/>
-      <c r="E18" s="26" t="n">
-        <v>9</v>
-      </c>
-      <c r="F18" s="25" t="n"/>
-      <c r="G18" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="33" t="s"/>
-      <c r="I18" s="24" t="n"/>
-      <c r="J18" s="34" t="n"/>
-    </row>
-    <row customHeight="true" ht="49.1162414550781" outlineLevel="0" r="19">
-      <c r="A19" s="26" t="n">
-        <v>10</v>
-      </c>
-      <c r="B19" s="27" t="n"/>
-      <c r="C19" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="35" t="s"/>
-      <c r="E19" s="26" t="n">
-        <v>10</v>
-      </c>
-      <c r="F19" s="27" t="n"/>
-      <c r="G19" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="36" t="s"/>
-      <c r="I19" s="24" t="n"/>
-    </row>
-    <row customHeight="true" ht="13.25" outlineLevel="0" r="20">
-      <c r="A20" s="17" t="n"/>
-      <c r="B20" s="18" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="37" t="s"/>
-      <c r="E20" s="20" t="n"/>
-      <c r="F20" s="21" t="n">
-        <v>4</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="38" t="s"/>
-      <c r="I20" s="24" t="n"/>
-    </row>
-    <row customHeight="true" ht="14" outlineLevel="0" r="21">
-      <c r="A21" s="22" t="n">
-        <v>11</v>
-      </c>
-      <c r="B21" s="17" t="n"/>
-      <c r="C21" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="23" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="E21" s="22" t="n">
-        <v>11</v>
-      </c>
-      <c r="F21" s="17" t="n"/>
-      <c r="G21" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="23" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="I21" s="24" t="n"/>
-    </row>
-    <row customHeight="true" ht="14" outlineLevel="0" r="22">
-      <c r="A22" s="22" t="n">
+      <c r="E89" s="139" t="n"/>
+      <c r="F89" s="19" t="n"/>
+      <c r="G89" s="87" t="s">
+        <v>148</v>
+      </c>
+      <c r="H89" s="140" t="s"/>
+    </row>
+    <row outlineLevel="0" r="90">
+      <c r="A90" s="24" t="n">
+        <v>58</v>
+      </c>
+      <c r="B90" s="19" t="n"/>
+      <c r="C90" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D90" s="138" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E90" s="141" t="n"/>
+      <c r="F90" s="30" t="n"/>
+      <c r="G90" s="87" t="s">
+        <v>149</v>
+      </c>
+      <c r="H90" s="142" t="s"/>
+    </row>
+    <row outlineLevel="0" r="91">
+      <c r="A91" s="19" t="n"/>
+      <c r="B91" s="23" t="n">
+        <v>13</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D91" s="143" t="n"/>
+      <c r="E91" s="5" t="n"/>
+      <c r="F91" s="23" t="n">
         <v>12</v>
       </c>
-      <c r="B22" s="17" t="n"/>
-      <c r="C22" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="23" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="E22" s="22" t="n">
-        <v>12</v>
-      </c>
-      <c r="F22" s="17" t="n"/>
-      <c r="G22" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" s="23" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="I22" s="24" t="n"/>
-    </row>
-    <row customHeight="true" ht="36.75" outlineLevel="0" r="23">
-      <c r="A23" s="26" t="n">
-        <v>13</v>
-      </c>
-      <c r="B23" s="27" t="n"/>
-      <c r="C23" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="39" t="s"/>
-      <c r="E23" s="26" t="n">
-        <v>13</v>
-      </c>
-      <c r="F23" s="27" t="n"/>
-      <c r="G23" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" s="40" t="s"/>
-    </row>
-    <row customHeight="true" ht="38" outlineLevel="0" r="24">
-      <c r="A24" s="26" t="n">
-        <v>14</v>
-      </c>
-      <c r="B24" s="27" t="n"/>
-      <c r="C24" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="41" t="s"/>
-      <c r="E24" s="26" t="n">
-        <v>14</v>
-      </c>
-      <c r="F24" s="25" t="n"/>
-      <c r="G24" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" s="42" t="s"/>
-    </row>
-    <row customHeight="true" ht="14" outlineLevel="0" r="25">
-      <c r="A25" s="17" t="n"/>
-      <c r="B25" s="18" t="n">
-        <v>5</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="43" t="s"/>
-      <c r="E25" s="20" t="n"/>
-      <c r="F25" s="21" t="n">
-        <v>5</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="H25" s="17" t="n"/>
-      <c r="K25" s="24" t="n"/>
-    </row>
-    <row customHeight="true" ht="14" outlineLevel="0" r="26">
-      <c r="A26" s="44" t="n">
-        <v>15</v>
-      </c>
-      <c r="B26" s="17" t="n"/>
-      <c r="C26" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="45" t="s"/>
-      <c r="E26" s="20" t="n"/>
-      <c r="F26" s="17" t="n"/>
-      <c r="G26" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" s="46" t="s"/>
-    </row>
-    <row customHeight="true" ht="14" outlineLevel="0" r="27">
-      <c r="A27" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="17" t="n"/>
-      <c r="C27" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="48" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="E27" s="22" t="n">
-        <v>15</v>
-      </c>
-      <c r="F27" s="17" t="n"/>
-      <c r="G27" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" s="48" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I27" s="49" t="n"/>
-      <c r="J27" s="49" t="n"/>
-      <c r="K27" s="49" t="n"/>
-    </row>
-    <row customHeight="true" ht="28.75" outlineLevel="0" r="28">
-      <c r="A28" s="44" t="n">
-        <v>16</v>
-      </c>
-      <c r="B28" s="27" t="n"/>
-      <c r="C28" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="50" t="s"/>
-      <c r="E28" s="22" t="n">
-        <v>16</v>
-      </c>
-      <c r="F28" s="17" t="n"/>
-      <c r="G28" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" s="48" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="I28" s="24" t="n"/>
-      <c r="J28" s="34" t="n"/>
-      <c r="K28" s="51" t="n"/>
-      <c r="L28" s="34" t="n"/>
-      <c r="M28" s="34" t="n"/>
-      <c r="N28" s="34" t="n"/>
-      <c r="O28" s="34" t="n"/>
-    </row>
-    <row customHeight="true" ht="45.4999389648438" outlineLevel="0" r="29">
-      <c r="A29" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="17" t="n"/>
-      <c r="C29" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="48" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="E29" s="22" t="n">
-        <v>17</v>
-      </c>
-      <c r="F29" s="27" t="n"/>
-      <c r="G29" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="H29" s="52" t="s"/>
-      <c r="I29" s="24" t="n"/>
-      <c r="J29" s="34" t="n"/>
-      <c r="K29" s="49" t="n"/>
-      <c r="L29" s="34" t="n"/>
-      <c r="M29" s="34" t="n"/>
-      <c r="N29" s="34" t="n"/>
-    </row>
-    <row customHeight="true" hidden="false" ht="45" outlineLevel="0" r="30">
-      <c r="A30" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="17" t="n"/>
-      <c r="C30" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="48" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="E30" s="26" t="n">
-        <v>18</v>
-      </c>
-      <c r="F30" s="27" t="n"/>
-      <c r="G30" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H30" s="53" t="s"/>
-      <c r="I30" s="24" t="n"/>
-    </row>
-    <row customHeight="true" ht="38.75" outlineLevel="0" r="31">
-      <c r="A31" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="25" t="n"/>
-      <c r="C31" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="55" t="s"/>
-      <c r="E31" s="22" t="n">
-        <v>19</v>
-      </c>
-      <c r="F31" s="27" t="n"/>
-      <c r="G31" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="H31" s="56" t="n">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="36.4999389648438" outlineLevel="0" r="32">
-      <c r="A32" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="27" t="n"/>
-      <c r="C32" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="57" t="s"/>
-      <c r="E32" s="26" t="n">
-        <v>20</v>
-      </c>
-      <c r="F32" s="27" t="n"/>
-      <c r="G32" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H32" s="58" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="36.4999389648438" outlineLevel="0" r="33">
-      <c r="A33" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="22" t="n">
-        <v>21</v>
-      </c>
-      <c r="F33" s="27" t="n"/>
-      <c r="G33" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="H33" s="59" t="s"/>
-    </row>
-    <row outlineLevel="0" r="34">
-      <c r="A34" s="26" t="n">
-        <v>19</v>
-      </c>
-      <c r="B34" s="27" t="n"/>
-      <c r="C34" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="60" t="s"/>
-      <c r="E34" s="26" t="n">
-        <v>22</v>
-      </c>
-      <c r="F34" s="27" t="n"/>
-      <c r="G34" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="H34" s="62" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="35">
-      <c r="A35" s="22" t="n">
-        <v>20</v>
-      </c>
-      <c r="B35" s="27" t="n"/>
-      <c r="C35" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="29" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E35" s="26" t="n">
-        <v>23</v>
-      </c>
-      <c r="F35" s="27" t="n"/>
-      <c r="G35" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="H35" s="63" t="s"/>
-    </row>
-    <row outlineLevel="0" r="36">
-      <c r="A36" s="22" t="n">
-        <v>21</v>
-      </c>
-      <c r="B36" s="27" t="n"/>
-      <c r="C36" s="25" t="s">
+      <c r="G91" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="H91" s="144" t="s"/>
+    </row>
+    <row outlineLevel="0" r="92">
+      <c r="A92" s="24" t="n">
         <v>59</v>
       </c>
-      <c r="D36" s="64" t="s"/>
-      <c r="E36" s="22" t="n">
-        <v>24</v>
-      </c>
-      <c r="F36" s="17" t="n"/>
-      <c r="G36" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" s="29" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="37">
-      <c r="A37" s="22" t="n">
-        <v>22</v>
-      </c>
-      <c r="B37" s="27" t="n"/>
-      <c r="C37" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" s="65" t="s"/>
-      <c r="E37" s="22" t="n">
-        <v>25</v>
-      </c>
-      <c r="F37" s="27" t="n"/>
-      <c r="G37" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="H37" s="66" t="s"/>
-    </row>
-    <row outlineLevel="0" r="38">
-      <c r="A38" s="27" t="n"/>
-      <c r="B38" s="18" t="n">
-        <v>6</v>
-      </c>
-      <c r="C38" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="D38" s="68" t="s"/>
-      <c r="E38" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H38" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="39">
-      <c r="A39" s="22" t="n">
-        <v>23</v>
-      </c>
-      <c r="B39" s="27" t="n"/>
-      <c r="C39" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" s="69" t="s"/>
-      <c r="E39" s="22" t="n"/>
-      <c r="F39" s="70" t="n">
-        <v>6</v>
-      </c>
-      <c r="G39" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="H39" s="71" t="n"/>
-    </row>
-    <row outlineLevel="0" r="40">
-      <c r="A40" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="B40" s="27" t="n"/>
-      <c r="C40" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="72" t="n">
-        <v>4</v>
-      </c>
-      <c r="E40" s="20" t="n"/>
-      <c r="F40" s="73" t="n">
-        <v>26</v>
-      </c>
-      <c r="G40" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="H40" s="71" t="n">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="41">
-      <c r="A41" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" s="27" t="n"/>
-      <c r="C41" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" s="48" t="n">
-        <v>5</v>
-      </c>
-      <c r="E41" s="22" t="n">
-        <v>26</v>
-      </c>
-      <c r="F41" s="73" t="n">
-        <v>27</v>
-      </c>
-      <c r="G41" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="H41" s="74" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="42">
-      <c r="A42" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="B42" s="27" t="n"/>
-      <c r="C42" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D42" s="48" t="n">
-        <v>6</v>
-      </c>
-      <c r="E42" s="22" t="n">
-        <v>27</v>
-      </c>
-      <c r="F42" s="73" t="n">
-        <v>28</v>
-      </c>
-      <c r="G42" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="H42" s="76" t="s"/>
-    </row>
-    <row outlineLevel="0" r="43">
-      <c r="A43" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="B43" s="27" t="n"/>
-      <c r="C43" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="D43" s="77" t="s"/>
-      <c r="E43" s="22" t="n">
-        <v>28</v>
-      </c>
-      <c r="F43" s="21" t="n">
-        <v>7</v>
-      </c>
-      <c r="G43" s="78" t="s">
-        <v>75</v>
-      </c>
-      <c r="H43" s="79" t="s"/>
-    </row>
-    <row outlineLevel="0" r="44">
-      <c r="A44" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="B44" s="27" t="n"/>
-      <c r="C44" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" s="48" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="E44" s="80" t="n"/>
-      <c r="F44" s="17" t="n"/>
-      <c r="G44" s="78" t="s">
-        <v>77</v>
-      </c>
-      <c r="H44" s="81" t="s"/>
-    </row>
-    <row outlineLevel="0" r="45">
-      <c r="A45" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="27" t="n"/>
-      <c r="C45" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D45" s="23" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="E45" s="22" t="n">
-        <v>29</v>
-      </c>
-      <c r="F45" s="20" t="n">
-        <v>29</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H45" s="23" t="n">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="46">
-      <c r="A46" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="B46" s="25" t="n"/>
-      <c r="C46" s="82" t="s">
-        <v>81</v>
-      </c>
-      <c r="D46" s="83" t="s"/>
-      <c r="E46" s="22" t="n">
-        <v>30</v>
-      </c>
-      <c r="F46" s="20" t="n">
-        <v>30</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="H46" s="23" t="n">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="47">
-      <c r="A47" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="B47" s="25" t="n"/>
-      <c r="C47" s="82" t="s">
-        <v>84</v>
-      </c>
-      <c r="D47" s="84" t="s"/>
-      <c r="E47" s="22" t="n">
-        <v>31</v>
-      </c>
-      <c r="F47" s="20" t="n">
-        <v>31</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="H47" s="23" t="n">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="48">
-      <c r="A48" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="B48" s="25" t="n"/>
-      <c r="C48" s="82" t="s">
-        <v>87</v>
-      </c>
-      <c r="D48" s="85" t="s"/>
-      <c r="E48" s="22" t="n"/>
-      <c r="F48" s="20" t="n"/>
-      <c r="G48" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="H48" s="86" t="s"/>
-    </row>
-    <row outlineLevel="0" r="49">
-      <c r="A49" s="22" t="n">
-        <v>28</v>
-      </c>
-      <c r="B49" s="27" t="n"/>
-      <c r="C49" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="D49" s="29" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E49" s="22" t="n">
-        <v>32</v>
-      </c>
-      <c r="F49" s="20" t="n">
-        <v>32</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="H49" s="87" t="n">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="50">
-      <c r="A50" s="22" t="n">
-        <v>29</v>
-      </c>
-      <c r="B50" s="27" t="n"/>
-      <c r="C50" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="D50" s="88" t="s"/>
-      <c r="E50" s="22" t="n">
-        <v>33</v>
-      </c>
-      <c r="F50" s="20" t="n">
-        <v>33</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="H50" s="87" t="n">
-        <v>5.65</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="51">
-      <c r="A51" s="22" t="n"/>
-      <c r="B51" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="C51" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="D51" s="71" t="n"/>
-      <c r="E51" s="22" t="n">
-        <v>34</v>
-      </c>
-      <c r="F51" s="20" t="n">
-        <v>34</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="H51" s="87" t="n">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="52">
-      <c r="A52" s="22" t="n">
-        <v>30</v>
-      </c>
-      <c r="B52" s="27" t="n"/>
-      <c r="C52" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D52" s="71" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E52" s="80" t="n"/>
-      <c r="F52" s="27" t="n"/>
-      <c r="G52" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="H52" s="89" t="s"/>
-    </row>
-    <row outlineLevel="0" r="53">
-      <c r="A53" s="22" t="n">
-        <v>31</v>
-      </c>
-      <c r="B53" s="27" t="n"/>
-      <c r="C53" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="D53" s="74" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E53" s="22" t="n">
-        <v>35</v>
-      </c>
-      <c r="F53" s="27" t="n"/>
-      <c r="G53" s="90" t="s">
-        <v>95</v>
-      </c>
-      <c r="H53" s="91" t="s"/>
-    </row>
-    <row outlineLevel="0" r="54">
-      <c r="A54" s="22" t="n">
-        <v>32</v>
-      </c>
-      <c r="B54" s="27" t="n"/>
-      <c r="C54" s="75" t="s">
-        <v>96</v>
-      </c>
-      <c r="D54" s="92" t="s"/>
-      <c r="E54" s="22" t="n">
-        <v>36</v>
-      </c>
-      <c r="F54" s="27" t="n"/>
-      <c r="G54" s="75" t="s">
-        <v>97</v>
-      </c>
-      <c r="H54" s="93" t="s"/>
-    </row>
-    <row outlineLevel="0" r="55">
-      <c r="A55" s="27" t="n"/>
-      <c r="B55" s="18" t="n">
-        <v>8</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D55" s="94" t="s"/>
-      <c r="E55" s="22" t="n">
-        <v>37</v>
-      </c>
-      <c r="F55" s="27" t="n"/>
-      <c r="G55" s="75" t="s">
-        <v>98</v>
-      </c>
-      <c r="H55" s="95" t="s"/>
-    </row>
-    <row outlineLevel="0" r="56">
-      <c r="A56" s="17" t="n"/>
-      <c r="B56" s="17" t="n"/>
-      <c r="C56" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D56" s="96" t="s"/>
-      <c r="E56" s="22" t="n">
-        <v>38</v>
-      </c>
-      <c r="F56" s="21" t="n">
-        <v>7</v>
-      </c>
-      <c r="G56" s="78" t="s">
-        <v>99</v>
-      </c>
-      <c r="H56" s="97" t="s"/>
-    </row>
-    <row outlineLevel="0" r="57">
-      <c r="A57" s="22" t="n">
-        <v>33</v>
-      </c>
-      <c r="B57" s="17" t="n"/>
-      <c r="C57" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D57" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="E57" s="22" t="n">
-        <v>39</v>
-      </c>
-      <c r="F57" s="17" t="n"/>
-      <c r="G57" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="H57" s="87" t="n">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="58">
-      <c r="A58" s="22" t="n">
-        <v>34</v>
-      </c>
-      <c r="B58" s="17" t="n"/>
-      <c r="C58" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D58" s="23" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="E58" s="80" t="n"/>
-      <c r="F58" s="17" t="n"/>
-      <c r="G58" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="H58" s="87" t="n">
-        <v>5.65</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="59">
-      <c r="A59" s="22" t="n">
-        <v>35</v>
-      </c>
-      <c r="B59" s="17" t="n"/>
-      <c r="C59" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D59" s="23" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="E59" s="22" t="n">
-        <v>40</v>
-      </c>
-      <c r="F59" s="17" t="n"/>
-      <c r="G59" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="H59" s="87" t="n">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="60">
-      <c r="A60" s="17" t="n"/>
-      <c r="B60" s="17" t="n"/>
-      <c r="C60" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D60" s="98" t="s"/>
-      <c r="E60" s="22" t="n">
-        <v>41</v>
-      </c>
-      <c r="F60" s="27" t="n"/>
-      <c r="G60" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H60" s="99" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="61">
-      <c r="A61" s="22" t="n">
-        <v>36</v>
-      </c>
-      <c r="B61" s="17" t="n"/>
-      <c r="C61" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D61" s="23" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="E61" s="22" t="n">
-        <v>42</v>
-      </c>
-      <c r="F61" s="27" t="n"/>
-      <c r="G61" s="75" t="s">
-        <v>103</v>
-      </c>
-      <c r="H61" s="100" t="s"/>
-    </row>
-    <row outlineLevel="0" r="62">
-      <c r="A62" s="22" t="n">
-        <v>37</v>
-      </c>
-      <c r="B62" s="17" t="n"/>
-      <c r="C62" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D62" s="23" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="E62" s="20" t="n"/>
-      <c r="F62" s="21" t="n">
-        <v>8</v>
-      </c>
-      <c r="G62" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="H62" s="101" t="s"/>
-    </row>
-    <row outlineLevel="0" r="63">
-      <c r="A63" s="22" t="n">
-        <v>38</v>
-      </c>
-      <c r="B63" s="17" t="n"/>
-      <c r="C63" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D63" s="23" t="n">
-        <v>9.72</v>
-      </c>
-      <c r="E63" s="22" t="n">
-        <v>43</v>
-      </c>
-      <c r="F63" s="17" t="n"/>
-      <c r="G63" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="H63" s="87" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="64">
-      <c r="A64" s="27" t="n"/>
-      <c r="B64" s="27" t="n"/>
-      <c r="C64" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D64" s="102" t="s"/>
-      <c r="E64" s="80" t="n">
-        <v>44</v>
-      </c>
-      <c r="F64" s="17" t="n"/>
-      <c r="G64" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="H64" s="87" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="65">
-      <c r="A65" s="26" t="n">
-        <v>39</v>
-      </c>
-      <c r="B65" s="27" t="n"/>
-      <c r="C65" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="D65" s="103" t="s"/>
-      <c r="E65" s="22" t="n">
-        <v>45</v>
-      </c>
-      <c r="F65" s="17" t="n"/>
-      <c r="G65" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="H65" s="87" t="n">
-        <v>42.5</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="66">
-      <c r="A66" s="22" t="n">
-        <v>40</v>
-      </c>
-      <c r="B66" s="27" t="n"/>
-      <c r="C66" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="D66" s="104" t="s"/>
-      <c r="E66" s="22" t="n"/>
-      <c r="F66" s="21" t="n">
-        <v>9</v>
-      </c>
-      <c r="G66" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="H66" s="17" t="n"/>
-    </row>
-    <row outlineLevel="0" r="67">
-      <c r="A67" s="105" t="n">
-        <v>41</v>
-      </c>
-      <c r="B67" s="106" t="n"/>
-      <c r="C67" s="107" t="s">
-        <v>108</v>
-      </c>
-      <c r="D67" s="108" t="s"/>
-      <c r="E67" s="26" t="n">
-        <v>46</v>
-      </c>
-      <c r="F67" s="27" t="n"/>
-      <c r="G67" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="H67" s="99" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="68">
-      <c r="A68" s="17" t="n"/>
-      <c r="B68" s="21" t="n">
-        <v>9</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="D68" s="109" t="s"/>
-      <c r="E68" s="110" t="n">
-        <v>47</v>
-      </c>
-      <c r="F68" s="27" t="n"/>
-      <c r="G68" s="82" t="s">
-        <v>110</v>
-      </c>
-      <c r="H68" s="111" t="s"/>
-    </row>
-    <row outlineLevel="0" r="69">
-      <c r="A69" s="22" t="n">
-        <v>42</v>
-      </c>
-      <c r="B69" s="17" t="n"/>
-      <c r="C69" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D69" s="23" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="E69" s="26" t="n">
-        <v>48</v>
-      </c>
-      <c r="F69" s="25" t="n"/>
-      <c r="G69" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="H69" s="112" t="n">
-        <v>0.0233</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="70">
-      <c r="A70" s="22" t="n">
-        <v>43</v>
-      </c>
-      <c r="B70" s="17" t="n"/>
-      <c r="C70" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D70" s="23" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="E70" s="26" t="n">
-        <v>49</v>
-      </c>
-      <c r="F70" s="25" t="n"/>
-      <c r="G70" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="H70" s="112" t="n">
-        <v>0.0233</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="71">
-      <c r="A71" s="22" t="n">
-        <v>44</v>
-      </c>
-      <c r="B71" s="17" t="n"/>
-      <c r="C71" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D71" s="23" t="n">
-        <v>9.72</v>
-      </c>
-      <c r="E71" s="26" t="n">
-        <v>50</v>
-      </c>
-      <c r="F71" s="25" t="n"/>
-      <c r="G71" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="H71" s="113" t="n">
-        <v>0.015</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="72">
-      <c r="A72" s="22" t="n">
-        <v>45</v>
-      </c>
-      <c r="B72" s="17" t="n"/>
-      <c r="C72" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D72" s="29" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E72" s="22" t="n">
-        <v>51</v>
-      </c>
-      <c r="F72" s="25" t="n"/>
-      <c r="G72" s="90" t="s">
-        <v>117</v>
-      </c>
-      <c r="H72" s="114" t="s"/>
-    </row>
-    <row outlineLevel="0" r="73">
-      <c r="A73" s="26" t="n">
-        <v>46</v>
-      </c>
-      <c r="B73" s="27" t="n"/>
-      <c r="C73" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="D73" s="115" t="s"/>
-      <c r="E73" s="20" t="n">
-        <v>52</v>
-      </c>
-      <c r="F73" s="25" t="n"/>
-      <c r="G73" s="82" t="s">
-        <v>119</v>
-      </c>
-      <c r="H73" s="116" t="n">
-        <v>0.0233</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="74">
-      <c r="A74" s="17" t="n"/>
-      <c r="B74" s="21" t="n">
-        <v>10</v>
-      </c>
-      <c r="C74" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D74" s="17" t="n"/>
-      <c r="E74" s="22" t="n">
-        <v>53</v>
-      </c>
-      <c r="F74" s="27" t="n"/>
-      <c r="G74" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="H74" s="58" t="n">
-        <v>0.015</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="75">
-      <c r="A75" s="26" t="n">
-        <v>47</v>
-      </c>
-      <c r="B75" s="27" t="n"/>
-      <c r="C75" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D75" s="117" t="n">
-        <v>4</v>
-      </c>
-      <c r="E75" s="20" t="n">
-        <v>54</v>
-      </c>
-      <c r="F75" s="25" t="n"/>
-      <c r="G75" s="82" t="s">
-        <v>123</v>
-      </c>
-      <c r="H75" s="58" t="n">
-        <v>0.005</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="76">
-      <c r="A76" s="26" t="n">
-        <v>48</v>
-      </c>
-      <c r="B76" s="25" t="n"/>
-      <c r="C76" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="D76" s="118" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="E76" s="26" t="n">
-        <v>55</v>
-      </c>
-      <c r="F76" s="27" t="n"/>
-      <c r="G76" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="H76" s="119" t="n">
-        <v>0.009</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="77">
-      <c r="A77" s="26" t="n"/>
-      <c r="B77" s="67" t="n">
-        <v>11</v>
-      </c>
-      <c r="C77" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="D77" s="120" t="s">
-        <v>127</v>
-      </c>
-      <c r="E77" s="26" t="n">
-        <v>56</v>
-      </c>
-      <c r="F77" s="21" t="n">
-        <v>10</v>
-      </c>
-      <c r="G77" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="H77" s="17" t="n"/>
-    </row>
-    <row outlineLevel="0" r="78">
-      <c r="A78" s="26" t="n">
-        <v>49</v>
-      </c>
-      <c r="B78" s="25" t="n"/>
-      <c r="C78" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="D78" s="28" t="n"/>
-      <c r="E78" s="22" t="n">
-        <v>54</v>
-      </c>
-      <c r="F78" s="25" t="n"/>
-      <c r="G78" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="H78" s="121" t="s"/>
-    </row>
-    <row outlineLevel="0" r="79">
-      <c r="A79" s="20" t="n">
-        <v>50</v>
-      </c>
-      <c r="B79" s="21" t="n"/>
-      <c r="C79" s="122" t="s">
-        <v>131</v>
-      </c>
-      <c r="D79" s="123" t="s"/>
-      <c r="E79" s="20" t="n"/>
-      <c r="F79" s="21" t="n">
-        <v>11</v>
-      </c>
-      <c r="G79" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="H79" s="17" t="n"/>
-    </row>
-    <row outlineLevel="0" r="80">
-      <c r="A80" s="17" t="n"/>
-      <c r="B80" s="21" t="n">
-        <v>12</v>
-      </c>
-      <c r="C80" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="D80" s="17" t="n"/>
-      <c r="E80" s="22" t="n">
-        <v>55</v>
-      </c>
-      <c r="F80" s="27" t="n"/>
-      <c r="G80" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="H80" s="124" t="s"/>
-      <c r="I80" s="34" t="n"/>
-    </row>
-    <row outlineLevel="0" r="81">
-      <c r="A81" s="26" t="n">
-        <v>51</v>
-      </c>
-      <c r="B81" s="27" t="n"/>
-      <c r="C81" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D81" s="58" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E81" s="22" t="n">
-        <v>56</v>
-      </c>
-      <c r="F81" s="27" t="n"/>
-      <c r="G81" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="H81" s="58" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="I81" s="34" t="n"/>
-    </row>
-    <row outlineLevel="0" r="82">
-      <c r="A82" s="26" t="n">
-        <v>52</v>
-      </c>
-      <c r="B82" s="25" t="n"/>
-      <c r="C82" s="90" t="s">
-        <v>136</v>
-      </c>
-      <c r="D82" s="125" t="s"/>
-      <c r="E82" s="22" t="n">
-        <v>57</v>
-      </c>
-      <c r="F82" s="27" t="n"/>
-      <c r="G82" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="H82" s="126" t="s"/>
-      <c r="I82" s="34" t="n"/>
-    </row>
-    <row outlineLevel="0" r="83">
-      <c r="A83" s="26" t="n">
-        <v>53</v>
-      </c>
-      <c r="B83" s="25" t="n"/>
-      <c r="C83" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="D83" s="58" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="E83" s="20" t="n"/>
-      <c r="F83" s="21" t="n">
-        <v>12</v>
-      </c>
-      <c r="G83" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="H83" s="127" t="s"/>
-      <c r="I83" s="1" t="n"/>
-    </row>
-    <row outlineLevel="0" r="84">
-      <c r="A84" s="26" t="n">
-        <v>54</v>
-      </c>
-      <c r="B84" s="25" t="n"/>
-      <c r="C84" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="D84" s="28" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E84" s="22" t="n">
-        <v>58</v>
-      </c>
-      <c r="F84" s="17" t="n"/>
-      <c r="G84" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="H84" s="23" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="I84" s="24" t="n"/>
-    </row>
-    <row outlineLevel="0" r="85">
-      <c r="A85" s="17" t="n"/>
-      <c r="B85" s="21" t="n">
-        <v>13</v>
-      </c>
-      <c r="C85" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="D85" s="128" t="s"/>
-      <c r="E85" s="22" t="n">
-        <v>59</v>
-      </c>
-      <c r="F85" s="17" t="n"/>
-      <c r="G85" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="H85" s="23" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I85" s="24" t="n"/>
-    </row>
-    <row outlineLevel="0" r="86">
-      <c r="A86" s="26" t="n">
-        <v>55</v>
-      </c>
-      <c r="B86" s="25" t="n"/>
-      <c r="C86" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="D86" s="129" t="s"/>
-      <c r="E86" s="22" t="n">
-        <v>60</v>
-      </c>
-      <c r="F86" s="17" t="n"/>
-      <c r="G86" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="H86" s="23" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="I86" s="24" t="n"/>
-    </row>
-    <row outlineLevel="0" r="87">
-      <c r="A87" s="17" t="n"/>
-      <c r="B87" s="21" t="n">
-        <v>14</v>
-      </c>
-      <c r="C87" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="D87" s="130" t="s"/>
-      <c r="E87" s="20" t="n"/>
-      <c r="F87" s="21" t="n">
-        <v>13</v>
-      </c>
-      <c r="G87" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="H87" s="131" t="s"/>
-    </row>
-    <row outlineLevel="0" r="88">
-      <c r="A88" s="22" t="n">
-        <v>56</v>
-      </c>
-      <c r="B88" s="17" t="n"/>
-      <c r="C88" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="D88" s="23" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="E88" s="26" t="n">
-        <v>61</v>
-      </c>
-      <c r="F88" s="27" t="n"/>
-      <c r="G88" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="H88" s="132" t="s"/>
-    </row>
-    <row outlineLevel="0" r="89">
-      <c r="A89" s="22" t="n">
-        <v>57</v>
-      </c>
-      <c r="B89" s="17" t="n"/>
-      <c r="C89" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="D89" s="133" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="E89" s="134" t="n"/>
-      <c r="F89" s="17" t="n"/>
-      <c r="G89" s="82" t="s">
-        <v>147</v>
-      </c>
-      <c r="H89" s="135" t="s"/>
-    </row>
-    <row outlineLevel="0" r="90">
-      <c r="A90" s="22" t="n">
-        <v>58</v>
-      </c>
-      <c r="B90" s="17" t="n"/>
-      <c r="C90" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="D90" s="133" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="E90" s="136" t="n"/>
-      <c r="F90" s="27" t="n"/>
-      <c r="G90" s="82" t="s">
-        <v>148</v>
-      </c>
-      <c r="H90" s="137" t="s"/>
-    </row>
-    <row outlineLevel="0" r="91">
-      <c r="A91" s="17" t="n"/>
-      <c r="B91" s="21" t="n">
-        <v>13</v>
-      </c>
-      <c r="C91" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="D91" s="138" t="n"/>
-      <c r="E91" s="5" t="n"/>
-      <c r="F91" s="21" t="n">
-        <v>12</v>
-      </c>
-      <c r="G91" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="H91" s="139" t="s"/>
-    </row>
-    <row outlineLevel="0" r="92">
-      <c r="A92" s="22" t="n">
-        <v>59</v>
-      </c>
-      <c r="B92" s="25" t="n"/>
-      <c r="C92" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="D92" s="140" t="s"/>
-      <c r="E92" s="141" t="n"/>
-      <c r="F92" s="27" t="n"/>
-      <c r="G92" s="31" t="s">
+      <c r="B92" s="28" t="n"/>
+      <c r="C92" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="H92" s="142" t="s"/>
+      <c r="D92" s="145" t="s"/>
+      <c r="E92" s="146" t="n"/>
+      <c r="F92" s="30" t="n"/>
+      <c r="G92" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="H92" s="147" t="s"/>
     </row>
     <row outlineLevel="0" r="93">
       <c r="C93" s="1" t="n"/>
@@ -5134,35 +5151,35 @@
       <c r="C94" s="1" t="n"/>
       <c r="D94" s="1" t="n"/>
       <c r="E94" s="0" t="n"/>
-      <c r="F94" s="143" t="n"/>
-      <c r="G94" s="143" t="n"/>
+      <c r="F94" s="148" t="n"/>
+      <c r="G94" s="148" t="n"/>
       <c r="I94" s="0" t="n"/>
     </row>
     <row outlineLevel="0" r="95">
       <c r="C95" s="1" t="n"/>
       <c r="D95" s="1" t="n"/>
       <c r="E95" s="0" t="n"/>
-      <c r="F95" s="143" t="n"/>
-      <c r="G95" s="143" t="n"/>
-      <c r="H95" s="143" t="n"/>
+      <c r="F95" s="148" t="n"/>
+      <c r="G95" s="148" t="n"/>
+      <c r="H95" s="148" t="n"/>
       <c r="I95" s="0" t="n"/>
     </row>
     <row outlineLevel="0" r="96">
       <c r="C96" s="1" t="n"/>
       <c r="D96" s="1" t="n"/>
       <c r="E96" s="0" t="n"/>
-      <c r="F96" s="143" t="n"/>
-      <c r="G96" s="143" t="n"/>
-      <c r="H96" s="143" t="n"/>
+      <c r="F96" s="148" t="n"/>
+      <c r="G96" s="148" t="n"/>
+      <c r="H96" s="148" t="n"/>
       <c r="I96" s="0" t="n"/>
     </row>
     <row outlineLevel="0" r="97">
       <c r="C97" s="1" t="n"/>
       <c r="D97" s="1" t="n"/>
       <c r="E97" s="0" t="n"/>
-      <c r="F97" s="143" t="n"/>
-      <c r="G97" s="143" t="n"/>
-      <c r="H97" s="143" t="n"/>
+      <c r="F97" s="148" t="n"/>
+      <c r="G97" s="148" t="n"/>
+      <c r="H97" s="148" t="n"/>
       <c r="I97" s="0" t="n"/>
     </row>
     <row outlineLevel="0" r="101">

--- a/calc/files/letter2.xlsx
+++ b/calc/files/letter2.xlsx
@@ -1689,23 +1689,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
   <numFmts>
-    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1008"/>
+    <numFmt co:extendedFormatCode="0.00;-0.00" formatCode="0.00;-0.00" numFmtId="1003"/>
+    <numFmt co:extendedFormatCode="0" formatCode="0" numFmtId="1004"/>
+    <numFmt co:extendedFormatCode="0.00" formatCode="0.00" numFmtId="1005"/>
+    <numFmt co:extendedFormatCode="0.000" formatCode="0.000" numFmtId="1007"/>
+    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1002"/>
+    <numFmt co:extendedFormatCode="0.0%" formatCode="0.0%" numFmtId="1006"/>
+    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1001"/>
     <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1000"/>
-    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1005"/>
-    <numFmt co:extendedFormatCode="0.000" formatCode="0.000" numFmtId="1010"/>
-    <numFmt co:extendedFormatCode="0.00000;-0.00000" formatCode="0.00000;-0.00000" numFmtId="1013"/>
-    <numFmt co:extendedFormatCode="0.00;-0.00" formatCode="0.00;-0.00" numFmtId="1004"/>
-    <numFmt co:extendedFormatCode="0.0%" formatCode="0.0%" numFmtId="1009"/>
-    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1014"/>
-    <numFmt co:extendedFormatCode="0.0000" formatCode="0.0000" numFmtId="1012"/>
-    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1015"/>
-    <numFmt co:extendedFormatCode="0" formatCode="0" numFmtId="1006"/>
-    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1002"/>
-    <numFmt co:extendedFormatCode="@" formatCode="@" numFmtId="1011"/>
-    <numFmt co:extendedFormatCode="0.00%" formatCode="0.00%" numFmtId="1016"/>
-    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1003"/>
-    <numFmt co:extendedFormatCode="0.00" formatCode="0.00" numFmtId="1007"/>
-    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1001"/>
+    <numFmt co:extendedFormatCode="0.0000" formatCode="0.0000" numFmtId="1009"/>
+    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1011"/>
+    <numFmt co:extendedFormatCode="0.00%" formatCode="0.00%" numFmtId="1012"/>
+    <numFmt co:extendedFormatCode="0.00000;-0.00000" formatCode="0.00000;-0.00000" numFmtId="1010"/>
+    <numFmt co:extendedFormatCode="@" formatCode="@" numFmtId="1008"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -2584,7 +2580,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="144">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2610,23 +2606,17 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="2" numFmtId="1001" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="2" numFmtId="1002" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="top" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="2" fontId="5" numFmtId="1003" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="2" fontId="5" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="left" indent="2" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="3" numFmtId="1004" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="3" numFmtId="1003" quotePrefix="false">
       <alignment horizontal="center" vertical="bottom" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="2" fontId="5" numFmtId="1005" quotePrefix="false">
-      <alignment horizontal="left" indent="2" vertical="top" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
@@ -2643,7 +2633,7 @@
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="1006" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="1004" quotePrefix="false">
       <alignment horizontal="right" shrinkToFit="true" vertical="top"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
@@ -2652,313 +2642,304 @@
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="1006" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="1004" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1004" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1005" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1005" quotePrefix="false">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1004" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1005" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1006" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1007" quotePrefix="false">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="justify" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="justify" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1008" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1008" quotePrefix="false">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="1005" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1009" quotePrefix="false">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1010" quotePrefix="false">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1008" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="19" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="7" numFmtId="1005" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="20" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1006" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="21" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="22" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" indent="1" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="24" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="25" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="26" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="1011" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="27" fillId="0" fontId="6" numFmtId="1011" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="28" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" borderId="29" fillId="0" fontId="8" quotePrefix="false">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1003" quotePrefix="false">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="1003" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" borderId="29" fillId="0" fontId="9" quotePrefix="false">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1012" quotePrefix="false">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="32" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="33" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="34" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="justify" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="35" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="justify" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="36" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="justify" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="37" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="justify" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="38" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1005" quotePrefix="false">
+      <alignment horizontal="right" indent="6" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="39" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="40" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="41" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="42" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="43" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="44" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="45" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="46" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="47" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="48" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1006" quotePrefix="false">
+      <alignment horizontal="right" indent="6" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="49" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="50" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="51" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="52" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="53" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="3" numFmtId="1004" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="55" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="56" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="57" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="justify" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1012" quotePrefix="false">
+      <alignment horizontal="right" indent="5" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1006" quotePrefix="false">
+      <alignment horizontal="right" indent="6" shrinkToFit="true" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="58" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="59" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1012" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1003" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1003" quotePrefix="false">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1007" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1007" quotePrefix="false">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1008" quotePrefix="false">
-      <alignment horizontal="left" vertical="bottom" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1006" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1007" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1009" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1010" quotePrefix="false">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="justify" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="justify" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1011" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1011" quotePrefix="false">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="1007" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1012" quotePrefix="false">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1013" quotePrefix="false">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1011" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="19" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="7" numFmtId="1007" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="20" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1009" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="21" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="22" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" indent="1" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1014" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="24" fillId="0" fontId="3" numFmtId="1014" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="25" fillId="0" fontId="3" numFmtId="1014" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="26" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="1015" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="27" fillId="0" fontId="6" numFmtId="1015" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="28" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" borderId="29" fillId="0" fontId="8" quotePrefix="false">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1004" quotePrefix="false">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="1004" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" borderId="29" fillId="0" fontId="9" quotePrefix="false">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1016" quotePrefix="false">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="32" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="33" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="34" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="justify" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="35" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="justify" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="36" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="justify" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="37" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="justify" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="38" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1007" quotePrefix="false">
-      <alignment horizontal="right" indent="6" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="39" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="40" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="41" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="42" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="43" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="44" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="45" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="46" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="47" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="48" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1009" quotePrefix="false">
-      <alignment horizontal="right" indent="6" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="49" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="50" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="51" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="52" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="53" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="3" numFmtId="1006" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="55" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="56" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="57" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="justify" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1016" quotePrefix="false">
-      <alignment horizontal="right" indent="5" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1009" quotePrefix="false">
-      <alignment horizontal="right" indent="6" shrinkToFit="true" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="58" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="59" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1016" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1004" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="2" numFmtId="1004" quotePrefix="false">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1010" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="3" numFmtId="1009" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="60" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
@@ -2997,16 +2978,16 @@
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="70" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="justify" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="71" fillId="0" fontId="3" numFmtId="1007" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="71" fillId="0" fontId="3" numFmtId="1005" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="72" fillId="0" fontId="3" numFmtId="1006" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="72" fillId="0" fontId="3" numFmtId="1004" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="73" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="justify" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1006" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1004" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="74" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
@@ -3021,7 +3002,7 @@
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="76" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1006" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1004" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="77" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
@@ -3301,1845 +3282,1845 @@
       <c r="E3" s="5" t="n"/>
       <c r="F3" s="3" t="n"/>
       <c r="G3" s="3" t="n"/>
-      <c r="H3" s="9" t="str">
+      <c r="H3" s="8" t="str">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D3</f>
         <v>от 15.12.2025 № 1143</v>
       </c>
     </row>
     <row customHeight="true" ht="41.25" outlineLevel="0" r="4">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s"/>
-      <c r="C4" s="10" t="s"/>
-      <c r="D4" s="10" t="s"/>
-      <c r="E4" s="10" t="s">
+      <c r="B4" s="9" t="s"/>
+      <c r="C4" s="9" t="s"/>
+      <c r="D4" s="9" t="s"/>
+      <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="10" t="s"/>
-      <c r="G4" s="10" t="s"/>
-      <c r="H4" s="10" t="s"/>
+      <c r="F4" s="9" t="s"/>
+      <c r="G4" s="9" t="s"/>
+      <c r="H4" s="9" t="s"/>
     </row>
     <row customHeight="true" ht="17" outlineLevel="0" r="5">
-      <c r="A5" s="11" t="n"/>
-      <c r="B5" s="11" t="n"/>
-      <c r="C5" s="11" t="n"/>
-      <c r="D5" s="12" t="s">
+      <c r="A5" s="10" t="n"/>
+      <c r="B5" s="10" t="n"/>
+      <c r="C5" s="10" t="n"/>
+      <c r="D5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="13" t="n"/>
-      <c r="F5" s="11" t="n"/>
-      <c r="G5" s="11" t="n"/>
-      <c r="H5" s="14" t="str">
+      <c r="E5" s="12" t="n"/>
+      <c r="F5" s="10" t="n"/>
+      <c r="G5" s="10" t="n"/>
+      <c r="H5" s="11" t="str">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D5</f>
         <v>в действии c 01.01.2026</v>
       </c>
     </row>
     <row customHeight="true" ht="27.25" outlineLevel="0" r="6">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="7">
-      <c r="A7" s="19" t="n"/>
-      <c r="B7" s="20" t="n">
+      <c r="A7" s="17" t="n"/>
+      <c r="B7" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="19" t="n"/>
-      <c r="E7" s="22" t="n"/>
-      <c r="F7" s="23" t="n">
+      <c r="D7" s="17" t="n"/>
+      <c r="E7" s="20" t="n"/>
+      <c r="F7" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="19" t="n"/>
+      <c r="H7" s="17" t="n"/>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="8">
-      <c r="A8" s="24" t="n">
+      <c r="A8" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="B8" s="19" t="n"/>
-      <c r="C8" s="15" t="s">
+      <c r="B8" s="17" t="n"/>
+      <c r="C8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="25" t="n">
+      <c r="D8" s="23" t="n">
         <v>3.54</v>
       </c>
-      <c r="E8" s="24" t="n">
+      <c r="E8" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="F8" s="19" t="n"/>
-      <c r="G8" s="15" t="s">
+      <c r="F8" s="17" t="n"/>
+      <c r="G8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="25" t="n">
+      <c r="H8" s="23" t="n">
         <v>2.95</v>
       </c>
-      <c r="I8" s="26" t="n"/>
+      <c r="I8" s="24" t="n"/>
       <c r="J8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="9">
-      <c r="A9" s="19" t="n"/>
-      <c r="B9" s="20" t="n">
+      <c r="A9" s="17" t="n"/>
+      <c r="B9" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="22" t="n"/>
-      <c r="F9" s="23" t="n">
+      <c r="E9" s="20" t="n"/>
+      <c r="F9" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="19" t="n"/>
-      <c r="I9" s="26" t="n"/>
+      <c r="H9" s="17" t="n"/>
+      <c r="I9" s="24" t="n"/>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="10">
-      <c r="A10" s="24" t="n">
+      <c r="A10" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="B10" s="19" t="n"/>
-      <c r="C10" s="15" t="s">
+      <c r="B10" s="17" t="n"/>
+      <c r="C10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="25" t="n">
+      <c r="D10" s="23" t="n">
         <v>3.96</v>
       </c>
-      <c r="E10" s="24" t="n">
+      <c r="E10" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="F10" s="19" t="n"/>
-      <c r="G10" s="15" t="s">
+      <c r="F10" s="17" t="n"/>
+      <c r="G10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="25" t="n">
+      <c r="H10" s="23" t="n">
         <v>3.3</v>
       </c>
-      <c r="I10" s="26" t="n">
+      <c r="I10" s="24" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H10*1.2</f>
         <v>3.9599999999999995</v>
       </c>
-      <c r="J10" s="26" t="n"/>
-      <c r="K10" s="26" t="n"/>
+      <c r="J10" s="24" t="n"/>
+      <c r="K10" s="24" t="n"/>
     </row>
     <row customHeight="true" ht="25.9999694824219" outlineLevel="0" r="11">
-      <c r="A11" s="24" t="n">
+      <c r="A11" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="B11" s="19" t="n"/>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="17" t="n"/>
+      <c r="C11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="25" t="n">
+      <c r="D11" s="23" t="n">
         <v>0.08</v>
       </c>
-      <c r="E11" s="24" t="n">
+      <c r="E11" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="F11" s="19" t="n"/>
-      <c r="G11" s="28" t="s">
+      <c r="F11" s="17" t="n"/>
+      <c r="G11" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="25" t="n">
+      <c r="H11" s="23" t="n">
         <v>0.07</v>
       </c>
-      <c r="I11" s="26" t="n"/>
-      <c r="J11" s="26" t="n"/>
-      <c r="K11" s="26" t="n"/>
+      <c r="I11" s="24" t="n"/>
+      <c r="J11" s="24" t="n"/>
+      <c r="K11" s="24" t="n"/>
     </row>
     <row customHeight="true" ht="12.75" outlineLevel="0" r="12">
-      <c r="A12" s="19" t="n"/>
-      <c r="B12" s="20" t="n">
+      <c r="A12" s="17" t="n"/>
+      <c r="B12" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="19" t="n"/>
-      <c r="E12" s="22" t="n"/>
-      <c r="F12" s="23" t="n">
+      <c r="D12" s="17" t="n"/>
+      <c r="E12" s="20" t="n"/>
+      <c r="F12" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="19" t="n"/>
-      <c r="I12" s="26" t="n"/>
+      <c r="H12" s="17" t="n"/>
+      <c r="I12" s="24" t="n"/>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="13">
-      <c r="A13" s="24" t="n">
+      <c r="A13" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="B13" s="19" t="n"/>
-      <c r="C13" s="15" t="s">
+      <c r="B13" s="17" t="n"/>
+      <c r="C13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="25" t="n">
+      <c r="D13" s="23" t="n">
         <v>1.02</v>
       </c>
-      <c r="E13" s="24" t="n">
+      <c r="E13" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="F13" s="19" t="n"/>
-      <c r="G13" s="15" t="s">
+      <c r="F13" s="17" t="n"/>
+      <c r="G13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="25" t="n">
+      <c r="H13" s="23" t="n">
         <v>0.85</v>
       </c>
-      <c r="I13" s="26" t="n"/>
+      <c r="I13" s="24" t="n"/>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="14">
-      <c r="A14" s="24" t="n">
+      <c r="A14" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="B14" s="19" t="n"/>
-      <c r="C14" s="15" t="s">
+      <c r="B14" s="17" t="n"/>
+      <c r="C14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="25" t="n">
+      <c r="D14" s="23" t="n">
         <v>3.96</v>
       </c>
-      <c r="E14" s="24" t="n">
+      <c r="E14" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="F14" s="19" t="n"/>
-      <c r="G14" s="15" t="s">
+      <c r="F14" s="17" t="n"/>
+      <c r="G14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="25" t="n">
+      <c r="H14" s="23" t="n">
         <v>3.3</v>
       </c>
-      <c r="I14" s="26" t="n"/>
+      <c r="I14" s="24" t="n"/>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="15">
-      <c r="A15" s="24" t="n">
+      <c r="A15" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="B15" s="19" t="n"/>
-      <c r="C15" s="15" t="s">
+      <c r="B15" s="17" t="n"/>
+      <c r="C15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="25" t="n">
+      <c r="D15" s="23" t="n">
         <v>4.62</v>
       </c>
-      <c r="E15" s="24" t="n">
+      <c r="E15" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="F15" s="19" t="n"/>
-      <c r="G15" s="15" t="s">
+      <c r="F15" s="17" t="n"/>
+      <c r="G15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="25" t="n">
+      <c r="H15" s="23" t="n">
         <v>3.85</v>
       </c>
-      <c r="I15" s="26" t="n">
+      <c r="I15" s="24" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">H15*1.2</f>
         <v>4.62</v>
       </c>
     </row>
     <row customHeight="true" ht="43.25" outlineLevel="0" r="16">
-      <c r="A16" s="29" t="n">
+      <c r="A16" s="26" t="n">
         <v>7</v>
       </c>
-      <c r="B16" s="30" t="n"/>
-      <c r="C16" s="28" t="s">
+      <c r="B16" s="27" t="n"/>
+      <c r="C16" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="31" t="n">
+      <c r="D16" s="28" t="n">
         <v>0.08</v>
       </c>
-      <c r="E16" s="29" t="n">
+      <c r="E16" s="26" t="n">
         <v>7</v>
       </c>
-      <c r="F16" s="28" t="n"/>
-      <c r="G16" s="15" t="s">
+      <c r="F16" s="25" t="n"/>
+      <c r="G16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="31" t="n">
+      <c r="H16" s="28" t="n">
         <v>0.07</v>
       </c>
-      <c r="I16" s="26" t="n"/>
+      <c r="I16" s="24" t="n"/>
     </row>
     <row customHeight="true" ht="22.75" outlineLevel="0" r="17">
-      <c r="A17" s="24" t="n">
+      <c r="A17" s="22" t="n">
         <v>8</v>
       </c>
-      <c r="B17" s="30" t="n"/>
-      <c r="C17" s="15" t="s">
+      <c r="B17" s="27" t="n"/>
+      <c r="C17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="32" t="n">
+      <c r="D17" s="29" t="n">
         <v>0.036</v>
       </c>
-      <c r="E17" s="24" t="n">
+      <c r="E17" s="22" t="n">
         <v>8</v>
       </c>
-      <c r="F17" s="19" t="n"/>
-      <c r="G17" s="15" t="s">
+      <c r="F17" s="17" t="n"/>
+      <c r="G17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="32" t="n">
+      <c r="H17" s="29" t="n">
         <v>0.03</v>
       </c>
-      <c r="I17" s="33" t="n"/>
+      <c r="I17" s="30" t="n"/>
     </row>
     <row customHeight="true" ht="36.3837280273438" outlineLevel="0" r="18">
-      <c r="A18" s="29" t="n">
+      <c r="A18" s="26" t="n">
         <v>9</v>
       </c>
-      <c r="B18" s="30" t="n"/>
-      <c r="C18" s="34" t="s">
+      <c r="B18" s="27" t="n"/>
+      <c r="C18" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="35" t="s"/>
-      <c r="E18" s="29" t="n">
+      <c r="D18" s="32" t="s"/>
+      <c r="E18" s="26" t="n">
         <v>9</v>
       </c>
-      <c r="F18" s="28" t="n"/>
-      <c r="G18" s="15" t="s">
+      <c r="F18" s="25" t="n"/>
+      <c r="G18" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="36" t="s"/>
-      <c r="I18" s="26" t="n"/>
-      <c r="J18" s="37" t="n"/>
+      <c r="H18" s="33" t="s"/>
+      <c r="I18" s="24" t="n"/>
+      <c r="J18" s="34" t="n"/>
     </row>
     <row customHeight="true" ht="49.1162414550781" outlineLevel="0" r="19">
-      <c r="A19" s="29" t="n">
+      <c r="A19" s="26" t="n">
         <v>10</v>
       </c>
-      <c r="B19" s="30" t="n"/>
-      <c r="C19" s="15" t="s">
+      <c r="B19" s="27" t="n"/>
+      <c r="C19" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="38" t="s"/>
-      <c r="E19" s="29" t="n">
+      <c r="D19" s="35" t="s"/>
+      <c r="E19" s="26" t="n">
         <v>10</v>
       </c>
-      <c r="F19" s="30" t="n"/>
-      <c r="G19" s="15" t="s">
+      <c r="F19" s="27" t="n"/>
+      <c r="G19" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="39" t="s"/>
-      <c r="I19" s="26" t="n"/>
+      <c r="H19" s="36" t="s"/>
+      <c r="I19" s="24" t="n"/>
     </row>
     <row customHeight="true" ht="13.25" outlineLevel="0" r="20">
-      <c r="A20" s="19" t="n"/>
-      <c r="B20" s="20" t="n">
+      <c r="A20" s="17" t="n"/>
+      <c r="B20" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="40" t="s"/>
-      <c r="E20" s="22" t="n"/>
-      <c r="F20" s="23" t="n">
+      <c r="D20" s="37" t="s"/>
+      <c r="E20" s="20" t="n"/>
+      <c r="F20" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="41" t="s"/>
-      <c r="I20" s="26" t="n"/>
+      <c r="H20" s="38" t="s"/>
+      <c r="I20" s="24" t="n"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="21">
-      <c r="A21" s="24" t="n">
+      <c r="A21" s="22" t="n">
         <v>11</v>
       </c>
-      <c r="B21" s="19" t="n"/>
-      <c r="C21" s="15" t="s">
+      <c r="B21" s="17" t="n"/>
+      <c r="C21" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="25" t="n">
+      <c r="D21" s="23" t="n">
         <v>2.46</v>
       </c>
-      <c r="E21" s="24" t="n">
+      <c r="E21" s="22" t="n">
         <v>11</v>
       </c>
-      <c r="F21" s="19" t="n"/>
-      <c r="G21" s="15" t="s">
+      <c r="F21" s="17" t="n"/>
+      <c r="G21" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="25" t="n">
+      <c r="H21" s="23" t="n">
         <v>2.05</v>
       </c>
-      <c r="I21" s="26" t="n"/>
+      <c r="I21" s="24" t="n"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="22">
-      <c r="A22" s="24" t="n">
+      <c r="A22" s="22" t="n">
         <v>12</v>
       </c>
-      <c r="B22" s="19" t="n"/>
-      <c r="C22" s="15" t="s">
+      <c r="B22" s="17" t="n"/>
+      <c r="C22" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="25" t="n">
+      <c r="D22" s="23" t="n">
         <v>0.48</v>
       </c>
-      <c r="E22" s="24" t="n">
+      <c r="E22" s="22" t="n">
         <v>12</v>
       </c>
-      <c r="F22" s="19" t="n"/>
-      <c r="G22" s="15" t="s">
+      <c r="F22" s="17" t="n"/>
+      <c r="G22" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H22" s="25" t="n">
+      <c r="H22" s="23" t="n">
         <v>0.4</v>
       </c>
-      <c r="I22" s="26" t="n"/>
+      <c r="I22" s="24" t="n"/>
     </row>
     <row customHeight="true" ht="36.75" outlineLevel="0" r="23">
-      <c r="A23" s="29" t="n">
+      <c r="A23" s="26" t="n">
         <v>13</v>
       </c>
-      <c r="B23" s="30" t="n"/>
-      <c r="C23" s="15" t="s">
+      <c r="B23" s="27" t="n"/>
+      <c r="C23" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="42" t="s"/>
-      <c r="E23" s="29" t="n">
+      <c r="D23" s="39" t="s"/>
+      <c r="E23" s="26" t="n">
         <v>13</v>
       </c>
-      <c r="F23" s="30" t="n"/>
-      <c r="G23" s="15" t="s">
+      <c r="F23" s="27" t="n"/>
+      <c r="G23" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="H23" s="43" t="s"/>
+      <c r="H23" s="40" t="s"/>
     </row>
     <row customHeight="true" ht="38" outlineLevel="0" r="24">
-      <c r="A24" s="29" t="n">
+      <c r="A24" s="26" t="n">
         <v>14</v>
       </c>
-      <c r="B24" s="30" t="n"/>
-      <c r="C24" s="15" t="s">
+      <c r="B24" s="27" t="n"/>
+      <c r="C24" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="44" t="s"/>
-      <c r="E24" s="29" t="n">
+      <c r="D24" s="41" t="s"/>
+      <c r="E24" s="26" t="n">
         <v>14</v>
       </c>
-      <c r="F24" s="28" t="n"/>
-      <c r="G24" s="15" t="s">
+      <c r="F24" s="25" t="n"/>
+      <c r="G24" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H24" s="45" t="s"/>
+      <c r="H24" s="42" t="s"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="25">
-      <c r="A25" s="19" t="n"/>
-      <c r="B25" s="20" t="n">
+      <c r="A25" s="17" t="n"/>
+      <c r="B25" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="46" t="s"/>
-      <c r="E25" s="22" t="n"/>
-      <c r="F25" s="23" t="n">
+      <c r="D25" s="43" t="s"/>
+      <c r="E25" s="20" t="n"/>
+      <c r="F25" s="21" t="n">
         <v>5</v>
       </c>
-      <c r="G25" s="21" t="s">
+      <c r="G25" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="H25" s="19" t="n"/>
-      <c r="K25" s="26" t="n"/>
+      <c r="H25" s="17" t="n"/>
+      <c r="K25" s="24" t="n"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="26">
-      <c r="A26" s="47" t="n">
+      <c r="A26" s="44" t="n">
         <v>15</v>
       </c>
-      <c r="B26" s="19" t="n"/>
-      <c r="C26" s="15" t="s">
+      <c r="B26" s="17" t="n"/>
+      <c r="C26" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="48" t="s"/>
-      <c r="E26" s="22" t="n"/>
-      <c r="F26" s="19" t="n"/>
-      <c r="G26" s="15" t="s">
+      <c r="D26" s="45" t="s"/>
+      <c r="E26" s="20" t="n"/>
+      <c r="F26" s="17" t="n"/>
+      <c r="G26" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="49" t="s"/>
+      <c r="H26" s="46" t="s"/>
     </row>
     <row customHeight="true" ht="14" outlineLevel="0" r="27">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="19" t="n"/>
-      <c r="C27" s="15" t="s">
+      <c r="B27" s="17" t="n"/>
+      <c r="C27" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="51" t="n">
+      <c r="D27" s="48" t="n">
         <v>5</v>
       </c>
-      <c r="E27" s="24" t="n">
+      <c r="E27" s="22" t="n">
         <v>15</v>
       </c>
-      <c r="F27" s="19" t="n"/>
-      <c r="G27" s="15" t="s">
+      <c r="F27" s="17" t="n"/>
+      <c r="G27" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="51" t="n">
+      <c r="H27" s="48" t="n">
         <v>5</v>
       </c>
-      <c r="I27" s="52" t="n"/>
-      <c r="J27" s="52" t="n"/>
-      <c r="K27" s="52" t="n"/>
+      <c r="I27" s="49" t="n"/>
+      <c r="J27" s="49" t="n"/>
+      <c r="K27" s="49" t="n"/>
     </row>
     <row customHeight="true" ht="28.75" outlineLevel="0" r="28">
-      <c r="A28" s="47" t="n">
+      <c r="A28" s="44" t="n">
         <v>16</v>
       </c>
-      <c r="B28" s="30" t="n"/>
-      <c r="C28" s="15" t="s">
+      <c r="B28" s="27" t="n"/>
+      <c r="C28" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="53" t="s"/>
-      <c r="E28" s="24" t="n">
+      <c r="D28" s="50" t="s"/>
+      <c r="E28" s="22" t="n">
         <v>16</v>
       </c>
-      <c r="F28" s="19" t="n"/>
-      <c r="G28" s="15" t="s">
+      <c r="F28" s="17" t="n"/>
+      <c r="G28" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="51" t="n">
+      <c r="H28" s="48" t="n">
         <v>0.9</v>
       </c>
-      <c r="I28" s="26" t="n"/>
-      <c r="J28" s="37" t="n"/>
-      <c r="K28" s="54" t="n"/>
-      <c r="L28" s="37" t="n"/>
-      <c r="M28" s="37" t="n"/>
-      <c r="N28" s="37" t="n"/>
-      <c r="O28" s="37" t="n"/>
+      <c r="I28" s="24" t="n"/>
+      <c r="J28" s="34" t="n"/>
+      <c r="K28" s="51" t="n"/>
+      <c r="L28" s="34" t="n"/>
+      <c r="M28" s="34" t="n"/>
+      <c r="N28" s="34" t="n"/>
+      <c r="O28" s="34" t="n"/>
     </row>
     <row customHeight="true" ht="45.4999389648438" outlineLevel="0" r="29">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="19" t="n"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="17" t="n"/>
+      <c r="C29" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="51" t="n">
+      <c r="D29" s="48" t="n">
         <v>5</v>
       </c>
-      <c r="E29" s="24" t="n">
+      <c r="E29" s="22" t="n">
         <v>17</v>
       </c>
-      <c r="F29" s="30" t="n"/>
-      <c r="G29" s="28" t="s">
+      <c r="F29" s="27" t="n"/>
+      <c r="G29" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="H29" s="55" t="s"/>
-      <c r="I29" s="26" t="n"/>
-      <c r="J29" s="37" t="n"/>
-      <c r="K29" s="52" t="n"/>
-      <c r="L29" s="37" t="n"/>
-      <c r="M29" s="37" t="n"/>
-      <c r="N29" s="37" t="n"/>
+      <c r="H29" s="52" t="s"/>
+      <c r="I29" s="24" t="n"/>
+      <c r="J29" s="34" t="n"/>
+      <c r="K29" s="49" t="n"/>
+      <c r="L29" s="34" t="n"/>
+      <c r="M29" s="34" t="n"/>
+      <c r="N29" s="34" t="n"/>
     </row>
     <row customHeight="true" hidden="false" ht="45" outlineLevel="0" r="30">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="19" t="n"/>
-      <c r="C30" s="15" t="s">
+      <c r="B30" s="17" t="n"/>
+      <c r="C30" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="51" t="n">
+      <c r="D30" s="48" t="n">
         <v>0.9</v>
       </c>
-      <c r="E30" s="29" t="n">
+      <c r="E30" s="26" t="n">
         <v>18</v>
       </c>
-      <c r="F30" s="30" t="n"/>
-      <c r="G30" s="15" t="s">
+      <c r="F30" s="27" t="n"/>
+      <c r="G30" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H30" s="56" t="s"/>
-      <c r="I30" s="26" t="n"/>
+      <c r="H30" s="53" t="s"/>
+      <c r="I30" s="24" t="n"/>
     </row>
     <row customHeight="true" ht="38.75" outlineLevel="0" r="31">
-      <c r="A31" s="57" t="s">
+      <c r="A31" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="28" t="n"/>
-      <c r="C31" s="15" t="s">
+      <c r="B31" s="25" t="n"/>
+      <c r="C31" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="58" t="s"/>
-      <c r="E31" s="24" t="n">
+      <c r="D31" s="55" t="s"/>
+      <c r="E31" s="22" t="n">
         <v>19</v>
       </c>
-      <c r="F31" s="30" t="n"/>
-      <c r="G31" s="28" t="s">
+      <c r="F31" s="27" t="n"/>
+      <c r="G31" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="H31" s="59" t="n">
+      <c r="H31" s="56" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row customHeight="true" ht="36.4999389648438" outlineLevel="0" r="32">
-      <c r="A32" s="57" t="s">
+      <c r="A32" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="30" t="n"/>
-      <c r="C32" s="28" t="s">
+      <c r="B32" s="27" t="n"/>
+      <c r="C32" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="60" t="s"/>
-      <c r="E32" s="29" t="n">
+      <c r="D32" s="57" t="s"/>
+      <c r="E32" s="26" t="n">
         <v>20</v>
       </c>
-      <c r="F32" s="30" t="n"/>
-      <c r="G32" s="15" t="s">
+      <c r="F32" s="27" t="n"/>
+      <c r="G32" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H32" s="61" t="n">
+      <c r="H32" s="58" t="n">
         <v>0.05</v>
       </c>
     </row>
     <row customHeight="true" ht="36.4999389648438" outlineLevel="0" r="33">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="24" t="n">
+      <c r="E33" s="22" t="n">
         <v>21</v>
       </c>
-      <c r="F33" s="30" t="n"/>
-      <c r="G33" s="28" t="s">
+      <c r="F33" s="27" t="n"/>
+      <c r="G33" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="H33" s="62" t="s"/>
+      <c r="H33" s="59" t="s"/>
     </row>
     <row outlineLevel="0" r="34">
-      <c r="A34" s="29" t="n">
+      <c r="A34" s="26" t="n">
         <v>19</v>
       </c>
-      <c r="B34" s="30" t="n"/>
-      <c r="C34" s="28" t="s">
+      <c r="B34" s="27" t="n"/>
+      <c r="C34" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="63" t="s"/>
-      <c r="E34" s="29" t="n">
+      <c r="D34" s="60" t="s"/>
+      <c r="E34" s="26" t="n">
         <v>22</v>
       </c>
-      <c r="F34" s="30" t="n"/>
-      <c r="G34" s="64" t="s">
+      <c r="F34" s="27" t="n"/>
+      <c r="G34" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="H34" s="65" t="s">
+      <c r="H34" s="62" t="s">
         <v>58</v>
       </c>
     </row>
     <row outlineLevel="0" r="35">
-      <c r="A35" s="24" t="n">
+      <c r="A35" s="22" t="n">
         <v>20</v>
       </c>
-      <c r="B35" s="30" t="n"/>
-      <c r="C35" s="15" t="s">
+      <c r="B35" s="27" t="n"/>
+      <c r="C35" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="32" t="n">
+      <c r="D35" s="29" t="n">
         <v>0.03</v>
       </c>
-      <c r="E35" s="29" t="n">
+      <c r="E35" s="26" t="n">
         <v>23</v>
       </c>
-      <c r="F35" s="30" t="n"/>
-      <c r="G35" s="28" t="s">
+      <c r="F35" s="27" t="n"/>
+      <c r="G35" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="H35" s="66" t="s"/>
+      <c r="H35" s="63" t="s"/>
     </row>
     <row outlineLevel="0" r="36">
-      <c r="A36" s="24" t="n">
+      <c r="A36" s="22" t="n">
         <v>21</v>
       </c>
-      <c r="B36" s="30" t="n"/>
-      <c r="C36" s="67" t="s">
+      <c r="B36" s="27" t="n"/>
+      <c r="C36" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="68" t="s"/>
-      <c r="E36" s="24" t="n">
+      <c r="D36" s="64" t="s"/>
+      <c r="E36" s="22" t="n">
         <v>24</v>
       </c>
-      <c r="F36" s="19" t="n"/>
-      <c r="G36" s="15" t="s">
+      <c r="F36" s="17" t="n"/>
+      <c r="G36" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H36" s="32" t="n">
+      <c r="H36" s="29" t="n">
         <v>0.03</v>
       </c>
     </row>
     <row outlineLevel="0" r="37">
-      <c r="A37" s="24" t="n">
+      <c r="A37" s="22" t="n">
         <v>22</v>
       </c>
-      <c r="B37" s="30" t="n"/>
-      <c r="C37" s="67" t="s">
+      <c r="B37" s="27" t="n"/>
+      <c r="C37" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="69" t="s"/>
-      <c r="E37" s="24" t="n">
+      <c r="D37" s="65" t="s"/>
+      <c r="E37" s="22" t="n">
         <v>25</v>
       </c>
-      <c r="F37" s="30" t="n"/>
-      <c r="G37" s="28" t="s">
+      <c r="F37" s="27" t="n"/>
+      <c r="G37" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="H37" s="70" t="s"/>
+      <c r="H37" s="66" t="s"/>
     </row>
     <row outlineLevel="0" r="38">
-      <c r="A38" s="30" t="n"/>
-      <c r="B38" s="20" t="n">
+      <c r="A38" s="27" t="n"/>
+      <c r="B38" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="C38" s="71" t="s">
+      <c r="C38" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="72" t="s"/>
-      <c r="E38" s="18" t="s">
+      <c r="D38" s="68" t="s"/>
+      <c r="E38" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="F38" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G38" s="18" t="s">
+      <c r="G38" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H38" s="18" t="s">
+      <c r="H38" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row outlineLevel="0" r="39">
-      <c r="A39" s="24" t="n">
+      <c r="A39" s="22" t="n">
         <v>23</v>
       </c>
-      <c r="B39" s="30" t="n"/>
-      <c r="C39" s="15" t="s">
+      <c r="B39" s="27" t="n"/>
+      <c r="C39" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="73" t="s"/>
-      <c r="E39" s="24" t="n"/>
-      <c r="F39" s="74" t="n">
+      <c r="D39" s="69" t="s"/>
+      <c r="E39" s="22" t="n"/>
+      <c r="F39" s="70" t="n">
         <v>6</v>
       </c>
-      <c r="G39" s="75" t="s">
+      <c r="G39" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="H39" s="76" t="n"/>
+      <c r="H39" s="71" t="n"/>
     </row>
     <row outlineLevel="0" r="40">
-      <c r="A40" s="50" t="s">
+      <c r="A40" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="30" t="n"/>
-      <c r="C40" s="15" t="s">
+      <c r="B40" s="27" t="n"/>
+      <c r="C40" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="77" t="n">
+      <c r="D40" s="72" t="n">
         <v>4.5</v>
       </c>
-      <c r="E40" s="22" t="n"/>
-      <c r="F40" s="78" t="n">
+      <c r="E40" s="20" t="n"/>
+      <c r="F40" s="73" t="n">
         <v>26</v>
       </c>
-      <c r="G40" s="28" t="s">
+      <c r="G40" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="H40" s="76" t="n">
+      <c r="H40" s="71" t="n">
         <v>5</v>
       </c>
     </row>
     <row outlineLevel="0" r="41">
-      <c r="A41" s="50" t="s">
+      <c r="A41" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="30" t="n"/>
-      <c r="C41" s="15" t="s">
+      <c r="B41" s="27" t="n"/>
+      <c r="C41" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="51" t="n">
+      <c r="D41" s="48" t="n">
         <v>5.5</v>
       </c>
-      <c r="E41" s="24" t="n">
+      <c r="E41" s="22" t="n">
         <v>26</v>
       </c>
-      <c r="F41" s="78" t="n">
+      <c r="F41" s="73" t="n">
         <v>27</v>
       </c>
-      <c r="G41" s="28" t="s">
+      <c r="G41" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="H41" s="79" t="n">
+      <c r="H41" s="74" t="n">
         <v>0.01</v>
       </c>
     </row>
     <row outlineLevel="0" r="42">
-      <c r="A42" s="50" t="s">
+      <c r="A42" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="B42" s="30" t="n"/>
-      <c r="C42" s="15" t="s">
+      <c r="B42" s="27" t="n"/>
+      <c r="C42" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D42" s="51" t="n">
+      <c r="D42" s="48" t="n">
         <v>6.5</v>
       </c>
-      <c r="E42" s="24" t="n">
+      <c r="E42" s="22" t="n">
         <v>27</v>
       </c>
-      <c r="F42" s="78" t="n">
+      <c r="F42" s="73" t="n">
         <v>28</v>
       </c>
-      <c r="G42" s="80" t="s">
+      <c r="G42" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="H42" s="81" t="s"/>
+      <c r="H42" s="76" t="s"/>
     </row>
     <row outlineLevel="0" r="43">
-      <c r="A43" s="47" t="s">
+      <c r="A43" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B43" s="30" t="n"/>
-      <c r="C43" s="28" t="s">
+      <c r="B43" s="27" t="n"/>
+      <c r="C43" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D43" s="82" t="s"/>
-      <c r="E43" s="24" t="n">
+      <c r="D43" s="77" t="s"/>
+      <c r="E43" s="22" t="n">
         <v>28</v>
       </c>
-      <c r="F43" s="23" t="n">
+      <c r="F43" s="21" t="n">
         <v>7</v>
       </c>
-      <c r="G43" s="83" t="s">
+      <c r="G43" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="H43" s="84" t="s"/>
+      <c r="H43" s="79" t="s"/>
     </row>
     <row outlineLevel="0" r="44">
-      <c r="A44" s="50" t="s">
+      <c r="A44" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="B44" s="30" t="n"/>
-      <c r="C44" s="15" t="s">
+      <c r="B44" s="27" t="n"/>
+      <c r="C44" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="51" t="n">
+      <c r="D44" s="48" t="n">
         <v>4.5</v>
       </c>
-      <c r="E44" s="85" t="n"/>
-      <c r="F44" s="19" t="n"/>
-      <c r="G44" s="83" t="s">
+      <c r="E44" s="80" t="n"/>
+      <c r="F44" s="17" t="n"/>
+      <c r="G44" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="H44" s="86" t="s"/>
+      <c r="H44" s="81" t="s"/>
     </row>
     <row outlineLevel="0" r="45">
-      <c r="A45" s="50" t="s">
+      <c r="A45" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B45" s="30" t="n"/>
-      <c r="C45" s="15" t="s">
+      <c r="B45" s="27" t="n"/>
+      <c r="C45" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="25" t="n">
+      <c r="D45" s="23" t="n">
         <v>0.9</v>
       </c>
-      <c r="E45" s="24" t="n">
+      <c r="E45" s="22" t="n">
         <v>29</v>
       </c>
-      <c r="F45" s="22" t="n">
+      <c r="F45" s="20" t="n">
         <v>29</v>
       </c>
-      <c r="G45" s="15" t="s">
+      <c r="G45" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="H45" s="25" t="n">
+      <c r="H45" s="23" t="n">
         <v>2.75</v>
       </c>
     </row>
     <row outlineLevel="0" r="46">
-      <c r="A46" s="57" t="s">
+      <c r="A46" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="B46" s="28" t="n"/>
-      <c r="C46" s="87" t="s">
+      <c r="B46" s="25" t="n"/>
+      <c r="C46" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="D46" s="88" t="s"/>
-      <c r="E46" s="24" t="n">
+      <c r="D46" s="83" t="s"/>
+      <c r="E46" s="22" t="n">
         <v>30</v>
       </c>
-      <c r="F46" s="22" t="n">
+      <c r="F46" s="20" t="n">
         <v>30</v>
       </c>
-      <c r="G46" s="15" t="s">
+      <c r="G46" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="H46" s="25" t="n">
+      <c r="H46" s="23" t="n">
         <v>3.65</v>
       </c>
     </row>
     <row outlineLevel="0" r="47">
-      <c r="A47" s="57" t="s">
+      <c r="A47" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B47" s="28" t="n"/>
-      <c r="C47" s="87" t="s">
+      <c r="B47" s="25" t="n"/>
+      <c r="C47" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="D47" s="89" t="s"/>
-      <c r="E47" s="24" t="n">
+      <c r="D47" s="84" t="s"/>
+      <c r="E47" s="22" t="n">
         <v>31</v>
       </c>
-      <c r="F47" s="22" t="n">
+      <c r="F47" s="20" t="n">
         <v>31</v>
       </c>
-      <c r="G47" s="15" t="s">
+      <c r="G47" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H47" s="25" t="n">
+      <c r="H47" s="23" t="n">
         <v>4.5</v>
       </c>
     </row>
     <row outlineLevel="0" r="48">
-      <c r="A48" s="57" t="s">
+      <c r="A48" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="B48" s="28" t="n"/>
-      <c r="C48" s="87" t="s">
+      <c r="B48" s="25" t="n"/>
+      <c r="C48" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="D48" s="90" t="s"/>
-      <c r="E48" s="24" t="n"/>
-      <c r="F48" s="22" t="n"/>
-      <c r="G48" s="21" t="s">
+      <c r="D48" s="85" t="s"/>
+      <c r="E48" s="22" t="n"/>
+      <c r="F48" s="20" t="n"/>
+      <c r="G48" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H48" s="91" t="s"/>
+      <c r="H48" s="86" t="s"/>
     </row>
     <row outlineLevel="0" r="49">
-      <c r="A49" s="24" t="n">
+      <c r="A49" s="22" t="n">
         <v>28</v>
       </c>
-      <c r="B49" s="30" t="n"/>
-      <c r="C49" s="28" t="s">
+      <c r="B49" s="27" t="n"/>
+      <c r="C49" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="D49" s="32" t="n">
+      <c r="D49" s="29" t="n">
         <v>0.01</v>
       </c>
-      <c r="E49" s="24" t="n">
+      <c r="E49" s="22" t="n">
         <v>32</v>
       </c>
-      <c r="F49" s="22" t="n">
+      <c r="F49" s="20" t="n">
         <v>32</v>
       </c>
-      <c r="G49" s="15" t="s">
+      <c r="G49" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="H49" s="92" t="n">
+      <c r="H49" s="87" t="n">
         <v>4.95</v>
       </c>
     </row>
     <row outlineLevel="0" r="50">
-      <c r="A50" s="24" t="n">
+      <c r="A50" s="22" t="n">
         <v>29</v>
       </c>
-      <c r="B50" s="30" t="n"/>
-      <c r="C50" s="28" t="s">
+      <c r="B50" s="27" t="n"/>
+      <c r="C50" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D50" s="93" t="s"/>
-      <c r="E50" s="24" t="n">
+      <c r="D50" s="88" t="s"/>
+      <c r="E50" s="22" t="n">
         <v>33</v>
       </c>
-      <c r="F50" s="22" t="n">
+      <c r="F50" s="20" t="n">
         <v>33</v>
       </c>
-      <c r="G50" s="15" t="s">
+      <c r="G50" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="H50" s="92" t="n">
+      <c r="H50" s="87" t="n">
         <v>6.2</v>
       </c>
     </row>
     <row outlineLevel="0" r="51">
-      <c r="A51" s="24" t="n"/>
-      <c r="B51" s="30" t="n">
+      <c r="A51" s="22" t="n"/>
+      <c r="B51" s="27" t="n">
         <v>7</v>
       </c>
-      <c r="C51" s="75" t="s">
+      <c r="C51" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="D51" s="76" t="n"/>
-      <c r="E51" s="24" t="n">
+      <c r="D51" s="71" t="n"/>
+      <c r="E51" s="22" t="n">
         <v>34</v>
       </c>
-      <c r="F51" s="22" t="n">
+      <c r="F51" s="20" t="n">
         <v>34</v>
       </c>
-      <c r="G51" s="15" t="s">
+      <c r="G51" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="H51" s="92" t="n">
+      <c r="H51" s="87" t="n">
         <v>8.9</v>
       </c>
     </row>
     <row outlineLevel="0" r="52">
-      <c r="A52" s="24" t="n">
+      <c r="A52" s="22" t="n">
         <v>30</v>
       </c>
-      <c r="B52" s="30" t="n"/>
-      <c r="C52" s="28" t="s">
+      <c r="B52" s="27" t="n"/>
+      <c r="C52" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D52" s="76" t="n">
+      <c r="D52" s="71" t="n">
         <v>5</v>
       </c>
-      <c r="E52" s="85" t="n"/>
-      <c r="F52" s="30" t="n"/>
-      <c r="G52" s="28" t="s">
+      <c r="E52" s="80" t="n"/>
+      <c r="F52" s="27" t="n"/>
+      <c r="G52" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="H52" s="94" t="s"/>
+      <c r="H52" s="89" t="s"/>
     </row>
     <row outlineLevel="0" r="53">
-      <c r="A53" s="24" t="n">
+      <c r="A53" s="22" t="n">
         <v>31</v>
       </c>
-      <c r="B53" s="30" t="n"/>
-      <c r="C53" s="28" t="s">
+      <c r="B53" s="27" t="n"/>
+      <c r="C53" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D53" s="79" t="n">
+      <c r="D53" s="74" t="n">
         <v>0.01</v>
       </c>
-      <c r="E53" s="24" t="n">
+      <c r="E53" s="22" t="n">
         <v>35</v>
       </c>
-      <c r="F53" s="30" t="n"/>
-      <c r="G53" s="95" t="s">
+      <c r="F53" s="27" t="n"/>
+      <c r="G53" s="90" t="s">
         <v>96</v>
       </c>
-      <c r="H53" s="96" t="s"/>
+      <c r="H53" s="91" t="s"/>
     </row>
     <row outlineLevel="0" r="54">
-      <c r="A54" s="24" t="n">
+      <c r="A54" s="22" t="n">
         <v>32</v>
       </c>
-      <c r="B54" s="30" t="n"/>
-      <c r="C54" s="80" t="s">
+      <c r="B54" s="27" t="n"/>
+      <c r="C54" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="D54" s="97" t="s"/>
-      <c r="E54" s="24" t="n">
+      <c r="D54" s="92" t="s"/>
+      <c r="E54" s="22" t="n">
         <v>36</v>
       </c>
-      <c r="F54" s="30" t="n"/>
-      <c r="G54" s="80" t="s">
+      <c r="F54" s="27" t="n"/>
+      <c r="G54" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="H54" s="98" t="s"/>
+      <c r="H54" s="93" t="s"/>
     </row>
     <row outlineLevel="0" r="55">
-      <c r="A55" s="30" t="n"/>
-      <c r="B55" s="20" t="n">
+      <c r="A55" s="27" t="n"/>
+      <c r="B55" s="18" t="n">
         <v>8</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="D55" s="99" t="s"/>
-      <c r="E55" s="24" t="n">
+      <c r="D55" s="94" t="s"/>
+      <c r="E55" s="22" t="n">
         <v>37</v>
       </c>
-      <c r="F55" s="30" t="n"/>
-      <c r="G55" s="80" t="s">
+      <c r="F55" s="27" t="n"/>
+      <c r="G55" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="H55" s="100" t="s"/>
+      <c r="H55" s="95" t="s"/>
     </row>
     <row outlineLevel="0" r="56">
-      <c r="A56" s="19" t="n"/>
-      <c r="B56" s="19" t="n"/>
-      <c r="C56" s="21" t="s">
+      <c r="A56" s="17" t="n"/>
+      <c r="B56" s="17" t="n"/>
+      <c r="C56" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="101" t="s"/>
-      <c r="E56" s="24" t="n">
+      <c r="D56" s="96" t="s"/>
+      <c r="E56" s="22" t="n">
         <v>38</v>
       </c>
-      <c r="F56" s="23" t="n">
+      <c r="F56" s="21" t="n">
         <v>7</v>
       </c>
-      <c r="G56" s="83" t="s">
+      <c r="G56" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="H56" s="102" t="s"/>
+      <c r="H56" s="97" t="s"/>
     </row>
     <row outlineLevel="0" r="57">
-      <c r="A57" s="24" t="n">
+      <c r="A57" s="22" t="n">
         <v>33</v>
       </c>
-      <c r="B57" s="19" t="n"/>
-      <c r="C57" s="15" t="s">
+      <c r="B57" s="17" t="n"/>
+      <c r="C57" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D57" s="25" t="n">
+      <c r="D57" s="23" t="n">
         <v>3.3</v>
       </c>
-      <c r="E57" s="24" t="n">
+      <c r="E57" s="22" t="n">
         <v>39</v>
       </c>
-      <c r="F57" s="19" t="n"/>
-      <c r="G57" s="15" t="s">
+      <c r="F57" s="17" t="n"/>
+      <c r="G57" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="H57" s="92" t="n">
+      <c r="H57" s="87" t="n">
         <v>4.95</v>
       </c>
     </row>
     <row outlineLevel="0" r="58">
-      <c r="A58" s="24" t="n">
+      <c r="A58" s="22" t="n">
         <v>34</v>
       </c>
-      <c r="B58" s="19" t="n"/>
-      <c r="C58" s="15" t="s">
+      <c r="B58" s="17" t="n"/>
+      <c r="C58" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D58" s="25" t="n">
+      <c r="D58" s="23" t="n">
         <v>4.38</v>
       </c>
-      <c r="E58" s="85" t="n"/>
-      <c r="F58" s="19" t="n"/>
-      <c r="G58" s="15" t="s">
+      <c r="E58" s="80" t="n"/>
+      <c r="F58" s="17" t="n"/>
+      <c r="G58" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="H58" s="92" t="n">
+      <c r="H58" s="87" t="n">
         <v>6.2</v>
       </c>
     </row>
     <row outlineLevel="0" r="59">
-      <c r="A59" s="24" t="n">
+      <c r="A59" s="22" t="n">
         <v>35</v>
       </c>
-      <c r="B59" s="19" t="n"/>
-      <c r="C59" s="15" t="s">
+      <c r="B59" s="17" t="n"/>
+      <c r="C59" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D59" s="25" t="n">
+      <c r="D59" s="23" t="n">
         <v>5.4</v>
       </c>
-      <c r="E59" s="24" t="n">
+      <c r="E59" s="22" t="n">
         <v>40</v>
       </c>
-      <c r="F59" s="19" t="n"/>
-      <c r="G59" s="15" t="s">
+      <c r="F59" s="17" t="n"/>
+      <c r="G59" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="H59" s="92" t="n">
+      <c r="H59" s="87" t="n">
         <v>8.9</v>
       </c>
     </row>
     <row outlineLevel="0" r="60">
-      <c r="A60" s="19" t="n"/>
-      <c r="B60" s="19" t="n"/>
-      <c r="C60" s="21" t="s">
+      <c r="A60" s="17" t="n"/>
+      <c r="B60" s="17" t="n"/>
+      <c r="C60" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="D60" s="103" t="s"/>
-      <c r="E60" s="24" t="n">
+      <c r="D60" s="98" t="s"/>
+      <c r="E60" s="22" t="n">
         <v>41</v>
       </c>
-      <c r="F60" s="30" t="n"/>
-      <c r="G60" s="15" t="s">
+      <c r="F60" s="27" t="n"/>
+      <c r="G60" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H60" s="104" t="n">
+      <c r="H60" s="99" t="n">
         <v>0.03</v>
       </c>
     </row>
     <row outlineLevel="0" r="61">
-      <c r="A61" s="24" t="n">
+      <c r="A61" s="22" t="n">
         <v>36</v>
       </c>
-      <c r="B61" s="19" t="n"/>
-      <c r="C61" s="15" t="s">
+      <c r="B61" s="17" t="n"/>
+      <c r="C61" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D61" s="25" t="n">
+      <c r="D61" s="23" t="n">
         <v>5.94</v>
       </c>
-      <c r="E61" s="24" t="n">
+      <c r="E61" s="22" t="n">
         <v>42</v>
       </c>
-      <c r="F61" s="30" t="n"/>
-      <c r="G61" s="80" t="s">
+      <c r="F61" s="27" t="n"/>
+      <c r="G61" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H61" s="105" t="s"/>
+      <c r="H61" s="100" t="s"/>
     </row>
     <row outlineLevel="0" r="62">
-      <c r="A62" s="24" t="n">
+      <c r="A62" s="22" t="n">
         <v>37</v>
       </c>
-      <c r="B62" s="19" t="n"/>
-      <c r="C62" s="15" t="s">
+      <c r="B62" s="17" t="n"/>
+      <c r="C62" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D62" s="25" t="n">
+      <c r="D62" s="23" t="n">
         <v>7.44</v>
       </c>
-      <c r="E62" s="22" t="n"/>
-      <c r="F62" s="23" t="n">
+      <c r="E62" s="20" t="n"/>
+      <c r="F62" s="21" t="n">
         <v>8</v>
       </c>
-      <c r="G62" s="21" t="s">
+      <c r="G62" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="H62" s="106" t="s"/>
+      <c r="H62" s="101" t="s"/>
     </row>
     <row outlineLevel="0" r="63">
-      <c r="A63" s="24" t="n">
+      <c r="A63" s="22" t="n">
         <v>38</v>
       </c>
-      <c r="B63" s="19" t="n"/>
-      <c r="C63" s="15" t="s">
+      <c r="B63" s="17" t="n"/>
+      <c r="C63" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="D63" s="25" t="n">
+      <c r="D63" s="23" t="n">
         <v>10.68</v>
       </c>
-      <c r="E63" s="24" t="n">
+      <c r="E63" s="22" t="n">
         <v>43</v>
       </c>
-      <c r="F63" s="19" t="n"/>
-      <c r="G63" s="15" t="s">
+      <c r="F63" s="17" t="n"/>
+      <c r="G63" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="H63" s="92" t="n">
+      <c r="H63" s="87" t="n">
         <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="64">
-      <c r="A64" s="30" t="n"/>
-      <c r="B64" s="30" t="n"/>
-      <c r="C64" s="15" t="s">
+      <c r="A64" s="27" t="n"/>
+      <c r="B64" s="27" t="n"/>
+      <c r="C64" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D64" s="107" t="s"/>
-      <c r="E64" s="85" t="n">
+      <c r="D64" s="102" t="s"/>
+      <c r="E64" s="80" t="n">
         <v>44</v>
       </c>
-      <c r="F64" s="19" t="n"/>
-      <c r="G64" s="15" t="s">
+      <c r="F64" s="17" t="n"/>
+      <c r="G64" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="H64" s="92" t="n">
+      <c r="H64" s="87" t="n">
         <v>30</v>
       </c>
     </row>
     <row outlineLevel="0" r="65">
-      <c r="A65" s="29" t="n">
+      <c r="A65" s="26" t="n">
         <v>39</v>
       </c>
-      <c r="B65" s="30" t="n"/>
-      <c r="C65" s="64" t="s">
+      <c r="B65" s="27" t="n"/>
+      <c r="C65" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="D65" s="108" t="s"/>
-      <c r="E65" s="24" t="n">
+      <c r="D65" s="103" t="s"/>
+      <c r="E65" s="22" t="n">
         <v>45</v>
       </c>
-      <c r="F65" s="19" t="n"/>
-      <c r="G65" s="15" t="s">
+      <c r="F65" s="17" t="n"/>
+      <c r="G65" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="H65" s="92" t="n">
+      <c r="H65" s="87" t="n">
         <v>42.5</v>
       </c>
     </row>
     <row outlineLevel="0" r="66">
-      <c r="A66" s="24" t="n">
+      <c r="A66" s="22" t="n">
         <v>40</v>
       </c>
-      <c r="B66" s="30" t="n"/>
-      <c r="C66" s="15" t="s">
+      <c r="B66" s="27" t="n"/>
+      <c r="C66" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D66" s="109" t="s"/>
-      <c r="E66" s="24" t="n"/>
-      <c r="F66" s="23" t="n">
+      <c r="D66" s="104" t="s"/>
+      <c r="E66" s="22" t="n"/>
+      <c r="F66" s="21" t="n">
         <v>9</v>
       </c>
-      <c r="G66" s="21" t="s">
+      <c r="G66" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="H66" s="19" t="n"/>
+      <c r="H66" s="17" t="n"/>
     </row>
     <row outlineLevel="0" r="67">
-      <c r="A67" s="110" t="n">
+      <c r="A67" s="105" t="n">
         <v>41</v>
       </c>
-      <c r="B67" s="111" t="n"/>
-      <c r="C67" s="112" t="s">
+      <c r="B67" s="106" t="n"/>
+      <c r="C67" s="107" t="s">
         <v>109</v>
       </c>
-      <c r="D67" s="113" t="s"/>
-      <c r="E67" s="29" t="n">
+      <c r="D67" s="108" t="s"/>
+      <c r="E67" s="26" t="n">
         <v>46</v>
       </c>
-      <c r="F67" s="30" t="n"/>
-      <c r="G67" s="28" t="s">
+      <c r="F67" s="27" t="n"/>
+      <c r="G67" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="H67" s="104" t="n">
+      <c r="H67" s="99" t="n">
         <v>0.03</v>
       </c>
     </row>
     <row outlineLevel="0" r="68">
-      <c r="A68" s="19" t="n"/>
-      <c r="B68" s="23" t="n">
+      <c r="A68" s="17" t="n"/>
+      <c r="B68" s="21" t="n">
         <v>9</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C68" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D68" s="114" t="s"/>
-      <c r="E68" s="115" t="n">
+      <c r="D68" s="109" t="s"/>
+      <c r="E68" s="110" t="n">
         <v>47</v>
       </c>
-      <c r="F68" s="30" t="n"/>
-      <c r="G68" s="87" t="s">
+      <c r="F68" s="27" t="n"/>
+      <c r="G68" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="H68" s="116" t="s"/>
+      <c r="H68" s="111" t="s"/>
     </row>
     <row outlineLevel="0" r="69">
-      <c r="A69" s="24" t="n">
+      <c r="A69" s="22" t="n">
         <v>42</v>
       </c>
-      <c r="B69" s="19" t="n"/>
-      <c r="C69" s="15" t="s">
+      <c r="B69" s="17" t="n"/>
+      <c r="C69" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="D69" s="25" t="n">
+      <c r="D69" s="23" t="n">
         <v>5.94</v>
       </c>
-      <c r="E69" s="29" t="n">
+      <c r="E69" s="26" t="n">
         <v>48</v>
       </c>
-      <c r="F69" s="28" t="n"/>
-      <c r="G69" s="34" t="s">
+      <c r="F69" s="25" t="n"/>
+      <c r="G69" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="H69" s="117" t="n">
+      <c r="H69" s="112" t="n">
         <v>0.0233</v>
       </c>
     </row>
     <row outlineLevel="0" r="70">
-      <c r="A70" s="24" t="n">
+      <c r="A70" s="22" t="n">
         <v>43</v>
       </c>
-      <c r="B70" s="19" t="n"/>
-      <c r="C70" s="15" t="s">
+      <c r="B70" s="17" t="n"/>
+      <c r="C70" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="D70" s="25" t="n">
+      <c r="D70" s="23" t="n">
         <v>7.44</v>
       </c>
-      <c r="E70" s="29" t="n">
+      <c r="E70" s="26" t="n">
         <v>49</v>
       </c>
-      <c r="F70" s="28" t="n"/>
-      <c r="G70" s="34" t="s">
+      <c r="F70" s="25" t="n"/>
+      <c r="G70" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="H70" s="117" t="n">
+      <c r="H70" s="112" t="n">
         <v>0.0233</v>
       </c>
     </row>
     <row outlineLevel="0" r="71">
-      <c r="A71" s="24" t="n">
+      <c r="A71" s="22" t="n">
         <v>44</v>
       </c>
-      <c r="B71" s="19" t="n"/>
-      <c r="C71" s="15" t="s">
+      <c r="B71" s="17" t="n"/>
+      <c r="C71" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D71" s="25" t="n">
+      <c r="D71" s="23" t="n">
         <v>10.68</v>
       </c>
-      <c r="E71" s="29" t="n">
+      <c r="E71" s="26" t="n">
         <v>50</v>
       </c>
-      <c r="F71" s="28" t="n"/>
-      <c r="G71" s="15" t="s">
+      <c r="F71" s="25" t="n"/>
+      <c r="G71" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="H71" s="118" t="n">
+      <c r="H71" s="113" t="n">
         <v>0.015</v>
       </c>
     </row>
     <row outlineLevel="0" r="72">
-      <c r="A72" s="24" t="n">
+      <c r="A72" s="22" t="n">
         <v>45</v>
       </c>
-      <c r="B72" s="19" t="n"/>
-      <c r="C72" s="15" t="s">
+      <c r="B72" s="17" t="n"/>
+      <c r="C72" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D72" s="32" t="n">
+      <c r="D72" s="29" t="n">
         <v>0.03</v>
       </c>
-      <c r="E72" s="24" t="n">
+      <c r="E72" s="22" t="n">
         <v>51</v>
       </c>
-      <c r="F72" s="28" t="n"/>
-      <c r="G72" s="95" t="s">
+      <c r="F72" s="25" t="n"/>
+      <c r="G72" s="90" t="s">
         <v>118</v>
       </c>
-      <c r="H72" s="119" t="s"/>
+      <c r="H72" s="114" t="s"/>
     </row>
     <row outlineLevel="0" r="73">
-      <c r="A73" s="29" t="n">
+      <c r="A73" s="26" t="n">
         <v>46</v>
       </c>
-      <c r="B73" s="30" t="n"/>
-      <c r="C73" s="15" t="s">
+      <c r="B73" s="27" t="n"/>
+      <c r="C73" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="D73" s="120" t="s"/>
-      <c r="E73" s="22" t="n">
+      <c r="D73" s="115" t="s"/>
+      <c r="E73" s="20" t="n">
         <v>52</v>
       </c>
-      <c r="F73" s="28" t="n"/>
-      <c r="G73" s="87" t="s">
+      <c r="F73" s="25" t="n"/>
+      <c r="G73" s="82" t="s">
         <v>120</v>
       </c>
-      <c r="H73" s="121" t="n">
+      <c r="H73" s="116" t="n">
         <v>0.0233</v>
       </c>
     </row>
     <row outlineLevel="0" r="74">
-      <c r="A74" s="19" t="n"/>
-      <c r="B74" s="23" t="n">
+      <c r="A74" s="17" t="n"/>
+      <c r="B74" s="21" t="n">
         <v>10</v>
       </c>
-      <c r="C74" s="21" t="s">
+      <c r="C74" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="D74" s="19" t="n"/>
-      <c r="E74" s="24" t="n">
+      <c r="D74" s="17" t="n"/>
+      <c r="E74" s="22" t="n">
         <v>53</v>
       </c>
-      <c r="F74" s="30" t="n"/>
-      <c r="G74" s="34" t="s">
+      <c r="F74" s="27" t="n"/>
+      <c r="G74" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="H74" s="61" t="n">
+      <c r="H74" s="58" t="n">
         <v>0.015</v>
       </c>
     </row>
     <row outlineLevel="0" r="75">
-      <c r="A75" s="29" t="n">
+      <c r="A75" s="26" t="n">
         <v>47</v>
       </c>
-      <c r="B75" s="30" t="n"/>
-      <c r="C75" s="15" t="s">
+      <c r="B75" s="27" t="n"/>
+      <c r="C75" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="D75" s="122" t="n">
+      <c r="D75" s="117" t="n">
         <v>4.4</v>
       </c>
-      <c r="E75" s="22" t="n">
+      <c r="E75" s="20" t="n">
         <v>54</v>
       </c>
-      <c r="F75" s="28" t="n"/>
-      <c r="G75" s="87" t="s">
+      <c r="F75" s="25" t="n"/>
+      <c r="G75" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="H75" s="61" t="n">
+      <c r="H75" s="58" t="n">
         <v>0.005</v>
       </c>
     </row>
     <row outlineLevel="0" r="76">
-      <c r="A76" s="29" t="n">
+      <c r="A76" s="26" t="n">
         <v>48</v>
       </c>
-      <c r="B76" s="28" t="n"/>
-      <c r="C76" s="15" t="s">
+      <c r="B76" s="25" t="n"/>
+      <c r="C76" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="D76" s="123" t="n">
+      <c r="D76" s="118" t="n">
         <v>7.25</v>
       </c>
-      <c r="E76" s="29" t="n">
+      <c r="E76" s="26" t="n">
         <v>55</v>
       </c>
-      <c r="F76" s="30" t="n"/>
-      <c r="G76" s="28" t="s">
+      <c r="F76" s="27" t="n"/>
+      <c r="G76" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="H76" s="124" t="n">
+      <c r="H76" s="119" t="n">
         <v>0.01</v>
       </c>
     </row>
     <row outlineLevel="0" r="77">
-      <c r="A77" s="29" t="n"/>
-      <c r="B77" s="75" t="n">
+      <c r="A77" s="26" t="n"/>
+      <c r="B77" s="67" t="n">
         <v>11</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="C77" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="D77" s="125" t="s">
+      <c r="D77" s="120" t="s">
         <v>128</v>
       </c>
-      <c r="E77" s="29" t="n">
+      <c r="E77" s="26" t="n">
         <v>56</v>
       </c>
-      <c r="F77" s="23" t="n">
+      <c r="F77" s="21" t="n">
         <v>10</v>
       </c>
-      <c r="G77" s="21" t="s">
+      <c r="G77" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="H77" s="19" t="n"/>
+      <c r="H77" s="17" t="n"/>
     </row>
     <row outlineLevel="0" r="78">
-      <c r="A78" s="29" t="n">
+      <c r="A78" s="26" t="n">
         <v>49</v>
       </c>
-      <c r="B78" s="28" t="n"/>
-      <c r="C78" s="15" t="s">
+      <c r="B78" s="25" t="n"/>
+      <c r="C78" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D78" s="31" t="n"/>
-      <c r="E78" s="24" t="n">
+      <c r="D78" s="28" t="n"/>
+      <c r="E78" s="22" t="n">
         <v>54</v>
       </c>
-      <c r="F78" s="28" t="n"/>
-      <c r="G78" s="34" t="s">
+      <c r="F78" s="25" t="n"/>
+      <c r="G78" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="H78" s="126" t="s"/>
+      <c r="H78" s="121" t="s"/>
     </row>
     <row outlineLevel="0" r="79">
-      <c r="A79" s="22" t="n">
+      <c r="A79" s="20" t="n">
         <v>50</v>
       </c>
-      <c r="B79" s="23" t="n"/>
-      <c r="C79" s="127" t="s">
+      <c r="B79" s="21" t="n"/>
+      <c r="C79" s="122" t="s">
         <v>132</v>
       </c>
-      <c r="D79" s="128" t="s"/>
-      <c r="E79" s="22" t="n"/>
-      <c r="F79" s="23" t="n">
+      <c r="D79" s="123" t="s"/>
+      <c r="E79" s="20" t="n"/>
+      <c r="F79" s="21" t="n">
         <v>11</v>
       </c>
-      <c r="G79" s="21" t="s">
+      <c r="G79" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="H79" s="19" t="n"/>
+      <c r="H79" s="17" t="n"/>
     </row>
     <row outlineLevel="0" r="80">
-      <c r="A80" s="19" t="n"/>
-      <c r="B80" s="23" t="n">
+      <c r="A80" s="17" t="n"/>
+      <c r="B80" s="21" t="n">
         <v>12</v>
       </c>
-      <c r="C80" s="21" t="s">
+      <c r="C80" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="D80" s="19" t="n"/>
-      <c r="E80" s="24" t="n">
+      <c r="D80" s="17" t="n"/>
+      <c r="E80" s="22" t="n">
         <v>55</v>
       </c>
-      <c r="F80" s="30" t="n"/>
-      <c r="G80" s="34" t="s">
+      <c r="F80" s="27" t="n"/>
+      <c r="G80" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="H80" s="129" t="s"/>
-      <c r="I80" s="37" t="n"/>
+      <c r="H80" s="124" t="s"/>
+      <c r="I80" s="34" t="n"/>
     </row>
     <row outlineLevel="0" r="81">
-      <c r="A81" s="29" t="n">
+      <c r="A81" s="26" t="n">
         <v>51</v>
       </c>
-      <c r="B81" s="30" t="n"/>
-      <c r="C81" s="15" t="s">
+      <c r="B81" s="27" t="n"/>
+      <c r="C81" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="D81" s="61" t="n">
+      <c r="D81" s="58" t="n">
         <v>0.03</v>
       </c>
-      <c r="E81" s="24" t="n">
+      <c r="E81" s="22" t="n">
         <v>56</v>
       </c>
-      <c r="F81" s="30" t="n"/>
-      <c r="G81" s="34" t="s">
+      <c r="F81" s="27" t="n"/>
+      <c r="G81" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="H81" s="61" t="n">
+      <c r="H81" s="58" t="n">
         <v>0.03</v>
       </c>
-      <c r="I81" s="37" t="n"/>
+      <c r="I81" s="34" t="n"/>
     </row>
     <row outlineLevel="0" r="82">
-      <c r="A82" s="29" t="n">
+      <c r="A82" s="26" t="n">
         <v>52</v>
       </c>
-      <c r="B82" s="28" t="n"/>
-      <c r="C82" s="95" t="s">
+      <c r="B82" s="25" t="n"/>
+      <c r="C82" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="D82" s="130" t="s"/>
-      <c r="E82" s="24" t="n">
+      <c r="D82" s="125" t="s"/>
+      <c r="E82" s="22" t="n">
         <v>57</v>
       </c>
-      <c r="F82" s="30" t="n"/>
-      <c r="G82" s="28" t="s">
+      <c r="F82" s="27" t="n"/>
+      <c r="G82" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="H82" s="131" t="s"/>
-      <c r="I82" s="37" t="n"/>
+      <c r="H82" s="126" t="s"/>
+      <c r="I82" s="34" t="n"/>
     </row>
     <row outlineLevel="0" r="83">
-      <c r="A83" s="29" t="n">
+      <c r="A83" s="26" t="n">
         <v>53</v>
       </c>
-      <c r="B83" s="28" t="n"/>
-      <c r="C83" s="15" t="s">
+      <c r="B83" s="25" t="n"/>
+      <c r="C83" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D83" s="61" t="n">
+      <c r="D83" s="58" t="n">
         <v>0.015</v>
       </c>
-      <c r="E83" s="22" t="n"/>
-      <c r="F83" s="23" t="n">
+      <c r="E83" s="20" t="n"/>
+      <c r="F83" s="21" t="n">
         <v>12</v>
       </c>
-      <c r="G83" s="21" t="s">
+      <c r="G83" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="H83" s="132" t="s"/>
+      <c r="H83" s="127" t="s"/>
       <c r="I83" s="1" t="n"/>
     </row>
     <row outlineLevel="0" r="84">
-      <c r="A84" s="29" t="n">
+      <c r="A84" s="26" t="n">
         <v>54</v>
       </c>
-      <c r="B84" s="28" t="n"/>
-      <c r="C84" s="15" t="s">
+      <c r="B84" s="25" t="n"/>
+      <c r="C84" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="D84" s="31" t="n">
+      <c r="D84" s="28" t="n">
         <v>0.01</v>
       </c>
-      <c r="E84" s="24" t="n">
+      <c r="E84" s="22" t="n">
         <v>58</v>
       </c>
-      <c r="F84" s="19" t="n"/>
-      <c r="G84" s="15" t="s">
+      <c r="F84" s="17" t="n"/>
+      <c r="G84" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="H84" s="25" t="n">
+      <c r="H84" s="23" t="n">
         <v>0.8</v>
       </c>
-      <c r="I84" s="26" t="n"/>
+      <c r="I84" s="24" t="n"/>
     </row>
     <row outlineLevel="0" r="85">
-      <c r="A85" s="19" t="n"/>
-      <c r="B85" s="23" t="n">
+      <c r="A85" s="17" t="n"/>
+      <c r="B85" s="21" t="n">
         <v>13</v>
       </c>
-      <c r="C85" s="21" t="s">
+      <c r="C85" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="D85" s="133" t="s"/>
-      <c r="E85" s="24" t="n">
+      <c r="D85" s="128" t="s"/>
+      <c r="E85" s="22" t="n">
         <v>59</v>
       </c>
-      <c r="F85" s="19" t="n"/>
-      <c r="G85" s="15" t="s">
+      <c r="F85" s="17" t="n"/>
+      <c r="G85" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="H85" s="25" t="n">
+      <c r="H85" s="23" t="n">
         <v>2.5</v>
       </c>
-      <c r="I85" s="26" t="n"/>
+      <c r="I85" s="24" t="n"/>
     </row>
     <row outlineLevel="0" r="86">
-      <c r="A86" s="29" t="n">
+      <c r="A86" s="26" t="n">
         <v>55</v>
       </c>
-      <c r="B86" s="28" t="n"/>
-      <c r="C86" s="15" t="s">
+      <c r="B86" s="25" t="n"/>
+      <c r="C86" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D86" s="134" t="s"/>
-      <c r="E86" s="24" t="n">
+      <c r="D86" s="129" t="s"/>
+      <c r="E86" s="22" t="n">
         <v>60</v>
       </c>
-      <c r="F86" s="19" t="n"/>
-      <c r="G86" s="15" t="s">
+      <c r="F86" s="17" t="n"/>
+      <c r="G86" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="H86" s="25" t="n">
+      <c r="H86" s="23" t="n">
         <v>0.5</v>
       </c>
-      <c r="I86" s="26" t="n"/>
+      <c r="I86" s="24" t="n"/>
     </row>
     <row outlineLevel="0" r="87">
-      <c r="A87" s="19" t="n"/>
-      <c r="B87" s="23" t="n">
+      <c r="A87" s="17" t="n"/>
+      <c r="B87" s="21" t="n">
         <v>14</v>
       </c>
-      <c r="C87" s="21" t="s">
+      <c r="C87" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="D87" s="135" t="s"/>
-      <c r="E87" s="22" t="n"/>
-      <c r="F87" s="23" t="n">
+      <c r="D87" s="130" t="s"/>
+      <c r="E87" s="20" t="n"/>
+      <c r="F87" s="21" t="n">
         <v>13</v>
       </c>
-      <c r="G87" s="21" t="s">
+      <c r="G87" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="H87" s="136" t="s"/>
+      <c r="H87" s="131" t="s"/>
     </row>
     <row outlineLevel="0" r="88">
-      <c r="A88" s="24" t="n">
+      <c r="A88" s="22" t="n">
         <v>56</v>
       </c>
-      <c r="B88" s="19" t="n"/>
-      <c r="C88" s="15" t="s">
+      <c r="B88" s="17" t="n"/>
+      <c r="C88" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="D88" s="25" t="n">
+      <c r="D88" s="23" t="n">
         <v>0.96</v>
       </c>
-      <c r="E88" s="29" t="n">
+      <c r="E88" s="26" t="n">
         <v>61</v>
       </c>
-      <c r="F88" s="30" t="n"/>
-      <c r="G88" s="34" t="s">
+      <c r="F88" s="27" t="n"/>
+      <c r="G88" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="H88" s="137" t="s"/>
+      <c r="H88" s="132" t="s"/>
     </row>
     <row outlineLevel="0" r="89">
-      <c r="A89" s="24" t="n">
+      <c r="A89" s="22" t="n">
         <v>57</v>
       </c>
-      <c r="B89" s="19" t="n"/>
-      <c r="C89" s="15" t="s">
+      <c r="B89" s="17" t="n"/>
+      <c r="C89" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="D89" s="138" t="n">
+      <c r="D89" s="133" t="n">
         <v>3</v>
       </c>
-      <c r="E89" s="139" t="n"/>
-      <c r="F89" s="19" t="n"/>
-      <c r="G89" s="87" t="s">
+      <c r="E89" s="134" t="n"/>
+      <c r="F89" s="17" t="n"/>
+      <c r="G89" s="82" t="s">
         <v>148</v>
       </c>
-      <c r="H89" s="140" t="s"/>
+      <c r="H89" s="135" t="s"/>
     </row>
     <row outlineLevel="0" r="90">
-      <c r="A90" s="24" t="n">
+      <c r="A90" s="22" t="n">
         <v>58</v>
       </c>
-      <c r="B90" s="19" t="n"/>
-      <c r="C90" s="15" t="s">
+      <c r="B90" s="17" t="n"/>
+      <c r="C90" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="D90" s="138" t="n">
+      <c r="D90" s="133" t="n">
         <v>0.6</v>
       </c>
-      <c r="E90" s="141" t="n"/>
-      <c r="F90" s="30" t="n"/>
-      <c r="G90" s="87" t="s">
+      <c r="E90" s="136" t="n"/>
+      <c r="F90" s="27" t="n"/>
+      <c r="G90" s="82" t="s">
         <v>149</v>
       </c>
-      <c r="H90" s="142" t="s"/>
+      <c r="H90" s="137" t="s"/>
     </row>
     <row outlineLevel="0" r="91">
-      <c r="A91" s="19" t="n"/>
-      <c r="B91" s="23" t="n">
+      <c r="A91" s="17" t="n"/>
+      <c r="B91" s="21" t="n">
         <v>13</v>
       </c>
-      <c r="C91" s="21" t="s">
+      <c r="C91" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="D91" s="143" t="n"/>
+      <c r="D91" s="138" t="n"/>
       <c r="E91" s="5" t="n"/>
-      <c r="F91" s="23" t="n">
+      <c r="F91" s="21" t="n">
         <v>12</v>
       </c>
-      <c r="G91" s="21" t="s">
+      <c r="G91" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="H91" s="144" t="s"/>
+      <c r="H91" s="139" t="s"/>
     </row>
     <row outlineLevel="0" r="92">
-      <c r="A92" s="24" t="n">
+      <c r="A92" s="22" t="n">
         <v>59</v>
       </c>
-      <c r="B92" s="28" t="n"/>
-      <c r="C92" s="15" t="s">
+      <c r="B92" s="25" t="n"/>
+      <c r="C92" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="D92" s="145" t="s"/>
-      <c r="E92" s="146" t="n"/>
-      <c r="F92" s="30" t="n"/>
-      <c r="G92" s="34" t="s">
+      <c r="D92" s="140" t="s"/>
+      <c r="E92" s="141" t="n"/>
+      <c r="F92" s="27" t="n"/>
+      <c r="G92" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="H92" s="147" t="s"/>
+      <c r="H92" s="142" t="s"/>
     </row>
     <row outlineLevel="0" r="93">
       <c r="C93" s="1" t="n"/>
@@ -5151,35 +5132,35 @@
       <c r="C94" s="1" t="n"/>
       <c r="D94" s="1" t="n"/>
       <c r="E94" s="0" t="n"/>
-      <c r="F94" s="148" t="n"/>
-      <c r="G94" s="148" t="n"/>
+      <c r="F94" s="143" t="n"/>
+      <c r="G94" s="143" t="n"/>
       <c r="I94" s="0" t="n"/>
     </row>
     <row outlineLevel="0" r="95">
       <c r="C95" s="1" t="n"/>
       <c r="D95" s="1" t="n"/>
       <c r="E95" s="0" t="n"/>
-      <c r="F95" s="148" t="n"/>
-      <c r="G95" s="148" t="n"/>
-      <c r="H95" s="148" t="n"/>
+      <c r="F95" s="143" t="n"/>
+      <c r="G95" s="143" t="n"/>
+      <c r="H95" s="143" t="n"/>
       <c r="I95" s="0" t="n"/>
     </row>
     <row outlineLevel="0" r="96">
       <c r="C96" s="1" t="n"/>
       <c r="D96" s="1" t="n"/>
       <c r="E96" s="0" t="n"/>
-      <c r="F96" s="148" t="n"/>
-      <c r="G96" s="148" t="n"/>
-      <c r="H96" s="148" t="n"/>
+      <c r="F96" s="143" t="n"/>
+      <c r="G96" s="143" t="n"/>
+      <c r="H96" s="143" t="n"/>
       <c r="I96" s="0" t="n"/>
     </row>
     <row outlineLevel="0" r="97">
       <c r="C97" s="1" t="n"/>
       <c r="D97" s="1" t="n"/>
       <c r="E97" s="0" t="n"/>
-      <c r="F97" s="148" t="n"/>
-      <c r="G97" s="148" t="n"/>
-      <c r="H97" s="148" t="n"/>
+      <c r="F97" s="143" t="n"/>
+      <c r="G97" s="143" t="n"/>
+      <c r="H97" s="143" t="n"/>
       <c r="I97" s="0" t="n"/>
     </row>
     <row outlineLevel="0" r="101">
